--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB498142-1BAB-4AE9-92FD-5FE2716850D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214CD26F-4661-4EEC-A0E1-11AB97746C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2160" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2160" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHW 25 - Stage 1" sheetId="1" r:id="rId1"/>
@@ -598,11 +598,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -943,7 +945,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -1322,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -1380,16 +1382,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -1482,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -1674,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -1924,16 +1926,16 @@
         <v>43</v>
       </c>
       <c r="B31" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E31" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -1988,16 +1990,16 @@
         <v>45</v>
       </c>
       <c r="B33" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7">
         <v>0</v>
@@ -2116,16 +2118,16 @@
         <v>49</v>
       </c>
       <c r="B37" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -2212,16 +2214,16 @@
         <v>52</v>
       </c>
       <c r="B40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="7">
         <v>0</v>
@@ -2346,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F44" s="7">
         <v>0</v>
@@ -2404,16 +2406,16 @@
         <v>58</v>
       </c>
       <c r="B46" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E46" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
@@ -2468,16 +2470,16 @@
         <v>60</v>
       </c>
       <c r="B48" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -2500,16 +2502,16 @@
         <v>61</v>
       </c>
       <c r="B49" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -2602,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
@@ -2756,16 +2758,16 @@
         <v>69</v>
       </c>
       <c r="B57" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E57" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -2858,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -3044,16 +3046,16 @@
         <v>78</v>
       </c>
       <c r="B66" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F66" s="7">
         <v>0</v>
@@ -3204,16 +3206,16 @@
         <v>83</v>
       </c>
       <c r="B71" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
       </c>
       <c r="D71" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E71" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -3524,16 +3526,16 @@
         <v>93</v>
       </c>
       <c r="B81" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81" s="7">
         <v>0</v>
       </c>
       <c r="D81" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -3626,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="D84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F84" s="7">
         <v>0</v>
@@ -4004,16 +4006,16 @@
         <v>108</v>
       </c>
       <c r="B96" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="7">
         <v>0</v>
       </c>
       <c r="D96" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E96" s="7">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
@@ -4228,16 +4230,16 @@
         <v>115</v>
       </c>
       <c r="B103" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C103" s="7">
         <v>0</v>
       </c>
       <c r="D103" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E103" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F103" s="7">
         <v>0</v>
@@ -4266,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E104" s="7">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F104" s="7">
         <v>0</v>
@@ -4682,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="D117" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F117" s="7">
         <v>0</v>
@@ -4708,16 +4710,16 @@
         <v>130</v>
       </c>
       <c r="B118" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C118" s="7">
         <v>0</v>
       </c>
       <c r="D118" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E118" s="7">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F118" s="7">
         <v>0</v>
@@ -4868,16 +4870,16 @@
         <v>135</v>
       </c>
       <c r="B123" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C123" s="7">
         <v>0</v>
       </c>
       <c r="D123" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E123" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F123" s="7">
         <v>0</v>
@@ -5124,16 +5126,16 @@
         <v>143</v>
       </c>
       <c r="B131" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="7">
         <v>0</v>
       </c>
       <c r="D131" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E131" s="7">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F131" s="7">
         <v>0</v>
@@ -5834,10 +5836,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F153" s="7">
         <v>0</v>
@@ -6020,16 +6022,16 @@
         <v>171</v>
       </c>
       <c r="B159" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C159" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D159" s="7">
         <v>0</v>
       </c>
       <c r="E159" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F159" s="7">
         <v>0</v>
@@ -6116,16 +6118,16 @@
         <v>174</v>
       </c>
       <c r="B162" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" s="7">
         <v>0</v>
       </c>
       <c r="D162" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E162" s="7">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F162" s="7">
         <v>0</v>
@@ -15428,7 +15430,11 @@
       <c r="J1000" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J165" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J165" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J165">
+      <sortCondition ref="A1:A165"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214CD26F-4661-4EEC-A0E1-11AB97746C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693CE175-E5A4-41FB-85E3-B2C1E67AB2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2160" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHW 25 - Stage 1" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <t>Quantum Bellator Fire</t>
   </si>
   <si>
-    <t>Reason Gaming</t>
-  </si>
-  <si>
     <t>Rebels</t>
   </si>
   <si>
@@ -484,12 +481,6 @@
     <t>TALON</t>
   </si>
   <si>
-    <t>Team Kinguin</t>
-  </si>
-  <si>
-    <t>Team Solid</t>
-  </si>
-  <si>
     <t>The Dice</t>
   </si>
   <si>
@@ -557,6 +548,15 @@
   </si>
   <si>
     <t>Wizards</t>
+  </si>
+  <si>
+    <t>Kinguin</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>Reason</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B122" s="7">
         <v>0</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B123" s="7">
         <v>10</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="7">
         <v>6</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="7">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" s="7">
         <v>0</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B127" s="7">
         <v>0</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B128" s="7">
         <v>0</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" s="7">
         <v>0</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" s="7">
         <v>0</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="7">
         <v>1</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="7">
         <v>3</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="7">
         <v>0</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" s="7">
         <v>0</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="7">
         <v>0</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" s="7">
         <v>0</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B137" s="7">
         <v>0</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B138" s="7">
         <v>0</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B139" s="7">
         <v>0</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B140" s="7">
         <v>0</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B141" s="7">
         <v>0</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B142" s="7">
         <v>0</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B143" s="7">
         <v>0</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B144" s="7">
         <v>0</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B145" s="7">
         <v>0</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B146" s="7">
         <v>10</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B147" s="7">
         <v>0</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B148" s="7">
         <v>0</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B149" s="7">
         <v>0</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B150" s="7">
         <v>0</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B151" s="7">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B152" s="7">
         <v>0</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B153" s="7">
         <v>0</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B154" s="7">
         <v>11</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B155" s="7">
         <v>0</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B156" s="7">
         <v>0</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B157" s="7">
         <v>0</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B158" s="7">
         <v>0</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B159" s="7">
         <v>8</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="160" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B160" s="7">
         <v>0</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B161" s="7">
         <v>0</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B162" s="7">
         <v>1</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B163" s="7">
         <v>0</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B164" s="7">
         <v>0</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B165" s="7">
         <v>3</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693CE175-E5A4-41FB-85E3-B2C1E67AB2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E0874E-B405-4083-B605-D23CAED46D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHW 25 - Stage 1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,6 +723,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,8 +950,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1100,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1164,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1222,16 +1228,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -1286,16 +1292,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -1452,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -1612,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -1638,16 +1644,16 @@
         <v>34</v>
       </c>
       <c r="B22" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -1804,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
@@ -1868,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F29" s="7">
         <v>0</v>
@@ -1894,16 +1900,16 @@
         <v>42</v>
       </c>
       <c r="B30" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E30" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -2310,16 +2316,16 @@
         <v>55</v>
       </c>
       <c r="B43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F43" s="7">
         <v>0</v>
@@ -2444,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
@@ -2956,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -3142,16 +3148,16 @@
         <v>81</v>
       </c>
       <c r="B69" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E69" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F69" s="7">
         <v>0</v>
@@ -3174,16 +3180,16 @@
         <v>82</v>
       </c>
       <c r="B70" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E70" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -3372,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -3458,104 +3464,104 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="7">
-        <v>0</v>
-      </c>
-      <c r="C79" s="7">
-        <v>0</v>
-      </c>
-      <c r="D79" s="7">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="7" t="s">
+      <c r="B80" s="7">
+        <v>0</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="7">
-        <v>0</v>
-      </c>
-      <c r="C80" s="7">
-        <v>0</v>
-      </c>
-      <c r="D80" s="7">
+      <c r="B81" s="7">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
         <v>1</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>-5</v>
       </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="7" t="s">
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B81" s="7">
-        <v>3</v>
-      </c>
-      <c r="C81" s="7">
-        <v>0</v>
-      </c>
-      <c r="D81" s="7">
-        <v>3</v>
-      </c>
-      <c r="E81" s="7">
-        <v>10</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="B82" s="7">
         <v>3</v>
@@ -3564,318 +3570,318 @@
         <v>0</v>
       </c>
       <c r="D82" s="7">
+        <v>3</v>
+      </c>
+      <c r="E82" s="7">
+        <v>10</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0</v>
+      </c>
+      <c r="D83" s="7">
         <v>4</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>5</v>
       </c>
-      <c r="F82" s="7">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="7" t="s">
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="7">
-        <v>0</v>
-      </c>
-      <c r="C83" s="7">
-        <v>0</v>
-      </c>
-      <c r="D83" s="7">
-        <v>0</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="7" t="s">
+      <c r="B84" s="7">
+        <v>0</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="7">
-        <v>0</v>
-      </c>
-      <c r="C84" s="7">
-        <v>0</v>
-      </c>
-      <c r="D84" s="7">
+      <c r="B85" s="7">
+        <v>0</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7">
         <v>1</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>-5</v>
       </c>
-      <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="7" t="s">
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B86" s="7">
         <v>8</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C86" s="7">
         <v>4</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="7">
         <v>2</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>63</v>
       </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J85" s="7" t="s">
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="7">
-        <v>0</v>
-      </c>
-      <c r="C86" s="7">
-        <v>0</v>
-      </c>
-      <c r="D86" s="7">
+      <c r="B87" s="7">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
         <v>1</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <v>-5</v>
       </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J86" s="7" t="s">
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="7">
-        <v>0</v>
-      </c>
-      <c r="C87" s="7">
-        <v>0</v>
-      </c>
-      <c r="D87" s="7">
-        <v>0</v>
-      </c>
-      <c r="E87" s="7">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="7" t="s">
+      <c r="B88" s="7">
+        <v>0</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B89" s="7">
         <v>3</v>
       </c>
-      <c r="C88" s="7">
-        <v>0</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="C89" s="7">
+        <v>0</v>
+      </c>
+      <c r="D89" s="7">
         <v>4</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="7">
         <v>7</v>
       </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="7">
-        <v>0</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" s="7" t="s">
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="7">
-        <v>0</v>
-      </c>
-      <c r="C89" s="7">
-        <v>0</v>
-      </c>
-      <c r="D89" s="7">
-        <v>0</v>
-      </c>
-      <c r="E89" s="7">
-        <v>0</v>
-      </c>
-      <c r="F89" s="7">
-        <v>0</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="7" t="s">
+      <c r="B90" s="7">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="7">
-        <v>0</v>
-      </c>
-      <c r="C90" s="7">
-        <v>0</v>
-      </c>
-      <c r="D90" s="7">
-        <v>0</v>
-      </c>
-      <c r="E90" s="7">
-        <v>0</v>
-      </c>
-      <c r="F90" s="7">
-        <v>0</v>
-      </c>
-      <c r="G90" s="7">
-        <v>0</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="7" t="s">
+      <c r="B91" s="7">
+        <v>0</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B91" s="7">
-        <v>0</v>
-      </c>
-      <c r="C91" s="7">
-        <v>0</v>
-      </c>
-      <c r="D91" s="7">
-        <v>0</v>
-      </c>
-      <c r="E91" s="7">
-        <v>0</v>
-      </c>
-      <c r="F91" s="7">
-        <v>0</v>
-      </c>
-      <c r="G91" s="7">
-        <v>0</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="B92" s="7">
         <v>4</v>
@@ -3884,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
@@ -3902,24 +3908,24 @@
         <v>11</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C93" s="7">
         <v>0</v>
       </c>
       <c r="D93" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E93" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -3938,8 +3944,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>106</v>
+      <c r="A94" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B94" s="7">
         <v>0</v>
@@ -3966,12 +3972,12 @@
         <v>11</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" s="7">
         <v>0</v>
@@ -4002,20 +4008,20 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>108</v>
+      <c r="A96" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B96" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="7">
         <v>0</v>
       </c>
       <c r="D96" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96" s="7">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
@@ -4030,24 +4036,24 @@
         <v>11</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="7">
         <v>0</v>
       </c>
       <c r="D97" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E97" s="7">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
@@ -4066,148 +4072,148 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0</v>
+      </c>
+      <c r="C98" s="7">
+        <v>0</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="7">
-        <v>0</v>
-      </c>
-      <c r="C98" s="7">
-        <v>0</v>
-      </c>
-      <c r="D98" s="7">
-        <v>0</v>
-      </c>
-      <c r="E98" s="7">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7">
-        <v>0</v>
-      </c>
-      <c r="H98" s="7">
-        <v>0</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J98" s="7" t="s">
+      <c r="B99" s="7">
+        <v>0</v>
+      </c>
+      <c r="C99" s="7">
+        <v>0</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="7">
-        <v>0</v>
-      </c>
-      <c r="C99" s="7">
-        <v>0</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="B100" s="7">
+        <v>0</v>
+      </c>
+      <c r="C100" s="7">
+        <v>0</v>
+      </c>
+      <c r="D100" s="7">
         <v>1</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E100" s="7">
         <v>-5</v>
       </c>
-      <c r="F99" s="7">
-        <v>0</v>
-      </c>
-      <c r="G99" s="7">
-        <v>0</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J99" s="7" t="s">
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="7">
-        <v>0</v>
-      </c>
-      <c r="C100" s="7">
-        <v>0</v>
-      </c>
-      <c r="D100" s="7">
-        <v>0</v>
-      </c>
-      <c r="E100" s="7">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7">
-        <v>0</v>
-      </c>
-      <c r="G100" s="7">
-        <v>0</v>
-      </c>
-      <c r="H100" s="7">
-        <v>0</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="7" t="s">
+      <c r="B101" s="7">
+        <v>8</v>
+      </c>
+      <c r="C101" s="7">
+        <v>3</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7">
+        <v>72</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" s="7">
-        <v>0</v>
-      </c>
-      <c r="C101" s="7">
-        <v>0</v>
-      </c>
-      <c r="D101" s="7">
-        <v>0</v>
-      </c>
-      <c r="E101" s="7">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>0</v>
-      </c>
-      <c r="G101" s="7">
-        <v>0</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C102" s="7">
         <v>0</v>
       </c>
       <c r="D102" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E102" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F102" s="7">
         <v>0</v>
@@ -4226,20 +4232,20 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>115</v>
+      <c r="A103" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B103" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C103" s="7">
         <v>0</v>
       </c>
       <c r="D103" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103" s="7">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F103" s="7">
         <v>0</v>
@@ -4254,24 +4260,24 @@
         <v>11</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
       </c>
       <c r="D104" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104" s="7">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="F104" s="7">
         <v>0</v>
@@ -4291,7 +4297,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="7">
         <v>0</v>
@@ -4300,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E105" s="7">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F105" s="7">
         <v>0</v>
@@ -4323,7 +4329,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="7">
         <v>0</v>
@@ -4354,8 +4360,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>119</v>
+      <c r="A107" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B107" s="7">
         <v>0</v>
@@ -4364,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="D107" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F107" s="7">
         <v>0</v>
@@ -4382,12 +4388,12 @@
         <v>11</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" s="7">
         <v>0</v>
@@ -4418,148 +4424,148 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="7">
+        <v>0</v>
+      </c>
+      <c r="C109" s="7">
+        <v>0</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="7">
-        <v>0</v>
-      </c>
-      <c r="C109" s="7">
-        <v>0</v>
-      </c>
-      <c r="D109" s="7">
-        <v>0</v>
-      </c>
-      <c r="E109" s="7">
-        <v>0</v>
-      </c>
-      <c r="F109" s="7">
-        <v>0</v>
-      </c>
-      <c r="G109" s="7">
-        <v>0</v>
-      </c>
-      <c r="H109" s="7">
-        <v>0</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J109" s="7" t="s">
+      <c r="B110" s="7">
+        <v>0</v>
+      </c>
+      <c r="C110" s="7">
+        <v>0</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B111" s="7">
         <v>8</v>
       </c>
-      <c r="C110" s="7">
-        <v>0</v>
-      </c>
-      <c r="D110" s="7">
+      <c r="C111" s="7">
+        <v>0</v>
+      </c>
+      <c r="D111" s="7">
         <v>6</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E111" s="7">
         <v>39</v>
       </c>
-      <c r="F110" s="7">
-        <v>0</v>
-      </c>
-      <c r="G110" s="7">
-        <v>0</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="7" t="s">
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="7">
-        <v>0</v>
-      </c>
-      <c r="C111" s="7">
-        <v>0</v>
-      </c>
-      <c r="D111" s="7">
-        <v>0</v>
-      </c>
-      <c r="E111" s="7">
-        <v>0</v>
-      </c>
-      <c r="F111" s="7">
-        <v>0</v>
-      </c>
-      <c r="G111" s="7">
-        <v>0</v>
-      </c>
-      <c r="H111" s="7">
-        <v>0</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J111" s="7" t="s">
+      <c r="B112" s="7">
+        <v>11</v>
+      </c>
+      <c r="C112" s="7">
+        <v>0</v>
+      </c>
+      <c r="D112" s="7">
+        <v>9</v>
+      </c>
+      <c r="E112" s="7">
+        <v>48</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" s="7">
-        <v>7</v>
-      </c>
-      <c r="C112" s="7">
-        <v>0</v>
-      </c>
-      <c r="D112" s="7">
-        <v>6</v>
-      </c>
-      <c r="E112" s="7">
-        <v>33</v>
-      </c>
-      <c r="F112" s="7">
-        <v>0</v>
-      </c>
-      <c r="G112" s="7">
-        <v>0</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C113" s="7">
         <v>0</v>
       </c>
       <c r="D113" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E113" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F113" s="7">
         <v>0</v>
@@ -4578,8 +4584,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>126</v>
+      <c r="A114" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B114" s="7">
         <v>0</v>
@@ -4606,12 +4612,12 @@
         <v>11</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115" s="7">
         <v>0</v>
@@ -4620,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="D115" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F115" s="7">
         <v>0</v>
@@ -4642,8 +4648,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>128</v>
+      <c r="A116" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B116" s="7">
         <v>0</v>
@@ -4670,24 +4676,24 @@
         <v>11</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C117" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D117" s="7">
         <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>-5</v>
+        <v>72</v>
       </c>
       <c r="F117" s="7">
         <v>0</v>
@@ -4706,20 +4712,20 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>130</v>
+      <c r="A118" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B118" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" s="7">
         <v>0</v>
       </c>
       <c r="D118" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F118" s="7">
         <v>0</v>
@@ -4734,24 +4740,24 @@
         <v>11</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119" s="7">
         <v>0</v>
       </c>
       <c r="D119" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E119" s="7">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F119" s="7">
         <v>0</v>
@@ -4770,8 +4776,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
-        <v>132</v>
+      <c r="A120" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B120" s="7">
         <v>0</v>
@@ -4780,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F120" s="7">
         <v>0</v>
@@ -4798,12 +4804,12 @@
         <v>11</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="7">
         <v>0</v>
@@ -4834,8 +4840,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>177</v>
+      <c r="A122" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B122" s="7">
         <v>0</v>
@@ -4862,24 +4868,24 @@
         <v>11</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B123" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C123" s="7">
         <v>0</v>
       </c>
       <c r="D123" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E123" s="7">
-        <v>54</v>
+        <v>-15</v>
       </c>
       <c r="F123" s="7">
         <v>0</v>
@@ -4898,20 +4904,20 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
-        <v>135</v>
+      <c r="A124" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B124" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C124" s="7">
         <v>0</v>
       </c>
       <c r="D124" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E124" s="7">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F124" s="7">
         <v>0</v>
@@ -4926,24 +4932,24 @@
         <v>11</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C125" s="7">
         <v>0</v>
       </c>
       <c r="D125" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E125" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F125" s="7">
         <v>0</v>
@@ -4962,8 +4968,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
-        <v>137</v>
+      <c r="A126" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B126" s="7">
         <v>0</v>
@@ -4972,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F126" s="7">
         <v>0</v>
@@ -4990,12 +4996,12 @@
         <v>11</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" s="7">
         <v>0</v>
@@ -5026,40 +5032,40 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="7">
+        <v>0</v>
+      </c>
+      <c r="C128" s="7">
+        <v>0</v>
+      </c>
+      <c r="D128" s="7">
+        <v>1</v>
+      </c>
+      <c r="E128" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0</v>
+      </c>
+      <c r="G128" s="7">
+        <v>0</v>
+      </c>
+      <c r="H128" s="7">
+        <v>0</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B128" s="7">
-        <v>0</v>
-      </c>
-      <c r="C128" s="7">
-        <v>0</v>
-      </c>
-      <c r="D128" s="7">
-        <v>0</v>
-      </c>
-      <c r="E128" s="7">
-        <v>0</v>
-      </c>
-      <c r="F128" s="7">
-        <v>0</v>
-      </c>
-      <c r="G128" s="7">
-        <v>0</v>
-      </c>
-      <c r="H128" s="7">
-        <v>0</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="B129" s="7">
         <v>0</v>
@@ -5086,56 +5092,56 @@
         <v>11</v>
       </c>
       <c r="J129" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="7">
+        <v>0</v>
+      </c>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0</v>
+      </c>
+      <c r="G130" s="7">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" s="7">
-        <v>0</v>
-      </c>
-      <c r="C130" s="7">
-        <v>0</v>
-      </c>
-      <c r="D130" s="7">
-        <v>0</v>
-      </c>
-      <c r="E130" s="7">
-        <v>0</v>
-      </c>
-      <c r="F130" s="7">
-        <v>0</v>
-      </c>
-      <c r="G130" s="7">
-        <v>0</v>
-      </c>
-      <c r="H130" s="7">
-        <v>0</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="7">
         <v>0</v>
       </c>
       <c r="D131" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E131" s="7">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="F131" s="7">
         <v>0</v>
@@ -5155,10 +5161,10 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132" s="7">
         <v>0</v>
@@ -5167,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="7">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="F132" s="7">
         <v>0</v>
@@ -5187,19 +5193,19 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C133" s="7">
         <v>0</v>
       </c>
       <c r="D133" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E133" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F133" s="7">
         <v>0</v>
@@ -5218,291 +5224,291 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="7">
+        <v>0</v>
+      </c>
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0</v>
+      </c>
+      <c r="G134" s="7">
+        <v>0</v>
+      </c>
+      <c r="H134" s="7">
+        <v>0</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="7">
-        <v>0</v>
-      </c>
-      <c r="C134" s="7">
-        <v>0</v>
-      </c>
-      <c r="D134" s="7">
-        <v>0</v>
-      </c>
-      <c r="E134" s="7">
-        <v>0</v>
-      </c>
-      <c r="F134" s="7">
-        <v>0</v>
-      </c>
-      <c r="G134" s="7">
-        <v>0</v>
-      </c>
-      <c r="H134" s="7">
-        <v>0</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J134" s="7" t="s">
+      <c r="B135" s="7">
+        <v>0</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+      <c r="E135" s="7">
+        <v>0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>0</v>
+      </c>
+      <c r="G135" s="7">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
+    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" s="7">
+        <v>4</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="7">
+        <v>4</v>
+      </c>
+      <c r="E136" s="7">
+        <v>15</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
+      <c r="G136" s="7">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7">
+        <v>0</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B135" s="7">
-        <v>0</v>
-      </c>
-      <c r="C135" s="7">
-        <v>0</v>
-      </c>
-      <c r="D135" s="7">
-        <v>0</v>
-      </c>
-      <c r="E135" s="7">
-        <v>0</v>
-      </c>
-      <c r="F135" s="7">
-        <v>0</v>
-      </c>
-      <c r="G135" s="7">
-        <v>0</v>
-      </c>
-      <c r="H135" s="7">
-        <v>0</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" s="7" t="s">
+      <c r="B137" s="7">
+        <v>0</v>
+      </c>
+      <c r="C137" s="7">
+        <v>0</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
+      <c r="G137" s="7">
+        <v>0</v>
+      </c>
+      <c r="H137" s="7">
+        <v>0</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
+    <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="7">
-        <v>0</v>
-      </c>
-      <c r="C136" s="7">
-        <v>0</v>
-      </c>
-      <c r="D136" s="7">
-        <v>0</v>
-      </c>
-      <c r="E136" s="7">
-        <v>0</v>
-      </c>
-      <c r="F136" s="7">
-        <v>0</v>
-      </c>
-      <c r="G136" s="7">
-        <v>0</v>
-      </c>
-      <c r="H136" s="7">
-        <v>0</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" s="7" t="s">
+      <c r="B138" s="7">
+        <v>7</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0</v>
+      </c>
+      <c r="D138" s="7">
+        <v>2</v>
+      </c>
+      <c r="E138" s="7">
+        <v>55</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0</v>
+      </c>
+      <c r="G138" s="7">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7">
+        <v>0</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
+    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B137" s="7">
-        <v>0</v>
-      </c>
-      <c r="C137" s="7">
-        <v>0</v>
-      </c>
-      <c r="D137" s="7">
-        <v>0</v>
-      </c>
-      <c r="E137" s="7">
-        <v>0</v>
-      </c>
-      <c r="F137" s="7">
-        <v>0</v>
-      </c>
-      <c r="G137" s="7">
-        <v>0</v>
-      </c>
-      <c r="H137" s="7">
-        <v>0</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J137" s="7" t="s">
+      <c r="B139" s="7">
+        <v>4</v>
+      </c>
+      <c r="C139" s="7">
+        <v>0</v>
+      </c>
+      <c r="D139" s="7">
+        <v>5</v>
+      </c>
+      <c r="E139" s="7">
+        <v>8</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0</v>
+      </c>
+      <c r="G139" s="7">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
+    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="7">
-        <v>0</v>
-      </c>
-      <c r="C138" s="7">
-        <v>0</v>
-      </c>
-      <c r="D138" s="7">
-        <v>0</v>
-      </c>
-      <c r="E138" s="7">
-        <v>0</v>
-      </c>
-      <c r="F138" s="7">
-        <v>0</v>
-      </c>
-      <c r="G138" s="7">
-        <v>0</v>
-      </c>
-      <c r="H138" s="7">
-        <v>0</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" s="7" t="s">
+      <c r="B140" s="7">
+        <v>0</v>
+      </c>
+      <c r="C140" s="7">
+        <v>0</v>
+      </c>
+      <c r="D140" s="7">
+        <v>0</v>
+      </c>
+      <c r="E140" s="7">
+        <v>0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0</v>
+      </c>
+      <c r="G140" s="7">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
+    <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B139" s="7">
-        <v>0</v>
-      </c>
-      <c r="C139" s="7">
-        <v>0</v>
-      </c>
-      <c r="D139" s="7">
-        <v>0</v>
-      </c>
-      <c r="E139" s="7">
-        <v>0</v>
-      </c>
-      <c r="F139" s="7">
-        <v>0</v>
-      </c>
-      <c r="G139" s="7">
-        <v>0</v>
-      </c>
-      <c r="H139" s="7">
-        <v>0</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J139" s="7" t="s">
+      <c r="B141" s="7">
+        <v>2</v>
+      </c>
+      <c r="C141" s="7">
+        <v>0</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4</v>
+      </c>
+      <c r="E141" s="7">
+        <v>-4</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
+      <c r="G141" s="7">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
+    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="7">
-        <v>0</v>
-      </c>
-      <c r="C140" s="7">
-        <v>0</v>
-      </c>
-      <c r="D140" s="7">
-        <v>0</v>
-      </c>
-      <c r="E140" s="7">
-        <v>0</v>
-      </c>
-      <c r="F140" s="7">
-        <v>0</v>
-      </c>
-      <c r="G140" s="7">
-        <v>0</v>
-      </c>
-      <c r="H140" s="7">
-        <v>0</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J140" s="7" t="s">
+      <c r="B142" s="7">
+        <v>9</v>
+      </c>
+      <c r="C142" s="7">
+        <v>0</v>
+      </c>
+      <c r="D142" s="7">
+        <v>8</v>
+      </c>
+      <c r="E142" s="7">
+        <v>41</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0</v>
+      </c>
+      <c r="G142" s="7">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B141" s="7">
-        <v>0</v>
-      </c>
-      <c r="C141" s="7">
-        <v>0</v>
-      </c>
-      <c r="D141" s="7">
-        <v>0</v>
-      </c>
-      <c r="E141" s="7">
-        <v>0</v>
-      </c>
-      <c r="F141" s="7">
-        <v>0</v>
-      </c>
-      <c r="G141" s="7">
-        <v>0</v>
-      </c>
-      <c r="H141" s="7">
-        <v>0</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" s="7">
-        <v>0</v>
-      </c>
-      <c r="C142" s="7">
-        <v>0</v>
-      </c>
-      <c r="D142" s="7">
-        <v>0</v>
-      </c>
-      <c r="E142" s="7">
-        <v>0</v>
-      </c>
-      <c r="F142" s="7">
-        <v>0</v>
-      </c>
-      <c r="G142" s="7">
-        <v>0</v>
-      </c>
-      <c r="H142" s="7">
-        <v>0</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5516,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="D143" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F143" s="7">
         <v>0</v>
@@ -5574,16 +5580,16 @@
         <v>154</v>
       </c>
       <c r="B145" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C145" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D145" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E145" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F145" s="7">
         <v>0</v>
@@ -5644,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F147" s="7">
         <v>0</v>
@@ -5670,13 +5676,13 @@
         <v>157</v>
       </c>
       <c r="B148" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C148" s="7">
         <v>0</v>
       </c>
       <c r="D148" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E148" s="7">
         <v>0</v>
@@ -5734,16 +5740,16 @@
         <v>159</v>
       </c>
       <c r="B150" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C150" s="7">
         <v>0</v>
       </c>
       <c r="D150" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E150" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F150" s="7">
         <v>0</v>
@@ -5766,16 +5772,16 @@
         <v>160</v>
       </c>
       <c r="B151" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C151" s="7">
         <v>0</v>
       </c>
       <c r="D151" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E151" s="7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F151" s="7">
         <v>0</v>
@@ -5804,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F152" s="7">
         <v>0</v>
@@ -5964,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F157" s="7">
         <v>0</v>
@@ -5990,16 +5996,16 @@
         <v>167</v>
       </c>
       <c r="B158" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C158" s="7">
         <v>0</v>
       </c>
       <c r="D158" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E158" s="7">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F158" s="7">
         <v>0</v>
@@ -6086,16 +6092,16 @@
         <v>170</v>
       </c>
       <c r="B161" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C161" s="7">
         <v>0</v>
       </c>
       <c r="D161" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E161" s="7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F161" s="7">
         <v>0</v>
@@ -6188,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="D164" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F164" s="7">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E0874E-B405-4083-B605-D23CAED46D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA67413-CB0B-431D-9A1B-ED605FEF1C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15525" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="1440" windowWidth="16185" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHW 25 - Stage 1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,12 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +945,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F165"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3692,16 +3686,16 @@
         <v>97</v>
       </c>
       <c r="B86" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" s="7">
         <v>2</v>
       </c>
       <c r="E86" s="7">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F86" s="7">
         <v>0</v>
@@ -4175,13 +4169,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D101" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="7">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F101" s="7">
         <v>0</v>
@@ -4687,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D117" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="7">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F117" s="7">
         <v>0</v>
@@ -5448,7 +5442,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B141" s="7">
@@ -5480,7 +5474,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B142" s="7">
@@ -5580,16 +5574,16 @@
         <v>154</v>
       </c>
       <c r="B145" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C145" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D145" s="7">
         <v>6</v>
       </c>
       <c r="E145" s="7">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F145" s="7">
         <v>0</v>
@@ -5612,16 +5606,16 @@
         <v>155</v>
       </c>
       <c r="B146" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C146" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146" s="7">
         <v>7</v>
       </c>
       <c r="E146" s="7">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F146" s="7">
         <v>0</v>
@@ -6031,13 +6025,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D159" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" s="7">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F159" s="7">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA67413-CB0B-431D-9A1B-ED605FEF1C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E7BE5D-5AB4-4AD0-8D21-4E9B99F54CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="1440" windowWidth="16185" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16185" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHW 25 - Stage 1" sheetId="1" r:id="rId1"/>
@@ -945,7 +945,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2409,13 +2409,13 @@
         <v>13</v>
       </c>
       <c r="C46" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" s="7">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
@@ -3270,16 +3270,16 @@
         <v>85</v>
       </c>
       <c r="B73" s="7">
+        <v>9</v>
+      </c>
+      <c r="C73" s="7">
         <v>8</v>
-      </c>
-      <c r="C73" s="7">
-        <v>7</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
       </c>
       <c r="E73" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1152,19 +1152,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>00 Nation</v>
+        <v>OG</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1196,19 +1196,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>100 Thieves</v>
+        <v>FaZe</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J19" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K19" t="str">
         <v>none</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v/>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1240,19 +1240,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>3DMAX</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v/>
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1284,19 +1284,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>9Pandas</v>
+        <v>Heroic</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J21" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K21" t="str">
         <v>none</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v/>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1328,19 +1328,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>ad hoc</v>
+        <v>Vitality</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J22" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K22" t="str">
         <v>none</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1372,19 +1372,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Aether</v>
+        <v>Nexus</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J23" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K23" t="str">
         <v>none</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v/>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1416,19 +1416,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Alliance</v>
+        <v>Wildcard</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J24" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K24" t="str">
         <v>none</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1460,19 +1460,19 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>AMKAL</v>
+        <v>Cloud9</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J25" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K25" t="str">
         <v>none</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v/>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1504,19 +1504,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Aravt</v>
+        <v>Rebels</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J26" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K26" t="str">
         <v>none</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v/>
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1548,19 +1548,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>ARCRED</v>
+        <v>Astralis</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J27" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K27" t="str">
         <v>none</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v/>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1592,19 +1592,19 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Astana Dragons</v>
+        <v>ShindeN</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J28" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K28" t="str">
         <v>none</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1636,19 +1636,19 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Astralis</v>
+        <v>Permitta</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <v/>
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Astralis Talent</v>
+        <v>ENCE</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v/>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1724,19 +1724,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>ATOX</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J31" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K31" t="str">
         <v>none</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -1768,19 +1768,19 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Aurora</v>
+        <v>G2</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Avangar</v>
+        <v>Eternal Fire</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <v/>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>B8</v>
+        <v>00 Nation</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J34" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K34" t="str">
         <v>none</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>BC.Game</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>BESTIA</v>
+        <v>9Pandas</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J36" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K36" t="str">
         <v>none</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>BIG</v>
+        <v>ad hoc</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J37" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K37" t="str">
         <v>none</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>BIG Academy</v>
+        <v>Aether</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Bravado</v>
+        <v>Alliance</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J39" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K39" t="str">
         <v>none</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Carnival</v>
+        <v>AMKAL</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J40" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K40" t="str">
         <v>none</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>CatEvil</v>
+        <v>Aravt</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J41" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K41" t="str">
         <v>none</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Chinggis Warrios</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J42" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K42" t="str">
         <v>none</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Cloud9</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Copenhagen Flames</v>
+        <v>ATOX</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J44" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K44" t="str">
         <v>none</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>Avangar</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J45" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K45" t="str">
         <v>none</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Counter Logic Games</v>
+        <v>B8</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Dignitas</v>
+        <v>BC.Game</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J47" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K47" t="str">
         <v>none</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>ENCE</v>
+        <v>BESTIA</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J48" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K48" t="str">
         <v>none</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>ENCE Academy</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J49" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K49" t="str">
         <v>none</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Entropiq</v>
+        <v>Bravado</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J50" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K50" t="str">
         <v>none</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Envy</v>
+        <v>Carnival</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J51" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K51" t="str">
         <v>none</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>ESC</v>
+        <v>CatEvil</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Eternal Fire</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J53" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K53" t="str">
         <v>none</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Evil Geniuses</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Falcons</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J55" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K55" t="str">
         <v>none</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>FaZe</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Flash</v>
+        <v>Entropiq</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J57" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K57" t="str">
         <v>none</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>ESC</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>FlyQuest</v>
+        <v>Evil Geniuses</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>FlyQuest RED</v>
+        <v>Flash</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Fnatic</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>FORZE</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J62" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K62" t="str">
         <v>none</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>G2</v>
+        <v>Fnatic</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Galorys</v>
+        <v>FORZE</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J64" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K64" t="str">
         <v>none</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>GamerLegion</v>
+        <v>GATERON</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>GATERON</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>GhoulsW</v>
+        <v>Gods Reign</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Gods Reign</v>
+        <v>HAVU</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>HAVU</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Heroic</v>
+        <v>Hesta</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J71" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K71" t="str">
         <v>none</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Heroic Academy</v>
+        <v>Homyno</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J72" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K72" t="str">
         <v>none</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Hesta</v>
+        <v>hoorai</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J73" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K73" t="str">
         <v>none</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Homyno</v>
+        <v>Immortals</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>hoorai</v>
+        <v>inSanitY</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>iBUYPOWER</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Immortals</v>
+        <v>Kinguin</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>inSanitY</v>
+        <v>kONO</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J78" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K78" t="str">
         <v>none</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Into the Beach</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J79" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K79" t="str">
         <v>none</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Kinguin</v>
+        <v>Lynn Vision</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>kONO</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>LDLC</v>
+        <v>MANA</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>LGB eSports</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Limitless</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Lynn Vision</v>
+        <v>Misfits</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MAD Lions</v>
+        <v>mousesports</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>MANA</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>MenaceGG</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>MIBR Academy</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Misfits</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>mousesports</v>
+        <v>Nemiga</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>MOUZ</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MOUZ NXT</v>
+        <v>NomadS</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Movistar KOI</v>
+        <v>Nordix</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Natus Vincere</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J95" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K95" t="str">
         <v>none</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>NAVI Junior</v>
+        <v>ODDIK</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Nemiga</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Nexus</v>
+        <v>Outsiders</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ninjas in Pyjamas</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J99" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K99" t="str">
         <v>none</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>NIP Impact</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J100" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K100" t="str">
         <v>none</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>NomadS</v>
+        <v>Qiang</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Nordix</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>NOVAQ</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>ODDIK</v>
+        <v>Reason</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J104" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K104" t="str">
         <v>none</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>OG</v>
+        <v>Red Viperz</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J105" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K105" t="str">
         <v>none</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Onyx Ravens</v>
+        <v>Rogue</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Outsiders</v>
+        <v>Sangal</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J107" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K107" t="str">
         <v>none</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>paiN Academy</v>
+        <v>SAW</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J108" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K108" t="str">
         <v>none</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>PARIVISION</v>
+        <v>Shika</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Passion UA</v>
+        <v>Skinvault</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Permitta</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Qiang</v>
+        <v>Solid</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J112" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K112" t="str">
         <v>none</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>QMISTRY</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J113" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K113" t="str">
         <v>none</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>Spirit</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Reason</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J115" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K115" t="str">
         <v>none</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Rebels</v>
+        <v>Sprout</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J116" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K116" t="str">
         <v>none</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Red Viperz</v>
+        <v>Take Flyte</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Rogue</v>
+        <v>TALON</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Sangal</v>
+        <v>The Dice</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>SAW</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J120" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K120" t="str">
         <v>none</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Shika</v>
+        <v>Tricked</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J121" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K121" t="str">
         <v>none</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>ShindeN</v>
+        <v>True Rippers</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Skinvault</v>
+        <v>Tsunami</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>SKYFURY</v>
+        <v>TYLOO</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J124" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K124" t="str">
         <v>none</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Solid</v>
+        <v>Underground</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J125" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K125" t="str">
         <v>none</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Space Soldiers</v>
+        <v>Vantage</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J126" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K126" t="str">
         <v>none</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Spirit</v>
+        <v>VeryGames</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J127" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K127" t="str">
         <v>none</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Spirit Academy</v>
+        <v>Victores Sumus</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Sprout</v>
+        <v>Virtus.pro</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J129" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K129" t="str">
         <v>none</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Take Flyte</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J130" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K130" t="str">
         <v>none</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>TALON</v>
+        <v>VP.Prodigy</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>The Dice</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J132" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K132" t="str">
         <v>none</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>The MongolZ</v>
+        <v>Wings Up</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Tricked</v>
+        <v>3DMAX</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6265,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
-        <v/>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>True Rippers</v>
+        <v>Falcons</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6309,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="str">
-        <v/>
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Tsunami</v>
+        <v>Dignitas</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J136" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K136" t="str">
         <v>none</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
-        <v/>
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>TYLOO</v>
+        <v>Venom</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6397,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J137" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K137" t="str">
         <v>none</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="str">
-        <v/>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Underground</v>
+        <v>MOUZ</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
-        <v/>
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Vantage</v>
+        <v>Aurora</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6485,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
-        <v/>
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Venom</v>
+        <v>ARCRED</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J140" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K140" t="str">
         <v>none</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
-        <v/>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>VeryGames</v>
+        <v>LDLC</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6573,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J141" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K141" t="str">
         <v>none</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="str">
-        <v/>
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Victores Sumus</v>
+        <v>GamerLegion</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6617,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J142" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K142" t="str">
         <v>none</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="str">
-        <v/>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Virtus.pro</v>
+        <v>Passion UA</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="str">
-        <v/>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Vitality</v>
+        <v>FlyQuest</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6705,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J144" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K144" t="str">
         <v>none</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="str">
-        <v/>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Vox Eminor</v>
+        <v>Envy</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6749,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6767,7 +6767,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J145" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K145" t="str">
         <v>none</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
-        <v/>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>VP.Prodigy</v>
+        <v>BIG</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J146" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K146" t="str">
         <v>none</v>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="str">
-        <v/>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Wildcard</v>
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6837,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J147" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K147" t="str">
         <v>none</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
-        <v/>
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Wildcard Academy</v>
+        <v>Limitless</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="str">
-        <v/>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Wings Up</v>
+        <v>Galorys</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6925,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J149" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K149" t="str">
         <v>none</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="str">
-        <v/>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N149">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1856,19 +1856,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>00 Nation</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J34" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K34" t="str">
         <v>none</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="str">
-        <v/>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>100 Thieves</v>
+        <v>Nemiga</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="str">
-        <v/>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -1944,19 +1944,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>9Pandas</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="str">
-        <v/>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -1988,19 +1988,19 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ad hoc</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="str">
-        <v/>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Aether</v>
+        <v>Alliance</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="str">
-        <v/>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2076,19 +2076,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Alliance</v>
+        <v>TALON</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J39" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K39" t="str">
         <v>none</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="str">
-        <v/>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>AMKAL</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J40" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K40" t="str">
         <v>none</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <v/>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2164,19 +2164,19 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Aravt</v>
+        <v>Virtus.pro</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="str">
-        <v/>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Astana Dragons</v>
+        <v>Take Flyte</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J42" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K42" t="str">
         <v>none</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <v/>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2252,19 +2252,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Astralis Talent</v>
+        <v>Spirit</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J43" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K43" t="str">
         <v>none</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <v/>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2296,19 +2296,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ATOX</v>
+        <v>Aravt</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="str">
-        <v/>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2340,19 +2340,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Avangar</v>
+        <v>BESTIA</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J45" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K45" t="str">
         <v>none</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <v/>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2384,19 +2384,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>B8</v>
+        <v>VP.Prodigy</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J46" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K46" t="str">
         <v>none</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="str">
-        <v/>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2428,19 +2428,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>BC.Game</v>
+        <v>Solid</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J47" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K47" t="str">
         <v>none</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="str">
-        <v/>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2472,19 +2472,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>BESTIA</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J48" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K48" t="str">
         <v>none</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <v/>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2516,19 +2516,19 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>BIG Academy</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J49" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K49" t="str">
         <v>none</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="str">
-        <v/>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2560,19 +2560,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Bravado</v>
+        <v>True Rippers</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="str">
-        <v/>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -2604,19 +2604,19 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Carnival</v>
+        <v>Underground</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J51" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K51" t="str">
         <v>none</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <v/>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -2648,19 +2648,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>CatEvil</v>
+        <v>TYLOO</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J52" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K52" t="str">
         <v>none</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="str">
-        <v/>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Chinggis Warrios</v>
+        <v>Homyno</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J53" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K53" t="str">
         <v>none</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="str">
-        <v/>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -2736,19 +2736,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <v/>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2780,19 +2780,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Counter Logic Games</v>
+        <v>hoorai</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J55" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K55" t="str">
         <v>none</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="str">
-        <v/>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -2824,19 +2824,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>ENCE Academy</v>
+        <v>Entropiq</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J56" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K56" t="str">
         <v>none</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="str">
-        <v/>
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -2868,19 +2868,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Entropiq</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J57" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K57" t="str">
         <v>none</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <v/>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>ESC</v>
+        <v>00 Nation</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Evil Geniuses</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Flash</v>
+        <v>Aether</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J60" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K60" t="str">
         <v>none</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>AMKAL</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J61" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K61" t="str">
         <v>none</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>FlyQuest RED</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Fnatic</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>FORZE</v>
+        <v>Avangar</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Gambit</v>
+        <v>B8</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J65" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K65" t="str">
         <v>none</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>GATERON</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>GhoulsW</v>
+        <v>Bravado</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Gods Reign</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>HAVU</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J69" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K69" t="str">
         <v>none</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Heroic Academy</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Hesta</v>
+        <v>ESC</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J71" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K71" t="str">
         <v>none</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Homyno</v>
+        <v>Flash</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J72" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K72" t="str">
         <v>none</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>hoorai</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Immortals</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J74" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K74" t="str">
         <v>none</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>inSanitY</v>
+        <v>Fnatic</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Into the Beach</v>
+        <v>FORZE</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Kinguin</v>
+        <v>Gambit</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>kONO</v>
+        <v>GATERON</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>LGB eSports</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J79" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K79" t="str">
         <v>none</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Lynn Vision</v>
+        <v>HAVU</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>MAD Lions</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J81" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K81" t="str">
         <v>none</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>MANA</v>
+        <v>Hesta</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>MenaceGG</v>
+        <v>Immortals</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J83" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K83" t="str">
         <v>none</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>MIBR Academy</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Misfits</v>
+        <v>Kinguin</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J85" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K85" t="str">
         <v>none</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>mousesports</v>
+        <v>kONO</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>MOUZ NXT</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Movistar KOI</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Natus Vincere</v>
+        <v>MANA</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>NAVI Junior</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J90" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K90" t="str">
         <v>none</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Nemiga</v>
+        <v>Misfits</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>NIP Impact</v>
+        <v>mousesports</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J92" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K92" t="str">
         <v>none</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>NomadS</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Nordix</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>NOVAQ</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J95" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K95" t="str">
         <v>none</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>ODDIK</v>
+        <v>Nordix</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Onyx Ravens</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Outsiders</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J98" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K98" t="str">
         <v>none</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>paiN Academy</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J99" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K99" t="str">
         <v>none</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>PARIVISION</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Qiang</v>
+        <v>Rogue</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J101" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K101" t="str">
         <v>none</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>QMISTRY</v>
+        <v>Shika</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J103" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K103" t="str">
         <v>none</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Reason</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J104" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K104" t="str">
         <v>none</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Red Viperz</v>
+        <v>Sprout</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Rogue</v>
+        <v>Tsunami</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Sangal</v>
+        <v>VeryGames</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J107" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K107" t="str">
         <v>none</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>SAW</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J108" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K108" t="str">
         <v>none</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Shika</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J109" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K109" t="str">
         <v>none</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Skinvault</v>
+        <v>ad hoc</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5209,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <v/>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>SKYFURY</v>
+        <v>Reason</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5253,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <v/>
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Solid</v>
+        <v>SAW</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5297,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J112" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K112" t="str">
         <v>none</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="str">
-        <v/>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Space Soldiers</v>
+        <v>NomadS</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J113" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K113" t="str">
         <v>none</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
-        <v/>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Spirit</v>
+        <v>Outsiders</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5385,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J114" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K114" t="str">
         <v>none</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="str">
-        <v/>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Spirit Academy</v>
+        <v>Red Viperz</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5429,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J115" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K115" t="str">
         <v>none</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="str">
-        <v/>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Sprout</v>
+        <v>The Dice</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J116" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K116" t="str">
         <v>none</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
-        <v/>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Take Flyte</v>
+        <v>Victores Sumus</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J117" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K117" t="str">
         <v>none</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="str">
-        <v/>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>TALON</v>
+        <v>ODDIK</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J118" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K118" t="str">
         <v>none</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
-        <v/>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>The Dice</v>
+        <v>Qiang</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J119" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K119" t="str">
         <v>none</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
-        <v/>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>The MongolZ</v>
+        <v>inSanitY</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J120" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K120" t="str">
         <v>none</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
-        <v/>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Tricked</v>
+        <v>Sangal</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J121" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K121" t="str">
         <v>none</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="str">
-        <v/>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>True Rippers</v>
+        <v>9Pandas</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
-        <v/>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Tsunami</v>
+        <v>Gods Reign</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5781,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J123" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K123" t="str">
         <v>none</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="str">
-        <v/>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>TYLOO</v>
+        <v>CatEvil</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J124" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K124" t="str">
         <v>none</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="str">
-        <v/>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Underground</v>
+        <v>Carnival</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J125" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K125" t="str">
         <v>none</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
-        <v/>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Vantage</v>
+        <v>Evil Geniuses</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5913,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
-        <v/>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>VeryGames</v>
+        <v>Vantage</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J127" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K127" t="str">
         <v>none</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
-        <v/>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Victores Sumus</v>
+        <v>ATOX</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6001,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="str">
-        <v/>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Virtus.pro</v>
+        <v>Skinvault</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
-        <v/>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Vox Eminor</v>
+        <v>BC.Game</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6089,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
-        <v/>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>VP.Prodigy</v>
+        <v>Wings Up</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6133,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <v/>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Wildcard Academy</v>
+        <v>Lynn Vision</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J132" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K132" t="str">
         <v>none</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="str">
-        <v/>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Wings Up</v>
+        <v>Tricked</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6221,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J133" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K133" t="str">
         <v>none</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="str">
-        <v/>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N133">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -448,19 +448,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Wizards</v>
+        <v>Liquid</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1015</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>2026-02-18T21:19:58.721Z</v>
+        <v>2026-02-19T01:07:27.395Z</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -492,19 +492,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>The Huns</v>
+        <v>Iluminar</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1015</v>
+        <v>1061.6143113189103</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T01:04:07.116Z</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -536,19 +536,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Verdant</v>
+        <v>Elevate</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1015</v>
+        <v>1045.0333860637757</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J4" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K4" t="str">
         <v>none</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+        <v>2026-02-19T01:08:28.239Z</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,19 +580,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bad News Eagles</v>
+        <v>Verdant</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1015</v>
+        <v>1044.4384115620314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J5" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K5" t="str">
         <v>none</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+        <v>2026-02-19T01:04:53.712Z</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -624,19 +624,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Elevate</v>
+        <v>Bounty Hunters</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1015</v>
+        <v>1030.0604120732232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+        <v>2026-02-19T01:07:27.395Z</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -668,19 +668,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Iluminar</v>
+        <v>Titan</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1015</v>
+        <v>1028.8592077342862</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+        <v>2026-02-19T01:04:07.116Z</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Orbit</v>
+        <v>The Huns</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J8" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K8" t="str">
         <v>none</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bounty Hunters</v>
+        <v>OG</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J9" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K9" t="str">
         <v>none</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Liquid</v>
+        <v>FaZe</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J10" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K10" t="str">
         <v>none</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Titan</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J11" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K11" t="str">
         <v>none</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>MIBR</v>
+        <v>Heroic</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J12" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K12" t="str">
         <v>none</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GODSENT</v>
+        <v>Vitality</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J13" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K13" t="str">
         <v>none</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>M80</v>
+        <v>Nexus</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J14" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K14" t="str">
         <v>none</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SK</v>
+        <v>Wildcard</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J15" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K15" t="str">
         <v>none</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>RED Canids</v>
+        <v>Cloud9</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J16" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K16" t="str">
         <v>none</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>ECSTATIC</v>
+        <v>Rebels</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>OG</v>
+        <v>Astralis</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>FaZe</v>
+        <v>ShindeN</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J19" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K19" t="str">
         <v>none</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Copenhagen Flames</v>
+        <v>Permitta</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Heroic</v>
+        <v>ENCE</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Vitality</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Nexus</v>
+        <v>G2</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Wildcard</v>
+        <v>Eternal Fire</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J24" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K24" t="str">
         <v>none</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cloud9</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J25" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K25" t="str">
         <v>none</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Rebels</v>
+        <v>Nemiga</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J26" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K26" t="str">
         <v>none</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Astralis</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J27" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K27" t="str">
         <v>none</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ShindeN</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Permitta</v>
+        <v>Alliance</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>ENCE</v>
+        <v>TALON</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J30" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K30" t="str">
         <v>none</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>iBUYPOWER</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J31" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K31" t="str">
         <v>none</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>G2</v>
+        <v>Virtus.pro</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Eternal Fire</v>
+        <v>Take Flyte</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Spirit Academy</v>
+        <v>Spirit</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Nemiga</v>
+        <v>Aravt</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>NAVI Junior</v>
+        <v>BESTIA</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J36" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K36" t="str">
         <v>none</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>PARIVISION</v>
+        <v>VP.Prodigy</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Alliance</v>
+        <v>Solid</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>TALON</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Chinggis Warrios</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J40" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K40" t="str">
         <v>none</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Virtus.pro</v>
+        <v>True Rippers</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Take Flyte</v>
+        <v>Underground</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J42" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K42" t="str">
         <v>none</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Spirit</v>
+        <v>TYLOO</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Aravt</v>
+        <v>Homyno</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2323,7 +2323,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J44" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K44" t="str">
         <v>none</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>BESTIA</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J45" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K45" t="str">
         <v>none</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>VP.Prodigy</v>
+        <v>hoorai</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J46" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K46" t="str">
         <v>none</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Solid</v>
+        <v>Entropiq</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Onyx Ravens</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2516,19 +2516,19 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Natus Vincere</v>
+        <v>Orbit</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>1015</v>
+        <v>1014.4186945376644</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+        <v>2026-02-19T01:08:28.239Z</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2560,19 +2560,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>True Rippers</v>
+        <v>RED Canids</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1015</v>
+        <v>1014.3357432269672</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J50" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K50" t="str">
         <v>none</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+        <v>2026-02-19T01:04:53.712Z</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -2604,19 +2604,19 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Underground</v>
+        <v>00 Nation</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+        <v/>
       </c>
       <c r="N51">
         <v>0</v>
@@ -2648,19 +2648,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>TYLOO</v>
+        <v>Aether</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J52" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K52" t="str">
         <v>none</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+        <v/>
       </c>
       <c r="N52">
         <v>0</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Homyno</v>
+        <v>AMKAL</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+        <v/>
       </c>
       <c r="N53">
         <v>0</v>
@@ -2736,19 +2736,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>MenaceGG</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+        <v/>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2780,19 +2780,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>hoorai</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+        <v/>
       </c>
       <c r="N55">
         <v>0</v>
@@ -2824,19 +2824,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Entropiq</v>
+        <v>Avangar</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J56" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K56" t="str">
         <v>none</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+        <v/>
       </c>
       <c r="N56">
         <v>0</v>
@@ -2868,19 +2868,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>The MongolZ</v>
+        <v>B8</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J57" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K57" t="str">
         <v>none</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+        <v/>
       </c>
       <c r="N57">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>00 Nation</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J58" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K58" t="str">
         <v>none</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>100 Thieves</v>
+        <v>Bravado</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Aether</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J60" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K60" t="str">
         <v>none</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>AMKAL</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Astana Dragons</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Astralis Talent</v>
+        <v>ESC</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Avangar</v>
+        <v>Flash</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J64" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K64" t="str">
         <v>none</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>B8</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J65" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K65" t="str">
         <v>none</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>BIG Academy</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Bravado</v>
+        <v>Fnatic</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>FORZE</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J68" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K68" t="str">
         <v>none</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Counter Logic Games</v>
+        <v>Gambit</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J69" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K69" t="str">
         <v>none</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ENCE Academy</v>
+        <v>GATERON</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J70" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K70" t="str">
         <v>none</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>ESC</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Flash</v>
+        <v>HAVU</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>FlyQuest RED</v>
+        <v>Hesta</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J74" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K74" t="str">
         <v>none</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Fnatic</v>
+        <v>Immortals</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J75" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K75" t="str">
         <v>none</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>FORZE</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Gambit</v>
+        <v>Kinguin</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>GATERON</v>
+        <v>kONO</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>GhoulsW</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J79" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K79" t="str">
         <v>none</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>HAVU</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Heroic Academy</v>
+        <v>MANA</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J81" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K81" t="str">
         <v>none</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Hesta</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Immortals</v>
+        <v>Misfits</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J83" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K83" t="str">
         <v>none</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Into the Beach</v>
+        <v>mousesports</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Kinguin</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>kONO</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>LGB eSports</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>MAD Lions</v>
+        <v>Nordix</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>MANA</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>MIBR Academy</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Misfits</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>mousesports</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MOUZ NXT</v>
+        <v>Rogue</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J93" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K93" t="str">
         <v>none</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Movistar KOI</v>
+        <v>Shika</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>NIP Impact</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Nordix</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>NOVAQ</v>
+        <v>Sprout</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J97" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K97" t="str">
         <v>none</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>paiN Academy</v>
+        <v>Tsunami</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J98" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K98" t="str">
         <v>none</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>QMISTRY</v>
+        <v>VeryGames</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J99" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K99" t="str">
         <v>none</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Rogue</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J101" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K101" t="str">
         <v>none</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shika</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4892,19 +4892,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>SKYFURY</v>
+        <v>GODSENT</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J103" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K103" t="str">
         <v>none</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="str">
-        <v/>
+        <v>2026-02-19T01:07:54.011Z</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Space Soldiers</v>
+        <v>M80</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>1000</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
-        <v/>
+        <v>2026-02-19T01:04:46.801Z</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Sprout</v>
+        <v>MIBR</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
-        <v/>
+        <v>2026-02-19T01:08:19.149Z</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5024,19 +5024,19 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Tsunami</v>
+        <v>Wizards</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>1000</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J106" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K106" t="str">
         <v>none</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="str">
-        <v/>
+        <v>2026-02-19T01:04:39.648Z</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>VeryGames</v>
+        <v>ad hoc</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J107" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K107" t="str">
         <v>none</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
-        <v/>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Vox Eminor</v>
+        <v>Reason</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J108" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K108" t="str">
         <v>none</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="str">
-        <v/>
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Wildcard Academy</v>
+        <v>SAW</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5165,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="str">
-        <v/>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>ad hoc</v>
+        <v>NomadS</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J110" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K110" t="str">
         <v>none</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Reason</v>
+        <v>Outsiders</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>SAW</v>
+        <v>Red Viperz</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J112" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K112" t="str">
         <v>none</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>NomadS</v>
+        <v>The Dice</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J113" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K113" t="str">
         <v>none</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Outsiders</v>
+        <v>Victores Sumus</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J114" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K114" t="str">
         <v>none</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Red Viperz</v>
+        <v>ODDIK</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>The Dice</v>
+        <v>Qiang</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J116" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K116" t="str">
         <v>none</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Victores Sumus</v>
+        <v>inSanitY</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J117" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K117" t="str">
         <v>none</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>ODDIK</v>
+        <v>Sangal</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J118" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K118" t="str">
         <v>none</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Qiang</v>
+        <v>9Pandas</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J119" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K119" t="str">
         <v>none</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>inSanitY</v>
+        <v>Gods Reign</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Sangal</v>
+        <v>CatEvil</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J121" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K121" t="str">
         <v>none</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>9Pandas</v>
+        <v>Carnival</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Gods Reign</v>
+        <v>Evil Geniuses</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J123" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K123" t="str">
         <v>none</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>CatEvil</v>
+        <v>Vantage</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J124" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K124" t="str">
         <v>none</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Carnival</v>
+        <v>ATOX</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Evil Geniuses</v>
+        <v>Skinvault</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Vantage</v>
+        <v>BC.Game</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>ATOX</v>
+        <v>Wings Up</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Skinvault</v>
+        <v>Lynn Vision</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>BC.Game</v>
+        <v>Tricked</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J130" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K130" t="str">
         <v>none</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Wings Up</v>
+        <v>3DMAX</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J131" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K131" t="str">
         <v>none</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Lynn Vision</v>
+        <v>Falcons</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Tricked</v>
+        <v>Dignitas</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>3DMAX</v>
+        <v>Venom</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J134" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K134" t="str">
         <v>none</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Falcons</v>
+        <v>MOUZ</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J135" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K135" t="str">
         <v>none</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Dignitas</v>
+        <v>Aurora</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J136" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K136" t="str">
         <v>none</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Venom</v>
+        <v>ARCRED</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J137" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K137" t="str">
         <v>none</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>MOUZ</v>
+        <v>LDLC</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J138" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K138" t="str">
         <v>none</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Aurora</v>
+        <v>GamerLegion</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J139" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K139" t="str">
         <v>none</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>ARCRED</v>
+        <v>Passion UA</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>LDLC</v>
+        <v>FlyQuest</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>GamerLegion</v>
+        <v>Envy</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J142" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K142" t="str">
         <v>none</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Passion UA</v>
+        <v>BIG</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J143" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K143" t="str">
         <v>none</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>FlyQuest</v>
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J144" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K144" t="str">
         <v>none</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Envy</v>
+        <v>Limitless</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>BIG</v>
+        <v>Galorys</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J146" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K146" t="str">
         <v>none</v>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ninjas in Pyjamas</v>
+        <v>devils.one</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J147" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K147" t="str">
         <v>none</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+        <v>2026-02-18T21:23:30.347Z</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Limitless</v>
+        <v>Luminosity</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+        <v>2026-02-18T21:23:18.851Z</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Galorys</v>
+        <v>Sharks</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+        <v>2026-02-18T21:23:12.952Z</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>devils.one</v>
+        <v>IHC</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="M150" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+        <v>2026-02-18T21:23:06.529Z</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Luminosity</v>
+        <v>Kappa Bar</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+        <v>2026-02-18T21:22:57.244Z</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sharks</v>
+        <v>Complexity</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+        <v>2026-02-18T21:22:48.652Z</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>IHC</v>
+        <v>Case</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J153" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K153" t="str">
         <v>none</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+        <v>2026-02-18T21:22:39.402Z</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kappa Bar</v>
+        <v>Mythic</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J154" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K154" t="str">
         <v>none</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="M154" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+        <v>2026-02-18T21:22:32.047Z</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Complexity</v>
+        <v>Enemy</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J155" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K155" t="str">
         <v>none</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+        <v>2026-02-18T21:22:20.745Z</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Case</v>
+        <v>FURIA</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J156" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K156" t="str">
         <v>none</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+        <v>2026-02-18T21:22:13.604Z</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Mythic</v>
+        <v>KRU</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M157" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+        <v>2026-02-18T21:22:06.663Z</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Enemy</v>
+        <v>Imperial</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J158" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K158" t="str">
         <v>none</v>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+        <v>2026-02-18T21:21:57.658Z</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>FURIA</v>
+        <v>9z</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="M159" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
+        <v>2026-02-18T21:21:44.273Z</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>KRU</v>
+        <v>paiN</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+        <v>2026-02-18T21:21:14.058Z</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Imperial</v>
+        <v>Vexed</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J161" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K161" t="str">
         <v>none</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+        <v>2026-02-18T21:19:58.722Z</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -7488,19 +7488,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>9z</v>
+        <v>SK</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J162" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K162" t="str">
         <v>none</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="M162" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+        <v>2026-02-19T01:07:43.008Z</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -7532,19 +7532,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>paiN</v>
+        <v>ECSTATIC</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J163" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K163" t="str">
         <v>none</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+        <v>2026-02-19T01:07:36.354Z</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -7576,19 +7576,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Legacy</v>
+        <v>Bad News Eagles</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J164" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K164" t="str">
         <v>none</v>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="M164" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T01:04:27.579Z</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Vexed</v>
+        <v>Legacy</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7629,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>985</v>
+        <v>957.5159098824421</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7647,7 +7647,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J165" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K165" t="str">
         <v>none</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="M165" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
+        <v>2026-02-19T01:04:17.697Z</v>
       </c>
       <c r="N165">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1,41 +1,788 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19599863-7F71-4F41-86FF-3510D7C0B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="252">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Victories</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Loses</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Majors</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>Tournaments Trophies</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>BonusType</t>
+  </si>
+  <si>
+    <t>BonusRemaining</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>BonusReamining</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:07:27.395Z</t>
+  </si>
+  <si>
+    <t>Iluminar</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:04:07.116Z</t>
+  </si>
+  <si>
+    <t>Elevate</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:08:28.239Z</t>
+  </si>
+  <si>
+    <t>Verdant</t>
+  </si>
+  <si>
+    <t>AS/SIS/ESEA</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:04:53.712Z</t>
+  </si>
+  <si>
+    <t>Bounty Hunters</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>The Huns</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:06.168Z</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:18.696Z</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:26.343Z</t>
+  </si>
+  <si>
+    <t>Copenhagen Flames</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:35.184Z</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:43.463Z</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:05.560Z</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:20.280Z</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:27.234Z</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:47.172Z</t>
+  </si>
+  <si>
+    <t>Rebels</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:55.156Z</t>
+  </si>
+  <si>
+    <t>Astralis</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:03.598Z</t>
+  </si>
+  <si>
+    <t>ShindeN</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:18.936Z</t>
+  </si>
+  <si>
+    <t>Permitta</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:27.845Z</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:39.010Z</t>
+  </si>
+  <si>
+    <t>iBUYPOWER</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:46.436Z</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:54.146Z</t>
+  </si>
+  <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:39:02.710Z</t>
+  </si>
+  <si>
+    <t>Spirit Academy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:45:42.234Z</t>
+  </si>
+  <si>
+    <t>Nemiga</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:08.336Z</t>
+  </si>
+  <si>
+    <t>NAVI Junior</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:32.115Z</t>
+  </si>
+  <si>
+    <t>PARIVISION</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:52.846Z</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:11.265Z</t>
+  </si>
+  <si>
+    <t>TALON</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:18.470Z</t>
+  </si>
+  <si>
+    <t>Chinggis Warrios</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:28.286Z</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:36.482Z</t>
+  </si>
+  <si>
+    <t>Take Flyte</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:49.161Z</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:02.110Z</t>
+  </si>
+  <si>
+    <t>Aravt</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:09.473Z</t>
+  </si>
+  <si>
+    <t>BESTIA</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:17.012Z</t>
+  </si>
+  <si>
+    <t>VP.Prodigy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:28.102Z</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:38.129Z</t>
+  </si>
+  <si>
+    <t>Onyx Ravens</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:45.055Z</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:52.026Z</t>
+  </si>
+  <si>
+    <t>True Rippers</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:00.243Z</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:12.765Z</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:20.687Z</t>
+  </si>
+  <si>
+    <t>Homyno</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:27.811Z</t>
+  </si>
+  <si>
+    <t>MenaceGG</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:35.489Z</t>
+  </si>
+  <si>
+    <t>hoorai</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:47.596Z</t>
+  </si>
+  <si>
+    <t>Entropiq</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:54.043Z</t>
+  </si>
+  <si>
+    <t>The MongolZ</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:50:09.060Z</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>RED Canids</t>
+  </si>
+  <si>
+    <t>00 Nation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>AMKAL</t>
+  </si>
+  <si>
+    <t>Astana Dragons</t>
+  </si>
+  <si>
+    <t>Astralis Talent</t>
+  </si>
+  <si>
+    <t>Avangar</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>BIG Academy</t>
+  </si>
+  <si>
+    <t>Bravado</t>
+  </si>
+  <si>
+    <t>Copenhagen Wolves</t>
+  </si>
+  <si>
+    <t>Counter Logic Games</t>
+  </si>
+  <si>
+    <t>ENCE Academy</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>FLuffy Gangsters</t>
+  </si>
+  <si>
+    <t>FlyQuest RED</t>
+  </si>
+  <si>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>Gambit</t>
+  </si>
+  <si>
+    <t>GATERON</t>
+  </si>
+  <si>
+    <t>GhoulsW</t>
+  </si>
+  <si>
+    <t>HAVU</t>
+  </si>
+  <si>
+    <t>Heroic Academy</t>
+  </si>
+  <si>
+    <t>Hesta</t>
+  </si>
+  <si>
+    <t>Immortals</t>
+  </si>
+  <si>
+    <t>Into the Beach</t>
+  </si>
+  <si>
+    <t>Kinguin</t>
+  </si>
+  <si>
+    <t>kONO</t>
+  </si>
+  <si>
+    <t>LGB eSports</t>
+  </si>
+  <si>
+    <t>MAD Lions</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>MIBR Academy</t>
+  </si>
+  <si>
+    <t>Misfits</t>
+  </si>
+  <si>
+    <t>mousesports</t>
+  </si>
+  <si>
+    <t>MOUZ NXT</t>
+  </si>
+  <si>
+    <t>Movistar KOI</t>
+  </si>
+  <si>
+    <t>NIP Impact</t>
+  </si>
+  <si>
+    <t>Nordix</t>
+  </si>
+  <si>
+    <t>NOVAQ</t>
+  </si>
+  <si>
+    <t>paiN Academy</t>
+  </si>
+  <si>
+    <t>QMISTRY</t>
+  </si>
+  <si>
+    <t>Quantum Bellator Fire</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Shika</t>
+  </si>
+  <si>
+    <t>SKYFURY</t>
+  </si>
+  <si>
+    <t>Space Soldiers</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>VeryGames</t>
+  </si>
+  <si>
+    <t>Vox Eminor</t>
+  </si>
+  <si>
+    <t>Wildcard Academy</t>
+  </si>
+  <si>
+    <t>100 Thieves</t>
+  </si>
+  <si>
+    <t>GODSENT</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:07:54.011Z</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:04:46.801Z</t>
+  </si>
+  <si>
+    <t>MIBR</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:08:19.149Z</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:04:39.648Z</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>NomadS</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>Red Viperz</t>
+  </si>
+  <si>
+    <t>The Dice</t>
+  </si>
+  <si>
+    <t>Victores Sumus</t>
+  </si>
+  <si>
+    <t>ODDIK</t>
+  </si>
+  <si>
+    <t>Qiang</t>
+  </si>
+  <si>
+    <t>inSanitY</t>
+  </si>
+  <si>
+    <t>Sangal</t>
+  </si>
+  <si>
+    <t>9Pandas</t>
+  </si>
+  <si>
+    <t>Gods Reign</t>
+  </si>
+  <si>
+    <t>CatEvil</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>Evil Geniuses</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>ATOX</t>
+  </si>
+  <si>
+    <t>Skinvault</t>
+  </si>
+  <si>
+    <t>BC.Game</t>
+  </si>
+  <si>
+    <t>Wings Up</t>
+  </si>
+  <si>
+    <t>Lynn Vision</t>
+  </si>
+  <si>
+    <t>Tricked</t>
+  </si>
+  <si>
+    <t>3DMAX</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Dignitas</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>ARCRED</t>
+  </si>
+  <si>
+    <t>LDLC</t>
+  </si>
+  <si>
+    <t>GamerLegion</t>
+  </si>
+  <si>
+    <t>Passion UA</t>
+  </si>
+  <si>
+    <t>FlyQuest</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>Galorys</t>
+  </si>
+  <si>
+    <t>devils.one</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:30.347Z</t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:18.851Z</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:12.952Z</t>
+  </si>
+  <si>
+    <t>IHC</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:06.529Z</t>
+  </si>
+  <si>
+    <t>Kappa Bar</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:57.244Z</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:48.652Z</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:39.402Z</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:32.047Z</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:20.745Z</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:13.604Z</t>
+  </si>
+  <si>
+    <t>KRU</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:06.663Z</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:57.658Z</t>
+  </si>
+  <si>
+    <t>9z</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:44.273Z</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:14.058Z</t>
+  </si>
+  <si>
+    <t>Vexed</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:19:58.722Z</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:07:43.008Z</t>
+  </si>
+  <si>
+    <t>ECSTATIC</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:07:36.354Z</t>
+  </si>
+  <si>
+    <t>Bad News Eagles</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:04:27.579Z</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:04:17.697Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +812,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,59 +1151,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Team</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Victories</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Streak</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Loses</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Points</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Majors</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Prestige</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Tournaments Trophies</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Tier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Region</v>
-      </c>
-      <c r="K1" t="str">
-        <v>BonusType</v>
-      </c>
-      <c r="L1" t="str">
-        <v>BonusRemaining</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdated</v>
-      </c>
-      <c r="N1" t="str">
-        <v>BonusReamining</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Liquid</v>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -460,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1061.6715607742171</v>
+        <v>1062</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -471,28 +1232,28 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J2" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K2" t="str">
-        <v>none</v>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="str">
-        <v>2026-02-19T01:07:27.395Z</v>
+      <c r="M2" t="s">
+        <v>18</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Iluminar</v>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -504,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1061.6143113189103</v>
+        <v>1062</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -515,28 +1276,28 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J3" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K3" t="str">
-        <v>none</v>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="str">
-        <v>2026-02-19T01:04:07.116Z</v>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Elevate</v>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -548,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1045.0333860637757</v>
+        <v>1045</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -559,28 +1320,28 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J4" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K4" t="str">
-        <v>none</v>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <v>2026-02-19T01:08:28.239Z</v>
+      <c r="M4" t="s">
+        <v>22</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Verdant</v>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -592,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1044.4384115620314</v>
+        <v>1044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -603,28 +1364,28 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J5" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K5" t="str">
-        <v>none</v>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="str">
-        <v>2026-02-19T01:04:53.712Z</v>
+      <c r="M5" t="s">
+        <v>25</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Bounty Hunters</v>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -636,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1030.0604120732232</v>
+        <v>1030</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -647,28 +1408,28 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J6" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K6" t="str">
-        <v>none</v>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="str">
-        <v>2026-02-19T01:07:27.395Z</v>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Titan</v>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -680,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1028.8592077342862</v>
+        <v>1029</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -691,28 +1452,28 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J7" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K7" t="str">
-        <v>none</v>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="str">
-        <v>2026-02-19T01:04:07.116Z</v>
+      <c r="M7" t="s">
+        <v>20</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>The Huns</v>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -735,28 +1496,28 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J8" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K8" t="str">
-        <v>none</v>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+      <c r="M8" t="s">
+        <v>29</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>OG</v>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -779,28 +1540,28 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J9" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K9" t="str">
-        <v>none</v>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+      <c r="M9" t="s">
+        <v>32</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>FaZe</v>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -823,28 +1584,28 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J10" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K10" t="str">
-        <v>none</v>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+      <c r="M10" t="s">
+        <v>34</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Copenhagen Flames</v>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -867,28 +1628,28 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J11" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K11" t="str">
-        <v>none</v>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+      <c r="M11" t="s">
+        <v>36</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Heroic</v>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -911,28 +1672,28 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J12" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K12" t="str">
-        <v>none</v>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+      <c r="M12" t="s">
+        <v>38</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Vitality</v>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -955,28 +1716,28 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J13" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K13" t="str">
-        <v>none</v>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+      <c r="M13" t="s">
+        <v>40</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Nexus</v>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -999,28 +1760,28 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J14" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K14" t="str">
-        <v>none</v>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+      <c r="M14" t="s">
+        <v>42</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Wildcard</v>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1043,28 +1804,28 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J15" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K15" t="str">
-        <v>none</v>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+      <c r="M15" t="s">
+        <v>44</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Cloud9</v>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1087,28 +1848,28 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J16" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K16" t="str">
-        <v>none</v>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+      <c r="M16" t="s">
+        <v>46</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Rebels</v>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1131,28 +1892,28 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J17" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K17" t="str">
-        <v>none</v>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+      <c r="M17" t="s">
+        <v>48</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Astralis</v>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1175,28 +1936,28 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J18" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K18" t="str">
-        <v>none</v>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+      <c r="M18" t="s">
+        <v>50</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>ShindeN</v>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1219,28 +1980,28 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J19" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K19" t="str">
-        <v>none</v>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+      <c r="M19" t="s">
+        <v>52</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Permitta</v>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1263,28 +2024,28 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J20" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K20" t="str">
-        <v>none</v>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+      <c r="M20" t="s">
+        <v>54</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>ENCE</v>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1307,28 +2068,28 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J21" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K21" t="str">
-        <v>none</v>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+      <c r="M21" t="s">
+        <v>56</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>iBUYPOWER</v>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1351,28 +2112,28 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J22" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K22" t="str">
-        <v>none</v>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+      <c r="M22" t="s">
+        <v>58</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>G2</v>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1395,28 +2156,28 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J23" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K23" t="str">
-        <v>none</v>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+      <c r="M23" t="s">
+        <v>60</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Eternal Fire</v>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1439,28 +2200,28 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J24" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K24" t="str">
-        <v>none</v>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+      <c r="M24" t="s">
+        <v>62</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Spirit Academy</v>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1483,28 +2244,28 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J25" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K25" t="str">
-        <v>none</v>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+      <c r="M25" t="s">
+        <v>64</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Nemiga</v>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1527,28 +2288,28 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J26" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K26" t="str">
-        <v>none</v>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+      <c r="M26" t="s">
+        <v>66</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>NAVI Junior</v>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1571,28 +2332,28 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J27" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K27" t="str">
-        <v>none</v>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+      <c r="M27" t="s">
+        <v>68</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>PARIVISION</v>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1615,28 +2376,28 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J28" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K28" t="str">
-        <v>none</v>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+      <c r="M28" t="s">
+        <v>70</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Alliance</v>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1659,28 +2420,28 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J29" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K29" t="str">
-        <v>none</v>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+      <c r="M29" t="s">
+        <v>72</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>TALON</v>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1703,28 +2464,28 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J30" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K30" t="str">
-        <v>none</v>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+      <c r="M30" t="s">
+        <v>74</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Chinggis Warrios</v>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1747,28 +2508,28 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J31" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K31" t="str">
-        <v>none</v>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+      <c r="M31" t="s">
+        <v>76</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Virtus.pro</v>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1791,28 +2552,28 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J32" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K32" t="str">
-        <v>none</v>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+      <c r="M32" t="s">
+        <v>78</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Take Flyte</v>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1835,28 +2596,28 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J33" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K33" t="str">
-        <v>none</v>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+      <c r="M33" t="s">
+        <v>80</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Spirit</v>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1879,28 +2640,28 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J34" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K34" t="str">
-        <v>none</v>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+      <c r="M34" t="s">
+        <v>82</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Aravt</v>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1923,28 +2684,28 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J35" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K35" t="str">
-        <v>none</v>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+      <c r="M35" t="s">
+        <v>84</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>BESTIA</v>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1967,28 +2728,28 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J36" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K36" t="str">
-        <v>none</v>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+      <c r="M36" t="s">
+        <v>86</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>VP.Prodigy</v>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2011,28 +2772,28 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J37" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K37" t="str">
-        <v>none</v>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+      <c r="M37" t="s">
+        <v>88</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Solid</v>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>89</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2055,28 +2816,28 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J38" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K38" t="str">
-        <v>none</v>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+      <c r="M38" t="s">
+        <v>90</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Onyx Ravens</v>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2099,28 +2860,28 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J39" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K39" t="str">
-        <v>none</v>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+      <c r="M39" t="s">
+        <v>92</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>Natus Vincere</v>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2143,28 +2904,28 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J40" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K40" t="str">
-        <v>none</v>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+      <c r="M40" t="s">
+        <v>94</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>True Rippers</v>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>95</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2187,28 +2948,28 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J41" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K41" t="str">
-        <v>none</v>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+      <c r="M41" t="s">
+        <v>96</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Underground</v>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>97</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2231,28 +2992,28 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J42" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K42" t="str">
-        <v>none</v>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+      <c r="M42" t="s">
+        <v>98</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>TYLOO</v>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>99</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2275,28 +3036,28 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J43" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K43" t="str">
-        <v>none</v>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+      <c r="M43" t="s">
+        <v>100</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Homyno</v>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>101</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2319,28 +3080,28 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J44" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K44" t="str">
-        <v>none</v>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+      <c r="M44" t="s">
+        <v>102</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>MenaceGG</v>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2363,28 +3124,28 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J45" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K45" t="str">
-        <v>none</v>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+      <c r="M45" t="s">
+        <v>104</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>hoorai</v>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2407,28 +3168,28 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J46" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K46" t="str">
-        <v>none</v>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+      <c r="M46" t="s">
+        <v>106</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Entropiq</v>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>107</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2451,28 +3212,28 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J47" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K47" t="str">
-        <v>none</v>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+      <c r="M47" t="s">
+        <v>108</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>The MongolZ</v>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>109</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2495,28 +3256,28 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J48" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K48" t="str">
-        <v>none</v>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+      <c r="M48" t="s">
+        <v>110</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Orbit</v>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>111</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2528,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>1014.4186945376644</v>
+        <v>1014</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2539,28 +3300,28 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J49" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K49" t="str">
-        <v>none</v>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="str">
-        <v>2026-02-19T01:08:28.239Z</v>
+      <c r="M49" t="s">
+        <v>22</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>RED Canids</v>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2572,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>1014.3357432269672</v>
+        <v>1014</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2583,28 +3344,28 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J50" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K50" t="str">
-        <v>none</v>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="str">
-        <v>2026-02-19T01:04:53.712Z</v>
+      <c r="M50" t="s">
+        <v>25</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>00 Nation</v>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2627,28 +3388,28 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J51" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K51" t="str">
-        <v>none</v>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="str">
-        <v/>
+      <c r="M51" t="s">
+        <v>114</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Aether</v>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2671,28 +3432,28 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J52" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K52" t="str">
-        <v>none</v>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="str">
-        <v/>
+      <c r="M52" t="s">
+        <v>114</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>AMKAL</v>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2715,28 +3476,28 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J53" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K53" t="str">
-        <v>none</v>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="str">
-        <v/>
+      <c r="M53" t="s">
+        <v>114</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Astana Dragons</v>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>117</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2759,28 +3520,28 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J54" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K54" t="str">
-        <v>none</v>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="str">
-        <v/>
+      <c r="M54" t="s">
+        <v>114</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Astralis Talent</v>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>118</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2803,28 +3564,28 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J55" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K55" t="str">
-        <v>none</v>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="str">
-        <v/>
+      <c r="M55" t="s">
+        <v>114</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Avangar</v>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2847,28 +3608,28 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J56" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K56" t="str">
-        <v>none</v>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="str">
-        <v/>
+      <c r="M56" t="s">
+        <v>114</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>B8</v>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>120</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2891,28 +3652,28 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J57" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K57" t="str">
-        <v>none</v>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="str">
-        <v/>
+      <c r="M57" t="s">
+        <v>114</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>BIG Academy</v>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2935,28 +3696,28 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J58" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K58" t="str">
-        <v>none</v>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="str">
-        <v/>
+      <c r="M58" t="s">
+        <v>114</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Bravado</v>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>122</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2979,28 +3740,28 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J59" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K59" t="str">
-        <v>none</v>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="str">
-        <v/>
+      <c r="M59" t="s">
+        <v>114</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Copenhagen Wolves</v>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>123</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3023,28 +3784,28 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J60" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K60" t="str">
-        <v>none</v>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="str">
-        <v/>
+      <c r="M60" t="s">
+        <v>114</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Counter Logic Games</v>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3067,28 +3828,28 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J61" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K61" t="str">
-        <v>none</v>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="str">
-        <v/>
+      <c r="M61" t="s">
+        <v>114</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>ENCE Academy</v>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3111,28 +3872,28 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J62" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K62" t="str">
-        <v>none</v>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="str">
-        <v/>
+      <c r="M62" t="s">
+        <v>114</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>ESC</v>
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3155,28 +3916,28 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J63" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K63" t="str">
-        <v>none</v>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="str">
-        <v/>
+      <c r="M63" t="s">
+        <v>114</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Flash</v>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3199,28 +3960,28 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J64" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K64" t="str">
-        <v>none</v>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="str">
-        <v/>
+      <c r="M64" t="s">
+        <v>114</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>FLuffy Gangsters</v>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3243,28 +4004,28 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J65" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K65" t="str">
-        <v>none</v>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="str">
-        <v/>
+      <c r="M65" t="s">
+        <v>114</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>FlyQuest RED</v>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3287,28 +4048,28 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J66" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K66" t="str">
-        <v>none</v>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="str">
-        <v/>
+      <c r="M66" t="s">
+        <v>114</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Fnatic</v>
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>130</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3331,28 +4092,28 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J67" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K67" t="str">
-        <v>none</v>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="str">
-        <v/>
+      <c r="M67" t="s">
+        <v>114</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>FORZE</v>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>131</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3375,28 +4136,28 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J68" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K68" t="str">
-        <v>none</v>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="str">
-        <v/>
+      <c r="M68" t="s">
+        <v>114</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Gambit</v>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>132</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3419,28 +4180,28 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J69" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K69" t="str">
-        <v>none</v>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="str">
-        <v/>
+      <c r="M69" t="s">
+        <v>114</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>GATERON</v>
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>133</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3463,28 +4224,28 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J70" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K70" t="str">
-        <v>none</v>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="str">
-        <v/>
+      <c r="M70" t="s">
+        <v>114</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>GhoulsW</v>
+    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>134</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3507,28 +4268,28 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J71" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K71" t="str">
-        <v>none</v>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="str">
-        <v/>
+      <c r="M71" t="s">
+        <v>114</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>HAVU</v>
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>135</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3551,28 +4312,28 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J72" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K72" t="str">
-        <v>none</v>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="str">
-        <v/>
+      <c r="M72" t="s">
+        <v>114</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Heroic Academy</v>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>136</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3595,28 +4356,28 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J73" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K73" t="str">
-        <v>none</v>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="str">
-        <v/>
+      <c r="M73" t="s">
+        <v>114</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Hesta</v>
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>137</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3639,28 +4400,28 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J74" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K74" t="str">
-        <v>none</v>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="str">
-        <v/>
+      <c r="M74" t="s">
+        <v>114</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>Immortals</v>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>138</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3683,28 +4444,28 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J75" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K75" t="str">
-        <v>none</v>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="str">
-        <v/>
+      <c r="M75" t="s">
+        <v>114</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>Into the Beach</v>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>139</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3727,28 +4488,28 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J76" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K76" t="str">
-        <v>none</v>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="str">
-        <v/>
+      <c r="M76" t="s">
+        <v>114</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Kinguin</v>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>140</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3771,28 +4532,28 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J77" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K77" t="str">
-        <v>none</v>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="str">
-        <v/>
+      <c r="M77" t="s">
+        <v>114</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>kONO</v>
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>141</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3815,28 +4576,28 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J78" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K78" t="str">
-        <v>none</v>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="str">
-        <v/>
+      <c r="M78" t="s">
+        <v>114</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>LGB eSports</v>
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>142</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3859,28 +4620,28 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J79" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K79" t="str">
-        <v>none</v>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="str">
-        <v/>
+      <c r="M79" t="s">
+        <v>114</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>MAD Lions</v>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>143</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3903,28 +4664,28 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J80" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K80" t="str">
-        <v>none</v>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="str">
-        <v/>
+      <c r="M80" t="s">
+        <v>114</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>MANA</v>
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>144</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3947,28 +4708,28 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J81" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K81" t="str">
-        <v>none</v>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="str">
-        <v/>
+      <c r="M81" t="s">
+        <v>114</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>MIBR Academy</v>
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>145</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3991,28 +4752,28 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J82" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K82" t="str">
-        <v>none</v>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="str">
-        <v/>
+      <c r="M82" t="s">
+        <v>114</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>Misfits</v>
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>146</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4035,28 +4796,28 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J83" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K83" t="str">
-        <v>none</v>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" t="s">
+        <v>17</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="str">
-        <v/>
+      <c r="M83" t="s">
+        <v>114</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>mousesports</v>
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>147</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4079,28 +4840,28 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J84" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K84" t="str">
-        <v>none</v>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="str">
-        <v/>
+      <c r="M84" t="s">
+        <v>114</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>MOUZ NXT</v>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>148</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4123,28 +4884,28 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J85" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K85" t="str">
-        <v>none</v>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="str">
-        <v/>
+      <c r="M85" t="s">
+        <v>114</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Movistar KOI</v>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>149</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4167,28 +4928,28 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J86" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K86" t="str">
-        <v>none</v>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="str">
-        <v/>
+      <c r="M86" t="s">
+        <v>114</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>NIP Impact</v>
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>150</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4211,28 +4972,28 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J87" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K87" t="str">
-        <v>none</v>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="str">
-        <v/>
+      <c r="M87" t="s">
+        <v>114</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Nordix</v>
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>151</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4255,28 +5016,28 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J88" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K88" t="str">
-        <v>none</v>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="str">
-        <v/>
+      <c r="M88" t="s">
+        <v>114</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>NOVAQ</v>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>152</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4299,28 +5060,28 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J89" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K89" t="str">
-        <v>none</v>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="str">
-        <v/>
+      <c r="M89" t="s">
+        <v>114</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>paiN Academy</v>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>153</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4343,28 +5104,28 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J90" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K90" t="str">
-        <v>none</v>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="str">
-        <v/>
+      <c r="M90" t="s">
+        <v>114</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>QMISTRY</v>
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>154</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4387,28 +5148,28 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J91" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K91" t="str">
-        <v>none</v>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="str">
-        <v/>
+      <c r="M91" t="s">
+        <v>114</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Quantum Bellator Fire</v>
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>155</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4431,28 +5192,28 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J92" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K92" t="str">
-        <v>none</v>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="str">
-        <v/>
+      <c r="M92" t="s">
+        <v>114</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Rogue</v>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>156</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4475,28 +5236,28 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J93" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K93" t="str">
-        <v>none</v>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="str">
-        <v/>
+      <c r="M93" t="s">
+        <v>114</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Shika</v>
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>157</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4519,28 +5280,28 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J94" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K94" t="str">
-        <v>none</v>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="str">
-        <v/>
+      <c r="M94" t="s">
+        <v>114</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>SKYFURY</v>
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>158</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4563,28 +5324,28 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J95" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K95" t="str">
-        <v>none</v>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="str">
-        <v/>
+      <c r="M95" t="s">
+        <v>114</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Space Soldiers</v>
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>159</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4607,28 +5368,28 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J96" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K96" t="str">
-        <v>none</v>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="str">
-        <v/>
+      <c r="M96" t="s">
+        <v>114</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Sprout</v>
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>160</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4651,28 +5412,28 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J97" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K97" t="str">
-        <v>none</v>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="str">
-        <v/>
+      <c r="M97" t="s">
+        <v>114</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Tsunami</v>
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>161</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4695,28 +5456,28 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J98" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K98" t="str">
-        <v>none</v>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="str">
-        <v/>
+      <c r="M98" t="s">
+        <v>114</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>VeryGames</v>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>162</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4739,28 +5500,28 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J99" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K99" t="str">
-        <v>none</v>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="str">
-        <v/>
+      <c r="M99" t="s">
+        <v>114</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>Vox Eminor</v>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>163</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4783,28 +5544,28 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J100" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K100" t="str">
-        <v>none</v>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="str">
-        <v/>
+      <c r="M100" t="s">
+        <v>114</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Wildcard Academy</v>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>164</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4827,28 +5588,28 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J101" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K101" t="str">
-        <v>none</v>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="str">
-        <v/>
+      <c r="M101" t="s">
+        <v>114</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>100 Thieves</v>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>165</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4871,28 +5632,28 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J102" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K102" t="str">
-        <v>none</v>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" t="s">
+        <v>17</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="str">
-        <v/>
+      <c r="M102" t="s">
+        <v>114</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>GODSENT</v>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>166</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -4904,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <v>999.7251809772306</v>
+        <v>1000</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4915,28 +5676,28 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J103" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K103" t="str">
-        <v>none</v>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>17</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="str">
-        <v>2026-02-19T01:07:54.011Z</v>
+      <c r="M103" t="s">
+        <v>167</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>M80</v>
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>168</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -4948,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <v>999.672340544519</v>
+        <v>1000</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4959,28 +5720,28 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J104" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K104" t="str">
-        <v>none</v>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>17</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="str">
-        <v>2026-02-19T01:04:46.801Z</v>
+      <c r="M104" t="s">
+        <v>169</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>MIBR</v>
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>170</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -4992,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>999.4088515186523</v>
+        <v>999</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5003,28 +5764,28 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J105" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K105" t="str">
-        <v>none</v>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" t="s">
+        <v>17</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="str">
-        <v>2026-02-19T01:08:19.149Z</v>
+      <c r="M105" t="s">
+        <v>171</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>Wizards</v>
+    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>172</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5036,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="E106">
-        <v>999.4062521695108</v>
+        <v>999</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5047,28 +5808,28 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J106" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K106" t="str">
-        <v>none</v>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="str">
-        <v>2026-02-19T01:04:39.648Z</v>
+      <c r="M106" t="s">
+        <v>173</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>ad hoc</v>
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>174</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5091,28 +5852,28 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J107" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K107" t="str">
-        <v>none</v>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107" t="s">
+        <v>17</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+      <c r="M107" t="s">
+        <v>110</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>Reason</v>
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>175</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5135,28 +5896,28 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J108" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K108" t="str">
-        <v>none</v>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" t="s">
+        <v>17</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+      <c r="M108" t="s">
+        <v>108</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>SAW</v>
+    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>176</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5179,28 +5940,28 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J109" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K109" t="str">
-        <v>none</v>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" t="s">
+        <v>17</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+      <c r="M109" t="s">
+        <v>106</v>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>NomadS</v>
+    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>177</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5223,28 +5984,28 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J110" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K110" t="str">
-        <v>none</v>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+      <c r="M110" t="s">
+        <v>104</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Outsiders</v>
+    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>178</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5267,28 +6028,28 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J111" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K111" t="str">
-        <v>none</v>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" t="s">
+        <v>17</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+      <c r="M111" t="s">
+        <v>102</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Red Viperz</v>
+    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>179</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5311,28 +6072,28 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J112" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K112" t="str">
-        <v>none</v>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
+        <v>17</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+      <c r="M112" t="s">
+        <v>100</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>The Dice</v>
+    <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>180</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5355,28 +6116,28 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J113" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K113" t="str">
-        <v>none</v>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K113" t="s">
+        <v>17</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+      <c r="M113" t="s">
+        <v>98</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Victores Sumus</v>
+    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>181</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5399,28 +6160,28 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J114" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K114" t="str">
-        <v>none</v>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114" t="s">
+        <v>17</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+      <c r="M114" t="s">
+        <v>96</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>ODDIK</v>
+    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>182</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5443,28 +6204,28 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J115" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K115" t="str">
-        <v>none</v>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+      <c r="M115" t="s">
+        <v>94</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Qiang</v>
+    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>183</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5487,28 +6248,28 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J116" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K116" t="str">
-        <v>none</v>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+      <c r="M116" t="s">
+        <v>92</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>inSanitY</v>
+    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>184</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5531,28 +6292,28 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J117" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K117" t="str">
-        <v>none</v>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+      <c r="M117" t="s">
+        <v>90</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Sangal</v>
+    <row r="118" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>185</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5575,28 +6336,28 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J118" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K118" t="str">
-        <v>none</v>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" t="s">
+        <v>24</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+      <c r="M118" t="s">
+        <v>88</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>9Pandas</v>
+    <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>186</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5619,28 +6380,28 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J119" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K119" t="str">
-        <v>none</v>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" t="s">
+        <v>24</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+      <c r="M119" t="s">
+        <v>86</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Gods Reign</v>
+    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>187</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5663,28 +6424,28 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J120" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K120" t="str">
-        <v>none</v>
+      <c r="I120" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+      <c r="M120" t="s">
+        <v>84</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>CatEvil</v>
+    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>188</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5707,28 +6468,28 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J121" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K121" t="str">
-        <v>none</v>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" t="s">
+        <v>17</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+      <c r="M121" t="s">
+        <v>82</v>
       </c>
       <c r="N121">
         <v>0</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>Carnival</v>
+    <row r="122" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>189</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5751,28 +6512,28 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J122" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K122" t="str">
-        <v>none</v>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" t="s">
+        <v>24</v>
+      </c>
+      <c r="K122" t="s">
+        <v>17</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+      <c r="M122" t="s">
+        <v>80</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Evil Geniuses</v>
+    <row r="123" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>190</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5795,28 +6556,28 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J123" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K123" t="str">
-        <v>none</v>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" t="s">
+        <v>17</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+      <c r="M123" t="s">
+        <v>78</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Vantage</v>
+    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>191</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5839,28 +6600,28 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J124" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K124" t="str">
-        <v>none</v>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+      <c r="M124" t="s">
+        <v>76</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>ATOX</v>
+    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>192</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5883,28 +6644,28 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J125" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K125" t="str">
-        <v>none</v>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" t="s">
+        <v>17</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+      <c r="M125" t="s">
+        <v>74</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>Skinvault</v>
+    <row r="126" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>193</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5927,28 +6688,28 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J126" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K126" t="str">
-        <v>none</v>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" t="s">
+        <v>17</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+      <c r="M126" t="s">
+        <v>72</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>BC.Game</v>
+    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>194</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5971,28 +6732,28 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J127" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K127" t="str">
-        <v>none</v>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" t="s">
+        <v>17</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+      <c r="M127" t="s">
+        <v>70</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Wings Up</v>
+    <row r="128" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>195</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6015,28 +6776,28 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J128" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K128" t="str">
-        <v>none</v>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+      <c r="M128" t="s">
+        <v>68</v>
       </c>
       <c r="N128">
         <v>0</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>Lynn Vision</v>
+    <row r="129" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>196</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6059,28 +6820,28 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J129" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K129" t="str">
-        <v>none</v>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" t="s">
+        <v>24</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+      <c r="M129" t="s">
+        <v>66</v>
       </c>
       <c r="N129">
         <v>0</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Tricked</v>
+    <row r="130" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>197</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6103,28 +6864,28 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J130" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K130" t="str">
-        <v>none</v>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+      <c r="M130" t="s">
+        <v>64</v>
       </c>
       <c r="N130">
         <v>0</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>3DMAX</v>
+    <row r="131" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>198</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6147,28 +6908,28 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J131" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K131" t="str">
-        <v>none</v>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" t="s">
+        <v>17</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+      <c r="M131" t="s">
+        <v>62</v>
       </c>
       <c r="N131">
         <v>0</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>Falcons</v>
+    <row r="132" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>199</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6191,28 +6952,28 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J132" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K132" t="str">
-        <v>none</v>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" t="s">
+        <v>24</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+      <c r="M132" t="s">
+        <v>60</v>
       </c>
       <c r="N132">
         <v>0</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>Dignitas</v>
+    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>200</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6235,28 +6996,28 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J133" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K133" t="str">
-        <v>none</v>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" t="s">
+        <v>17</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+      <c r="M133" t="s">
+        <v>58</v>
       </c>
       <c r="N133">
         <v>0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Venom</v>
+    <row r="134" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>201</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6279,28 +7040,28 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J134" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K134" t="str">
-        <v>none</v>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" t="s">
+        <v>17</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+      <c r="M134" t="s">
+        <v>56</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>MOUZ</v>
+    <row r="135" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>202</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6323,28 +7084,28 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J135" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K135" t="str">
-        <v>none</v>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" t="s">
+        <v>17</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+      <c r="M135" t="s">
+        <v>54</v>
       </c>
       <c r="N135">
         <v>0</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Aurora</v>
+    <row r="136" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>203</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6367,28 +7128,28 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J136" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K136" t="str">
-        <v>none</v>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+      <c r="M136" t="s">
+        <v>52</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>ARCRED</v>
+    <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>204</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6411,28 +7172,28 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J137" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K137" t="str">
-        <v>none</v>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>24</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+      <c r="M137" t="s">
+        <v>50</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>LDLC</v>
+    <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>205</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6455,28 +7216,28 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J138" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K138" t="str">
-        <v>none</v>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" t="s">
+        <v>17</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+      <c r="M138" t="s">
+        <v>48</v>
       </c>
       <c r="N138">
         <v>0</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>GamerLegion</v>
+    <row r="139" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>206</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6499,28 +7260,28 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J139" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K139" t="str">
-        <v>none</v>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" t="s">
+        <v>17</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+      <c r="M139" t="s">
+        <v>46</v>
       </c>
       <c r="N139">
         <v>0</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Passion UA</v>
+    <row r="140" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>207</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6543,28 +7304,28 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J140" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K140" t="str">
-        <v>none</v>
+      <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" t="s">
+        <v>24</v>
+      </c>
+      <c r="K140" t="s">
+        <v>17</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+      <c r="M140" t="s">
+        <v>44</v>
       </c>
       <c r="N140">
         <v>0</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>FlyQuest</v>
+    <row r="141" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>208</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6587,28 +7348,28 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J141" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K141" t="str">
-        <v>none</v>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" t="s">
+        <v>24</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+      <c r="M141" t="s">
+        <v>42</v>
       </c>
       <c r="N141">
         <v>0</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>Envy</v>
+    <row r="142" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>209</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6631,28 +7392,28 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J142" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K142" t="str">
-        <v>none</v>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" t="s">
+        <v>17</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+      <c r="M142" t="s">
+        <v>40</v>
       </c>
       <c r="N142">
         <v>0</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>BIG</v>
+    <row r="143" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>210</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6675,28 +7436,28 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J143" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K143" t="str">
-        <v>none</v>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+      <c r="M143" t="s">
+        <v>38</v>
       </c>
       <c r="N143">
         <v>0</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>Ninjas in Pyjamas</v>
+    <row r="144" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>211</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6719,28 +7480,28 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J144" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K144" t="str">
-        <v>none</v>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+      <c r="M144" t="s">
+        <v>36</v>
       </c>
       <c r="N144">
         <v>0</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>Limitless</v>
+    <row r="145" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>212</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6763,28 +7524,28 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J145" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K145" t="str">
-        <v>none</v>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" t="s">
+        <v>17</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+      <c r="M145" t="s">
+        <v>34</v>
       </c>
       <c r="N145">
         <v>0</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>Galorys</v>
+    <row r="146" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>213</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6807,28 +7568,28 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J146" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K146" t="str">
-        <v>none</v>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+      <c r="M146" t="s">
+        <v>32</v>
       </c>
       <c r="N146">
         <v>0</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>devils.one</v>
+    <row r="147" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>214</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6851,28 +7612,28 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J147" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K147" t="str">
-        <v>none</v>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>24</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+      <c r="M147" t="s">
+        <v>215</v>
       </c>
       <c r="N147">
         <v>0</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>Luminosity</v>
+    <row r="148" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>216</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6895,28 +7656,28 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J148" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K148" t="str">
-        <v>none</v>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" t="s">
+        <v>17</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+      <c r="M148" t="s">
+        <v>217</v>
       </c>
       <c r="N148">
         <v>0</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>Sharks</v>
+    <row r="149" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>218</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6939,28 +7700,28 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J149" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K149" t="str">
-        <v>none</v>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" t="s">
+        <v>16</v>
+      </c>
+      <c r="K149" t="s">
+        <v>17</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+      <c r="M149" t="s">
+        <v>219</v>
       </c>
       <c r="N149">
         <v>0</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>IHC</v>
+    <row r="150" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>220</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -6983,28 +7744,28 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J150" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K150" t="str">
-        <v>none</v>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" t="s">
+        <v>24</v>
+      </c>
+      <c r="K150" t="s">
+        <v>17</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+      <c r="M150" t="s">
+        <v>221</v>
       </c>
       <c r="N150">
         <v>0</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Kappa Bar</v>
+    <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>222</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7027,28 +7788,28 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J151" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K151" t="str">
-        <v>none</v>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" t="s">
+        <v>17</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+      <c r="M151" t="s">
+        <v>223</v>
       </c>
       <c r="N151">
         <v>0</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Complexity</v>
+    <row r="152" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>224</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7071,28 +7832,28 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J152" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K152" t="str">
-        <v>none</v>
+      <c r="I152" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+      <c r="M152" t="s">
+        <v>225</v>
       </c>
       <c r="N152">
         <v>0</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>Case</v>
+    <row r="153" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>226</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7115,28 +7876,28 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J153" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K153" t="str">
-        <v>none</v>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+      <c r="M153" t="s">
+        <v>227</v>
       </c>
       <c r="N153">
         <v>0</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>Mythic</v>
+    <row r="154" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>228</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7159,28 +7920,28 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J154" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K154" t="str">
-        <v>none</v>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" t="s">
+        <v>17</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+      <c r="M154" t="s">
+        <v>229</v>
       </c>
       <c r="N154">
         <v>0</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>Enemy</v>
+    <row r="155" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>230</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7203,28 +7964,28 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J155" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K155" t="str">
-        <v>none</v>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" t="s">
+        <v>17</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+      <c r="M155" t="s">
+        <v>231</v>
       </c>
       <c r="N155">
         <v>0</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>FURIA</v>
+    <row r="156" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>232</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7247,28 +8008,28 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J156" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K156" t="str">
-        <v>none</v>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" t="s">
+        <v>17</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
+      <c r="M156" t="s">
+        <v>233</v>
       </c>
       <c r="N156">
         <v>0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>KRU</v>
+    <row r="157" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>234</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7291,28 +8052,28 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J157" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K157" t="str">
-        <v>none</v>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" t="s">
+        <v>17</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+      <c r="M157" t="s">
+        <v>235</v>
       </c>
       <c r="N157">
         <v>0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Imperial</v>
+    <row r="158" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>236</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7335,28 +8096,28 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J158" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K158" t="str">
-        <v>none</v>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" t="s">
+        <v>17</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+      <c r="M158" t="s">
+        <v>237</v>
       </c>
       <c r="N158">
         <v>0</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>9z</v>
+    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>238</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7379,28 +8140,28 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J159" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K159" t="str">
-        <v>none</v>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+      <c r="M159" t="s">
+        <v>239</v>
       </c>
       <c r="N159">
         <v>0</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>paiN</v>
+    <row r="160" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>240</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7423,28 +8184,28 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J160" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K160" t="str">
-        <v>none</v>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" t="s">
+        <v>16</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+      <c r="M160" t="s">
+        <v>241</v>
       </c>
       <c r="N160">
         <v>0</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Vexed</v>
+    <row r="161" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>242</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7467,28 +8228,28 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J161" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K161" t="str">
-        <v>none</v>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" t="s">
+        <v>24</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
+      <c r="M161" t="s">
+        <v>243</v>
       </c>
       <c r="N161">
         <v>0</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>SK</v>
+    <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>244</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7500,7 +8261,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>984.7039370196626</v>
+        <v>985</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7511,28 +8272,28 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J162" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K162" t="str">
-        <v>none</v>
+      <c r="I162" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" t="s">
+        <v>24</v>
+      </c>
+      <c r="K162" t="s">
+        <v>17</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="str">
-        <v>2026-02-19T01:07:43.008Z</v>
+      <c r="M162" t="s">
+        <v>245</v>
       </c>
       <c r="N162">
         <v>0</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>ECSTATIC</v>
+    <row r="163" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>246</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7544,7 +8305,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>984.7039370196626</v>
+        <v>985</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7555,28 +8316,28 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J163" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K163" t="str">
-        <v>none</v>
+      <c r="I163" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163" t="s">
+        <v>17</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="str">
-        <v>2026-02-19T01:07:36.354Z</v>
+      <c r="M163" t="s">
+        <v>247</v>
       </c>
       <c r="N163">
         <v>0</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Bad News Eagles</v>
+    <row r="164" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>248</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7588,7 +8349,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>984.7039370196626</v>
+        <v>985</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7599,28 +8360,28 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J164" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K164" t="str">
-        <v>none</v>
+      <c r="I164" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164" t="s">
+        <v>17</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="str">
-        <v>2026-02-19T01:04:27.579Z</v>
+      <c r="M164" t="s">
+        <v>249</v>
       </c>
       <c r="N164">
         <v>0</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Legacy</v>
+    <row r="165" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>250</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7632,7 +8393,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>957.5159098824421</v>
+        <v>958</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7643,28 +8404,29 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J165" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K165" t="str">
-        <v>none</v>
+      <c r="I165" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" t="s">
+        <v>17</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="str">
-        <v>2026-02-19T01:04:17.697Z</v>
+      <c r="M165" t="s">
+        <v>251</v>
       </c>
       <c r="N165">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N165"/>
+    <ignoredError sqref="A1:N1 A8:N48 A2:D2 F2:N2 A3:D3 F3:N3 A4:D4 F4:N4 A5:D5 F5:N5 A6:D6 F6:N6 A7:D7 F7:N7 A51:N102 A49:D49 F49:N49 A50:D50 F50:N50 A107:N161 A103:D103 F103:N103 A104:D104 F104:N104 A105:D105 F105:N105 A106:D106 F106:N106 A165:D165 F165:N165 A164:D164 A162:D162 F162:N162 A163:D163 F163:N163 F164:N164" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1,788 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19599863-7F71-4F41-86FF-3510D7C0B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="252">
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Victories</t>
-  </si>
-  <si>
-    <t>Streak</t>
-  </si>
-  <si>
-    <t>Loses</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Majors</t>
-  </si>
-  <si>
-    <t>Prestige</t>
-  </si>
-  <si>
-    <t>Tournaments Trophies</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>BonusType</t>
-  </si>
-  <si>
-    <t>BonusRemaining</t>
-  </si>
-  <si>
-    <t>LastUpdated</t>
-  </si>
-  <si>
-    <t>BonusReamining</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:07:27.395Z</t>
-  </si>
-  <si>
-    <t>Iluminar</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:04:07.116Z</t>
-  </si>
-  <si>
-    <t>Elevate</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:08:28.239Z</t>
-  </si>
-  <si>
-    <t>Verdant</t>
-  </si>
-  <si>
-    <t>AS/SIS/ESEA</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:04:53.712Z</t>
-  </si>
-  <si>
-    <t>Bounty Hunters</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>The Huns</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:06.168Z</t>
-  </si>
-  <si>
-    <t>OG</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:18.696Z</t>
-  </si>
-  <si>
-    <t>FaZe</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:26.343Z</t>
-  </si>
-  <si>
-    <t>Copenhagen Flames</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:35.184Z</t>
-  </si>
-  <si>
-    <t>Heroic</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:43.463Z</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:05.560Z</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:20.280Z</t>
-  </si>
-  <si>
-    <t>Wildcard</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:27.234Z</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:47.172Z</t>
-  </si>
-  <si>
-    <t>Rebels</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:55.156Z</t>
-  </si>
-  <si>
-    <t>Astralis</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:03.598Z</t>
-  </si>
-  <si>
-    <t>ShindeN</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:18.936Z</t>
-  </si>
-  <si>
-    <t>Permitta</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:27.845Z</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:39.010Z</t>
-  </si>
-  <si>
-    <t>iBUYPOWER</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:46.436Z</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:54.146Z</t>
-  </si>
-  <si>
-    <t>Eternal Fire</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:39:02.710Z</t>
-  </si>
-  <si>
-    <t>Spirit Academy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:45:42.234Z</t>
-  </si>
-  <si>
-    <t>Nemiga</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:08.336Z</t>
-  </si>
-  <si>
-    <t>NAVI Junior</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:32.115Z</t>
-  </si>
-  <si>
-    <t>PARIVISION</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:52.846Z</t>
-  </si>
-  <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:11.265Z</t>
-  </si>
-  <si>
-    <t>TALON</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:18.470Z</t>
-  </si>
-  <si>
-    <t>Chinggis Warrios</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:28.286Z</t>
-  </si>
-  <si>
-    <t>Virtus.pro</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:36.482Z</t>
-  </si>
-  <si>
-    <t>Take Flyte</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:49.161Z</t>
-  </si>
-  <si>
-    <t>Spirit</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:02.110Z</t>
-  </si>
-  <si>
-    <t>Aravt</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:09.473Z</t>
-  </si>
-  <si>
-    <t>BESTIA</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:17.012Z</t>
-  </si>
-  <si>
-    <t>VP.Prodigy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:28.102Z</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:38.129Z</t>
-  </si>
-  <si>
-    <t>Onyx Ravens</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:45.055Z</t>
-  </si>
-  <si>
-    <t>Natus Vincere</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:52.026Z</t>
-  </si>
-  <si>
-    <t>True Rippers</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:00.243Z</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:12.765Z</t>
-  </si>
-  <si>
-    <t>TYLOO</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:20.687Z</t>
-  </si>
-  <si>
-    <t>Homyno</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:27.811Z</t>
-  </si>
-  <si>
-    <t>MenaceGG</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:35.489Z</t>
-  </si>
-  <si>
-    <t>hoorai</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:47.596Z</t>
-  </si>
-  <si>
-    <t>Entropiq</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:54.043Z</t>
-  </si>
-  <si>
-    <t>The MongolZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:50:09.060Z</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
-    <t>RED Canids</t>
-  </si>
-  <si>
-    <t>00 Nation</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Aether</t>
-  </si>
-  <si>
-    <t>AMKAL</t>
-  </si>
-  <si>
-    <t>Astana Dragons</t>
-  </si>
-  <si>
-    <t>Astralis Talent</t>
-  </si>
-  <si>
-    <t>Avangar</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>BIG Academy</t>
-  </si>
-  <si>
-    <t>Bravado</t>
-  </si>
-  <si>
-    <t>Copenhagen Wolves</t>
-  </si>
-  <si>
-    <t>Counter Logic Games</t>
-  </si>
-  <si>
-    <t>ENCE Academy</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>FLuffy Gangsters</t>
-  </si>
-  <si>
-    <t>FlyQuest RED</t>
-  </si>
-  <si>
-    <t>Fnatic</t>
-  </si>
-  <si>
-    <t>FORZE</t>
-  </si>
-  <si>
-    <t>Gambit</t>
-  </si>
-  <si>
-    <t>GATERON</t>
-  </si>
-  <si>
-    <t>GhoulsW</t>
-  </si>
-  <si>
-    <t>HAVU</t>
-  </si>
-  <si>
-    <t>Heroic Academy</t>
-  </si>
-  <si>
-    <t>Hesta</t>
-  </si>
-  <si>
-    <t>Immortals</t>
-  </si>
-  <si>
-    <t>Into the Beach</t>
-  </si>
-  <si>
-    <t>Kinguin</t>
-  </si>
-  <si>
-    <t>kONO</t>
-  </si>
-  <si>
-    <t>LGB eSports</t>
-  </si>
-  <si>
-    <t>MAD Lions</t>
-  </si>
-  <si>
-    <t>MANA</t>
-  </si>
-  <si>
-    <t>MIBR Academy</t>
-  </si>
-  <si>
-    <t>Misfits</t>
-  </si>
-  <si>
-    <t>mousesports</t>
-  </si>
-  <si>
-    <t>MOUZ NXT</t>
-  </si>
-  <si>
-    <t>Movistar KOI</t>
-  </si>
-  <si>
-    <t>NIP Impact</t>
-  </si>
-  <si>
-    <t>Nordix</t>
-  </si>
-  <si>
-    <t>NOVAQ</t>
-  </si>
-  <si>
-    <t>paiN Academy</t>
-  </si>
-  <si>
-    <t>QMISTRY</t>
-  </si>
-  <si>
-    <t>Quantum Bellator Fire</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>Shika</t>
-  </si>
-  <si>
-    <t>SKYFURY</t>
-  </si>
-  <si>
-    <t>Space Soldiers</t>
-  </si>
-  <si>
-    <t>Sprout</t>
-  </si>
-  <si>
-    <t>Tsunami</t>
-  </si>
-  <si>
-    <t>VeryGames</t>
-  </si>
-  <si>
-    <t>Vox Eminor</t>
-  </si>
-  <si>
-    <t>Wildcard Academy</t>
-  </si>
-  <si>
-    <t>100 Thieves</t>
-  </si>
-  <si>
-    <t>GODSENT</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:07:54.011Z</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:04:46.801Z</t>
-  </si>
-  <si>
-    <t>MIBR</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:08:19.149Z</t>
-  </si>
-  <si>
-    <t>Wizards</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:04:39.648Z</t>
-  </si>
-  <si>
-    <t>ad hoc</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>NomadS</t>
-  </si>
-  <si>
-    <t>Outsiders</t>
-  </si>
-  <si>
-    <t>Red Viperz</t>
-  </si>
-  <si>
-    <t>The Dice</t>
-  </si>
-  <si>
-    <t>Victores Sumus</t>
-  </si>
-  <si>
-    <t>ODDIK</t>
-  </si>
-  <si>
-    <t>Qiang</t>
-  </si>
-  <si>
-    <t>inSanitY</t>
-  </si>
-  <si>
-    <t>Sangal</t>
-  </si>
-  <si>
-    <t>9Pandas</t>
-  </si>
-  <si>
-    <t>Gods Reign</t>
-  </si>
-  <si>
-    <t>CatEvil</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>Evil Geniuses</t>
-  </si>
-  <si>
-    <t>Vantage</t>
-  </si>
-  <si>
-    <t>ATOX</t>
-  </si>
-  <si>
-    <t>Skinvault</t>
-  </si>
-  <si>
-    <t>BC.Game</t>
-  </si>
-  <si>
-    <t>Wings Up</t>
-  </si>
-  <si>
-    <t>Lynn Vision</t>
-  </si>
-  <si>
-    <t>Tricked</t>
-  </si>
-  <si>
-    <t>3DMAX</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Dignitas</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>ARCRED</t>
-  </si>
-  <si>
-    <t>LDLC</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>Passion UA</t>
-  </si>
-  <si>
-    <t>FlyQuest</t>
-  </si>
-  <si>
-    <t>Envy</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>Ninjas in Pyjamas</t>
-  </si>
-  <si>
-    <t>Limitless</t>
-  </si>
-  <si>
-    <t>Galorys</t>
-  </si>
-  <si>
-    <t>devils.one</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:30.347Z</t>
-  </si>
-  <si>
-    <t>Luminosity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:18.851Z</t>
-  </si>
-  <si>
-    <t>Sharks</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:12.952Z</t>
-  </si>
-  <si>
-    <t>IHC</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:06.529Z</t>
-  </si>
-  <si>
-    <t>Kappa Bar</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:57.244Z</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:48.652Z</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:39.402Z</t>
-  </si>
-  <si>
-    <t>Mythic</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:32.047Z</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:20.745Z</t>
-  </si>
-  <si>
-    <t>FURIA</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:13.604Z</t>
-  </si>
-  <si>
-    <t>KRU</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:06.663Z</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:57.658Z</t>
-  </si>
-  <si>
-    <t>9z</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:44.273Z</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:14.058Z</t>
-  </si>
-  <si>
-    <t>Vexed</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:19:58.722Z</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:07:43.008Z</t>
-  </si>
-  <si>
-    <t>ECSTATIC</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:07:36.354Z</t>
-  </si>
-  <si>
-    <t>Bad News Eagles</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:04:27.579Z</t>
-  </si>
-  <si>
-    <t>Legacy</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:04:17.697Z</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -812,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1151,77 +396,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Team</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Victories</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Streak</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Loses</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Points</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Majors</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prestige</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Tournaments Trophies</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Tier</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Region</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BonusType</v>
+      </c>
+      <c r="L1" t="str">
+        <v>BonusRemaining</v>
+      </c>
+      <c r="M1" t="str">
+        <v>LastUpdated</v>
+      </c>
+      <c r="N1" t="str">
+        <v>BonusReamining</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Wizards</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1062</v>
+        <v>1015</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1232,40 +471,40 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="I2" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J2" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K2" t="str">
+        <v>none</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="M2" t="str">
+        <v>2026-02-18T21:19:58.721Z</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>The Huns</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1062</v>
+        <v>1015</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1276,40 +515,40 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="I3" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J3" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K3" t="str">
+        <v>none</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
+      <c r="M3" t="str">
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Verdant</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1320,40 +559,40 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
+      <c r="I4" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K4" t="str">
+        <v>none</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
+      <c r="M4" t="str">
+        <v>2026-02-18T21:21:14.058Z</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Bad News Eagles</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1364,40 +603,40 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
+      <c r="I5" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J5" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K5" t="str">
+        <v>none</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>25</v>
+      <c r="M5" t="str">
+        <v>2026-02-18T21:21:44.273Z</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Elevate</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1408,40 +647,40 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
+      <c r="I6" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K6" t="str">
+        <v>none</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>18</v>
+      <c r="M6" t="str">
+        <v>2026-02-18T21:21:57.658Z</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Iluminar</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1452,28 +691,28 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
+      <c r="I7" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K7" t="str">
+        <v>none</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>20</v>
+      <c r="M7" t="str">
+        <v>2026-02-18T21:22:06.663Z</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Orbit</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1496,28 +735,28 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
+      <c r="I8" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J8" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K8" t="str">
+        <v>none</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>29</v>
+      <c r="M8" t="str">
+        <v>2026-02-18T21:22:13.604Z</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Bounty Hunters</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1540,28 +779,28 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
+      <c r="I9" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J9" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K9" t="str">
+        <v>none</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
+      <c r="M9" t="str">
+        <v>2026-02-18T21:22:20.745Z</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Liquid</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1584,28 +823,28 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
+      <c r="I10" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J10" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K10" t="str">
+        <v>none</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>34</v>
+      <c r="M10" t="str">
+        <v>2026-02-18T21:22:32.047Z</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Titan</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1628,28 +867,28 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
+      <c r="I11" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J11" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K11" t="str">
+        <v>none</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>36</v>
+      <c r="M11" t="str">
+        <v>2026-02-18T21:22:39.402Z</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>MIBR</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1672,28 +911,28 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
+      <c r="I12" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J12" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K12" t="str">
+        <v>none</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>38</v>
+      <c r="M12" t="str">
+        <v>2026-02-18T21:22:48.652Z</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>GODSENT</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1716,28 +955,28 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
+      <c r="I13" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J13" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K13" t="str">
+        <v>none</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>40</v>
+      <c r="M13" t="str">
+        <v>2026-02-18T21:22:57.244Z</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>M80</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1760,28 +999,28 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
+      <c r="I14" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J14" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K14" t="str">
+        <v>none</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>42</v>
+      <c r="M14" t="str">
+        <v>2026-02-18T21:23:06.529Z</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>SK</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1804,28 +1043,28 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
+      <c r="I15" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J15" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K15" t="str">
+        <v>none</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>44</v>
+      <c r="M15" t="str">
+        <v>2026-02-18T21:23:12.952Z</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>RED Canids</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1848,28 +1087,28 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
+      <c r="I16" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J16" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K16" t="str">
+        <v>none</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>46</v>
+      <c r="M16" t="str">
+        <v>2026-02-18T21:23:18.851Z</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>ECSTATIC</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1892,28 +1131,28 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
+      <c r="I17" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J17" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K17" t="str">
+        <v>none</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>48</v>
+      <c r="M17" t="str">
+        <v>2026-02-18T21:23:30.347Z</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>OG</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1936,28 +1175,28 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
+      <c r="I18" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J18" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K18" t="str">
+        <v>none</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>50</v>
+      <c r="M18" t="str">
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>FaZe</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1980,28 +1219,28 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
+      <c r="I19" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J19" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K19" t="str">
+        <v>none</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>52</v>
+      <c r="M19" t="str">
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2024,28 +1263,28 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
+      <c r="I20" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J20" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K20" t="str">
+        <v>none</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>54</v>
+      <c r="M20" t="str">
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Heroic</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2068,28 +1307,28 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
+      <c r="I21" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J21" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K21" t="str">
+        <v>none</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>56</v>
+      <c r="M21" t="str">
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Vitality</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2112,28 +1351,28 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
+      <c r="I22" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K22" t="str">
+        <v>none</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>58</v>
+      <c r="M22" t="str">
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Nexus</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2156,28 +1395,28 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
+      <c r="I23" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J23" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K23" t="str">
+        <v>none</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>60</v>
+      <c r="M23" t="str">
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Wildcard</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2200,28 +1439,28 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
+      <c r="I24" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J24" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K24" t="str">
+        <v>none</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>62</v>
+      <c r="M24" t="str">
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Cloud9</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2244,28 +1483,28 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
+      <c r="I25" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J25" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K25" t="str">
+        <v>none</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>64</v>
+      <c r="M25" t="str">
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Rebels</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2288,28 +1527,28 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
+      <c r="I26" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J26" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K26" t="str">
+        <v>none</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>66</v>
+      <c r="M26" t="str">
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>67</v>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Astralis</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2332,28 +1571,28 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
+      <c r="I27" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J27" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K27" t="str">
+        <v>none</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>68</v>
+      <c r="M27" t="str">
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>69</v>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>ShindeN</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2376,28 +1615,28 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
+      <c r="I28" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J28" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K28" t="str">
+        <v>none</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>70</v>
+      <c r="M28" t="str">
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>71</v>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Permitta</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2420,28 +1659,28 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
+      <c r="I29" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J29" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K29" t="str">
+        <v>none</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>72</v>
+      <c r="M29" t="str">
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>73</v>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>ENCE</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2464,28 +1703,28 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
+      <c r="I30" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J30" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K30" t="str">
+        <v>none</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>74</v>
+      <c r="M30" t="str">
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>75</v>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>iBUYPOWER</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2508,28 +1747,28 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
+      <c r="I31" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K31" t="str">
+        <v>none</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>76</v>
+      <c r="M31" t="str">
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>77</v>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>G2</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2552,28 +1791,28 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
+      <c r="I32" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J32" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K32" t="str">
+        <v>none</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>78</v>
+      <c r="M32" t="str">
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>79</v>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Eternal Fire</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2596,28 +1835,28 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
+      <c r="I33" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J33" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K33" t="str">
+        <v>none</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>80</v>
+      <c r="M33" t="str">
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>81</v>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Spirit Academy</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2640,28 +1879,28 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" t="s">
-        <v>17</v>
+      <c r="I34" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J34" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K34" t="str">
+        <v>none</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>82</v>
+      <c r="M34" t="str">
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>83</v>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Nemiga</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2684,28 +1923,28 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" t="s">
-        <v>17</v>
+      <c r="I35" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J35" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K35" t="str">
+        <v>none</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>84</v>
+      <c r="M35" t="str">
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>85</v>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>NAVI Junior</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2728,28 +1967,28 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
+      <c r="I36" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J36" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K36" t="str">
+        <v>none</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>86</v>
+      <c r="M36" t="str">
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>87</v>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>PARIVISION</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2772,28 +2011,28 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
+      <c r="I37" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J37" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K37" t="str">
+        <v>none</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>88</v>
+      <c r="M37" t="str">
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>89</v>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Alliance</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2816,28 +2055,28 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
+      <c r="I38" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J38" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K38" t="str">
+        <v>none</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>90</v>
+      <c r="M38" t="str">
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>91</v>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TALON</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2860,28 +2099,28 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" t="s">
-        <v>17</v>
+      <c r="I39" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J39" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K39" t="str">
+        <v>none</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>92</v>
+      <c r="M39" t="str">
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>93</v>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2904,28 +2143,28 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
+      <c r="I40" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J40" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K40" t="str">
+        <v>none</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>94</v>
+      <c r="M40" t="str">
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>95</v>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Virtus.pro</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2948,28 +2187,28 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" t="s">
-        <v>17</v>
+      <c r="I41" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J41" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K41" t="str">
+        <v>none</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>96</v>
+      <c r="M41" t="str">
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>97</v>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Take Flyte</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2992,28 +2231,28 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
+      <c r="I42" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J42" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K42" t="str">
+        <v>none</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>98</v>
+      <c r="M42" t="str">
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>99</v>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Spirit</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3036,28 +2275,28 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
+      <c r="I43" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J43" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K43" t="str">
+        <v>none</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>100</v>
+      <c r="M43" t="str">
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>101</v>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Aravt</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3080,28 +2319,28 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
+      <c r="I44" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J44" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K44" t="str">
+        <v>none</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>102</v>
+      <c r="M44" t="str">
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>103</v>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>BESTIA</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3124,28 +2363,28 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
+      <c r="I45" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J45" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K45" t="str">
+        <v>none</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>104</v>
+      <c r="M45" t="str">
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>105</v>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>VP.Prodigy</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3168,28 +2407,28 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K46" t="s">
-        <v>17</v>
+      <c r="I46" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J46" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K46" t="str">
+        <v>none</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>106</v>
+      <c r="M46" t="str">
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>107</v>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Solid</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3212,28 +2451,28 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
+      <c r="I47" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J47" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K47" t="str">
+        <v>none</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>108</v>
+      <c r="M47" t="str">
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>109</v>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Onyx Ravens</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3256,40 +2495,40 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
+      <c r="I48" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J48" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K48" t="str">
+        <v>none</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>110</v>
+      <c r="M48" t="str">
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>111</v>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Natus Vincere</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3300,40 +2539,40 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
+      <c r="I49" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J49" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K49" t="str">
+        <v>none</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>22</v>
+      <c r="M49" t="str">
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>112</v>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>True Rippers</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3344,40 +2583,40 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" t="s">
-        <v>17</v>
+      <c r="I50" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J50" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K50" t="str">
+        <v>none</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>25</v>
+      <c r="M50" t="str">
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>113</v>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Underground</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3388,40 +2627,40 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
+      <c r="I51" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J51" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K51" t="str">
+        <v>none</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>114</v>
+      <c r="M51" t="str">
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>115</v>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>TYLOO</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3432,40 +2671,40 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" t="s">
-        <v>17</v>
+      <c r="I52" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J52" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K52" t="str">
+        <v>none</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
-        <v>114</v>
+      <c r="M52" t="str">
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>116</v>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Homyno</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3476,40 +2715,40 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" t="s">
-        <v>17</v>
+      <c r="I53" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J53" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K53" t="str">
+        <v>none</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>114</v>
+      <c r="M53" t="str">
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>117</v>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>MenaceGG</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3520,40 +2759,40 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" t="s">
-        <v>31</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
+      <c r="I54" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J54" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K54" t="str">
+        <v>none</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
-        <v>114</v>
+      <c r="M54" t="str">
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>118</v>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>hoorai</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3564,40 +2803,40 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
+      <c r="I55" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J55" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K55" t="str">
+        <v>none</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="s">
-        <v>114</v>
+      <c r="M55" t="str">
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>119</v>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Entropiq</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3608,40 +2847,40 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" t="s">
-        <v>17</v>
+      <c r="I56" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J56" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K56" t="str">
+        <v>none</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>114</v>
+      <c r="M56" t="str">
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>120</v>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>The MongolZ</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3652,28 +2891,28 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" t="s">
-        <v>17</v>
+      <c r="I57" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J57" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K57" t="str">
+        <v>none</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>114</v>
+      <c r="M57" t="str">
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>121</v>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>00 Nation</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3696,28 +2935,28 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" t="s">
-        <v>17</v>
+      <c r="I58" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J58" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K58" t="str">
+        <v>none</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>114</v>
+      <c r="M58" t="str">
+        <v/>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>122</v>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>100 Thieves</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3740,28 +2979,28 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" t="s">
-        <v>17</v>
+      <c r="I59" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J59" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K59" t="str">
+        <v>none</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="s">
-        <v>114</v>
+      <c r="M59" t="str">
+        <v/>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>123</v>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Aether</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3784,28 +3023,28 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" t="s">
-        <v>17</v>
+      <c r="I60" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J60" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K60" t="str">
+        <v>none</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
-        <v>114</v>
+      <c r="M60" t="str">
+        <v/>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>124</v>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>AMKAL</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3828,28 +3067,28 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" t="s">
-        <v>17</v>
+      <c r="I61" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J61" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K61" t="str">
+        <v>none</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
-        <v>114</v>
+      <c r="M61" t="str">
+        <v/>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>125</v>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Astana Dragons</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3872,28 +3111,28 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
+      <c r="I62" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J62" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K62" t="str">
+        <v>none</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
-        <v>114</v>
+      <c r="M62" t="str">
+        <v/>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>126</v>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Astralis Talent</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3916,28 +3155,28 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
+      <c r="I63" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J63" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K63" t="str">
+        <v>none</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>114</v>
+      <c r="M63" t="str">
+        <v/>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>127</v>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Avangar</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3960,28 +3199,28 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64" t="s">
-        <v>17</v>
+      <c r="I64" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J64" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K64" t="str">
+        <v>none</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>114</v>
+      <c r="M64" t="str">
+        <v/>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>128</v>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B8</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4004,28 +3243,28 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" t="s">
-        <v>31</v>
-      </c>
-      <c r="K65" t="s">
-        <v>17</v>
+      <c r="I65" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J65" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K65" t="str">
+        <v>none</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
-        <v>114</v>
+      <c r="M65" t="str">
+        <v/>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>129</v>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>BIG Academy</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4048,28 +3287,28 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" t="s">
-        <v>17</v>
+      <c r="I66" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J66" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K66" t="str">
+        <v>none</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>114</v>
+      <c r="M66" t="str">
+        <v/>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>130</v>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Bravado</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4092,28 +3331,28 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" t="s">
-        <v>31</v>
-      </c>
-      <c r="K67" t="s">
-        <v>17</v>
+      <c r="I67" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J67" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K67" t="str">
+        <v>none</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>114</v>
+      <c r="M67" t="str">
+        <v/>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>131</v>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4136,28 +3375,28 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" t="s">
-        <v>17</v>
+      <c r="I68" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J68" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K68" t="str">
+        <v>none</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>114</v>
+      <c r="M68" t="str">
+        <v/>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>132</v>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Counter Logic Games</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4180,28 +3419,28 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" t="s">
-        <v>17</v>
+      <c r="I69" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J69" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K69" t="str">
+        <v>none</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>114</v>
+      <c r="M69" t="str">
+        <v/>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>133</v>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>ENCE Academy</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4224,28 +3463,28 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" t="s">
-        <v>17</v>
+      <c r="I70" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J70" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K70" t="str">
+        <v>none</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>114</v>
+      <c r="M70" t="str">
+        <v/>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>134</v>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>ESC</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4268,28 +3507,28 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" t="s">
-        <v>31</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
+      <c r="I71" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J71" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K71" t="str">
+        <v>none</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>114</v>
+      <c r="M71" t="str">
+        <v/>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>135</v>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Flash</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4312,28 +3551,28 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" t="s">
-        <v>31</v>
-      </c>
-      <c r="K72" t="s">
-        <v>17</v>
+      <c r="I72" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J72" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K72" t="str">
+        <v>none</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>114</v>
+      <c r="M72" t="str">
+        <v/>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>136</v>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4356,28 +3595,28 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" t="s">
-        <v>17</v>
+      <c r="I73" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J73" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K73" t="str">
+        <v>none</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>114</v>
+      <c r="M73" t="str">
+        <v/>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>137</v>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>FlyQuest RED</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4400,28 +3639,28 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" t="s">
-        <v>24</v>
-      </c>
-      <c r="K74" t="s">
-        <v>17</v>
+      <c r="I74" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J74" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K74" t="str">
+        <v>none</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="s">
-        <v>114</v>
+      <c r="M74" t="str">
+        <v/>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>138</v>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Fnatic</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4444,28 +3683,28 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" t="s">
-        <v>17</v>
+      <c r="I75" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J75" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K75" t="str">
+        <v>none</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>114</v>
+      <c r="M75" t="str">
+        <v/>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>139</v>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>FORZE</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4488,28 +3727,28 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" t="s">
-        <v>17</v>
+      <c r="I76" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J76" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K76" t="str">
+        <v>none</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>114</v>
+      <c r="M76" t="str">
+        <v/>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>140</v>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Gambit</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4532,28 +3771,28 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" t="s">
-        <v>31</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
+      <c r="I77" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J77" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K77" t="str">
+        <v>none</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>114</v>
+      <c r="M77" t="str">
+        <v/>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>141</v>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>GATERON</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4576,28 +3815,28 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
+      <c r="I78" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J78" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K78" t="str">
+        <v>none</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>114</v>
+      <c r="M78" t="str">
+        <v/>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>142</v>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>GhoulsW</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4620,28 +3859,28 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" t="s">
-        <v>17</v>
+      <c r="I79" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J79" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K79" t="str">
+        <v>none</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>114</v>
+      <c r="M79" t="str">
+        <v/>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>143</v>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>HAVU</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4664,28 +3903,28 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" t="s">
-        <v>17</v>
+      <c r="I80" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J80" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K80" t="str">
+        <v>none</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>114</v>
+      <c r="M80" t="str">
+        <v/>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>144</v>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Heroic Academy</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4708,28 +3947,28 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" t="s">
-        <v>17</v>
+      <c r="I81" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J81" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K81" t="str">
+        <v>none</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>114</v>
+      <c r="M81" t="str">
+        <v/>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>145</v>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Hesta</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4752,28 +3991,28 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" t="s">
-        <v>17</v>
+      <c r="I82" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J82" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K82" t="str">
+        <v>none</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
-        <v>114</v>
+      <c r="M82" t="str">
+        <v/>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>146</v>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Immortals</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4796,28 +4035,28 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" t="s">
-        <v>17</v>
+      <c r="I83" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J83" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K83" t="str">
+        <v>none</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>114</v>
+      <c r="M83" t="str">
+        <v/>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>147</v>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Into the Beach</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4840,28 +4079,28 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" t="s">
-        <v>17</v>
+      <c r="I84" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J84" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K84" t="str">
+        <v>none</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>114</v>
+      <c r="M84" t="str">
+        <v/>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>148</v>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Kinguin</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4884,28 +4123,28 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" t="s">
-        <v>31</v>
-      </c>
-      <c r="K85" t="s">
-        <v>17</v>
+      <c r="I85" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J85" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K85" t="str">
+        <v>none</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
-        <v>114</v>
+      <c r="M85" t="str">
+        <v/>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>149</v>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>kONO</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4928,28 +4167,28 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K86" t="s">
-        <v>17</v>
+      <c r="I86" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J86" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K86" t="str">
+        <v>none</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>114</v>
+      <c r="M86" t="str">
+        <v/>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>150</v>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>LGB eSports</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4972,28 +4211,28 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" t="s">
-        <v>31</v>
-      </c>
-      <c r="K87" t="s">
-        <v>17</v>
+      <c r="I87" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J87" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K87" t="str">
+        <v>none</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
-        <v>114</v>
+      <c r="M87" t="str">
+        <v/>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>151</v>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>MAD Lions</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -5016,28 +4255,28 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" t="s">
-        <v>24</v>
-      </c>
-      <c r="K88" t="s">
-        <v>17</v>
+      <c r="I88" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J88" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K88" t="str">
+        <v>none</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>114</v>
+      <c r="M88" t="str">
+        <v/>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>152</v>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>MANA</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -5060,28 +4299,28 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
-        <v>15</v>
-      </c>
-      <c r="J89" t="s">
-        <v>24</v>
-      </c>
-      <c r="K89" t="s">
-        <v>17</v>
+      <c r="I89" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J89" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K89" t="str">
+        <v>none</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>114</v>
+      <c r="M89" t="str">
+        <v/>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>153</v>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>MIBR Academy</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -5104,28 +4343,28 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>15</v>
-      </c>
-      <c r="J90" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" t="s">
-        <v>17</v>
+      <c r="I90" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J90" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K90" t="str">
+        <v>none</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>114</v>
+      <c r="M90" t="str">
+        <v/>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>154</v>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Misfits</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -5148,28 +4387,28 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J91" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" t="s">
-        <v>17</v>
+      <c r="I91" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J91" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K91" t="str">
+        <v>none</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
-        <v>114</v>
+      <c r="M91" t="str">
+        <v/>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>155</v>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>mousesports</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -5192,28 +4431,28 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>15</v>
-      </c>
-      <c r="J92" t="s">
-        <v>24</v>
-      </c>
-      <c r="K92" t="s">
-        <v>17</v>
+      <c r="I92" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J92" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K92" t="str">
+        <v>none</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="s">
-        <v>114</v>
+      <c r="M92" t="str">
+        <v/>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>156</v>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>MOUZ NXT</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5236,28 +4475,28 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" t="s">
-        <v>24</v>
-      </c>
-      <c r="K93" t="s">
-        <v>17</v>
+      <c r="I93" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J93" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K93" t="str">
+        <v>none</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>114</v>
+      <c r="M93" t="str">
+        <v/>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>157</v>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Movistar KOI</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -5280,28 +4519,28 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" t="s">
-        <v>17</v>
+      <c r="I94" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J94" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K94" t="str">
+        <v>none</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="s">
-        <v>114</v>
+      <c r="M94" t="str">
+        <v/>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>158</v>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>NIP Impact</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5324,28 +4563,28 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
-        <v>15</v>
-      </c>
-      <c r="J95" t="s">
-        <v>31</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
+      <c r="I95" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J95" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K95" t="str">
+        <v>none</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
-        <v>114</v>
+      <c r="M95" t="str">
+        <v/>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>159</v>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Nordix</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5368,28 +4607,28 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
-        <v>15</v>
-      </c>
-      <c r="J96" t="s">
-        <v>16</v>
-      </c>
-      <c r="K96" t="s">
-        <v>17</v>
+      <c r="I96" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J96" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K96" t="str">
+        <v>none</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="s">
-        <v>114</v>
+      <c r="M96" t="str">
+        <v/>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>160</v>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>NOVAQ</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5412,28 +4651,28 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
-        <v>15</v>
-      </c>
-      <c r="J97" t="s">
-        <v>16</v>
-      </c>
-      <c r="K97" t="s">
-        <v>17</v>
+      <c r="I97" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J97" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K97" t="str">
+        <v>none</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
-        <v>114</v>
+      <c r="M97" t="str">
+        <v/>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>161</v>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>paiN Academy</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5456,28 +4695,28 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="s">
-        <v>15</v>
-      </c>
-      <c r="J98" t="s">
-        <v>24</v>
-      </c>
-      <c r="K98" t="s">
-        <v>17</v>
+      <c r="I98" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J98" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
-        <v>114</v>
+      <c r="M98" t="str">
+        <v/>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>162</v>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>QMISTRY</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5500,28 +4739,28 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>15</v>
-      </c>
-      <c r="J99" t="s">
-        <v>31</v>
-      </c>
-      <c r="K99" t="s">
-        <v>17</v>
+      <c r="I99" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J99" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K99" t="str">
+        <v>none</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
-        <v>114</v>
+      <c r="M99" t="str">
+        <v/>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>163</v>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5544,28 +4783,28 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
-        <v>15</v>
-      </c>
-      <c r="J100" t="s">
-        <v>24</v>
-      </c>
-      <c r="K100" t="s">
-        <v>17</v>
+      <c r="I100" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J100" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>114</v>
+      <c r="M100" t="str">
+        <v/>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>164</v>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Rogue</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5588,28 +4827,28 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="s">
-        <v>15</v>
-      </c>
-      <c r="J101" t="s">
-        <v>31</v>
-      </c>
-      <c r="K101" t="s">
-        <v>17</v>
+      <c r="I101" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J101" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K101" t="str">
+        <v>none</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>114</v>
+      <c r="M101" t="str">
+        <v/>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>165</v>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Shika</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5632,37 +4871,37 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
-        <v>15</v>
-      </c>
-      <c r="J102" t="s">
-        <v>24</v>
-      </c>
-      <c r="K102" t="s">
-        <v>17</v>
+      <c r="I102" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J102" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K102" t="str">
+        <v>none</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>114</v>
+      <c r="M102" t="str">
+        <v/>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>166</v>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>SKYFURY</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -5676,37 +4915,37 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>15</v>
-      </c>
-      <c r="J103" t="s">
-        <v>16</v>
-      </c>
-      <c r="K103" t="s">
-        <v>17</v>
+      <c r="I103" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J103" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K103" t="str">
+        <v>none</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>167</v>
+      <c r="M103" t="str">
+        <v/>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>168</v>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Space Soldiers</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -5720,40 +4959,40 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
-        <v>15</v>
-      </c>
-      <c r="J104" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" t="s">
-        <v>17</v>
+      <c r="I104" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J104" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K104" t="str">
+        <v>none</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>169</v>
+      <c r="M104" t="str">
+        <v/>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>170</v>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Sprout</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5764,40 +5003,40 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="s">
-        <v>15</v>
-      </c>
-      <c r="J105" t="s">
-        <v>16</v>
-      </c>
-      <c r="K105" t="s">
-        <v>17</v>
+      <c r="I105" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J105" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K105" t="str">
+        <v>none</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>171</v>
+      <c r="M105" t="str">
+        <v/>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>172</v>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Tsunami</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5808,28 +5047,28 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>15</v>
-      </c>
-      <c r="J106" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" t="s">
-        <v>17</v>
+      <c r="I106" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J106" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K106" t="str">
+        <v>none</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>173</v>
+      <c r="M106" t="str">
+        <v/>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>174</v>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>VeryGames</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5838,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5852,28 +5091,28 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
-        <v>15</v>
-      </c>
-      <c r="J107" t="s">
-        <v>24</v>
-      </c>
-      <c r="K107" t="s">
-        <v>17</v>
+      <c r="I107" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J107" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K107" t="str">
+        <v>none</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
-        <v>110</v>
+      <c r="M107" t="str">
+        <v/>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>175</v>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Vox Eminor</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5882,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5896,28 +5135,28 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
-        <v>15</v>
-      </c>
-      <c r="J108" t="s">
-        <v>31</v>
-      </c>
-      <c r="K108" t="s">
-        <v>17</v>
+      <c r="I108" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J108" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K108" t="str">
+        <v>none</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
-        <v>108</v>
+      <c r="M108" t="str">
+        <v/>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>176</v>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Wildcard Academy</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5926,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5940,28 +5179,28 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="s">
-        <v>15</v>
-      </c>
-      <c r="J109" t="s">
-        <v>31</v>
-      </c>
-      <c r="K109" t="s">
-        <v>17</v>
+      <c r="I109" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J109" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K109" t="str">
+        <v>none</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>106</v>
+      <c r="M109" t="str">
+        <v/>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>177</v>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>ad hoc</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5984,28 +5223,28 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
-        <v>15</v>
-      </c>
-      <c r="J110" t="s">
-        <v>31</v>
-      </c>
-      <c r="K110" t="s">
-        <v>17</v>
+      <c r="I110" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J110" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K110" t="str">
+        <v>none</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>104</v>
+      <c r="M110" t="str">
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>178</v>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Reason</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -6028,28 +5267,28 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
-        <v>15</v>
-      </c>
-      <c r="J111" t="s">
-        <v>31</v>
-      </c>
-      <c r="K111" t="s">
-        <v>17</v>
+      <c r="I111" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J111" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K111" t="str">
+        <v>none</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>102</v>
+      <c r="M111" t="str">
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>179</v>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>SAW</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -6072,28 +5311,28 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
-        <v>15</v>
-      </c>
-      <c r="J112" t="s">
-        <v>16</v>
-      </c>
-      <c r="K112" t="s">
-        <v>17</v>
+      <c r="I112" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J112" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K112" t="str">
+        <v>none</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="s">
-        <v>100</v>
+      <c r="M112" t="str">
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>180</v>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>NomadS</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -6116,28 +5355,28 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>15</v>
-      </c>
-      <c r="J113" t="s">
-        <v>24</v>
-      </c>
-      <c r="K113" t="s">
-        <v>17</v>
+      <c r="I113" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J113" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K113" t="str">
+        <v>none</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
-        <v>98</v>
+      <c r="M113" t="str">
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>181</v>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Outsiders</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -6160,28 +5399,28 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="s">
-        <v>15</v>
-      </c>
-      <c r="J114" t="s">
-        <v>24</v>
-      </c>
-      <c r="K114" t="s">
-        <v>17</v>
+      <c r="I114" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J114" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K114" t="str">
+        <v>none</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="s">
-        <v>96</v>
+      <c r="M114" t="str">
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>182</v>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Red Viperz</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -6204,28 +5443,28 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
-        <v>15</v>
-      </c>
-      <c r="J115" t="s">
-        <v>16</v>
-      </c>
-      <c r="K115" t="s">
-        <v>17</v>
+      <c r="I115" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J115" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K115" t="str">
+        <v>none</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="s">
-        <v>94</v>
+      <c r="M115" t="str">
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>183</v>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>The Dice</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -6248,28 +5487,28 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="s">
-        <v>15</v>
-      </c>
-      <c r="J116" t="s">
-        <v>31</v>
-      </c>
-      <c r="K116" t="s">
-        <v>17</v>
+      <c r="I116" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J116" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K116" t="str">
+        <v>none</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="s">
-        <v>92</v>
+      <c r="M116" t="str">
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>184</v>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Victores Sumus</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6292,28 +5531,28 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
-        <v>15</v>
-      </c>
-      <c r="J117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K117" t="s">
-        <v>17</v>
+      <c r="I117" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J117" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K117" t="str">
+        <v>none</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>90</v>
+      <c r="M117" t="str">
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>185</v>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>ODDIK</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6336,28 +5575,28 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
-        <v>15</v>
-      </c>
-      <c r="J118" t="s">
-        <v>24</v>
-      </c>
-      <c r="K118" t="s">
-        <v>17</v>
+      <c r="I118" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J118" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K118" t="str">
+        <v>none</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>88</v>
+      <c r="M118" t="str">
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>186</v>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Qiang</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6380,28 +5619,28 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
-        <v>15</v>
-      </c>
-      <c r="J119" t="s">
-        <v>24</v>
-      </c>
-      <c r="K119" t="s">
-        <v>17</v>
+      <c r="I119" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J119" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K119" t="str">
+        <v>none</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="s">
-        <v>86</v>
+      <c r="M119" t="str">
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>187</v>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>inSanitY</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6424,28 +5663,28 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>15</v>
-      </c>
-      <c r="J120" t="s">
-        <v>31</v>
-      </c>
-      <c r="K120" t="s">
-        <v>17</v>
+      <c r="I120" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J120" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K120" t="str">
+        <v>none</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
-        <v>84</v>
+      <c r="M120" t="str">
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>188</v>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Sangal</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6468,28 +5707,28 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
-        <v>15</v>
-      </c>
-      <c r="J121" t="s">
-        <v>31</v>
-      </c>
-      <c r="K121" t="s">
-        <v>17</v>
+      <c r="I121" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J121" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K121" t="str">
+        <v>none</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="s">
-        <v>82</v>
+      <c r="M121" t="str">
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>189</v>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>9Pandas</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6512,28 +5751,28 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
-        <v>15</v>
-      </c>
-      <c r="J122" t="s">
-        <v>24</v>
-      </c>
-      <c r="K122" t="s">
-        <v>17</v>
+      <c r="I122" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J122" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K122" t="str">
+        <v>none</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
-        <v>80</v>
+      <c r="M122" t="str">
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>190</v>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Gods Reign</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6556,28 +5795,28 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
-        <v>15</v>
-      </c>
-      <c r="J123" t="s">
-        <v>24</v>
-      </c>
-      <c r="K123" t="s">
-        <v>17</v>
+      <c r="I123" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J123" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K123" t="str">
+        <v>none</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
-        <v>78</v>
+      <c r="M123" t="str">
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>191</v>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>CatEvil</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6600,28 +5839,28 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="s">
-        <v>15</v>
-      </c>
-      <c r="J124" t="s">
-        <v>24</v>
-      </c>
-      <c r="K124" t="s">
-        <v>17</v>
+      <c r="I124" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J124" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K124" t="str">
+        <v>none</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="s">
-        <v>76</v>
+      <c r="M124" t="str">
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>192</v>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Carnival</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6644,28 +5883,28 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="s">
-        <v>15</v>
-      </c>
-      <c r="J125" t="s">
-        <v>24</v>
-      </c>
-      <c r="K125" t="s">
-        <v>17</v>
+      <c r="I125" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J125" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K125" t="str">
+        <v>none</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>74</v>
+      <c r="M125" t="str">
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>193</v>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Evil Geniuses</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6688,28 +5927,28 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="s">
-        <v>15</v>
-      </c>
-      <c r="J126" t="s">
-        <v>24</v>
-      </c>
-      <c r="K126" t="s">
-        <v>17</v>
+      <c r="I126" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J126" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K126" t="str">
+        <v>none</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="s">
-        <v>72</v>
+      <c r="M126" t="str">
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>194</v>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Vantage</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6732,28 +5971,28 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
-        <v>15</v>
-      </c>
-      <c r="J127" t="s">
-        <v>24</v>
-      </c>
-      <c r="K127" t="s">
-        <v>17</v>
+      <c r="I127" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J127" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K127" t="str">
+        <v>none</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
-        <v>70</v>
+      <c r="M127" t="str">
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>195</v>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>ATOX</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6776,28 +6015,28 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
-        <v>15</v>
-      </c>
-      <c r="J128" t="s">
-        <v>24</v>
-      </c>
-      <c r="K128" t="s">
-        <v>17</v>
+      <c r="I128" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J128" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K128" t="str">
+        <v>none</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>68</v>
+      <c r="M128" t="str">
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>196</v>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Skinvault</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6820,28 +6059,28 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
-        <v>15</v>
-      </c>
-      <c r="J129" t="s">
-        <v>24</v>
-      </c>
-      <c r="K129" t="s">
-        <v>17</v>
+      <c r="I129" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J129" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K129" t="str">
+        <v>none</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
-        <v>66</v>
+      <c r="M129" t="str">
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>197</v>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>BC.Game</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6864,28 +6103,28 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
-        <v>15</v>
-      </c>
-      <c r="J130" t="s">
-        <v>31</v>
-      </c>
-      <c r="K130" t="s">
-        <v>17</v>
+      <c r="I130" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J130" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K130" t="str">
+        <v>none</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
-        <v>64</v>
+      <c r="M130" t="str">
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>198</v>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Wings Up</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6908,28 +6147,28 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
-        <v>15</v>
-      </c>
-      <c r="J131" t="s">
-        <v>31</v>
-      </c>
-      <c r="K131" t="s">
-        <v>17</v>
+      <c r="I131" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J131" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K131" t="str">
+        <v>none</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>62</v>
+      <c r="M131" t="str">
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>199</v>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Lynn Vision</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6952,28 +6191,28 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="s">
-        <v>15</v>
-      </c>
-      <c r="J132" t="s">
-        <v>24</v>
-      </c>
-      <c r="K132" t="s">
-        <v>17</v>
+      <c r="I132" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J132" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K132" t="str">
+        <v>none</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="s">
-        <v>60</v>
+      <c r="M132" t="str">
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>200</v>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Tricked</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6996,28 +6235,28 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="s">
-        <v>15</v>
-      </c>
-      <c r="J133" t="s">
-        <v>31</v>
-      </c>
-      <c r="K133" t="s">
-        <v>17</v>
+      <c r="I133" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J133" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K133" t="str">
+        <v>none</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="s">
-        <v>58</v>
+      <c r="M133" t="str">
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>201</v>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>3DMAX</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -7040,28 +6279,28 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
-        <v>15</v>
-      </c>
-      <c r="J134" t="s">
-        <v>16</v>
-      </c>
-      <c r="K134" t="s">
-        <v>17</v>
+      <c r="I134" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J134" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K134" t="str">
+        <v>none</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>56</v>
+      <c r="M134" t="str">
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>202</v>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Falcons</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7084,28 +6323,28 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="s">
-        <v>15</v>
-      </c>
-      <c r="J135" t="s">
-        <v>31</v>
-      </c>
-      <c r="K135" t="s">
-        <v>17</v>
+      <c r="I135" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J135" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K135" t="str">
+        <v>none</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>54</v>
+      <c r="M135" t="str">
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>203</v>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Dignitas</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -7128,28 +6367,28 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="s">
-        <v>15</v>
-      </c>
-      <c r="J136" t="s">
-        <v>24</v>
-      </c>
-      <c r="K136" t="s">
-        <v>17</v>
+      <c r="I136" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J136" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K136" t="str">
+        <v>none</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
-        <v>52</v>
+      <c r="M136" t="str">
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>204</v>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Venom</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -7172,28 +6411,28 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="s">
-        <v>15</v>
-      </c>
-      <c r="J137" t="s">
-        <v>24</v>
-      </c>
-      <c r="K137" t="s">
-        <v>17</v>
+      <c r="I137" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J137" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K137" t="str">
+        <v>none</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="s">
-        <v>50</v>
+      <c r="M137" t="str">
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>205</v>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>MOUZ</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -7216,28 +6455,28 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="s">
-        <v>15</v>
-      </c>
-      <c r="J138" t="s">
-        <v>24</v>
-      </c>
-      <c r="K138" t="s">
-        <v>17</v>
+      <c r="I138" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J138" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K138" t="str">
+        <v>none</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
-        <v>48</v>
+      <c r="M138" t="str">
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>206</v>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Aurora</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -7260,28 +6499,28 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="s">
-        <v>15</v>
-      </c>
-      <c r="J139" t="s">
-        <v>16</v>
-      </c>
-      <c r="K139" t="s">
-        <v>17</v>
+      <c r="I139" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J139" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K139" t="str">
+        <v>none</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
-        <v>46</v>
+      <c r="M139" t="str">
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>207</v>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>ARCRED</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -7304,28 +6543,28 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="s">
-        <v>15</v>
-      </c>
-      <c r="J140" t="s">
-        <v>24</v>
-      </c>
-      <c r="K140" t="s">
-        <v>17</v>
+      <c r="I140" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J140" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K140" t="str">
+        <v>none</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>44</v>
+      <c r="M140" t="str">
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>208</v>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>LDLC</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7348,28 +6587,28 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="s">
-        <v>15</v>
-      </c>
-      <c r="J141" t="s">
-        <v>24</v>
-      </c>
-      <c r="K141" t="s">
-        <v>17</v>
+      <c r="I141" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J141" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K141" t="str">
+        <v>none</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
-        <v>42</v>
+      <c r="M141" t="str">
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>209</v>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>GamerLegion</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7392,28 +6631,28 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>15</v>
-      </c>
-      <c r="J142" t="s">
-        <v>31</v>
-      </c>
-      <c r="K142" t="s">
-        <v>17</v>
+      <c r="I142" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J142" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K142" t="str">
+        <v>none</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="s">
-        <v>40</v>
+      <c r="M142" t="str">
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>210</v>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Passion UA</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7436,28 +6675,28 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
-        <v>15</v>
-      </c>
-      <c r="J143" t="s">
-        <v>31</v>
-      </c>
-      <c r="K143" t="s">
-        <v>17</v>
+      <c r="I143" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J143" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K143" t="str">
+        <v>none</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
-        <v>38</v>
+      <c r="M143" t="str">
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>211</v>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>FlyQuest</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7480,28 +6719,28 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="s">
-        <v>15</v>
-      </c>
-      <c r="J144" t="s">
-        <v>31</v>
-      </c>
-      <c r="K144" t="s">
-        <v>17</v>
+      <c r="I144" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J144" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K144" t="str">
+        <v>none</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="s">
-        <v>36</v>
+      <c r="M144" t="str">
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>212</v>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Envy</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7524,28 +6763,28 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="s">
-        <v>15</v>
-      </c>
-      <c r="J145" t="s">
-        <v>31</v>
-      </c>
-      <c r="K145" t="s">
-        <v>17</v>
+      <c r="I145" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J145" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K145" t="str">
+        <v>none</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
-        <v>34</v>
+      <c r="M145" t="str">
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>213</v>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>BIG</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7568,28 +6807,28 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="s">
-        <v>15</v>
-      </c>
-      <c r="J146" t="s">
-        <v>16</v>
-      </c>
-      <c r="K146" t="s">
-        <v>17</v>
+      <c r="I146" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J146" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K146" t="str">
+        <v>none</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="s">
-        <v>32</v>
+      <c r="M146" t="str">
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>214</v>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7612,28 +6851,28 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="s">
-        <v>15</v>
-      </c>
-      <c r="J147" t="s">
-        <v>24</v>
-      </c>
-      <c r="K147" t="s">
-        <v>17</v>
+      <c r="I147" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J147" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K147" t="str">
+        <v>none</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="s">
-        <v>215</v>
+      <c r="M147" t="str">
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>216</v>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Limitless</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7656,28 +6895,28 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="s">
-        <v>15</v>
-      </c>
-      <c r="J148" t="s">
-        <v>31</v>
-      </c>
-      <c r="K148" t="s">
-        <v>17</v>
+      <c r="I148" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J148" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K148" t="str">
+        <v>none</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>217</v>
+      <c r="M148" t="str">
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>218</v>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Galorys</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7700,28 +6939,28 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="s">
-        <v>15</v>
-      </c>
-      <c r="J149" t="s">
-        <v>16</v>
-      </c>
-      <c r="K149" t="s">
-        <v>17</v>
+      <c r="I149" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J149" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K149" t="str">
+        <v>none</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="s">
-        <v>219</v>
+      <c r="M149" t="str">
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>220</v>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>devils.one</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7744,28 +6983,28 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="s">
-        <v>15</v>
-      </c>
-      <c r="J150" t="s">
-        <v>24</v>
-      </c>
-      <c r="K150" t="s">
-        <v>17</v>
+      <c r="I150" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J150" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K150" t="str">
+        <v>none</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="s">
-        <v>221</v>
+      <c r="M150" t="str">
+        <v>2026-02-18T21:23:30.347Z</v>
       </c>
       <c r="N150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>222</v>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Luminosity</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7788,28 +7027,28 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="s">
-        <v>15</v>
-      </c>
-      <c r="J151" t="s">
-        <v>31</v>
-      </c>
-      <c r="K151" t="s">
-        <v>17</v>
+      <c r="I151" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J151" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K151" t="str">
+        <v>none</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
-        <v>223</v>
+      <c r="M151" t="str">
+        <v>2026-02-18T21:23:18.851Z</v>
       </c>
       <c r="N151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>224</v>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Sharks</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7832,28 +7071,28 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="s">
-        <v>15</v>
-      </c>
-      <c r="J152" t="s">
-        <v>16</v>
-      </c>
-      <c r="K152" t="s">
-        <v>17</v>
+      <c r="I152" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J152" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K152" t="str">
+        <v>none</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
-        <v>225</v>
+      <c r="M152" t="str">
+        <v>2026-02-18T21:23:12.952Z</v>
       </c>
       <c r="N152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>226</v>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>IHC</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7876,28 +7115,28 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="s">
-        <v>15</v>
-      </c>
-      <c r="J153" t="s">
-        <v>31</v>
-      </c>
-      <c r="K153" t="s">
-        <v>17</v>
+      <c r="I153" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J153" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K153" t="str">
+        <v>none</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
-        <v>227</v>
+      <c r="M153" t="str">
+        <v>2026-02-18T21:23:06.529Z</v>
       </c>
       <c r="N153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>228</v>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Kappa Bar</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7920,28 +7159,28 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="s">
-        <v>15</v>
-      </c>
-      <c r="J154" t="s">
-        <v>16</v>
-      </c>
-      <c r="K154" t="s">
-        <v>17</v>
+      <c r="I154" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J154" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K154" t="str">
+        <v>none</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
-        <v>229</v>
+      <c r="M154" t="str">
+        <v>2026-02-18T21:22:57.244Z</v>
       </c>
       <c r="N154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>230</v>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Complexity</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7964,28 +7203,28 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="s">
-        <v>15</v>
-      </c>
-      <c r="J155" t="s">
-        <v>31</v>
-      </c>
-      <c r="K155" t="s">
-        <v>17</v>
+      <c r="I155" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J155" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K155" t="str">
+        <v>none</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
-        <v>231</v>
+      <c r="M155" t="str">
+        <v>2026-02-18T21:22:48.652Z</v>
       </c>
       <c r="N155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>232</v>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Case</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -8008,28 +7247,28 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="s">
-        <v>15</v>
-      </c>
-      <c r="J156" t="s">
-        <v>16</v>
-      </c>
-      <c r="K156" t="s">
-        <v>17</v>
+      <c r="I156" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J156" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K156" t="str">
+        <v>none</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
-        <v>233</v>
+      <c r="M156" t="str">
+        <v>2026-02-18T21:22:39.402Z</v>
       </c>
       <c r="N156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>234</v>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Mythic</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -8052,28 +7291,28 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="s">
-        <v>15</v>
-      </c>
-      <c r="J157" t="s">
-        <v>16</v>
-      </c>
-      <c r="K157" t="s">
-        <v>17</v>
+      <c r="I157" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J157" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K157" t="str">
+        <v>none</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
-        <v>235</v>
+      <c r="M157" t="str">
+        <v>2026-02-18T21:22:32.047Z</v>
       </c>
       <c r="N157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>236</v>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Enemy</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -8096,28 +7335,28 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="s">
-        <v>15</v>
-      </c>
-      <c r="J158" t="s">
-        <v>16</v>
-      </c>
-      <c r="K158" t="s">
-        <v>17</v>
+      <c r="I158" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J158" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K158" t="str">
+        <v>none</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
-        <v>237</v>
+      <c r="M158" t="str">
+        <v>2026-02-18T21:22:20.745Z</v>
       </c>
       <c r="N158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>238</v>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>FURIA</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -8140,28 +7379,28 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="s">
-        <v>15</v>
-      </c>
-      <c r="J159" t="s">
-        <v>16</v>
-      </c>
-      <c r="K159" t="s">
-        <v>17</v>
+      <c r="I159" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J159" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K159" t="str">
+        <v>none</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
-        <v>239</v>
+      <c r="M159" t="str">
+        <v>2026-02-18T21:22:13.604Z</v>
       </c>
       <c r="N159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>240</v>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>KRU</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -8184,28 +7423,28 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="s">
-        <v>15</v>
-      </c>
-      <c r="J160" t="s">
-        <v>16</v>
-      </c>
-      <c r="K160" t="s">
-        <v>17</v>
+      <c r="I160" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J160" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K160" t="str">
+        <v>none</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
-        <v>241</v>
+      <c r="M160" t="str">
+        <v>2026-02-18T21:22:06.663Z</v>
       </c>
       <c r="N160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>242</v>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Imperial</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -8228,37 +7467,37 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="s">
-        <v>15</v>
-      </c>
-      <c r="J161" t="s">
-        <v>24</v>
-      </c>
-      <c r="K161" t="s">
-        <v>17</v>
+      <c r="I161" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J161" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K161" t="str">
+        <v>none</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
-        <v>243</v>
+      <c r="M161" t="str">
+        <v>2026-02-18T21:21:57.658Z</v>
       </c>
       <c r="N161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>244</v>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>9z</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>985</v>
@@ -8272,37 +7511,37 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="s">
-        <v>15</v>
-      </c>
-      <c r="J162" t="s">
-        <v>24</v>
-      </c>
-      <c r="K162" t="s">
-        <v>17</v>
+      <c r="I162" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J162" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K162" t="str">
+        <v>none</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
-        <v>245</v>
+      <c r="M162" t="str">
+        <v>2026-02-18T21:21:44.273Z</v>
       </c>
       <c r="N162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>246</v>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>paiN</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <v>985</v>
@@ -8316,37 +7555,37 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="s">
-        <v>15</v>
-      </c>
-      <c r="J163" t="s">
-        <v>31</v>
-      </c>
-      <c r="K163" t="s">
-        <v>17</v>
+      <c r="I163" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J163" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K163" t="str">
+        <v>none</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
-        <v>247</v>
+      <c r="M163" t="str">
+        <v>2026-02-18T21:21:14.058Z</v>
       </c>
       <c r="N163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>248</v>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Legacy</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>985</v>
@@ -8360,28 +7599,28 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="s">
-        <v>15</v>
-      </c>
-      <c r="J164" t="s">
-        <v>31</v>
-      </c>
-      <c r="K164" t="s">
-        <v>17</v>
+      <c r="I164" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J164" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K164" t="str">
+        <v>none</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="s">
-        <v>249</v>
+      <c r="M164" t="str">
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
       <c r="N164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>250</v>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Vexed</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -8390,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -8404,29 +7643,28 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="s">
-        <v>15</v>
-      </c>
-      <c r="J165" t="s">
-        <v>16</v>
-      </c>
-      <c r="K165" t="s">
-        <v>17</v>
+      <c r="I165" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J165" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K165" t="str">
+        <v>none</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
-        <v>251</v>
+      <c r="M165" t="str">
+        <v>2026-02-18T21:19:58.722Z</v>
       </c>
       <c r="N165">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 A8:N48 A2:D2 F2:N2 A3:D3 F3:N3 A4:D4 F4:N4 A5:D5 F5:N5 A6:D6 F6:N6 A7:D7 F7:N7 A51:N102 A49:D49 F49:N49 A50:D50 F50:N50 A107:N161 A103:D103 F103:N103 A104:D104 F104:N104 A105:D105 F105:N105 A106:D106 F106:N106 A165:D165 F165:N165 A164:D164 A162:D162 F162:N162 A163:D163 F163:N163 F164:N164" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N165"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -448,19 +448,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Wizards</v>
+        <v>Liquid</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1015</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>2026-02-18T21:19:58.721Z</v>
+        <v>2026-02-19T01:38:43.524Z</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -492,19 +492,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>The Huns</v>
+        <v>Iluminar</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1015</v>
+        <v>1061.6143113189103</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T01:45:03.003Z</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -536,19 +536,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Verdant</v>
+        <v>Elevate</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1015</v>
+        <v>1045.0333860637757</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J4" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K4" t="str">
         <v>none</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+        <v>2026-02-19T01:40:12.263Z</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,19 +580,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bad News Eagles</v>
+        <v>Verdant</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1015</v>
+        <v>1044.4384115620314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J5" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K5" t="str">
         <v>none</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+        <v>2026-02-19T01:45:54.196Z</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -624,19 +624,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Elevate</v>
+        <v>Bounty Hunters</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1015</v>
+        <v>1030.0604120732232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+        <v>2026-02-19T01:38:43.524Z</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -668,19 +668,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Iluminar</v>
+        <v>Titan</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1015</v>
+        <v>1028.8592077342862</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+        <v>2026-02-19T01:45:03.003Z</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Orbit</v>
+        <v>The Huns</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J8" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K8" t="str">
         <v>none</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bounty Hunters</v>
+        <v>OG</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J9" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K9" t="str">
         <v>none</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Liquid</v>
+        <v>FaZe</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J10" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K10" t="str">
         <v>none</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Titan</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J11" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K11" t="str">
         <v>none</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>MIBR</v>
+        <v>Heroic</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J12" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K12" t="str">
         <v>none</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GODSENT</v>
+        <v>Vitality</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J13" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K13" t="str">
         <v>none</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>M80</v>
+        <v>Nexus</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J14" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K14" t="str">
         <v>none</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SK</v>
+        <v>Cloud9</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J15" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K15" t="str">
         <v>none</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>RED Canids</v>
+        <v>Rebels</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J16" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K16" t="str">
         <v>none</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>ECSTATIC</v>
+        <v>Astralis</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>OG</v>
+        <v>ShindeN</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J18" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K18" t="str">
         <v>none</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>FaZe</v>
+        <v>Permitta</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Copenhagen Flames</v>
+        <v>ENCE</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Heroic</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Vitality</v>
+        <v>G2</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Nexus</v>
+        <v>Eternal Fire</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Wildcard</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J24" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K24" t="str">
         <v>none</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cloud9</v>
+        <v>Nemiga</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J25" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K25" t="str">
         <v>none</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Rebels</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J26" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K26" t="str">
         <v>none</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Astralis</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J27" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K27" t="str">
         <v>none</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ShindeN</v>
+        <v>Alliance</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J28" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K28" t="str">
         <v>none</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Permitta</v>
+        <v>TALON</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J29" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K29" t="str">
         <v>none</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>ENCE</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J30" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K30" t="str">
         <v>none</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>iBUYPOWER</v>
+        <v>Virtus.pro</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J31" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K31" t="str">
         <v>none</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>G2</v>
+        <v>Take Flyte</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Eternal Fire</v>
+        <v>Spirit</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Spirit Academy</v>
+        <v>Aravt</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Nemiga</v>
+        <v>BESTIA</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J35" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K35" t="str">
         <v>none</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>NAVI Junior</v>
+        <v>VP.Prodigy</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>PARIVISION</v>
+        <v>Solid</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J37" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K37" t="str">
         <v>none</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Alliance</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>TALON</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J39" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K39" t="str">
         <v>none</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Chinggis Warrios</v>
+        <v>True Rippers</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Virtus.pro</v>
+        <v>Underground</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J41" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K41" t="str">
         <v>none</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Take Flyte</v>
+        <v>TYLOO</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J42" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K42" t="str">
         <v>none</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Spirit</v>
+        <v>Homyno</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J43" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K43" t="str">
         <v>none</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Aravt</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>BESTIA</v>
+        <v>hoorai</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J45" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K45" t="str">
         <v>none</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>VP.Prodigy</v>
+        <v>Entropiq</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J46" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K46" t="str">
         <v>none</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Solid</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J47" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K47" t="str">
         <v>none</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Onyx Ravens</v>
+        <v>Wildcard</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2499,7 +2499,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J48" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K48" t="str">
         <v>none</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2516,19 +2516,19 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Natus Vincere</v>
+        <v>Orbit</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>1015</v>
+        <v>1014.4186945376644</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+        <v>2026-02-19T01:40:12.263Z</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2560,19 +2560,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>True Rippers</v>
+        <v>RED Canids</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1015</v>
+        <v>1014.3357432269672</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J50" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K50" t="str">
         <v>none</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+        <v>2026-02-19T01:45:54.196Z</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -2604,19 +2604,19 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Underground</v>
+        <v>00 Nation</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+        <v/>
       </c>
       <c r="N51">
         <v>0</v>
@@ -2648,19 +2648,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>TYLOO</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+        <v/>
       </c>
       <c r="N52">
         <v>0</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Homyno</v>
+        <v>Aether</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+        <v/>
       </c>
       <c r="N53">
         <v>0</v>
@@ -2736,19 +2736,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>MenaceGG</v>
+        <v>AMKAL</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+        <v/>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2780,19 +2780,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>hoorai</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+        <v/>
       </c>
       <c r="N55">
         <v>0</v>
@@ -2824,19 +2824,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Entropiq</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J56" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K56" t="str">
         <v>none</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+        <v/>
       </c>
       <c r="N56">
         <v>0</v>
@@ -2868,19 +2868,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>The MongolZ</v>
+        <v>Avangar</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+        <v/>
       </c>
       <c r="N57">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>00 Nation</v>
+        <v>B8</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J58" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K58" t="str">
         <v>none</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>100 Thieves</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Aether</v>
+        <v>Bravado</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J60" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K60" t="str">
         <v>none</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>AMKAL</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J61" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K61" t="str">
         <v>none</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Astana Dragons</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J62" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K62" t="str">
         <v>none</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Astralis Talent</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Avangar</v>
+        <v>ESC</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J64" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K64" t="str">
         <v>none</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>B8</v>
+        <v>Flash</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J65" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K65" t="str">
         <v>none</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>BIG Academy</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Bravado</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>Fnatic</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Counter Logic Games</v>
+        <v>FORZE</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J69" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K69" t="str">
         <v>none</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ENCE Academy</v>
+        <v>Gambit</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J70" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K70" t="str">
         <v>none</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>ESC</v>
+        <v>GATERON</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J71" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K71" t="str">
         <v>none</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Flash</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>HAVU</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>FlyQuest RED</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Fnatic</v>
+        <v>Hesta</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J75" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K75" t="str">
         <v>none</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>FORZE</v>
+        <v>Immortals</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Gambit</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>GATERON</v>
+        <v>Kinguin</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J78" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K78" t="str">
         <v>none</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>GhoulsW</v>
+        <v>kONO</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J79" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K79" t="str">
         <v>none</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>HAVU</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Heroic Academy</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J81" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K81" t="str">
         <v>none</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Hesta</v>
+        <v>MANA</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Immortals</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Into the Beach</v>
+        <v>Misfits</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Kinguin</v>
+        <v>mousesports</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J85" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K85" t="str">
         <v>none</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>kONO</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J86" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K86" t="str">
         <v>none</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>LGB eSports</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>MAD Lions</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J88" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K88" t="str">
         <v>none</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>MANA</v>
+        <v>Nordix</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>MIBR Academy</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J90" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K90" t="str">
         <v>none</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Misfits</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J91" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K91" t="str">
         <v>none</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>mousesports</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MOUZ NXT</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J93" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K93" t="str">
         <v>none</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Movistar KOI</v>
+        <v>Rogue</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>NIP Impact</v>
+        <v>Shika</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J95" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K95" t="str">
         <v>none</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Nordix</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>NOVAQ</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J97" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K97" t="str">
         <v>none</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>paiN Academy</v>
+        <v>Sprout</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>QMISTRY</v>
+        <v>Tsunami</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>VeryGames</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J100" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K100" t="str">
         <v>none</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Rogue</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shika</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J102" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K102" t="str">
         <v>none</v>
@@ -4892,19 +4892,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>SKYFURY</v>
+        <v>GODSENT</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J103" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K103" t="str">
         <v>none</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="str">
-        <v/>
+        <v>2026-02-19T01:39:32.364Z</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Space Soldiers</v>
+        <v>M80</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>1000</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
-        <v/>
+        <v>2026-02-19T01:45:45.455Z</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Sprout</v>
+        <v>MIBR</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
-        <v/>
+        <v>2026-02-19T01:39:50.018Z</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5024,19 +5024,19 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Tsunami</v>
+        <v>Wizards</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>1000</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J106" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K106" t="str">
         <v>none</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="str">
-        <v/>
+        <v>2026-02-19T01:45:38.841Z</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>VeryGames</v>
+        <v>ad hoc</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J107" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K107" t="str">
         <v>none</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
-        <v/>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Vox Eminor</v>
+        <v>Reason</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J108" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K108" t="str">
         <v>none</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="str">
-        <v/>
+        <v>2026-02-19T00:49:54.043Z</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Wildcard Academy</v>
+        <v>SAW</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5165,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="str">
-        <v/>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>ad hoc</v>
+        <v>NomadS</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J110" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K110" t="str">
         <v>none</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Reason</v>
+        <v>Outsiders</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>SAW</v>
+        <v>Red Viperz</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J112" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K112" t="str">
         <v>none</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>NomadS</v>
+        <v>The Dice</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J113" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K113" t="str">
         <v>none</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Outsiders</v>
+        <v>Victores Sumus</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J114" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K114" t="str">
         <v>none</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Red Viperz</v>
+        <v>ODDIK</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>The Dice</v>
+        <v>Qiang</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J116" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K116" t="str">
         <v>none</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Victores Sumus</v>
+        <v>inSanitY</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J117" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K117" t="str">
         <v>none</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>ODDIK</v>
+        <v>Sangal</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J118" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K118" t="str">
         <v>none</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Qiang</v>
+        <v>9Pandas</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J119" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K119" t="str">
         <v>none</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>inSanitY</v>
+        <v>Gods Reign</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Sangal</v>
+        <v>CatEvil</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J121" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K121" t="str">
         <v>none</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>9Pandas</v>
+        <v>Carnival</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Gods Reign</v>
+        <v>Evil Geniuses</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J123" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K123" t="str">
         <v>none</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>CatEvil</v>
+        <v>Vantage</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J124" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K124" t="str">
         <v>none</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Carnival</v>
+        <v>ATOX</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Evil Geniuses</v>
+        <v>Skinvault</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Vantage</v>
+        <v>BC.Game</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>ATOX</v>
+        <v>Wings Up</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Skinvault</v>
+        <v>Lynn Vision</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>BC.Game</v>
+        <v>Tricked</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J130" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K130" t="str">
         <v>none</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Wings Up</v>
+        <v>3DMAX</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J131" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K131" t="str">
         <v>none</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Lynn Vision</v>
+        <v>Falcons</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+        <v>2026-02-19T00:38:54.146Z</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Tricked</v>
+        <v>Dignitas</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+        <v>2026-02-19T00:38:46.436Z</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>3DMAX</v>
+        <v>Venom</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J134" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K134" t="str">
         <v>none</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Falcons</v>
+        <v>MOUZ</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J135" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K135" t="str">
         <v>none</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+        <v>2026-02-19T00:38:27.845Z</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Dignitas</v>
+        <v>Aurora</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J136" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K136" t="str">
         <v>none</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+        <v>2026-02-19T00:38:18.936Z</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Venom</v>
+        <v>ARCRED</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J137" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K137" t="str">
         <v>none</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>MOUZ</v>
+        <v>LDLC</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J138" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K138" t="str">
         <v>none</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+        <v>2026-02-19T00:37:55.156Z</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Aurora</v>
+        <v>GamerLegion</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J139" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K139" t="str">
         <v>none</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>ARCRED</v>
+        <v>Passion UA</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>LDLC</v>
+        <v>FlyQuest</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>GamerLegion</v>
+        <v>Envy</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J142" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K142" t="str">
         <v>none</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Passion UA</v>
+        <v>BIG</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J143" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K143" t="str">
         <v>none</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>FlyQuest</v>
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J144" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K144" t="str">
         <v>none</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+        <v>2026-02-19T00:36:35.184Z</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Envy</v>
+        <v>Limitless</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>BIG</v>
+        <v>Galorys</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J146" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K146" t="str">
         <v>none</v>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ninjas in Pyjamas</v>
+        <v>devils.one</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J147" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K147" t="str">
         <v>none</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+        <v>2026-02-18T21:23:30.347Z</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Limitless</v>
+        <v>Luminosity</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+        <v>2026-02-18T21:23:18.851Z</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Galorys</v>
+        <v>Sharks</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+        <v>2026-02-18T21:23:12.952Z</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>devils.one</v>
+        <v>IHC</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="M150" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+        <v>2026-02-18T21:23:06.529Z</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Luminosity</v>
+        <v>Kappa Bar</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+        <v>2026-02-18T21:22:57.244Z</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sharks</v>
+        <v>Complexity</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+        <v>2026-02-18T21:22:48.652Z</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>IHC</v>
+        <v>Case</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J153" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K153" t="str">
         <v>none</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+        <v>2026-02-18T21:22:39.402Z</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kappa Bar</v>
+        <v>Mythic</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J154" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K154" t="str">
         <v>none</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="M154" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+        <v>2026-02-18T21:22:32.047Z</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Complexity</v>
+        <v>Enemy</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J155" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K155" t="str">
         <v>none</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+        <v>2026-02-18T21:22:20.745Z</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Case</v>
+        <v>FURIA</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J156" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K156" t="str">
         <v>none</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+        <v>2026-02-18T21:22:13.604Z</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Mythic</v>
+        <v>KRU</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M157" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+        <v>2026-02-18T21:22:06.663Z</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Enemy</v>
+        <v>Imperial</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J158" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K158" t="str">
         <v>none</v>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+        <v>2026-02-18T21:21:57.658Z</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>FURIA</v>
+        <v>9z</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="M159" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
+        <v>2026-02-18T21:21:44.273Z</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>KRU</v>
+        <v>paiN</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+        <v>2026-02-18T21:21:14.058Z</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Imperial</v>
+        <v>Vexed</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J161" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K161" t="str">
         <v>none</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+        <v>2026-02-18T21:19:58.722Z</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -7488,19 +7488,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>9z</v>
+        <v>Bad News Eagles</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J162" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K162" t="str">
         <v>none</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="M162" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+        <v>2026-02-19T01:45:27.335Z</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -7532,19 +7532,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>paiN</v>
+        <v>SK</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J163" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K163" t="str">
         <v>none</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+        <v>2026-02-19T01:39:18.535Z</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -7576,19 +7576,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Legacy</v>
+        <v>ECSTATIC</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J164" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K164" t="str">
         <v>none</v>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="M164" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T01:39:12.540Z</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Vexed</v>
+        <v>Legacy</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7629,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>985</v>
+        <v>957.5159098824421</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7647,7 +7647,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J165" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K165" t="str">
         <v>none</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="M165" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
+        <v>2026-02-19T01:45:20.251Z</v>
       </c>
       <c r="N165">
         <v>0</v>

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1,41 +1,785 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC785E3-E2DC-4DE1-89BC-2BDA662B29E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="251">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Victories</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Loses</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Majors</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>Tournaments Trophies</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>BonusType</t>
+  </si>
+  <si>
+    <t>BonusRemaining</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:38:43.524Z</t>
+  </si>
+  <si>
+    <t>Iluminar</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:03.003Z</t>
+  </si>
+  <si>
+    <t>Elevate</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:40:12.263Z</t>
+  </si>
+  <si>
+    <t>Verdant</t>
+  </si>
+  <si>
+    <t>AS/SIS/ESEA</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:54.196Z</t>
+  </si>
+  <si>
+    <t>Bounty Hunters</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>The Huns</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:06.168Z</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:18.696Z</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:26.343Z</t>
+  </si>
+  <si>
+    <t>Copenhagen Flames</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:35.184Z</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:43.463Z</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:05.560Z</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:20.280Z</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:47.172Z</t>
+  </si>
+  <si>
+    <t>Rebels</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:55.156Z</t>
+  </si>
+  <si>
+    <t>Astralis</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:03.598Z</t>
+  </si>
+  <si>
+    <t>ShindeN</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:18.936Z</t>
+  </si>
+  <si>
+    <t>Permitta</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:27.845Z</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:39.010Z</t>
+  </si>
+  <si>
+    <t>iBUYPOWER</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:46.436Z</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:54.146Z</t>
+  </si>
+  <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:39:02.710Z</t>
+  </si>
+  <si>
+    <t>Spirit Academy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:45:42.234Z</t>
+  </si>
+  <si>
+    <t>Nemiga</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:08.336Z</t>
+  </si>
+  <si>
+    <t>NAVI Junior</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:32.115Z</t>
+  </si>
+  <si>
+    <t>PARIVISION</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:52.846Z</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:11.265Z</t>
+  </si>
+  <si>
+    <t>TALON</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:18.470Z</t>
+  </si>
+  <si>
+    <t>Chinggis Warrios</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:28.286Z</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:36.482Z</t>
+  </si>
+  <si>
+    <t>Take Flyte</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:49.161Z</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:02.110Z</t>
+  </si>
+  <si>
+    <t>Aravt</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:09.473Z</t>
+  </si>
+  <si>
+    <t>BESTIA</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:17.012Z</t>
+  </si>
+  <si>
+    <t>VP.Prodigy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:28.102Z</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:38.129Z</t>
+  </si>
+  <si>
+    <t>Onyx Ravens</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:45.055Z</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:52.026Z</t>
+  </si>
+  <si>
+    <t>True Rippers</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:00.243Z</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:12.765Z</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:20.687Z</t>
+  </si>
+  <si>
+    <t>Homyno</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:27.811Z</t>
+  </si>
+  <si>
+    <t>MenaceGG</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:35.489Z</t>
+  </si>
+  <si>
+    <t>hoorai</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:47.596Z</t>
+  </si>
+  <si>
+    <t>Entropiq</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:54.043Z</t>
+  </si>
+  <si>
+    <t>The MongolZ</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:50:09.060Z</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:27.234Z</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>RED Canids</t>
+  </si>
+  <si>
+    <t>00 Nation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100 Thieves</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>AMKAL</t>
+  </si>
+  <si>
+    <t>Astana Dragons</t>
+  </si>
+  <si>
+    <t>Astralis Talent</t>
+  </si>
+  <si>
+    <t>Avangar</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>BIG Academy</t>
+  </si>
+  <si>
+    <t>Bravado</t>
+  </si>
+  <si>
+    <t>Copenhagen Wolves</t>
+  </si>
+  <si>
+    <t>Counter Logic Games</t>
+  </si>
+  <si>
+    <t>ENCE Academy</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>FLuffy Gangsters</t>
+  </si>
+  <si>
+    <t>FlyQuest RED</t>
+  </si>
+  <si>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>Gambit</t>
+  </si>
+  <si>
+    <t>GATERON</t>
+  </si>
+  <si>
+    <t>GhoulsW</t>
+  </si>
+  <si>
+    <t>HAVU</t>
+  </si>
+  <si>
+    <t>Heroic Academy</t>
+  </si>
+  <si>
+    <t>Hesta</t>
+  </si>
+  <si>
+    <t>Immortals</t>
+  </si>
+  <si>
+    <t>Into the Beach</t>
+  </si>
+  <si>
+    <t>Kinguin</t>
+  </si>
+  <si>
+    <t>kONO</t>
+  </si>
+  <si>
+    <t>LGB eSports</t>
+  </si>
+  <si>
+    <t>MAD Lions</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>MIBR Academy</t>
+  </si>
+  <si>
+    <t>Misfits</t>
+  </si>
+  <si>
+    <t>mousesports</t>
+  </si>
+  <si>
+    <t>MOUZ NXT</t>
+  </si>
+  <si>
+    <t>Movistar KOI</t>
+  </si>
+  <si>
+    <t>NIP Impact</t>
+  </si>
+  <si>
+    <t>Nordix</t>
+  </si>
+  <si>
+    <t>NOVAQ</t>
+  </si>
+  <si>
+    <t>paiN Academy</t>
+  </si>
+  <si>
+    <t>QMISTRY</t>
+  </si>
+  <si>
+    <t>Quantum Bellator Fire</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Shika</t>
+  </si>
+  <si>
+    <t>SKYFURY</t>
+  </si>
+  <si>
+    <t>Space Soldiers</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>VeryGames</t>
+  </si>
+  <si>
+    <t>Vox Eminor</t>
+  </si>
+  <si>
+    <t>Wildcard Academy</t>
+  </si>
+  <si>
+    <t>GODSENT</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:32.364Z</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:45.455Z</t>
+  </si>
+  <si>
+    <t>MIBR</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:50.018Z</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:38.841Z</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>NomadS</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>Red Viperz</t>
+  </si>
+  <si>
+    <t>The Dice</t>
+  </si>
+  <si>
+    <t>Victores Sumus</t>
+  </si>
+  <si>
+    <t>ODDIK</t>
+  </si>
+  <si>
+    <t>Qiang</t>
+  </si>
+  <si>
+    <t>inSanitY</t>
+  </si>
+  <si>
+    <t>Sangal</t>
+  </si>
+  <si>
+    <t>9Pandas</t>
+  </si>
+  <si>
+    <t>Gods Reign</t>
+  </si>
+  <si>
+    <t>CatEvil</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>Evil Geniuses</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>ATOX</t>
+  </si>
+  <si>
+    <t>Skinvault</t>
+  </si>
+  <si>
+    <t>BC.Game</t>
+  </si>
+  <si>
+    <t>Wings Up</t>
+  </si>
+  <si>
+    <t>Lynn Vision</t>
+  </si>
+  <si>
+    <t>Tricked</t>
+  </si>
+  <si>
+    <t>3DMAX</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Dignitas</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>ARCRED</t>
+  </si>
+  <si>
+    <t>LDLC</t>
+  </si>
+  <si>
+    <t>GamerLegion</t>
+  </si>
+  <si>
+    <t>Passion UA</t>
+  </si>
+  <si>
+    <t>FlyQuest</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>Galorys</t>
+  </si>
+  <si>
+    <t>devils.one</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:30.347Z</t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:18.851Z</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:12.952Z</t>
+  </si>
+  <si>
+    <t>IHC</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:06.529Z</t>
+  </si>
+  <si>
+    <t>Kappa Bar</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:57.244Z</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:48.652Z</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:39.402Z</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:32.047Z</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:20.745Z</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:13.604Z</t>
+  </si>
+  <si>
+    <t>KRU</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:06.663Z</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:57.658Z</t>
+  </si>
+  <si>
+    <t>9z</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:44.273Z</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:14.058Z</t>
+  </si>
+  <si>
+    <t>Vexed</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:19:58.722Z</t>
+  </si>
+  <si>
+    <t>Bad News Eagles</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:27.335Z</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:18.535Z</t>
+  </si>
+  <si>
+    <t>ECSTATIC</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:12.540Z</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:20.251Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +809,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,59 +1148,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Team</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Victories</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Streak</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Loses</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Points</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Majors</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Prestige</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Tournaments Trophies</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Tier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Region</v>
-      </c>
-      <c r="K1" t="str">
-        <v>BonusType</v>
-      </c>
-      <c r="L1" t="str">
-        <v>BonusRemaining</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdated</v>
-      </c>
-      <c r="N1" t="str">
-        <v>BonusReamining</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Liquid</v>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -471,28 +1226,25 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J2" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K2" t="str">
-        <v>none</v>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Iluminar</v>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -515,28 +1267,25 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J3" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K3" t="str">
-        <v>none</v>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Elevate</v>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -559,28 +1308,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J4" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K4" t="str">
-        <v>none</v>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <v>2026-02-19T01:40:12.263Z</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Verdant</v>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -603,28 +1349,25 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J5" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K5" t="str">
-        <v>none</v>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="str">
-        <v>2026-02-19T01:45:54.196Z</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Bounty Hunters</v>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -647,28 +1390,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J6" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K6" t="str">
-        <v>none</v>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Titan</v>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -691,28 +1431,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J7" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K7" t="str">
-        <v>none</v>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>The Huns</v>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -735,28 +1472,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J8" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K8" t="str">
-        <v>none</v>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>OG</v>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -779,28 +1513,25 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J9" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K9" t="str">
-        <v>none</v>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>FaZe</v>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -823,28 +1554,25 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J10" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K10" t="str">
-        <v>none</v>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Copenhagen Flames</v>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -867,28 +1595,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J11" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K11" t="str">
-        <v>none</v>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Heroic</v>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -911,28 +1636,25 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J12" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K12" t="str">
-        <v>none</v>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Vitality</v>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -955,28 +1677,25 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J13" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K13" t="str">
-        <v>none</v>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Nexus</v>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -999,28 +1718,25 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J14" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K14" t="str">
-        <v>none</v>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Cloud9</v>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1043,28 +1759,25 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J15" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K15" t="str">
-        <v>none</v>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Rebels</v>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1087,28 +1800,25 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J16" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K16" t="str">
-        <v>none</v>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Astralis</v>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1131,28 +1841,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J17" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K17" t="str">
-        <v>none</v>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>ShindeN</v>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1175,28 +1882,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J18" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K18" t="str">
-        <v>none</v>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Permitta</v>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1219,28 +1923,25 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J19" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K19" t="str">
-        <v>none</v>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>ENCE</v>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1263,28 +1964,25 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J20" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K20" t="str">
-        <v>none</v>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>iBUYPOWER</v>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1307,28 +2005,25 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J21" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K21" t="str">
-        <v>none</v>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>G2</v>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1351,28 +2046,25 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J22" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K22" t="str">
-        <v>none</v>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Eternal Fire</v>
+      <c r="M22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1395,28 +2087,25 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J23" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K23" t="str">
-        <v>none</v>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Spirit Academy</v>
+      <c r="M23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1439,28 +2128,25 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J24" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K24" t="str">
-        <v>none</v>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Nemiga</v>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1483,28 +2169,25 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J25" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K25" t="str">
-        <v>none</v>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>NAVI Junior</v>
+      <c r="M25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1527,28 +2210,25 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J26" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K26" t="str">
-        <v>none</v>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>PARIVISION</v>
+      <c r="M26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1571,28 +2251,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J27" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K27" t="str">
-        <v>none</v>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Alliance</v>
+      <c r="M27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1615,28 +2292,25 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J28" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K28" t="str">
-        <v>none</v>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>TALON</v>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1659,28 +2333,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J29" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K29" t="str">
-        <v>none</v>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Chinggis Warrios</v>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1703,28 +2374,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J30" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K30" t="str">
-        <v>none</v>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Virtus.pro</v>
+      <c r="M30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1747,28 +2415,25 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J31" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K31" t="str">
-        <v>none</v>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Take Flyte</v>
+      <c r="M31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1791,28 +2456,25 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J32" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K32" t="str">
-        <v>none</v>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Spirit</v>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1835,28 +2497,25 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J33" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K33" t="str">
-        <v>none</v>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Aravt</v>
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1879,28 +2538,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J34" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K34" t="str">
-        <v>none</v>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>BESTIA</v>
+      <c r="M34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1923,28 +2579,25 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J35" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K35" t="str">
-        <v>none</v>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>VP.Prodigy</v>
+      <c r="M35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1967,28 +2620,25 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J36" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K36" t="str">
-        <v>none</v>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Solid</v>
+      <c r="M36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2011,28 +2661,25 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J37" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K37" t="str">
-        <v>none</v>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Onyx Ravens</v>
+      <c r="M37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2055,28 +2702,25 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J38" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K38" t="str">
-        <v>none</v>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Natus Vincere</v>
+      <c r="M38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2099,28 +2743,25 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J39" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K39" t="str">
-        <v>none</v>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>True Rippers</v>
+      <c r="M39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2143,28 +2784,25 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J40" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K40" t="str">
-        <v>none</v>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Underground</v>
+      <c r="M40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2187,28 +2825,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J41" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K41" t="str">
-        <v>none</v>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>TYLOO</v>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2231,28 +2866,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J42" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K42" t="str">
-        <v>none</v>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Homyno</v>
+      <c r="M42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2275,28 +2907,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J43" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K43" t="str">
-        <v>none</v>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>MenaceGG</v>
+      <c r="M43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2319,28 +2948,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J44" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K44" t="str">
-        <v>none</v>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>hoorai</v>
+      <c r="M44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2363,28 +2989,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J45" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K45" t="str">
-        <v>none</v>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Entropiq</v>
+      <c r="M45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2407,28 +3030,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J46" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K46" t="str">
-        <v>none</v>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>The MongolZ</v>
+      <c r="M46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2451,28 +3071,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J47" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K47" t="str">
-        <v>none</v>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Wildcard</v>
+      <c r="M47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2495,28 +3112,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J48" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K48" t="str">
-        <v>none</v>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Orbit</v>
+      <c r="M48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>110</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2539,28 +3153,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J49" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K49" t="str">
-        <v>none</v>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="str">
-        <v>2026-02-19T01:40:12.263Z</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>RED Canids</v>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>111</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2583,28 +3194,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J50" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K50" t="str">
-        <v>none</v>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="str">
-        <v>2026-02-19T01:45:54.196Z</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>00 Nation</v>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>112</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2627,28 +3235,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J51" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K51" t="str">
-        <v>none</v>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="str">
-        <v/>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>100 Thieves</v>
+      <c r="M51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2671,28 +3276,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J52" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K52" t="str">
-        <v>none</v>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="str">
-        <v/>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Aether</v>
+      <c r="M52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2715,28 +3317,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J53" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K53" t="str">
-        <v>none</v>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="str">
-        <v/>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>AMKAL</v>
+      <c r="M53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>116</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2759,28 +3358,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J54" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K54" t="str">
-        <v>none</v>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="str">
-        <v/>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Astana Dragons</v>
+      <c r="M54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2803,28 +3399,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J55" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K55" t="str">
-        <v>none</v>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="str">
-        <v/>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Astralis Talent</v>
+      <c r="M55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2847,28 +3440,25 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J56" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K56" t="str">
-        <v>none</v>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="str">
-        <v/>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Avangar</v>
+      <c r="M56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2891,28 +3481,25 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J57" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K57" t="str">
-        <v>none</v>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="str">
-        <v/>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>B8</v>
+      <c r="M57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2935,28 +3522,25 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J58" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K58" t="str">
-        <v>none</v>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="str">
-        <v/>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>BIG Academy</v>
+      <c r="M58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2979,28 +3563,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J59" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K59" t="str">
-        <v>none</v>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="str">
-        <v/>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Bravado</v>
+      <c r="M59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3023,28 +3604,25 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J60" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K60" t="str">
-        <v>none</v>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="str">
-        <v/>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Copenhagen Wolves</v>
+      <c r="M60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3067,28 +3645,25 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J61" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K61" t="str">
-        <v>none</v>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="str">
-        <v/>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>Counter Logic Games</v>
+      <c r="M61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3111,28 +3686,25 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J62" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K62" t="str">
-        <v>none</v>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="str">
-        <v/>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>ENCE Academy</v>
+      <c r="M62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3155,28 +3727,25 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J63" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K63" t="str">
-        <v>none</v>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="str">
-        <v/>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>ESC</v>
+      <c r="M63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3199,28 +3768,25 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J64" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K64" t="str">
-        <v>none</v>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="str">
-        <v/>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Flash</v>
+      <c r="M64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>127</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3243,28 +3809,25 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J65" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K65" t="str">
-        <v>none</v>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="str">
-        <v/>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>FLuffy Gangsters</v>
+      <c r="M65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>128</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3287,28 +3850,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J66" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K66" t="str">
-        <v>none</v>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="str">
-        <v/>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>FlyQuest RED</v>
+      <c r="M66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>129</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3331,28 +3891,25 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J67" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K67" t="str">
-        <v>none</v>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="str">
-        <v/>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Fnatic</v>
+      <c r="M67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>130</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3375,28 +3932,25 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J68" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K68" t="str">
-        <v>none</v>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" t="s">
+        <v>16</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="str">
-        <v/>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>FORZE</v>
+      <c r="M68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>131</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3419,28 +3973,25 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J69" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K69" t="str">
-        <v>none</v>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="str">
-        <v/>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Gambit</v>
+      <c r="M69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>132</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3463,28 +4014,25 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J70" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K70" t="str">
-        <v>none</v>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="str">
-        <v/>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>GATERON</v>
+      <c r="M70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>133</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3507,28 +4055,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J71" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K71" t="str">
-        <v>none</v>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="str">
-        <v/>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>GhoulsW</v>
+      <c r="M71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>134</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3551,28 +4096,25 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J72" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K72" t="str">
-        <v>none</v>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="str">
-        <v/>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>HAVU</v>
+      <c r="M72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>135</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3595,28 +4137,25 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J73" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K73" t="str">
-        <v>none</v>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" t="s">
+        <v>16</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="str">
-        <v/>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Heroic Academy</v>
+      <c r="M73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>136</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3639,28 +4178,25 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J74" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K74" t="str">
-        <v>none</v>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="str">
-        <v/>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>Hesta</v>
+      <c r="M74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>137</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3683,28 +4219,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J75" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K75" t="str">
-        <v>none</v>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="str">
-        <v/>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>Immortals</v>
+      <c r="M75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3727,28 +4260,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J76" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K76" t="str">
-        <v>none</v>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="str">
-        <v/>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Into the Beach</v>
+      <c r="M76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>139</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3771,28 +4301,25 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J77" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K77" t="str">
-        <v>none</v>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" t="s">
+        <v>16</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="str">
-        <v/>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Kinguin</v>
+      <c r="M77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>140</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3815,28 +4342,25 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J78" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K78" t="str">
-        <v>none</v>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" t="s">
+        <v>16</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="str">
-        <v/>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>kONO</v>
+      <c r="M78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>141</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3859,28 +4383,25 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J79" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K79" t="str">
-        <v>none</v>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" t="s">
+        <v>16</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="str">
-        <v/>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>LGB eSports</v>
+      <c r="M79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>142</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3903,28 +4424,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J80" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K80" t="str">
-        <v>none</v>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" t="s">
+        <v>16</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="str">
-        <v/>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>MAD Lions</v>
+      <c r="M80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>143</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3947,28 +4465,25 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J81" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K81" t="str">
-        <v>none</v>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" t="s">
+        <v>16</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="str">
-        <v/>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>MANA</v>
+      <c r="M81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>144</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3991,28 +4506,25 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J82" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K82" t="str">
-        <v>none</v>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>16</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="str">
-        <v/>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>MIBR Academy</v>
+      <c r="M82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>145</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4035,28 +4547,25 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J83" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K83" t="str">
-        <v>none</v>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="str">
-        <v/>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Misfits</v>
+      <c r="M83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>146</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4079,28 +4588,25 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J84" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K84" t="str">
-        <v>none</v>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="str">
-        <v/>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>mousesports</v>
+      <c r="M84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>147</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4123,28 +4629,25 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J85" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K85" t="str">
-        <v>none</v>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>16</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="str">
-        <v/>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>MOUZ NXT</v>
+      <c r="M85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>148</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4167,28 +4670,25 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J86" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K86" t="str">
-        <v>none</v>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" t="s">
+        <v>16</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="str">
-        <v/>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>Movistar KOI</v>
+      <c r="M86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>149</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4211,28 +4711,25 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J87" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K87" t="str">
-        <v>none</v>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" t="s">
+        <v>16</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="str">
-        <v/>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>NIP Impact</v>
+      <c r="M87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>150</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4255,28 +4752,25 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J88" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K88" t="str">
-        <v>none</v>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" t="s">
+        <v>16</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="str">
-        <v/>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>Nordix</v>
+      <c r="M88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>151</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4299,28 +4793,25 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J89" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K89" t="str">
-        <v>none</v>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" t="s">
+        <v>16</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="str">
-        <v/>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>NOVAQ</v>
+      <c r="M89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>152</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4343,28 +4834,25 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J90" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K90" t="str">
-        <v>none</v>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" t="s">
+        <v>16</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="str">
-        <v/>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>paiN Academy</v>
+      <c r="M90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>153</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4387,28 +4875,25 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J91" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K91" t="str">
-        <v>none</v>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" t="s">
+        <v>16</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="str">
-        <v/>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>QMISTRY</v>
+      <c r="M91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>154</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4431,28 +4916,25 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J92" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K92" t="str">
-        <v>none</v>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" t="s">
+        <v>16</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="str">
-        <v/>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Quantum Bellator Fire</v>
+      <c r="M92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>155</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4475,28 +4957,25 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J93" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K93" t="str">
-        <v>none</v>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" t="s">
+        <v>16</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="str">
-        <v/>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Rogue</v>
+      <c r="M93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>156</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4519,28 +4998,25 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J94" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K94" t="str">
-        <v>none</v>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" t="s">
+        <v>16</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="str">
-        <v/>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Shika</v>
+      <c r="M94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>157</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4563,28 +5039,25 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J95" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K95" t="str">
-        <v>none</v>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" t="s">
+        <v>16</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="str">
-        <v/>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>SKYFURY</v>
+      <c r="M95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>158</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4607,28 +5080,25 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J96" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K96" t="str">
-        <v>none</v>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>30</v>
+      </c>
+      <c r="K96" t="s">
+        <v>16</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="str">
-        <v/>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Space Soldiers</v>
+      <c r="M96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>159</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4651,28 +5121,25 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J97" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K97" t="str">
-        <v>none</v>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" t="s">
+        <v>16</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="str">
-        <v/>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Sprout</v>
+      <c r="M97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>160</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4695,28 +5162,25 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J98" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K98" t="str">
-        <v>none</v>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>16</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="str">
-        <v/>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Tsunami</v>
+      <c r="M98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>161</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4739,28 +5203,25 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J99" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K99" t="str">
-        <v>none</v>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" t="s">
+        <v>16</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="str">
-        <v/>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>VeryGames</v>
+      <c r="M99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>162</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4783,28 +5244,25 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J100" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K100" t="str">
-        <v>none</v>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" t="s">
+        <v>16</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="str">
-        <v/>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Vox Eminor</v>
+      <c r="M100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>163</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4827,28 +5285,25 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J101" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K101" t="str">
-        <v>none</v>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" t="s">
+        <v>16</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="str">
-        <v/>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Wildcard Academy</v>
+      <c r="M101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>164</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4871,28 +5326,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J102" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K102" t="str">
-        <v>none</v>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>30</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="str">
-        <v/>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>GODSENT</v>
+      <c r="M102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>165</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -4904,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <v>999.7251809772306</v>
+        <v>999.72518097723059</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4915,28 +5367,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J103" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K103" t="str">
-        <v>none</v>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" t="s">
+        <v>16</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="str">
-        <v>2026-02-19T01:39:32.364Z</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>M80</v>
+      <c r="M103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>167</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -4948,7 +5397,7 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <v>999.672340544519</v>
+        <v>999.67234054451899</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4959,28 +5408,25 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J104" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K104" t="str">
-        <v>none</v>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" t="s">
+        <v>16</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="str">
-        <v>2026-02-19T01:45:45.455Z</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>MIBR</v>
+      <c r="M104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>169</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -4992,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5003,28 +5449,25 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J105" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K105" t="str">
-        <v>none</v>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" t="s">
+        <v>16</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="str">
-        <v>2026-02-19T01:39:50.018Z</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>Wizards</v>
+      <c r="M105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>171</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5036,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="E106">
-        <v>999.4062521695108</v>
+        <v>999.40625216951082</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5047,28 +5490,25 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J106" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K106" t="str">
-        <v>none</v>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" t="s">
+        <v>16</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="str">
-        <v>2026-02-19T01:45:38.841Z</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>ad hoc</v>
+      <c r="M106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>173</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5091,28 +5531,25 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J107" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K107" t="str">
-        <v>none</v>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" t="s">
+        <v>16</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>Reason</v>
+      <c r="M107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>174</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5135,28 +5572,25 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J108" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K108" t="str">
-        <v>none</v>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" t="s">
+        <v>16</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>SAW</v>
+      <c r="M108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>175</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5179,28 +5613,25 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J109" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K109" t="str">
-        <v>none</v>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" t="s">
+        <v>16</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>NomadS</v>
+      <c r="M109" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>176</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5223,28 +5654,25 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J110" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K110" t="str">
-        <v>none</v>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" t="s">
+        <v>16</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Outsiders</v>
+      <c r="M110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>177</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5267,28 +5695,25 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J111" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K111" t="str">
-        <v>none</v>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" t="s">
+        <v>16</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Red Viperz</v>
+      <c r="M111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>178</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5311,28 +5736,25 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J112" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K112" t="str">
-        <v>none</v>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" t="s">
+        <v>16</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>The Dice</v>
+      <c r="M112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>179</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5355,28 +5777,25 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J113" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K113" t="str">
-        <v>none</v>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" t="s">
+        <v>16</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Victores Sumus</v>
+      <c r="M113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>180</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5399,28 +5818,25 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J114" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K114" t="str">
-        <v>none</v>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" t="s">
+        <v>16</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>ODDIK</v>
+      <c r="M114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>181</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5443,28 +5859,25 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J115" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K115" t="str">
-        <v>none</v>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" t="s">
+        <v>16</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Qiang</v>
+      <c r="M115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>182</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5487,28 +5900,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J116" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K116" t="str">
-        <v>none</v>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>30</v>
+      </c>
+      <c r="K116" t="s">
+        <v>16</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>inSanitY</v>
+      <c r="M116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>183</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5531,28 +5941,25 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J117" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K117" t="str">
-        <v>none</v>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>30</v>
+      </c>
+      <c r="K117" t="s">
+        <v>16</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Sangal</v>
+      <c r="M117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>184</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5575,28 +5982,25 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J118" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K118" t="str">
-        <v>none</v>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>16</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>9Pandas</v>
+      <c r="M118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>185</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5619,28 +6023,25 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J119" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K119" t="str">
-        <v>none</v>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" t="s">
+        <v>16</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Gods Reign</v>
+      <c r="M119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>186</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5663,28 +6064,25 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J120" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K120" t="str">
-        <v>none</v>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" t="s">
+        <v>16</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>CatEvil</v>
+      <c r="M120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>187</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5707,28 +6105,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J121" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K121" t="str">
-        <v>none</v>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>30</v>
+      </c>
+      <c r="K121" t="s">
+        <v>16</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>Carnival</v>
+      <c r="M121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>188</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5751,28 +6146,25 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J122" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K122" t="str">
-        <v>none</v>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" t="s">
+        <v>16</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Evil Geniuses</v>
+      <c r="M122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>189</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5795,28 +6187,25 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J123" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K123" t="str">
-        <v>none</v>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" t="s">
+        <v>16</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Vantage</v>
+      <c r="M123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>190</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5839,28 +6228,25 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J124" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K124" t="str">
-        <v>none</v>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" t="s">
+        <v>16</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>ATOX</v>
+      <c r="M124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>191</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5883,28 +6269,25 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J125" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K125" t="str">
-        <v>none</v>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" t="s">
+        <v>16</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>Skinvault</v>
+      <c r="M125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>192</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5927,28 +6310,25 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J126" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K126" t="str">
-        <v>none</v>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" t="s">
+        <v>16</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>BC.Game</v>
+      <c r="M126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>193</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5971,28 +6351,25 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J127" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K127" t="str">
-        <v>none</v>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" t="s">
+        <v>16</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Wings Up</v>
+      <c r="M127" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>194</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6015,28 +6392,25 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J128" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K128" t="str">
-        <v>none</v>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" t="s">
+        <v>16</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>Lynn Vision</v>
+      <c r="M128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>195</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6059,28 +6433,25 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J129" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K129" t="str">
-        <v>none</v>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" t="s">
+        <v>16</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Tricked</v>
+      <c r="M129" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>196</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6103,28 +6474,25 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J130" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K130" t="str">
-        <v>none</v>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" t="s">
+        <v>16</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>3DMAX</v>
+      <c r="M130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>197</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6147,28 +6515,25 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J131" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K131" t="str">
-        <v>none</v>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>30</v>
+      </c>
+      <c r="K131" t="s">
+        <v>16</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>Falcons</v>
+      <c r="M131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>198</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6191,28 +6556,25 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J132" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K132" t="str">
-        <v>none</v>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" t="s">
+        <v>16</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
-      </c>
-      <c r="N132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>Dignitas</v>
+      <c r="M132" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>199</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6235,28 +6597,25 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J133" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K133" t="str">
-        <v>none</v>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>30</v>
+      </c>
+      <c r="K133" t="s">
+        <v>16</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Venom</v>
+      <c r="M133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>200</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6279,28 +6638,25 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J134" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K134" t="str">
-        <v>none</v>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" t="s">
+        <v>16</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>MOUZ</v>
+      <c r="M134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>201</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6323,28 +6679,25 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J135" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K135" t="str">
-        <v>none</v>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>30</v>
+      </c>
+      <c r="K135" t="s">
+        <v>16</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Aurora</v>
+      <c r="M135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>202</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6367,28 +6720,25 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J136" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K136" t="str">
-        <v>none</v>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>23</v>
+      </c>
+      <c r="K136" t="s">
+        <v>16</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>ARCRED</v>
+      <c r="M136" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>203</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6411,28 +6761,25 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J137" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K137" t="str">
-        <v>none</v>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" t="s">
+        <v>16</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>LDLC</v>
+      <c r="M137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>204</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6455,28 +6802,25 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J138" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K138" t="str">
-        <v>none</v>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" t="s">
+        <v>16</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>GamerLegion</v>
+      <c r="M138" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>205</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6499,28 +6843,25 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J139" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K139" t="str">
-        <v>none</v>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" t="s">
+        <v>16</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Passion UA</v>
+      <c r="M139" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>206</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6543,28 +6884,25 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J140" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K140" t="str">
-        <v>none</v>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>23</v>
+      </c>
+      <c r="K140" t="s">
+        <v>16</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>FlyQuest</v>
+      <c r="M140" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>207</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6587,28 +6925,25 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J141" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K141" t="str">
-        <v>none</v>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>23</v>
+      </c>
+      <c r="K141" t="s">
+        <v>16</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>Envy</v>
+      <c r="M141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>208</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6631,28 +6966,25 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J142" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K142" t="str">
-        <v>none</v>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>30</v>
+      </c>
+      <c r="K142" t="s">
+        <v>16</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>BIG</v>
+      <c r="M142" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>209</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6675,28 +7007,25 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J143" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K143" t="str">
-        <v>none</v>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>30</v>
+      </c>
+      <c r="K143" t="s">
+        <v>16</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>Ninjas in Pyjamas</v>
+      <c r="M143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>210</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6719,28 +7048,25 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J144" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K144" t="str">
-        <v>none</v>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>30</v>
+      </c>
+      <c r="K144" t="s">
+        <v>16</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>Limitless</v>
+      <c r="M144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>211</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6763,28 +7089,25 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J145" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K145" t="str">
-        <v>none</v>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145" t="s">
+        <v>16</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>Galorys</v>
+      <c r="M145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>212</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6807,28 +7130,25 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J146" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K146" t="str">
-        <v>none</v>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" t="s">
+        <v>16</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
-      </c>
-      <c r="N146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>devils.one</v>
+      <c r="M146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>213</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6851,28 +7171,25 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J147" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K147" t="str">
-        <v>none</v>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147" t="s">
+        <v>16</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>Luminosity</v>
+      <c r="M147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>215</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6895,28 +7212,25 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J148" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K148" t="str">
-        <v>none</v>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>30</v>
+      </c>
+      <c r="K148" t="s">
+        <v>16</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>Sharks</v>
+      <c r="M148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>217</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6939,28 +7253,25 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J149" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K149" t="str">
-        <v>none</v>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" t="s">
+        <v>16</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>IHC</v>
+      <c r="M149" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>219</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -6983,28 +7294,25 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J150" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K150" t="str">
-        <v>none</v>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" t="s">
+        <v>16</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Kappa Bar</v>
+      <c r="M150" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>221</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7027,28 +7335,25 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J151" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K151" t="str">
-        <v>none</v>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>30</v>
+      </c>
+      <c r="K151" t="s">
+        <v>16</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Complexity</v>
+      <c r="M151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>223</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7071,28 +7376,25 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J152" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K152" t="str">
-        <v>none</v>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" t="s">
+        <v>16</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
-      </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>Case</v>
+      <c r="M152" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>225</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7115,28 +7417,25 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J153" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K153" t="str">
-        <v>none</v>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>30</v>
+      </c>
+      <c r="K153" t="s">
+        <v>16</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>Mythic</v>
+      <c r="M153" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>227</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7159,28 +7458,25 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J154" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K154" t="str">
-        <v>none</v>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>15</v>
+      </c>
+      <c r="K154" t="s">
+        <v>16</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
-      </c>
-      <c r="N154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>Enemy</v>
+      <c r="M154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>229</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7203,28 +7499,25 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J155" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K155" t="str">
-        <v>none</v>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>30</v>
+      </c>
+      <c r="K155" t="s">
+        <v>16</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>FURIA</v>
+      <c r="M155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>231</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7247,28 +7540,25 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J156" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K156" t="str">
-        <v>none</v>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>15</v>
+      </c>
+      <c r="K156" t="s">
+        <v>16</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>KRU</v>
+      <c r="M156" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>233</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7291,28 +7581,25 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J157" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K157" t="str">
-        <v>none</v>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" t="s">
+        <v>16</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Imperial</v>
+      <c r="M157" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>235</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7335,28 +7622,25 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J158" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K158" t="str">
-        <v>none</v>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" t="s">
+        <v>16</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
-      </c>
-      <c r="N158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>9z</v>
+      <c r="M158" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>237</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7379,28 +7663,25 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J159" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K159" t="str">
-        <v>none</v>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" t="s">
+        <v>16</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>paiN</v>
+      <c r="M159" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>239</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7423,28 +7704,25 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J160" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K160" t="str">
-        <v>none</v>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" t="s">
+        <v>16</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Vexed</v>
+      <c r="M160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>241</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7467,28 +7745,25 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J161" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K161" t="str">
-        <v>none</v>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>23</v>
+      </c>
+      <c r="K161" t="s">
+        <v>16</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>Bad News Eagles</v>
+      <c r="M161" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>243</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7500,7 +7775,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7511,28 +7786,25 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J162" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K162" t="str">
-        <v>none</v>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>30</v>
+      </c>
+      <c r="K162" t="s">
+        <v>16</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="str">
-        <v>2026-02-19T01:45:27.335Z</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>SK</v>
+      <c r="M162" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>245</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7544,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7555,28 +7827,25 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J163" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K163" t="str">
-        <v>none</v>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>23</v>
+      </c>
+      <c r="K163" t="s">
+        <v>16</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="str">
-        <v>2026-02-19T01:39:18.535Z</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>ECSTATIC</v>
+      <c r="M163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>247</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7588,7 +7857,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7599,28 +7868,25 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J164" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K164" t="str">
-        <v>none</v>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" t="s">
+        <v>16</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="str">
-        <v>2026-02-19T01:39:12.540Z</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Legacy</v>
+      <c r="M164" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>249</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7632,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>957.5159098824421</v>
+        <v>957.51590988244209</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7643,28 +7909,26 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J165" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K165" t="str">
-        <v>none</v>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>15</v>
+      </c>
+      <c r="K165" t="s">
+        <v>16</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="str">
-        <v>2026-02-19T01:45:20.251Z</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
+      <c r="M165" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N165"/>
+    <ignoredError sqref="A1:M165" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC785E3-E2DC-4DE1-89BC-2BDA662B29E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED3ED2-7FE7-4671-ACE8-DAF20B526331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>BonusType</t>
   </si>
   <si>
-    <t>BonusRemaining</t>
-  </si>
-  <si>
     <t>LastUpdated</t>
   </si>
   <si>
@@ -773,6 +770,9 @@
   </si>
   <si>
     <t>2026-02-19T01:45:20.251Z</t>
+  </si>
+  <si>
+    <t>BonusReamining</t>
   </si>
 </sst>
 </file>
@@ -1152,15 +1152,16 @@
   <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,12 +1199,12 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1227,24 +1228,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1268,24 +1269,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1309,24 +1310,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1350,24 +1351,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1391,24 +1392,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1432,24 +1433,24 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
       <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1473,24 +1474,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
       <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1514,24 +1515,24 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1555,24 +1556,24 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1596,24 +1597,24 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1637,24 +1638,24 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1678,24 +1679,24 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1719,24 +1720,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1760,24 +1761,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1801,24 +1802,24 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1842,24 +1843,24 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>48</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1883,24 +1884,24 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1924,24 +1925,24 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1965,24 +1966,24 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2006,24 +2007,24 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2047,24 +2048,24 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2088,24 +2089,24 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2129,24 +2130,24 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2170,24 +2171,24 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>64</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2211,24 +2212,24 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2252,24 +2253,24 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2293,24 +2294,24 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>70</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2334,24 +2335,24 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2375,24 +2376,24 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>74</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2416,24 +2417,24 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2457,24 +2458,24 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
         <v>14</v>
       </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
       <c r="K32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>78</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2498,24 +2499,24 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>80</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2539,24 +2540,24 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2580,24 +2581,24 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
         <v>14</v>
       </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
       <c r="K35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>84</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2621,24 +2622,24 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>86</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2662,24 +2663,24 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
         <v>14</v>
       </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
       <c r="K37" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2703,24 +2704,24 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>90</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2744,24 +2745,24 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>92</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2785,24 +2786,24 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>94</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2826,24 +2827,24 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>96</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2867,24 +2868,24 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2908,24 +2909,24 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
         <v>14</v>
       </c>
-      <c r="J43" t="s">
-        <v>15</v>
-      </c>
       <c r="K43" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>100</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2949,24 +2950,24 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>102</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2990,24 +2991,24 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>104</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3031,24 +3032,24 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
         <v>14</v>
       </c>
-      <c r="J46" t="s">
-        <v>15</v>
-      </c>
       <c r="K46" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>106</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3072,24 +3073,24 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" t="s">
+        <v>106</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>108</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3113,24 +3114,24 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
         <v>14</v>
       </c>
-      <c r="J48" t="s">
-        <v>15</v>
-      </c>
       <c r="K48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>110</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3154,24 +3155,24 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3195,24 +3196,24 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
         <v>14</v>
       </c>
-      <c r="J50" t="s">
-        <v>15</v>
-      </c>
       <c r="K50" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3236,24 +3237,24 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" t="s">
+        <v>112</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>114</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3277,24 +3278,24 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s">
+        <v>112</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3318,24 +3319,24 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
         <v>14</v>
       </c>
-      <c r="J53" t="s">
-        <v>15</v>
-      </c>
       <c r="K53" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L53" t="s">
+        <v>112</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3359,24 +3360,24 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
         <v>14</v>
       </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
       <c r="K54" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L54" t="s">
+        <v>112</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3400,24 +3401,24 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L55" t="s">
+        <v>112</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3441,24 +3442,24 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L56" t="s">
+        <v>112</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3482,24 +3483,24 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L57" t="s">
+        <v>112</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3523,24 +3524,24 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
         <v>14</v>
       </c>
-      <c r="J58" t="s">
-        <v>15</v>
-      </c>
       <c r="K58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3564,24 +3565,24 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L59" t="s">
+        <v>112</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3605,24 +3606,24 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L60" t="s">
+        <v>112</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3646,24 +3647,24 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L61" t="s">
+        <v>112</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3687,24 +3688,24 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
         <v>14</v>
       </c>
-      <c r="J62" t="s">
-        <v>15</v>
-      </c>
       <c r="K62" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L62" t="s">
+        <v>112</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3728,24 +3729,24 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L63" t="s">
+        <v>112</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3769,24 +3770,24 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L64" t="s">
+        <v>112</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3810,24 +3811,24 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L65" t="s">
+        <v>112</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3851,24 +3852,24 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L66" t="s">
+        <v>112</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3892,24 +3893,24 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L67" t="s">
+        <v>112</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3933,24 +3934,24 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L68" t="s">
+        <v>112</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3974,24 +3975,24 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L69" t="s">
+        <v>112</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4015,24 +4016,24 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>16</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L70" t="s">
+        <v>112</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4056,24 +4057,24 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L71" t="s">
+        <v>112</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4097,24 +4098,24 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L72" t="s">
+        <v>112</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4138,24 +4139,24 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L73" t="s">
+        <v>112</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4179,24 +4180,24 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>16</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L74" t="s">
+        <v>112</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4220,24 +4221,24 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4261,24 +4262,24 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
         <v>14</v>
       </c>
-      <c r="J76" t="s">
-        <v>15</v>
-      </c>
       <c r="K76" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4302,24 +4303,24 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
         <v>14</v>
       </c>
-      <c r="J77" t="s">
-        <v>15</v>
-      </c>
       <c r="K77" t="s">
-        <v>16</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L77" t="s">
+        <v>112</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4343,24 +4344,24 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L78" t="s">
+        <v>112</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4384,24 +4385,24 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L79" t="s">
+        <v>112</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4425,24 +4426,24 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L80" t="s">
+        <v>112</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4466,24 +4467,24 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L81" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4507,24 +4508,24 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" t="s">
         <v>14</v>
       </c>
-      <c r="J82" t="s">
-        <v>15</v>
-      </c>
       <c r="K82" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L82" t="s">
+        <v>112</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4548,24 +4549,24 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="s">
         <v>14</v>
       </c>
-      <c r="J83" t="s">
-        <v>15</v>
-      </c>
       <c r="K83" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L83" t="s">
+        <v>112</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4589,24 +4590,24 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>16</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L84" t="s">
+        <v>112</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4630,24 +4631,24 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K85" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L85" t="s">
+        <v>112</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4671,24 +4672,24 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K86" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L86" t="s">
+        <v>112</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4712,24 +4713,24 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L87" t="s">
+        <v>112</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4753,24 +4754,24 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K88" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L88" t="s">
+        <v>112</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4794,24 +4795,24 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L89" t="s">
+        <v>112</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4835,24 +4836,24 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>16</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L90" t="s">
+        <v>112</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4876,24 +4877,24 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" t="s">
         <v>14</v>
       </c>
-      <c r="J91" t="s">
-        <v>15</v>
-      </c>
       <c r="K91" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L91" t="s">
+        <v>112</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4917,24 +4918,24 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L92" t="s">
+        <v>112</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4958,24 +4959,24 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K93" t="s">
-        <v>16</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L93" t="s">
+        <v>112</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4999,24 +5000,24 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L94" t="s">
+        <v>112</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5040,24 +5041,24 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L95" t="s">
+        <v>112</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5081,24 +5082,24 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L96" t="s">
+        <v>112</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5122,24 +5123,24 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
         <v>14</v>
       </c>
-      <c r="J97" t="s">
-        <v>15</v>
-      </c>
       <c r="K97" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L97" t="s">
+        <v>112</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5163,24 +5164,24 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" t="s">
         <v>14</v>
       </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
       <c r="K98" t="s">
-        <v>16</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L98" t="s">
+        <v>112</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5204,24 +5205,24 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K99" t="s">
-        <v>16</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L99" t="s">
+        <v>112</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5245,24 +5246,24 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L100" t="s">
+        <v>112</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5286,24 +5287,24 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L101" t="s">
+        <v>112</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5327,24 +5328,24 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K102" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L102" t="s">
+        <v>112</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -5368,24 +5369,24 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" t="s">
         <v>14</v>
       </c>
-      <c r="J103" t="s">
-        <v>15</v>
-      </c>
       <c r="K103" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" t="s">
+        <v>165</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>167</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -5409,24 +5410,24 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" t="s">
         <v>14</v>
       </c>
-      <c r="J104" t="s">
-        <v>15</v>
-      </c>
       <c r="K104" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" t="s">
+        <v>15</v>
+      </c>
+      <c r="L104" t="s">
+        <v>167</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>169</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5450,24 +5451,24 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" t="s">
         <v>14</v>
       </c>
-      <c r="J105" t="s">
-        <v>15</v>
-      </c>
       <c r="K105" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" t="s">
+        <v>169</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>171</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5491,24 +5492,24 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" t="s">
         <v>14</v>
       </c>
-      <c r="J106" t="s">
-        <v>15</v>
-      </c>
       <c r="K106" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" t="s">
+        <v>171</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>173</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5532,24 +5533,24 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K107" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L107" t="s">
+        <v>106</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5573,24 +5574,24 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L108" t="s">
+        <v>104</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5614,24 +5615,24 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K109" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L109" t="s">
+        <v>102</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5655,24 +5656,24 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K110" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L110" t="s">
+        <v>100</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5696,24 +5697,24 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K111" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L111" t="s">
+        <v>98</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5737,24 +5738,24 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" t="s">
         <v>14</v>
       </c>
-      <c r="J112" t="s">
-        <v>15</v>
-      </c>
       <c r="K112" t="s">
-        <v>16</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L112" t="s">
+        <v>96</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5778,24 +5779,24 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K113" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L113" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5819,24 +5820,24 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>16</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L114" t="s">
+        <v>92</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5860,24 +5861,24 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" t="s">
         <v>14</v>
       </c>
-      <c r="J115" t="s">
-        <v>15</v>
-      </c>
       <c r="K115" t="s">
-        <v>16</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L115" t="s">
+        <v>90</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5901,24 +5902,24 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K116" t="s">
-        <v>16</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L116" t="s">
+        <v>88</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5942,24 +5943,24 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K117" t="s">
-        <v>16</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L117" t="s">
+        <v>86</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5983,24 +5984,24 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K118" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L118" t="s">
+        <v>84</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6024,24 +6025,24 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K119" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L119" t="s">
+        <v>82</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6065,24 +6066,24 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K120" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L120" t="s">
+        <v>80</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6106,24 +6107,24 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K121" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L121" t="s">
+        <v>78</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6147,24 +6148,24 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K122" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L122" t="s">
+        <v>76</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6188,24 +6189,24 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K123" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L123" t="s">
+        <v>74</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6229,24 +6230,24 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>16</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L124" t="s">
+        <v>72</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6270,24 +6271,24 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K125" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L125" t="s">
+        <v>70</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6311,24 +6312,24 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K126" t="s">
-        <v>16</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L126" t="s">
+        <v>68</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6352,24 +6353,24 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>16</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L127" t="s">
+        <v>66</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6393,24 +6394,24 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L128" t="s">
+        <v>64</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6434,24 +6435,24 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K129" t="s">
-        <v>16</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L129" t="s">
+        <v>62</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6475,24 +6476,24 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K130" t="s">
-        <v>16</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L130" t="s">
+        <v>60</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6516,24 +6517,24 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K131" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L131" t="s">
+        <v>58</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6557,24 +6558,24 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>16</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L132" t="s">
+        <v>56</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6598,24 +6599,24 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K133" t="s">
-        <v>16</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6639,24 +6640,24 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" t="s">
         <v>14</v>
       </c>
-      <c r="J134" t="s">
-        <v>15</v>
-      </c>
       <c r="K134" t="s">
-        <v>16</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L134" t="s">
+        <v>52</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6680,24 +6681,24 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K135" t="s">
-        <v>16</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L135" t="s">
+        <v>50</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6721,24 +6722,24 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K136" t="s">
-        <v>16</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L136" t="s">
+        <v>48</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6762,24 +6763,24 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K137" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L137" t="s">
+        <v>46</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6803,24 +6804,24 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K138" t="s">
-        <v>16</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L138" t="s">
+        <v>44</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6844,24 +6845,24 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" t="s">
         <v>14</v>
       </c>
-      <c r="J139" t="s">
-        <v>15</v>
-      </c>
       <c r="K139" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L139" t="s">
+        <v>42</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6885,24 +6886,24 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L140" t="s">
+        <v>108</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6926,24 +6927,24 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K141" t="s">
-        <v>16</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L141" t="s">
+        <v>40</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6967,24 +6968,24 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K142" t="s">
-        <v>16</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L142" t="s">
+        <v>38</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7008,24 +7009,24 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K143" t="s">
-        <v>16</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L143" t="s">
+        <v>36</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7049,24 +7050,24 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K144" t="s">
-        <v>16</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L144" t="s">
+        <v>34</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7090,24 +7091,24 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K145" t="s">
-        <v>16</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L145" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7131,24 +7132,24 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" t="s">
         <v>14</v>
       </c>
-      <c r="J146" t="s">
-        <v>15</v>
-      </c>
       <c r="K146" t="s">
-        <v>16</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L146" t="s">
+        <v>30</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7172,24 +7173,24 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K147" t="s">
-        <v>16</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147" t="s">
+        <v>15</v>
+      </c>
+      <c r="L147" t="s">
+        <v>213</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>215</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7213,24 +7214,24 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K148" t="s">
-        <v>16</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148" t="s">
+        <v>15</v>
+      </c>
+      <c r="L148" t="s">
+        <v>215</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>217</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7254,24 +7255,24 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" t="s">
         <v>14</v>
       </c>
-      <c r="J149" t="s">
-        <v>15</v>
-      </c>
       <c r="K149" t="s">
-        <v>16</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149" t="s">
+        <v>15</v>
+      </c>
+      <c r="L149" t="s">
+        <v>217</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>219</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7295,24 +7296,24 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K150" t="s">
-        <v>16</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" t="s">
+        <v>219</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>221</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7336,24 +7337,24 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>16</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151" t="s">
+        <v>221</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>223</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7377,24 +7378,24 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
+        <v>13</v>
+      </c>
+      <c r="J152" t="s">
         <v>14</v>
       </c>
-      <c r="J152" t="s">
-        <v>15</v>
-      </c>
       <c r="K152" t="s">
-        <v>16</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152" t="s">
+        <v>15</v>
+      </c>
+      <c r="L152" t="s">
+        <v>223</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>225</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7418,24 +7419,24 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K153" t="s">
-        <v>16</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153" t="s">
+        <v>15</v>
+      </c>
+      <c r="L153" t="s">
+        <v>225</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>227</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7459,24 +7460,24 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" t="s">
         <v>14</v>
       </c>
-      <c r="J154" t="s">
-        <v>15</v>
-      </c>
       <c r="K154" t="s">
-        <v>16</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154" t="s">
+        <v>15</v>
+      </c>
+      <c r="L154" t="s">
+        <v>227</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>229</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7500,24 +7501,24 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K155" t="s">
-        <v>16</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155" t="s">
+        <v>15</v>
+      </c>
+      <c r="L155" t="s">
+        <v>229</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>231</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7541,24 +7542,24 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
+        <v>13</v>
+      </c>
+      <c r="J156" t="s">
         <v>14</v>
       </c>
-      <c r="J156" t="s">
-        <v>15</v>
-      </c>
       <c r="K156" t="s">
-        <v>16</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156" t="s">
+        <v>15</v>
+      </c>
+      <c r="L156" t="s">
+        <v>231</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>233</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7582,24 +7583,24 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
+        <v>13</v>
+      </c>
+      <c r="J157" t="s">
         <v>14</v>
       </c>
-      <c r="J157" t="s">
-        <v>15</v>
-      </c>
       <c r="K157" t="s">
-        <v>16</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157" t="s">
+        <v>15</v>
+      </c>
+      <c r="L157" t="s">
+        <v>233</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>235</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7623,24 +7624,24 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
+        <v>13</v>
+      </c>
+      <c r="J158" t="s">
         <v>14</v>
       </c>
-      <c r="J158" t="s">
-        <v>15</v>
-      </c>
       <c r="K158" t="s">
-        <v>16</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158" t="s">
+        <v>15</v>
+      </c>
+      <c r="L158" t="s">
+        <v>235</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>237</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7664,24 +7665,24 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" t="s">
         <v>14</v>
       </c>
-      <c r="J159" t="s">
-        <v>15</v>
-      </c>
       <c r="K159" t="s">
-        <v>16</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159" t="s">
+        <v>15</v>
+      </c>
+      <c r="L159" t="s">
+        <v>237</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>239</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7705,24 +7706,24 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160" t="s">
         <v>14</v>
       </c>
-      <c r="J160" t="s">
-        <v>15</v>
-      </c>
       <c r="K160" t="s">
-        <v>16</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160" t="s">
+        <v>15</v>
+      </c>
+      <c r="L160" t="s">
+        <v>239</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>241</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7746,24 +7747,24 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K161" t="s">
-        <v>16</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="M161" t="s">
+        <v>15</v>
+      </c>
+      <c r="L161" t="s">
+        <v>241</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>243</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7787,24 +7788,24 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K162" t="s">
-        <v>16</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162" t="s">
+        <v>15</v>
+      </c>
+      <c r="L162" t="s">
+        <v>243</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>245</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7828,24 +7829,24 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K163" t="s">
-        <v>16</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163" t="s">
+        <v>15</v>
+      </c>
+      <c r="L163" t="s">
+        <v>245</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>247</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7869,24 +7870,24 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K164" t="s">
-        <v>16</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164" t="s">
+        <v>15</v>
+      </c>
+      <c r="L164" t="s">
+        <v>247</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>249</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7910,25 +7911,25 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165" t="s">
         <v>14</v>
       </c>
-      <c r="J165" t="s">
-        <v>15</v>
-      </c>
       <c r="K165" t="s">
-        <v>16</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165" t="s">
-        <v>250</v>
+        <v>15</v>
+      </c>
+      <c r="L165" t="s">
+        <v>249</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M165" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K165 L1:L165" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED3ED2-7FE7-4671-ACE8-DAF20B526331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00721861-D1FE-464E-BD4E-DAEF6F95C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="263">
   <si>
     <t>Team</t>
   </si>
@@ -55,6 +55,9 @@
     <t>BonusType</t>
   </si>
   <si>
+    <t>BonusRemaining</t>
+  </si>
+  <si>
     <t>LastUpdated</t>
   </si>
   <si>
@@ -73,18 +76,45 @@
     <t>2026-02-19T01:38:43.524Z</t>
   </si>
   <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:33:35.840Z</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:09.005Z</t>
+  </si>
+  <si>
     <t>Iluminar</t>
   </si>
   <si>
     <t>2026-02-19T01:45:03.003Z</t>
   </si>
   <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:46.770Z</t>
+  </si>
+  <si>
     <t>Elevate</t>
   </si>
   <si>
     <t>2026-02-19T01:40:12.263Z</t>
   </si>
   <si>
+    <t>Rebels</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:29.463Z</t>
+  </si>
+  <si>
     <t>Verdant</t>
   </si>
   <si>
@@ -94,6 +124,12 @@
     <t>2026-02-19T01:45:54.196Z</t>
   </si>
   <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
     <t>Bounty Hunters</t>
   </si>
   <si>
@@ -106,646 +142,649 @@
     <t>2026-02-18T21:21:06.168Z</t>
   </si>
   <si>
+    <t>Spirit Academy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:45:42.234Z</t>
+  </si>
+  <si>
+    <t>Nemiga</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:08.336Z</t>
+  </si>
+  <si>
+    <t>NAVI Junior</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:32.115Z</t>
+  </si>
+  <si>
+    <t>PARIVISION</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:52.846Z</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:11.265Z</t>
+  </si>
+  <si>
+    <t>TALON</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:18.470Z</t>
+  </si>
+  <si>
+    <t>Chinggis Warrios</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:28.286Z</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:36.482Z</t>
+  </si>
+  <si>
+    <t>Take Flyte</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:49.161Z</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:02.110Z</t>
+  </si>
+  <si>
+    <t>Aravt</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:09.473Z</t>
+  </si>
+  <si>
+    <t>BESTIA</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:17.012Z</t>
+  </si>
+  <si>
+    <t>VP.Prodigy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:28.102Z</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:38.129Z</t>
+  </si>
+  <si>
+    <t>Onyx Ravens</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:45.055Z</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:52.026Z</t>
+  </si>
+  <si>
+    <t>True Rippers</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:00.243Z</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:12.765Z</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:20.687Z</t>
+  </si>
+  <si>
+    <t>Homyno</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:27.811Z</t>
+  </si>
+  <si>
+    <t>MenaceGG</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:35.489Z</t>
+  </si>
+  <si>
+    <t>hoorai</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:47.596Z</t>
+  </si>
+  <si>
+    <t>Entropiq</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:54.043Z</t>
+  </si>
+  <si>
+    <t>The MongolZ</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:50:09.060Z</t>
+  </si>
+  <si>
+    <t>Copenhagen Flames</t>
+  </si>
+  <si>
     <t>OG</t>
   </si>
   <si>
-    <t>EU</t>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>RED Canids</t>
+  </si>
+  <si>
+    <t>00 Nation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100 Thieves</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>AMKAL</t>
+  </si>
+  <si>
+    <t>Astana Dragons</t>
+  </si>
+  <si>
+    <t>Astralis Talent</t>
+  </si>
+  <si>
+    <t>Avangar</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>BIG Academy</t>
+  </si>
+  <si>
+    <t>Bravado</t>
+  </si>
+  <si>
+    <t>Copenhagen Wolves</t>
+  </si>
+  <si>
+    <t>Counter Logic Games</t>
+  </si>
+  <si>
+    <t>ENCE Academy</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>FLuffy Gangsters</t>
+  </si>
+  <si>
+    <t>FlyQuest RED</t>
+  </si>
+  <si>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>Gambit</t>
+  </si>
+  <si>
+    <t>GATERON</t>
+  </si>
+  <si>
+    <t>GhoulsW</t>
+  </si>
+  <si>
+    <t>HAVU</t>
+  </si>
+  <si>
+    <t>Heroic Academy</t>
+  </si>
+  <si>
+    <t>Hesta</t>
+  </si>
+  <si>
+    <t>Immortals</t>
+  </si>
+  <si>
+    <t>Into the Beach</t>
+  </si>
+  <si>
+    <t>Kinguin</t>
+  </si>
+  <si>
+    <t>kONO</t>
+  </si>
+  <si>
+    <t>LGB eSports</t>
+  </si>
+  <si>
+    <t>MAD Lions</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>MIBR Academy</t>
+  </si>
+  <si>
+    <t>Misfits</t>
+  </si>
+  <si>
+    <t>mousesports</t>
+  </si>
+  <si>
+    <t>MOUZ NXT</t>
+  </si>
+  <si>
+    <t>Movistar KOI</t>
+  </si>
+  <si>
+    <t>NIP Impact</t>
+  </si>
+  <si>
+    <t>Nordix</t>
+  </si>
+  <si>
+    <t>NOVAQ</t>
+  </si>
+  <si>
+    <t>paiN Academy</t>
+  </si>
+  <si>
+    <t>QMISTRY</t>
+  </si>
+  <si>
+    <t>Quantum Bellator Fire</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Shika</t>
+  </si>
+  <si>
+    <t>SKYFURY</t>
+  </si>
+  <si>
+    <t>Space Soldiers</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>VeryGames</t>
+  </si>
+  <si>
+    <t>Vox Eminor</t>
+  </si>
+  <si>
+    <t>Wildcard Academy</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:39.932Z</t>
+  </si>
+  <si>
+    <t>iBUYPOWER</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:34.302Z</t>
+  </si>
+  <si>
+    <t>GODSENT</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:32.364Z</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:45.455Z</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:19.604Z</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:13.227Z</t>
+  </si>
+  <si>
+    <t>MIBR</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:50.018Z</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:38.841Z</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>NomadS</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>Red Viperz</t>
+  </si>
+  <si>
+    <t>The Dice</t>
+  </si>
+  <si>
+    <t>Victores Sumus</t>
+  </si>
+  <si>
+    <t>ODDIK</t>
+  </si>
+  <si>
+    <t>Qiang</t>
+  </si>
+  <si>
+    <t>inSanitY</t>
+  </si>
+  <si>
+    <t>Sangal</t>
+  </si>
+  <si>
+    <t>9Pandas</t>
+  </si>
+  <si>
+    <t>Gods Reign</t>
+  </si>
+  <si>
+    <t>CatEvil</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>Evil Geniuses</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>ATOX</t>
+  </si>
+  <si>
+    <t>Skinvault</t>
+  </si>
+  <si>
+    <t>BC.Game</t>
+  </si>
+  <si>
+    <t>Wings Up</t>
+  </si>
+  <si>
+    <t>Lynn Vision</t>
+  </si>
+  <si>
+    <t>Tricked</t>
+  </si>
+  <si>
+    <t>3DMAX</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:39:02.710Z</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:54.146Z</t>
+  </si>
+  <si>
+    <t>Dignitas</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:46.436Z</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:39.010Z</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:27.845Z</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:18.936Z</t>
+  </si>
+  <si>
+    <t>ARCRED</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:03.598Z</t>
+  </si>
+  <si>
+    <t>LDLC</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:55.156Z</t>
+  </si>
+  <si>
+    <t>GamerLegion</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:47.172Z</t>
+  </si>
+  <si>
+    <t>Passion UA</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:27.234Z</t>
+  </si>
+  <si>
+    <t>FlyQuest</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:20.280Z</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:05.560Z</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:43.463Z</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:35.184Z</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:26.343Z</t>
+  </si>
+  <si>
+    <t>Galorys</t>
   </si>
   <si>
     <t>2026-02-19T00:36:18.696Z</t>
   </si>
   <si>
-    <t>FaZe</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:26.343Z</t>
-  </si>
-  <si>
-    <t>Copenhagen Flames</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:35.184Z</t>
-  </si>
-  <si>
-    <t>Heroic</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:43.463Z</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:05.560Z</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:20.280Z</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:47.172Z</t>
-  </si>
-  <si>
-    <t>Rebels</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:55.156Z</t>
+    <t>devils.one</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:30.347Z</t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:18.851Z</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:12.952Z</t>
+  </si>
+  <si>
+    <t>IHC</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:06.529Z</t>
+  </si>
+  <si>
+    <t>Kappa Bar</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:57.244Z</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:48.652Z</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:39.402Z</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:32.047Z</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:20.745Z</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:13.604Z</t>
+  </si>
+  <si>
+    <t>KRU</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:06.663Z</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:57.658Z</t>
+  </si>
+  <si>
+    <t>9z</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:44.273Z</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:14.058Z</t>
+  </si>
+  <si>
+    <t>Vexed</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:19:58.722Z</t>
+  </si>
+  <si>
+    <t>ShindeN</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:26.535Z</t>
+  </si>
+  <si>
+    <t>Permitta</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:17.329Z</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:08.116Z</t>
   </si>
   <si>
     <t>Astralis</t>
   </si>
   <si>
-    <t>2026-02-19T00:38:03.598Z</t>
-  </si>
-  <si>
-    <t>ShindeN</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:18.936Z</t>
-  </si>
-  <si>
-    <t>Permitta</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:27.845Z</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:39.010Z</t>
-  </si>
-  <si>
-    <t>iBUYPOWER</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:46.436Z</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:54.146Z</t>
-  </si>
-  <si>
-    <t>Eternal Fire</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:39:02.710Z</t>
-  </si>
-  <si>
-    <t>Spirit Academy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:45:42.234Z</t>
-  </si>
-  <si>
-    <t>Nemiga</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:08.336Z</t>
-  </si>
-  <si>
-    <t>NAVI Junior</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:32.115Z</t>
-  </si>
-  <si>
-    <t>PARIVISION</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:52.846Z</t>
-  </si>
-  <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:11.265Z</t>
-  </si>
-  <si>
-    <t>TALON</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:18.470Z</t>
-  </si>
-  <si>
-    <t>Chinggis Warrios</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:28.286Z</t>
-  </si>
-  <si>
-    <t>Virtus.pro</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:36.482Z</t>
-  </si>
-  <si>
-    <t>Take Flyte</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:49.161Z</t>
-  </si>
-  <si>
-    <t>Spirit</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:02.110Z</t>
-  </si>
-  <si>
-    <t>Aravt</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:09.473Z</t>
-  </si>
-  <si>
-    <t>BESTIA</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:17.012Z</t>
-  </si>
-  <si>
-    <t>VP.Prodigy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:28.102Z</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:38.129Z</t>
-  </si>
-  <si>
-    <t>Onyx Ravens</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:45.055Z</t>
-  </si>
-  <si>
-    <t>Natus Vincere</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:52.026Z</t>
-  </si>
-  <si>
-    <t>True Rippers</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:00.243Z</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:12.765Z</t>
-  </si>
-  <si>
-    <t>TYLOO</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:20.687Z</t>
-  </si>
-  <si>
-    <t>Homyno</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:27.811Z</t>
-  </si>
-  <si>
-    <t>MenaceGG</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:35.489Z</t>
-  </si>
-  <si>
-    <t>hoorai</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:47.596Z</t>
-  </si>
-  <si>
-    <t>Entropiq</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:54.043Z</t>
-  </si>
-  <si>
-    <t>The MongolZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:50:09.060Z</t>
-  </si>
-  <si>
-    <t>Wildcard</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:27.234Z</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
-    <t>RED Canids</t>
-  </si>
-  <si>
-    <t>00 Nation</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100 Thieves</t>
-  </si>
-  <si>
-    <t>Aether</t>
-  </si>
-  <si>
-    <t>AMKAL</t>
-  </si>
-  <si>
-    <t>Astana Dragons</t>
-  </si>
-  <si>
-    <t>Astralis Talent</t>
-  </si>
-  <si>
-    <t>Avangar</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>BIG Academy</t>
-  </si>
-  <si>
-    <t>Bravado</t>
-  </si>
-  <si>
-    <t>Copenhagen Wolves</t>
-  </si>
-  <si>
-    <t>Counter Logic Games</t>
-  </si>
-  <si>
-    <t>ENCE Academy</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>FLuffy Gangsters</t>
-  </si>
-  <si>
-    <t>FlyQuest RED</t>
-  </si>
-  <si>
-    <t>Fnatic</t>
-  </si>
-  <si>
-    <t>FORZE</t>
-  </si>
-  <si>
-    <t>Gambit</t>
-  </si>
-  <si>
-    <t>GATERON</t>
-  </si>
-  <si>
-    <t>GhoulsW</t>
-  </si>
-  <si>
-    <t>HAVU</t>
-  </si>
-  <si>
-    <t>Heroic Academy</t>
-  </si>
-  <si>
-    <t>Hesta</t>
-  </si>
-  <si>
-    <t>Immortals</t>
-  </si>
-  <si>
-    <t>Into the Beach</t>
-  </si>
-  <si>
-    <t>Kinguin</t>
-  </si>
-  <si>
-    <t>kONO</t>
-  </si>
-  <si>
-    <t>LGB eSports</t>
-  </si>
-  <si>
-    <t>MAD Lions</t>
-  </si>
-  <si>
-    <t>MANA</t>
-  </si>
-  <si>
-    <t>MIBR Academy</t>
-  </si>
-  <si>
-    <t>Misfits</t>
-  </si>
-  <si>
-    <t>mousesports</t>
-  </si>
-  <si>
-    <t>MOUZ NXT</t>
-  </si>
-  <si>
-    <t>Movistar KOI</t>
-  </si>
-  <si>
-    <t>NIP Impact</t>
-  </si>
-  <si>
-    <t>Nordix</t>
-  </si>
-  <si>
-    <t>NOVAQ</t>
-  </si>
-  <si>
-    <t>paiN Academy</t>
-  </si>
-  <si>
-    <t>QMISTRY</t>
-  </si>
-  <si>
-    <t>Quantum Bellator Fire</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>Shika</t>
-  </si>
-  <si>
-    <t>SKYFURY</t>
-  </si>
-  <si>
-    <t>Space Soldiers</t>
-  </si>
-  <si>
-    <t>Sprout</t>
-  </si>
-  <si>
-    <t>Tsunami</t>
-  </si>
-  <si>
-    <t>VeryGames</t>
-  </si>
-  <si>
-    <t>Vox Eminor</t>
-  </si>
-  <si>
-    <t>Wildcard Academy</t>
-  </si>
-  <si>
-    <t>GODSENT</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:32.364Z</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:45.455Z</t>
-  </si>
-  <si>
-    <t>MIBR</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:50.018Z</t>
-  </si>
-  <si>
-    <t>Wizards</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:38.841Z</t>
-  </si>
-  <si>
-    <t>ad hoc</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>NomadS</t>
-  </si>
-  <si>
-    <t>Outsiders</t>
-  </si>
-  <si>
-    <t>Red Viperz</t>
-  </si>
-  <si>
-    <t>The Dice</t>
-  </si>
-  <si>
-    <t>Victores Sumus</t>
-  </si>
-  <si>
-    <t>ODDIK</t>
-  </si>
-  <si>
-    <t>Qiang</t>
-  </si>
-  <si>
-    <t>inSanitY</t>
-  </si>
-  <si>
-    <t>Sangal</t>
-  </si>
-  <si>
-    <t>9Pandas</t>
-  </si>
-  <si>
-    <t>Gods Reign</t>
-  </si>
-  <si>
-    <t>CatEvil</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>Evil Geniuses</t>
-  </si>
-  <si>
-    <t>Vantage</t>
-  </si>
-  <si>
-    <t>ATOX</t>
-  </si>
-  <si>
-    <t>Skinvault</t>
-  </si>
-  <si>
-    <t>BC.Game</t>
-  </si>
-  <si>
-    <t>Wings Up</t>
-  </si>
-  <si>
-    <t>Lynn Vision</t>
-  </si>
-  <si>
-    <t>Tricked</t>
-  </si>
-  <si>
-    <t>3DMAX</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Dignitas</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>ARCRED</t>
-  </si>
-  <si>
-    <t>LDLC</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>Passion UA</t>
-  </si>
-  <si>
-    <t>FlyQuest</t>
-  </si>
-  <si>
-    <t>Envy</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>Ninjas in Pyjamas</t>
-  </si>
-  <si>
-    <t>Limitless</t>
-  </si>
-  <si>
-    <t>Galorys</t>
-  </si>
-  <si>
-    <t>devils.one</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:30.347Z</t>
-  </si>
-  <si>
-    <t>Luminosity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:18.851Z</t>
-  </si>
-  <si>
-    <t>Sharks</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:12.952Z</t>
-  </si>
-  <si>
-    <t>IHC</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:06.529Z</t>
-  </si>
-  <si>
-    <t>Kappa Bar</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:57.244Z</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:48.652Z</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:39.402Z</t>
-  </si>
-  <si>
-    <t>Mythic</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:32.047Z</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:20.745Z</t>
-  </si>
-  <si>
-    <t>FURIA</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:13.604Z</t>
-  </si>
-  <si>
-    <t>KRU</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:06.663Z</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:57.658Z</t>
-  </si>
-  <si>
-    <t>9z</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:44.273Z</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:14.058Z</t>
-  </si>
-  <si>
-    <t>Vexed</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:19:58.722Z</t>
+    <t>2026-02-19T02:34:01.822Z</t>
   </si>
   <si>
     <t>Bad News Eagles</t>
@@ -770,9 +809,6 @@
   </si>
   <si>
     <t>2026-02-19T01:45:20.251Z</t>
-  </si>
-  <si>
-    <t>BonusReamining</t>
   </si>
 </sst>
 </file>
@@ -1152,16 +1188,12 @@
   <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,12 +1231,12 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1228,24 +1260,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1257,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1061.6143113189103</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1269,36 +1301,36 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1045.0333860637757</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1310,364 +1342,364 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1061.6143113189103</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1045.5709009227098</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1045.0333860637757</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1045.021243957568</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1044.4384115620314</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1030.0604120732232</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1030.0604120732232</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1030.0604120732232</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1030.0604120732232</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1028.8592077342862</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1015</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1015</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1015</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1015</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1015</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
       <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1015</v>
+        <v>1028.8592077342862</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1679,24 +1711,24 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1720,24 +1752,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1761,24 +1793,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1802,24 +1834,24 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>44</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1843,24 +1875,24 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>46</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1884,24 +1916,24 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>48</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1925,24 +1957,24 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>50</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1966,24 +1998,24 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>52</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2007,24 +2039,24 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2048,24 +2080,24 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>56</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2089,24 +2121,24 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>58</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2130,24 +2162,24 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>60</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2171,24 +2203,24 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>62</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2212,24 +2244,24 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>64</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2253,24 +2285,24 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>66</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2294,24 +2326,24 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>68</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2335,24 +2367,24 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>70</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>71</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2376,24 +2408,24 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>72</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>73</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2417,24 +2449,24 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>74</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2458,24 +2490,24 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>76</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>77</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2499,24 +2531,24 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>78</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>79</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2540,24 +2572,24 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>80</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>81</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2581,24 +2613,24 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>82</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>83</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2622,24 +2654,24 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>84</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>85</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2663,24 +2695,24 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>86</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>87</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2704,516 +2736,516 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1014.4310540359442</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1014.4291179968932</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1014.4186945376644</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1014.3357432269672</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
         <v>15</v>
       </c>
-      <c r="L38" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1015</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1000</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
         <v>15</v>
       </c>
-      <c r="L39" t="s">
-        <v>90</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1015</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
         <v>15</v>
       </c>
-      <c r="L40" t="s">
-        <v>92</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>93</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1015</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" t="s">
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
         <v>15</v>
       </c>
-      <c r="L41" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>1015</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1015</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" t="s">
-        <v>98</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1015</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" t="s">
-        <v>100</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>101</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1015</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" t="s">
-        <v>102</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1015</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" t="s">
-        <v>104</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1015</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" t="s">
-        <v>106</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1015</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" t="s">
-        <v>108</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>1014.4186945376644</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>1014.3357432269672</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>111</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3237,24 +3269,24 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" t="s">
-        <v>112</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3278,24 +3310,24 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" t="s">
-        <v>112</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3319,24 +3351,24 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" t="s">
-        <v>112</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3360,24 +3392,24 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" t="s">
-        <v>112</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3401,24 +3433,24 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" t="s">
-        <v>112</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3442,24 +3474,24 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" t="s">
-        <v>112</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3483,24 +3515,24 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" t="s">
-        <v>112</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3524,24 +3556,24 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" t="s">
-        <v>112</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3565,24 +3597,24 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" t="s">
-        <v>112</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3606,24 +3638,24 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3647,24 +3679,24 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>112</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>123</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3688,24 +3720,24 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" t="s">
-        <v>112</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3729,24 +3761,24 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" t="s">
-        <v>112</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3770,24 +3802,24 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" t="s">
-        <v>112</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3811,24 +3843,24 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" t="s">
-        <v>112</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3852,24 +3884,24 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
-      </c>
-      <c r="L66" t="s">
-        <v>112</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3893,24 +3925,24 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" t="s">
-        <v>112</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3934,24 +3966,24 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" t="s">
-        <v>112</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3975,24 +4007,24 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" t="s">
-        <v>112</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4016,24 +4048,24 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" t="s">
-        <v>112</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4057,24 +4089,24 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" t="s">
-        <v>112</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4098,24 +4130,24 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" t="s">
-        <v>112</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4139,24 +4171,24 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" t="s">
-        <v>112</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4180,24 +4212,24 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" t="s">
-        <v>112</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4221,24 +4253,24 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
-      </c>
-      <c r="L75" t="s">
-        <v>112</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4262,24 +4294,24 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" t="s">
-        <v>112</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4303,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" t="s">
-        <v>112</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4344,24 +4376,24 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>15</v>
-      </c>
-      <c r="L78" t="s">
-        <v>112</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4385,24 +4417,24 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" t="s">
-        <v>112</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4426,24 +4458,24 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" t="s">
-        <v>112</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4467,24 +4499,24 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K81" t="s">
-        <v>15</v>
-      </c>
-      <c r="L81" t="s">
-        <v>112</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4508,24 +4540,24 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" t="s">
-        <v>112</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4549,24 +4581,24 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" t="s">
-        <v>112</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4590,24 +4622,24 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K84" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" t="s">
-        <v>112</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4631,24 +4663,24 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
-      </c>
-      <c r="L85" t="s">
-        <v>112</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4672,24 +4704,24 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" t="s">
-        <v>112</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4713,24 +4745,24 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K87" t="s">
-        <v>15</v>
-      </c>
-      <c r="L87" t="s">
-        <v>112</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4754,24 +4786,24 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" t="s">
-        <v>112</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4795,24 +4827,24 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" t="s">
-        <v>112</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4836,24 +4868,24 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K90" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" t="s">
-        <v>112</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4877,24 +4909,24 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
-      </c>
-      <c r="L91" t="s">
-        <v>112</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4918,24 +4950,24 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" t="s">
-        <v>112</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4959,24 +4991,24 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K93" t="s">
-        <v>15</v>
-      </c>
-      <c r="L93" t="s">
-        <v>112</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -5000,516 +5032,516 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>999.72518097723059</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>999.72518097723059</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>999.72518097723059</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
         <v>15</v>
       </c>
-      <c r="L94" t="s">
-        <v>112</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="K97" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>999.67234054451899</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>999.40885151865234</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>999.40885151865234</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
         <v>156</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>1000</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" t="s">
+    </row>
+    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>999.40885151865234</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
         <v>15</v>
       </c>
-      <c r="L95" t="s">
-        <v>112</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>1000</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" t="s">
-        <v>29</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="K101" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>999.40625216951082</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
         <v>15</v>
       </c>
-      <c r="L96" t="s">
-        <v>112</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>158</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1000</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" t="s">
-        <v>112</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>1000</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" t="s">
-        <v>14</v>
-      </c>
-      <c r="K98" t="s">
-        <v>15</v>
-      </c>
-      <c r="L98" t="s">
-        <v>112</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="K102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
         <v>160</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>1000</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" t="s">
-        <v>15</v>
-      </c>
-      <c r="L99" t="s">
-        <v>112</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    </row>
+    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>161</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>1000</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" t="s">
-        <v>29</v>
-      </c>
-      <c r="K100" t="s">
-        <v>15</v>
-      </c>
-      <c r="L100" t="s">
-        <v>112</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>985</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>162</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>1000</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" t="s">
-        <v>15</v>
-      </c>
-      <c r="L101" t="s">
-        <v>112</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>985</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>163</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>1000</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" t="s">
-        <v>29</v>
-      </c>
-      <c r="K102" t="s">
-        <v>15</v>
-      </c>
-      <c r="L102" t="s">
-        <v>112</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>985</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>164</v>
       </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103">
-        <v>999.72518097723059</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" t="s">
-        <v>14</v>
-      </c>
-      <c r="K103" t="s">
-        <v>15</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>985</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>165</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>999.67234054451899</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104" t="s">
-        <v>13</v>
-      </c>
-      <c r="J104" t="s">
-        <v>14</v>
-      </c>
-      <c r="K104" t="s">
-        <v>15</v>
-      </c>
-      <c r="L104" t="s">
-        <v>167</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105">
-        <v>999.40885151865234</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" t="s">
-        <v>14</v>
-      </c>
-      <c r="K105" t="s">
-        <v>15</v>
-      </c>
-      <c r="L105" t="s">
-        <v>169</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>170</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106">
-        <v>999.40625216951082</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" t="s">
-        <v>14</v>
-      </c>
-      <c r="K106" t="s">
-        <v>15</v>
-      </c>
-      <c r="L106" t="s">
-        <v>171</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>172</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5533,24 +5565,24 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K107" t="s">
-        <v>15</v>
-      </c>
-      <c r="L107" t="s">
-        <v>106</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5574,24 +5606,24 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K108" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" t="s">
-        <v>104</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5615,24 +5647,24 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K109" t="s">
-        <v>15</v>
-      </c>
-      <c r="L109" t="s">
-        <v>102</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5656,24 +5688,24 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K110" t="s">
-        <v>15</v>
-      </c>
-      <c r="L110" t="s">
-        <v>100</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5697,24 +5729,24 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K111" t="s">
-        <v>15</v>
-      </c>
-      <c r="L111" t="s">
-        <v>98</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5738,24 +5770,24 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K112" t="s">
-        <v>15</v>
-      </c>
-      <c r="L112" t="s">
-        <v>96</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5779,24 +5811,24 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K113" t="s">
-        <v>15</v>
-      </c>
-      <c r="L113" t="s">
-        <v>94</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5820,24 +5852,24 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K114" t="s">
-        <v>15</v>
-      </c>
-      <c r="L114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5861,24 +5893,24 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K115" t="s">
-        <v>15</v>
-      </c>
-      <c r="L115" t="s">
-        <v>90</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5902,24 +5934,24 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>15</v>
-      </c>
-      <c r="L116" t="s">
-        <v>88</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5943,24 +5975,24 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>15</v>
-      </c>
-      <c r="L117" t="s">
-        <v>86</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5984,24 +6016,24 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K118" t="s">
-        <v>15</v>
-      </c>
-      <c r="L118" t="s">
-        <v>84</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6025,24 +6057,24 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K119" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" t="s">
-        <v>82</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6066,24 +6098,24 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K120" t="s">
-        <v>15</v>
-      </c>
-      <c r="L120" t="s">
-        <v>80</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6107,24 +6139,24 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K121" t="s">
-        <v>15</v>
-      </c>
-      <c r="L121" t="s">
-        <v>78</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6148,24 +6180,24 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K122" t="s">
-        <v>15</v>
-      </c>
-      <c r="L122" t="s">
-        <v>76</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6189,24 +6221,24 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K123" t="s">
-        <v>15</v>
-      </c>
-      <c r="L123" t="s">
-        <v>74</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6230,24 +6262,24 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K124" t="s">
-        <v>15</v>
-      </c>
-      <c r="L124" t="s">
-        <v>72</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6271,24 +6303,24 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K125" t="s">
-        <v>15</v>
-      </c>
-      <c r="L125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6312,24 +6344,24 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K126" t="s">
-        <v>15</v>
-      </c>
-      <c r="L126" t="s">
-        <v>68</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6353,24 +6385,24 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>15</v>
-      </c>
-      <c r="L127" t="s">
-        <v>66</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6394,24 +6426,24 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K128" t="s">
-        <v>15</v>
-      </c>
-      <c r="L128" t="s">
-        <v>64</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6435,24 +6467,24 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>15</v>
-      </c>
-      <c r="L129" t="s">
-        <v>62</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6476,24 +6508,24 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K130" t="s">
-        <v>15</v>
-      </c>
-      <c r="L130" t="s">
-        <v>60</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6517,24 +6549,24 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>15</v>
-      </c>
-      <c r="L131" t="s">
-        <v>58</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6558,24 +6590,24 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K132" t="s">
-        <v>15</v>
-      </c>
-      <c r="L132" t="s">
-        <v>56</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6599,22 +6631,22 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K133" t="s">
-        <v>15</v>
-      </c>
-      <c r="L133" t="s">
-        <v>54</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>199</v>
       </c>
@@ -6640,24 +6672,24 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K134" t="s">
-        <v>15</v>
-      </c>
-      <c r="L134" t="s">
-        <v>52</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6681,24 +6713,24 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K135" t="s">
-        <v>15</v>
-      </c>
-      <c r="L135" t="s">
-        <v>50</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6722,24 +6754,24 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K136" t="s">
-        <v>15</v>
-      </c>
-      <c r="L136" t="s">
-        <v>48</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6763,24 +6795,24 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K137" t="s">
-        <v>15</v>
-      </c>
-      <c r="L137" t="s">
-        <v>46</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6804,24 +6836,24 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>15</v>
-      </c>
-      <c r="L138" t="s">
-        <v>44</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6845,24 +6877,24 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K139" t="s">
-        <v>15</v>
-      </c>
-      <c r="L139" t="s">
-        <v>42</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6886,24 +6918,24 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>15</v>
-      </c>
-      <c r="L140" t="s">
-        <v>108</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6927,24 +6959,24 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>15</v>
-      </c>
-      <c r="L141" t="s">
-        <v>40</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6968,24 +7000,24 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K142" t="s">
-        <v>15</v>
-      </c>
-      <c r="L142" t="s">
-        <v>38</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7009,24 +7041,24 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K143" t="s">
-        <v>15</v>
-      </c>
-      <c r="L143" t="s">
-        <v>36</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7050,24 +7082,24 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>15</v>
-      </c>
-      <c r="L144" t="s">
-        <v>34</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7091,24 +7123,24 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K145" t="s">
-        <v>15</v>
-      </c>
-      <c r="L145" t="s">
-        <v>32</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7132,24 +7164,24 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K146" t="s">
-        <v>15</v>
-      </c>
-      <c r="L146" t="s">
-        <v>30</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7173,24 +7205,24 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K147" t="s">
-        <v>15</v>
-      </c>
-      <c r="L147" t="s">
-        <v>213</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7214,24 +7246,24 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K148" t="s">
-        <v>15</v>
-      </c>
-      <c r="L148" t="s">
-        <v>215</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7255,24 +7287,24 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K149" t="s">
-        <v>15</v>
-      </c>
-      <c r="L149" t="s">
-        <v>217</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7296,24 +7328,24 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K150" t="s">
-        <v>15</v>
-      </c>
-      <c r="L150" t="s">
-        <v>219</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7337,24 +7369,24 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K151" t="s">
-        <v>15</v>
-      </c>
-      <c r="L151" t="s">
-        <v>221</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7378,24 +7410,24 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K152" t="s">
-        <v>15</v>
-      </c>
-      <c r="L152" t="s">
-        <v>223</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7419,24 +7451,24 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K153" t="s">
-        <v>15</v>
-      </c>
-      <c r="L153" t="s">
-        <v>225</v>
-      </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7460,24 +7492,24 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K154" t="s">
-        <v>15</v>
-      </c>
-      <c r="L154" t="s">
-        <v>227</v>
-      </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7501,24 +7533,24 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K155" t="s">
-        <v>15</v>
-      </c>
-      <c r="L155" t="s">
-        <v>229</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7542,24 +7574,24 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K156" t="s">
-        <v>15</v>
-      </c>
-      <c r="L156" t="s">
-        <v>231</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7583,159 +7615,159 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K157" t="s">
+        <v>16</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>247</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>984.70393701966259</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" t="s">
+        <v>16</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>249</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>984.70393701966259</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>251</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>984.70393701966259</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
         <v>15</v>
       </c>
-      <c r="L157" t="s">
-        <v>233</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>234</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>985</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158" t="s">
-        <v>13</v>
-      </c>
-      <c r="J158" t="s">
-        <v>14</v>
-      </c>
-      <c r="K158" t="s">
-        <v>15</v>
-      </c>
-      <c r="L158" t="s">
-        <v>235</v>
-      </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>236</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>985</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159" t="s">
-        <v>13</v>
-      </c>
-      <c r="J159" t="s">
-        <v>14</v>
-      </c>
-      <c r="K159" t="s">
-        <v>15</v>
-      </c>
-      <c r="L159" t="s">
-        <v>237</v>
-      </c>
-      <c r="M159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>238</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>985</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160" t="s">
-        <v>13</v>
-      </c>
-      <c r="J160" t="s">
-        <v>14</v>
-      </c>
       <c r="K160" t="s">
-        <v>15</v>
-      </c>
-      <c r="L160" t="s">
-        <v>239</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>985</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7747,24 +7779,24 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K161" t="s">
-        <v>15</v>
-      </c>
-      <c r="L161" t="s">
-        <v>241</v>
-      </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7788,24 +7820,24 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K162" t="s">
-        <v>15</v>
-      </c>
-      <c r="L162" t="s">
-        <v>243</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7829,24 +7861,24 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K163" t="s">
-        <v>15</v>
-      </c>
-      <c r="L163" t="s">
-        <v>245</v>
-      </c>
-      <c r="M163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7870,24 +7902,24 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K164" t="s">
-        <v>15</v>
-      </c>
-      <c r="L164" t="s">
-        <v>247</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7911,25 +7943,25 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K165" t="s">
-        <v>15</v>
-      </c>
-      <c r="L165" t="s">
-        <v>249</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K165 L1:L165" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M165" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1,821 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00721861-D1FE-464E-BD4E-DAEF6F95C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="263">
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Victories</t>
-  </si>
-  <si>
-    <t>Streak</t>
-  </si>
-  <si>
-    <t>Loses</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Majors</t>
-  </si>
-  <si>
-    <t>Prestige</t>
-  </si>
-  <si>
-    <t>Tournaments Trophies</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>BonusType</t>
-  </si>
-  <si>
-    <t>BonusRemaining</t>
-  </si>
-  <si>
-    <t>LastUpdated</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:38:43.524Z</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:33:35.840Z</t>
-  </si>
-  <si>
-    <t>Heroic</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:09.005Z</t>
-  </si>
-  <si>
-    <t>Iluminar</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:03.003Z</t>
-  </si>
-  <si>
-    <t>Eternal Fire</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:46.770Z</t>
-  </si>
-  <si>
-    <t>Elevate</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:40:12.263Z</t>
-  </si>
-  <si>
-    <t>Rebels</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:29.463Z</t>
-  </si>
-  <si>
-    <t>Verdant</t>
-  </si>
-  <si>
-    <t>AS/SIS/ESEA</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:54.196Z</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Bounty Hunters</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>The Huns</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:06.168Z</t>
-  </si>
-  <si>
-    <t>Spirit Academy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:45:42.234Z</t>
-  </si>
-  <si>
-    <t>Nemiga</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:08.336Z</t>
-  </si>
-  <si>
-    <t>NAVI Junior</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:32.115Z</t>
-  </si>
-  <si>
-    <t>PARIVISION</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:52.846Z</t>
-  </si>
-  <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:11.265Z</t>
-  </si>
-  <si>
-    <t>TALON</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:18.470Z</t>
-  </si>
-  <si>
-    <t>Chinggis Warrios</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:28.286Z</t>
-  </si>
-  <si>
-    <t>Virtus.pro</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:36.482Z</t>
-  </si>
-  <si>
-    <t>Take Flyte</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:49.161Z</t>
-  </si>
-  <si>
-    <t>Spirit</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:02.110Z</t>
-  </si>
-  <si>
-    <t>Aravt</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:09.473Z</t>
-  </si>
-  <si>
-    <t>BESTIA</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:17.012Z</t>
-  </si>
-  <si>
-    <t>VP.Prodigy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:28.102Z</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:38.129Z</t>
-  </si>
-  <si>
-    <t>Onyx Ravens</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:45.055Z</t>
-  </si>
-  <si>
-    <t>Natus Vincere</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:52.026Z</t>
-  </si>
-  <si>
-    <t>True Rippers</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:00.243Z</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:12.765Z</t>
-  </si>
-  <si>
-    <t>TYLOO</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:20.687Z</t>
-  </si>
-  <si>
-    <t>Homyno</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:27.811Z</t>
-  </si>
-  <si>
-    <t>MenaceGG</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:35.489Z</t>
-  </si>
-  <si>
-    <t>hoorai</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:47.596Z</t>
-  </si>
-  <si>
-    <t>Entropiq</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:54.043Z</t>
-  </si>
-  <si>
-    <t>The MongolZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:50:09.060Z</t>
-  </si>
-  <si>
-    <t>Copenhagen Flames</t>
-  </si>
-  <si>
-    <t>OG</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
-    <t>RED Canids</t>
-  </si>
-  <si>
-    <t>00 Nation</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100 Thieves</t>
-  </si>
-  <si>
-    <t>Aether</t>
-  </si>
-  <si>
-    <t>AMKAL</t>
-  </si>
-  <si>
-    <t>Astana Dragons</t>
-  </si>
-  <si>
-    <t>Astralis Talent</t>
-  </si>
-  <si>
-    <t>Avangar</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>BIG Academy</t>
-  </si>
-  <si>
-    <t>Bravado</t>
-  </si>
-  <si>
-    <t>Copenhagen Wolves</t>
-  </si>
-  <si>
-    <t>Counter Logic Games</t>
-  </si>
-  <si>
-    <t>ENCE Academy</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>FLuffy Gangsters</t>
-  </si>
-  <si>
-    <t>FlyQuest RED</t>
-  </si>
-  <si>
-    <t>Fnatic</t>
-  </si>
-  <si>
-    <t>FORZE</t>
-  </si>
-  <si>
-    <t>Gambit</t>
-  </si>
-  <si>
-    <t>GATERON</t>
-  </si>
-  <si>
-    <t>GhoulsW</t>
-  </si>
-  <si>
-    <t>HAVU</t>
-  </si>
-  <si>
-    <t>Heroic Academy</t>
-  </si>
-  <si>
-    <t>Hesta</t>
-  </si>
-  <si>
-    <t>Immortals</t>
-  </si>
-  <si>
-    <t>Into the Beach</t>
-  </si>
-  <si>
-    <t>Kinguin</t>
-  </si>
-  <si>
-    <t>kONO</t>
-  </si>
-  <si>
-    <t>LGB eSports</t>
-  </si>
-  <si>
-    <t>MAD Lions</t>
-  </si>
-  <si>
-    <t>MANA</t>
-  </si>
-  <si>
-    <t>MIBR Academy</t>
-  </si>
-  <si>
-    <t>Misfits</t>
-  </si>
-  <si>
-    <t>mousesports</t>
-  </si>
-  <si>
-    <t>MOUZ NXT</t>
-  </si>
-  <si>
-    <t>Movistar KOI</t>
-  </si>
-  <si>
-    <t>NIP Impact</t>
-  </si>
-  <si>
-    <t>Nordix</t>
-  </si>
-  <si>
-    <t>NOVAQ</t>
-  </si>
-  <si>
-    <t>paiN Academy</t>
-  </si>
-  <si>
-    <t>QMISTRY</t>
-  </si>
-  <si>
-    <t>Quantum Bellator Fire</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>Shika</t>
-  </si>
-  <si>
-    <t>SKYFURY</t>
-  </si>
-  <si>
-    <t>Space Soldiers</t>
-  </si>
-  <si>
-    <t>Sprout</t>
-  </si>
-  <si>
-    <t>Tsunami</t>
-  </si>
-  <si>
-    <t>VeryGames</t>
-  </si>
-  <si>
-    <t>Vox Eminor</t>
-  </si>
-  <si>
-    <t>Wildcard Academy</t>
-  </si>
-  <si>
-    <t>FaZe</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:39.932Z</t>
-  </si>
-  <si>
-    <t>iBUYPOWER</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:34.302Z</t>
-  </si>
-  <si>
-    <t>GODSENT</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:32.364Z</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:45.455Z</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:19.604Z</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:13.227Z</t>
-  </si>
-  <si>
-    <t>MIBR</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:50.018Z</t>
-  </si>
-  <si>
-    <t>Wizards</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:38.841Z</t>
-  </si>
-  <si>
-    <t>ad hoc</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>NomadS</t>
-  </si>
-  <si>
-    <t>Outsiders</t>
-  </si>
-  <si>
-    <t>Red Viperz</t>
-  </si>
-  <si>
-    <t>The Dice</t>
-  </si>
-  <si>
-    <t>Victores Sumus</t>
-  </si>
-  <si>
-    <t>ODDIK</t>
-  </si>
-  <si>
-    <t>Qiang</t>
-  </si>
-  <si>
-    <t>inSanitY</t>
-  </si>
-  <si>
-    <t>Sangal</t>
-  </si>
-  <si>
-    <t>9Pandas</t>
-  </si>
-  <si>
-    <t>Gods Reign</t>
-  </si>
-  <si>
-    <t>CatEvil</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>Evil Geniuses</t>
-  </si>
-  <si>
-    <t>Vantage</t>
-  </si>
-  <si>
-    <t>ATOX</t>
-  </si>
-  <si>
-    <t>Skinvault</t>
-  </si>
-  <si>
-    <t>BC.Game</t>
-  </si>
-  <si>
-    <t>Wings Up</t>
-  </si>
-  <si>
-    <t>Lynn Vision</t>
-  </si>
-  <si>
-    <t>Tricked</t>
-  </si>
-  <si>
-    <t>3DMAX</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:39:02.710Z</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:54.146Z</t>
-  </si>
-  <si>
-    <t>Dignitas</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:46.436Z</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:39.010Z</t>
-  </si>
-  <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:27.845Z</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:18.936Z</t>
-  </si>
-  <si>
-    <t>ARCRED</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:03.598Z</t>
-  </si>
-  <si>
-    <t>LDLC</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:55.156Z</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:47.172Z</t>
-  </si>
-  <si>
-    <t>Passion UA</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:27.234Z</t>
-  </si>
-  <si>
-    <t>FlyQuest</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:20.280Z</t>
-  </si>
-  <si>
-    <t>Envy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:05.560Z</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:43.463Z</t>
-  </si>
-  <si>
-    <t>Ninjas in Pyjamas</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:35.184Z</t>
-  </si>
-  <si>
-    <t>Limitless</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:26.343Z</t>
-  </si>
-  <si>
-    <t>Galorys</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:18.696Z</t>
-  </si>
-  <si>
-    <t>devils.one</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:30.347Z</t>
-  </si>
-  <si>
-    <t>Luminosity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:18.851Z</t>
-  </si>
-  <si>
-    <t>Sharks</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:12.952Z</t>
-  </si>
-  <si>
-    <t>IHC</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:06.529Z</t>
-  </si>
-  <si>
-    <t>Kappa Bar</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:57.244Z</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:48.652Z</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:39.402Z</t>
-  </si>
-  <si>
-    <t>Mythic</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:32.047Z</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:20.745Z</t>
-  </si>
-  <si>
-    <t>FURIA</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:13.604Z</t>
-  </si>
-  <si>
-    <t>KRU</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:06.663Z</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:57.658Z</t>
-  </si>
-  <si>
-    <t>9z</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:44.273Z</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:14.058Z</t>
-  </si>
-  <si>
-    <t>Vexed</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:19:58.722Z</t>
-  </si>
-  <si>
-    <t>ShindeN</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:26.535Z</t>
-  </si>
-  <si>
-    <t>Permitta</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:17.329Z</t>
-  </si>
-  <si>
-    <t>Wildcard</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:08.116Z</t>
-  </si>
-  <si>
-    <t>Astralis</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:01.822Z</t>
-  </si>
-  <si>
-    <t>Bad News Eagles</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:27.335Z</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:18.535Z</t>
-  </si>
-  <si>
-    <t>ECSTATIC</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:12.540Z</t>
-  </si>
-  <si>
-    <t>Legacy</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:20.251Z</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1184,59 +396,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Team</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Victories</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Streak</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Loses</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Points</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Majors</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prestige</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Tournaments Trophies</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Tier</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Region</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BonusType</v>
+      </c>
+      <c r="L1" t="str">
+        <v>BonusRemaining</v>
+      </c>
+      <c r="M1" t="str">
+        <v>LastUpdated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Liquid</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1259,25 +468,25 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="I2" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J2" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K2" t="str">
+        <v>none</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="M2" t="str">
+        <v>2026-02-19T01:38:43.524Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Vitality</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1300,25 +509,25 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="I3" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J3" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K3" t="str">
+        <v>none</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
+      <c r="M3" t="str">
+        <v>2026-02-19T02:33:35.840Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Heroic</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1341,25 +550,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+      <c r="I4" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K4" t="str">
+        <v>none</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="M4" t="str">
+        <v>2026-02-19T02:36:09.005Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Natus Vincere</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1371,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1061.6143113189103</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1382,37 +591,37 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+      <c r="I5" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J5" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K5" t="str">
+        <v>none</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="M5" t="str">
+        <v>2026-02-19T02:47:09.337Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PARIVISION</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1045.5709009227098</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1423,37 +632,37 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
+      <c r="I6" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K6" t="str">
+        <v>none</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
+      <c r="M6" t="str">
+        <v>2026-02-19T02:49:05.741Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Spirit</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1045.0333860637757</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1464,37 +673,37 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+      <c r="I7" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K7" t="str">
+        <v>none</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
+      <c r="M7" t="str">
+        <v>2026-02-19T02:50:50.205Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Iluminar</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1045.021243957568</v>
+        <v>1061.6143113189103</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1505,25 +714,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
+      <c r="I8" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J8" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K8" t="str">
+        <v>none</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="M8" t="str">
+        <v>2026-02-19T01:45:03.003Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Eternal Fire</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1535,541 +744,541 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1045.5709009227098</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J9" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K9" t="str">
+        <v>none</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2026-02-19T02:36:46.770Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Nemiga</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1045.55854142443</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J10" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K10" t="str">
+        <v>none</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2026-02-19T02:49:51.844Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Elevate</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1045.0333860637757</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J11" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K11" t="str">
+        <v>none</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <v>2026-02-19T01:40:12.263Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>The MongolZ</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1045.0333860637757</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J12" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K12" t="str">
+        <v>none</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <v>2026-02-19T02:47:58.813Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Rebels</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1045.021243957568</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J13" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K13" t="str">
+        <v>none</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <v>2026-02-19T02:34:29.463Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TALON</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1045.021243957568</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J14" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K14" t="str">
+        <v>none</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <v>2026-02-19T02:51:31.581Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Verdant</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1044.4384115620314</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J15" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K15" t="str">
+        <v>none</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <v>2026-02-19T01:45:54.196Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>BESTIA</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1030.0604120732232</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J16" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K16" t="str">
+        <v>none</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <v>2026-02-19T02:50:50.205Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>hoorai</v>
+      </c>
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1030.0604120732232</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J17" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K17" t="str">
+        <v>none</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <v>2026-02-19T02:49:05.741Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Onyx Ravens</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1030.0604120732232</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J18" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K18" t="str">
+        <v>none</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <v>2026-02-19T02:47:09.337Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Cloud9</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1030.0604120732232</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J19" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K19" t="str">
+        <v>none</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <v>2026-02-19T02:36:09.005Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>G2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1030.0604120732232</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J20" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K20" t="str">
+        <v>none</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <v>2026-02-19T02:33:35.840Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Bounty Hunters</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1030.0604120732232</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J21" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K21" t="str">
+        <v>none</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <v>2026-02-19T01:38:43.524Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Titan</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>1028.8592077342862</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1015</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1015</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1015</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1015</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1015</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1015</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1015</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1015</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1015</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -2079,25 +1288,25 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>16</v>
+      <c r="I22" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K22" t="str">
+        <v>none</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
+      <c r="M22" t="str">
+        <v>2026-02-19T01:45:03.003Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>The Huns</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2120,37 +1329,37 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>16</v>
+      <c r="I23" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J23" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K23" t="str">
+        <v>none</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>58</v>
+      <c r="M23" t="str">
+        <v>2026-02-18T21:21:06.168Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1015</v>
+        <v>1014.441260103101</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2161,37 +1370,37 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
+      <c r="I24" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J24" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K24" t="str">
+        <v>none</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
+      <c r="M24" t="str">
+        <v>2026-02-19T02:49:51.844Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1015</v>
+        <v>1014.4310540359442</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2202,37 +1411,37 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
+      <c r="I25" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J25" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K25" t="str">
+        <v>none</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
+      <c r="M25" t="str">
+        <v>2026-02-19T02:36:46.770Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TYLOO</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1015</v>
+        <v>1014.4291179968932</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2243,37 +1452,37 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
+      <c r="I26" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J26" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K26" t="str">
+        <v>none</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>64</v>
+      <c r="M26" t="str">
+        <v>2026-02-19T02:51:31.581Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>OG</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1015</v>
+        <v>1014.4291179968932</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2284,37 +1493,37 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" t="s">
-        <v>16</v>
+      <c r="I27" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J27" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K27" t="str">
+        <v>none</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
+      <c r="M27" t="str">
+        <v>2026-02-19T02:34:29.463Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>NAVI Junior</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1015</v>
+        <v>1014.4186945376644</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2325,37 +1534,37 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
+      <c r="I28" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J28" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K28" t="str">
+        <v>none</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
+      <c r="M28" t="str">
+        <v>2026-02-19T02:47:58.813Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Orbit</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1015</v>
+        <v>1014.4186945376644</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2366,37 +1575,37 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
+      <c r="I29" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J29" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K29" t="str">
+        <v>none</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
+      <c r="M29" t="str">
+        <v>2026-02-19T01:40:12.263Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>RED Canids</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>1015</v>
+        <v>1014.3357432269672</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2407,37 +1616,37 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
+      <c r="I30" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J30" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K30" t="str">
+        <v>none</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>72</v>
+      <c r="M30" t="str">
+        <v>2026-02-19T01:45:54.196Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>00 Nation</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2448,37 +1657,37 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" t="s">
-        <v>16</v>
+      <c r="I31" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K31" t="str">
+        <v>none</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>74</v>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>100 Thieves</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2489,37 +1698,37 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
+      <c r="I32" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J32" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K32" t="str">
+        <v>none</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
+      <c r="M32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Aether</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2530,37 +1739,37 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" t="s">
-        <v>16</v>
+      <c r="I33" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J33" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K33" t="str">
+        <v>none</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>78</v>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>AMKAL</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2571,37 +1780,37 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" t="s">
-        <v>16</v>
+      <c r="I34" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J34" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K34" t="str">
+        <v>none</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>80</v>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Astana Dragons</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2612,37 +1821,37 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
+      <c r="I35" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J35" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K35" t="str">
+        <v>none</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>82</v>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Astralis Talent</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2653,37 +1862,37 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
+      <c r="I36" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J36" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K36" t="str">
+        <v>none</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>84</v>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Avangar</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2694,37 +1903,37 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s">
-        <v>16</v>
+      <c r="I37" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J37" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K37" t="str">
+        <v>none</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>86</v>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B8</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2735,37 +1944,37 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
+      <c r="I38" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J38" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K38" t="str">
+        <v>none</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>88</v>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>BIG Academy</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1014.4310540359442</v>
+        <v>1000</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2776,37 +1985,37 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" t="s">
-        <v>16</v>
+      <c r="I39" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J39" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K39" t="str">
+        <v>none</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
+      <c r="M39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Bravado</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1014.4291179968932</v>
+        <v>1000</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2817,37 +2026,37 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" t="s">
-        <v>16</v>
+      <c r="I40" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J40" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K40" t="str">
+        <v>none</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>90</v>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1014.4186945376644</v>
+        <v>1000</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2858,37 +2067,37 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
+      <c r="I41" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J41" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K41" t="str">
+        <v>none</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
+      <c r="M41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Counter Logic Games</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1014.3357432269672</v>
+        <v>1000</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2899,25 +2108,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" t="s">
-        <v>16</v>
+      <c r="I42" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J42" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K42" t="str">
+        <v>none</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>ENCE Academy</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2940,25 +2149,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" t="s">
-        <v>16</v>
+      <c r="I43" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J43" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K43" t="str">
+        <v>none</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>ESC</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2981,25 +2190,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" t="s">
-        <v>16</v>
+      <c r="I44" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J44" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K44" t="str">
+        <v>none</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>95</v>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Flash</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3022,25 +2231,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
+      <c r="I45" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J45" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K45" t="str">
+        <v>none</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>96</v>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3063,25 +2272,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
-        <v>16</v>
+      <c r="I46" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J46" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K46" t="str">
+        <v>none</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>FlyQuest RED</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3104,25 +2313,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" t="s">
-        <v>16</v>
+      <c r="I47" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J47" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K47" t="str">
+        <v>none</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>98</v>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Fnatic</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3145,25 +2354,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
+      <c r="I48" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J48" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K48" t="str">
+        <v>none</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>99</v>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>FORZE</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3186,25 +2395,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" t="s">
-        <v>16</v>
+      <c r="I49" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J49" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K49" t="str">
+        <v>none</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>100</v>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Gambit</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3227,25 +2436,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
+      <c r="I50" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J50" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K50" t="str">
+        <v>none</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>101</v>
+      <c r="M50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>GATERON</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3268,25 +2477,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" t="s">
-        <v>16</v>
+      <c r="I51" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J51" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K51" t="str">
+        <v>none</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>102</v>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>GhoulsW</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3309,25 +2518,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" t="s">
-        <v>16</v>
+      <c r="I52" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J52" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K52" t="str">
+        <v>none</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>103</v>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>HAVU</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3350,25 +2559,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" t="s">
-        <v>16</v>
+      <c r="I53" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J53" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K53" t="str">
+        <v>none</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>104</v>
+      <c r="M53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Heroic Academy</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3391,25 +2600,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s">
-        <v>16</v>
+      <c r="I54" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J54" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K54" t="str">
+        <v>none</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>105</v>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Hesta</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3432,25 +2641,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" t="s">
-        <v>16</v>
+      <c r="I55" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J55" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K55" t="str">
+        <v>none</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>106</v>
+      <c r="M55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Immortals</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3473,25 +2682,25 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" t="s">
-        <v>16</v>
+      <c r="I56" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J56" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K56" t="str">
+        <v>none</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>107</v>
+      <c r="M56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Into the Beach</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3514,25 +2723,25 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" t="s">
-        <v>16</v>
+      <c r="I57" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J57" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K57" t="str">
+        <v>none</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>108</v>
+      <c r="M57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Kinguin</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3555,25 +2764,25 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" t="s">
-        <v>16</v>
+      <c r="I58" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J58" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K58" t="str">
+        <v>none</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>109</v>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>kONO</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3596,25 +2805,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" t="s">
-        <v>16</v>
+      <c r="I59" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J59" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K59" t="str">
+        <v>none</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>110</v>
+      <c r="M59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>LGB eSports</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3637,25 +2846,25 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" t="s">
-        <v>16</v>
+      <c r="I60" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J60" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K60" t="str">
+        <v>none</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>111</v>
+      <c r="M60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>MAD Lions</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3678,25 +2887,25 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" t="s">
-        <v>16</v>
+      <c r="I61" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J61" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K61" t="str">
+        <v>none</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>112</v>
+      <c r="M61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>MANA</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3719,25 +2928,25 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" t="s">
-        <v>16</v>
+      <c r="I62" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J62" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K62" t="str">
+        <v>none</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>113</v>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>MIBR Academy</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3760,25 +2969,25 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" t="s">
-        <v>16</v>
+      <c r="I63" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J63" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K63" t="str">
+        <v>none</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>114</v>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Misfits</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3801,25 +3010,25 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" t="s">
-        <v>16</v>
+      <c r="I64" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J64" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K64" t="str">
+        <v>none</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>115</v>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>mousesports</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3842,25 +3051,25 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" t="s">
-        <v>16</v>
+      <c r="I65" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J65" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K65" t="str">
+        <v>none</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>116</v>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>MOUZ NXT</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3883,25 +3092,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" t="s">
-        <v>16</v>
+      <c r="I66" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J66" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K66" t="str">
+        <v>none</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>117</v>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Movistar KOI</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3924,25 +3133,25 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" t="s">
-        <v>16</v>
+      <c r="I67" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J67" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K67" t="str">
+        <v>none</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>118</v>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>NIP Impact</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3965,25 +3174,25 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" t="s">
-        <v>16</v>
+      <c r="I68" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J68" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K68" t="str">
+        <v>none</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>119</v>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Nordix</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4006,25 +3215,25 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" t="s">
-        <v>16</v>
+      <c r="I69" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J69" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K69" t="str">
+        <v>none</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>120</v>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>NOVAQ</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4047,25 +3256,25 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" t="s">
-        <v>16</v>
+      <c r="I70" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J70" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K70" t="str">
+        <v>none</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>121</v>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>paiN Academy</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4088,25 +3297,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>32</v>
-      </c>
-      <c r="K71" t="s">
-        <v>16</v>
+      <c r="I71" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J71" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K71" t="str">
+        <v>none</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>122</v>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>QMISTRY</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4129,25 +3338,25 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" t="s">
-        <v>16</v>
+      <c r="I72" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J72" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K72" t="str">
+        <v>none</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>123</v>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4170,25 +3379,25 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" t="s">
-        <v>16</v>
+      <c r="I73" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J73" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K73" t="str">
+        <v>none</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>124</v>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Rogue</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4211,25 +3420,25 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" t="s">
-        <v>16</v>
+      <c r="I74" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J74" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K74" t="str">
+        <v>none</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>125</v>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Shika</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4252,25 +3461,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" t="s">
-        <v>16</v>
+      <c r="I75" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J75" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K75" t="str">
+        <v>none</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>126</v>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>SKYFURY</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4293,25 +3502,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" t="s">
-        <v>16</v>
+      <c r="I76" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J76" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K76" t="str">
+        <v>none</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>127</v>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Space Soldiers</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4334,25 +3543,25 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" t="s">
-        <v>16</v>
+      <c r="I77" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J77" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K77" t="str">
+        <v>none</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>128</v>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Sprout</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4375,25 +3584,25 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" t="s">
-        <v>16</v>
+      <c r="I78" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J78" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K78" t="str">
+        <v>none</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>129</v>
+      <c r="M78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Tsunami</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4416,25 +3625,25 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" t="s">
-        <v>16</v>
+      <c r="I79" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J79" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K79" t="str">
+        <v>none</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>130</v>
+      <c r="M79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>VeryGames</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4457,25 +3666,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" t="s">
-        <v>19</v>
-      </c>
-      <c r="K80" t="s">
-        <v>16</v>
+      <c r="I80" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J80" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K80" t="str">
+        <v>none</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>131</v>
+      <c r="M80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Vox Eminor</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4498,25 +3707,25 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" t="s">
-        <v>16</v>
+      <c r="I81" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J81" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K81" t="str">
+        <v>none</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>132</v>
+      <c r="M81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Wildcard Academy</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4539,37 +3748,37 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" t="s">
-        <v>16</v>
+      <c r="I82" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J82" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K82" t="str">
+        <v>none</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>133</v>
+      <c r="M82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Spirit Academy</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4580,37 +3789,37 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83" t="s">
-        <v>16</v>
+      <c r="I83" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J83" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K83" t="str">
+        <v>none</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>134</v>
+      <c r="M83" t="str">
+        <v>2026-02-19T02:49:35.870Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>True Rippers</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4621,37 +3830,37 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" t="s">
-        <v>32</v>
-      </c>
-      <c r="K84" t="s">
-        <v>16</v>
+      <c r="I84" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J84" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K84" t="str">
+        <v>none</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>135</v>
+      <c r="M84" t="str">
+        <v>2026-02-19T02:47:38.886Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>FaZe</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4662,37 +3871,37 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K85" t="s">
-        <v>16</v>
+      <c r="I85" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J85" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K85" t="str">
+        <v>none</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>136</v>
+      <c r="M85" t="str">
+        <v>2026-02-19T02:36:39.932Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>iBUYPOWER</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4703,37 +3912,37 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" t="s">
-        <v>32</v>
-      </c>
-      <c r="K86" t="s">
-        <v>16</v>
+      <c r="I86" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J86" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K86" t="str">
+        <v>none</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>137</v>
+      <c r="M86" t="str">
+        <v>2026-02-19T02:36:34.302Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>GODSENT</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4744,37 +3953,37 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" t="s">
-        <v>32</v>
-      </c>
-      <c r="K87" t="s">
-        <v>16</v>
+      <c r="I87" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J87" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K87" t="str">
+        <v>none</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>138</v>
+      <c r="M87" t="str">
+        <v>2026-02-19T01:39:32.364Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>M80</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>1000</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4785,37 +3994,37 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>19</v>
-      </c>
-      <c r="K88" t="s">
-        <v>16</v>
+      <c r="I88" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J88" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K88" t="str">
+        <v>none</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>139</v>
+      <c r="M88" t="str">
+        <v>2026-02-19T01:45:45.455Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Alliance</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4826,37 +4035,37 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" t="s">
-        <v>16</v>
+      <c r="I89" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J89" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K89" t="str">
+        <v>none</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>140</v>
+      <c r="M89" t="str">
+        <v>2026-02-19T02:51:22.336Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Homyno</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4867,37 +4076,37 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" t="s">
-        <v>15</v>
-      </c>
-      <c r="K90" t="s">
-        <v>16</v>
+      <c r="I90" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J90" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K90" t="str">
+        <v>none</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>141</v>
+      <c r="M90" t="str">
+        <v>2026-02-19T02:51:16.607Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>MenaceGG</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4908,37 +4117,37 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" t="s">
-        <v>32</v>
-      </c>
-      <c r="K91" t="s">
-        <v>16</v>
+      <c r="I91" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J91" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K91" t="str">
+        <v>none</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>142</v>
+      <c r="M91" t="str">
+        <v>2026-02-19T02:49:44.165Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Solid</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4949,37 +4158,37 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" t="s">
-        <v>19</v>
-      </c>
-      <c r="K92" t="s">
-        <v>16</v>
+      <c r="I92" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J92" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K92" t="str">
+        <v>none</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>143</v>
+      <c r="M92" t="str">
+        <v>2026-02-19T02:47:50.233Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>ENCE</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4990,37 +4199,37 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K93" t="s">
-        <v>16</v>
+      <c r="I93" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J93" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K93" t="str">
+        <v>none</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>144</v>
+      <c r="M93" t="str">
+        <v>2026-02-19T02:34:19.604Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Nexus</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>1000</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5031,25 +4240,25 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" t="s">
-        <v>16</v>
+      <c r="I94" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J94" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K94" t="str">
+        <v>none</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>145</v>
+      <c r="M94" t="str">
+        <v>2026-02-19T02:34:13.227Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>MIBR</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -5061,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="E95">
-        <v>999.72518097723059</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5072,25 +4281,25 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>19</v>
-      </c>
-      <c r="K95" t="s">
-        <v>16</v>
+      <c r="I95" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J95" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K95" t="str">
+        <v>none</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>147</v>
+      <c r="M95" t="str">
+        <v>2026-02-19T01:39:50.018Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Wizards</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -5102,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <v>999.72518097723059</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5113,37 +4322,37 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" t="s">
-        <v>19</v>
-      </c>
-      <c r="K96" t="s">
-        <v>16</v>
+      <c r="I96" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J96" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K96" t="str">
+        <v>none</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>149</v>
+      <c r="M96" t="str">
+        <v>2026-02-19T01:45:38.841Z</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>ad hoc</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>999.72518097723059</v>
+        <v>985</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5154,37 +4363,37 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" t="s">
-        <v>16</v>
+      <c r="I97" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J97" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K97" t="str">
+        <v>none</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>151</v>
+      <c r="M97" t="str">
+        <v>2026-02-19T00:50:09.060Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Reason</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>999.67234054451899</v>
+        <v>985</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5195,37 +4404,37 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" t="s">
-        <v>16</v>
+      <c r="I98" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J98" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>153</v>
+      <c r="M98" t="str">
+        <v>2026-02-19T00:49:54.043Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>SAW</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>999.40885151865234</v>
+        <v>985</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5236,37 +4445,37 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K99" t="s">
-        <v>16</v>
+      <c r="I99" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J99" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K99" t="str">
+        <v>none</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>155</v>
+      <c r="M99" t="str">
+        <v>2026-02-19T00:49:47.596Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>NomadS</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>999.40885151865234</v>
+        <v>985</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -5277,37 +4486,37 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" t="s">
-        <v>16</v>
+      <c r="I100" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J100" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>157</v>
+      <c r="M100" t="str">
+        <v>2026-02-19T00:49:35.489Z</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Outsiders</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>999.40885151865234</v>
+        <v>985</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -5318,37 +4527,37 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" t="s">
-        <v>16</v>
+      <c r="I101" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J101" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K101" t="str">
+        <v>none</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>159</v>
+      <c r="M101" t="str">
+        <v>2026-02-19T00:49:27.811Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Red Viperz</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>999.40625216951082</v>
+        <v>985</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -5359,25 +4568,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" t="s">
-        <v>16</v>
+      <c r="I102" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J102" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K102" t="str">
+        <v>none</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>161</v>
+      <c r="M102" t="str">
+        <v>2026-02-19T00:49:20.687Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>The Dice</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -5400,25 +4609,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" t="s">
-        <v>32</v>
-      </c>
-      <c r="K103" t="s">
-        <v>16</v>
+      <c r="I103" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J103" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K103" t="str">
+        <v>none</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>162</v>
+      <c r="M103" t="str">
+        <v>2026-02-19T00:49:12.765Z</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Victores Sumus</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5441,25 +4650,25 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" t="s">
-        <v>19</v>
-      </c>
-      <c r="K104" t="s">
-        <v>16</v>
+      <c r="I104" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J104" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K104" t="str">
+        <v>none</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>163</v>
+      <c r="M104" t="str">
+        <v>2026-02-19T00:49:00.243Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>ODDIK</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5482,25 +4691,25 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" t="s">
-        <v>16</v>
+      <c r="I105" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J105" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K105" t="str">
+        <v>none</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>164</v>
+      <c r="M105" t="str">
+        <v>2026-02-19T00:48:52.026Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Qiang</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5523,25 +4732,25 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>19</v>
-      </c>
-      <c r="K106" t="s">
-        <v>16</v>
+      <c r="I106" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J106" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K106" t="str">
+        <v>none</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>165</v>
+      <c r="M106" t="str">
+        <v>2026-02-19T00:48:45.055Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>inSanitY</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5564,25 +4773,25 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" t="s">
-        <v>19</v>
-      </c>
-      <c r="K107" t="s">
-        <v>16</v>
+      <c r="I107" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J107" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K107" t="str">
+        <v>none</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>166</v>
+      <c r="M107" t="str">
+        <v>2026-02-19T00:48:38.129Z</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Sangal</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5605,25 +4814,25 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108" t="s">
-        <v>16</v>
+      <c r="I108" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J108" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K108" t="str">
+        <v>none</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>167</v>
+      <c r="M108" t="str">
+        <v>2026-02-19T00:48:28.102Z</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>9Pandas</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5646,25 +4855,25 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" t="s">
-        <v>32</v>
-      </c>
-      <c r="K109" t="s">
-        <v>16</v>
+      <c r="I109" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J109" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K109" t="str">
+        <v>none</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>168</v>
+      <c r="M109" t="str">
+        <v>2026-02-19T00:48:17.012Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Gods Reign</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5687,25 +4896,25 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>32</v>
-      </c>
-      <c r="K110" t="s">
-        <v>16</v>
+      <c r="I110" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J110" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K110" t="str">
+        <v>none</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>169</v>
+      <c r="M110" t="str">
+        <v>2026-02-19T00:48:09.473Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>CatEvil</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5728,25 +4937,25 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>15</v>
-      </c>
-      <c r="K111" t="s">
-        <v>16</v>
+      <c r="I111" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J111" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K111" t="str">
+        <v>none</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>170</v>
+      <c r="M111" t="str">
+        <v>2026-02-19T00:48:02.110Z</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Carnival</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5769,25 +4978,25 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" t="s">
-        <v>19</v>
-      </c>
-      <c r="K112" t="s">
-        <v>16</v>
+      <c r="I112" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J112" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K112" t="str">
+        <v>none</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>171</v>
+      <c r="M112" t="str">
+        <v>2026-02-19T00:47:49.161Z</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Evil Geniuses</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5810,25 +5019,25 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" t="s">
-        <v>19</v>
-      </c>
-      <c r="K113" t="s">
-        <v>16</v>
+      <c r="I113" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J113" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K113" t="str">
+        <v>none</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>172</v>
+      <c r="M113" t="str">
+        <v>2026-02-19T00:47:36.482Z</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Vantage</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5851,25 +5060,25 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" t="s">
-        <v>32</v>
-      </c>
-      <c r="K114" t="s">
-        <v>16</v>
+      <c r="I114" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J114" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K114" t="str">
+        <v>none</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>173</v>
+      <c r="M114" t="str">
+        <v>2026-02-19T00:47:28.286Z</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>ATOX</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5892,25 +5101,25 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" t="s">
-        <v>32</v>
-      </c>
-      <c r="K115" t="s">
-        <v>16</v>
+      <c r="I115" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J115" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K115" t="str">
+        <v>none</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>174</v>
+      <c r="M115" t="str">
+        <v>2026-02-19T00:47:18.470Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Skinvault</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5933,25 +5142,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" t="s">
-        <v>19</v>
-      </c>
-      <c r="K116" t="s">
-        <v>16</v>
+      <c r="I116" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J116" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K116" t="str">
+        <v>none</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>175</v>
+      <c r="M116" t="str">
+        <v>2026-02-19T00:47:11.265Z</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>BC.Game</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5974,25 +5183,25 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" t="s">
-        <v>19</v>
-      </c>
-      <c r="K117" t="s">
-        <v>16</v>
+      <c r="I117" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J117" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K117" t="str">
+        <v>none</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>176</v>
+      <c r="M117" t="str">
+        <v>2026-02-19T00:46:52.846Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Wings Up</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6015,25 +5224,25 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>32</v>
-      </c>
-      <c r="K118" t="s">
-        <v>16</v>
+      <c r="I118" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J118" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K118" t="str">
+        <v>none</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>177</v>
+      <c r="M118" t="str">
+        <v>2026-02-19T00:46:32.115Z</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Lynn Vision</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6056,25 +5265,25 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
-        <v>32</v>
-      </c>
-      <c r="K119" t="s">
-        <v>16</v>
+      <c r="I119" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J119" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K119" t="str">
+        <v>none</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>178</v>
+      <c r="M119" t="str">
+        <v>2026-02-19T00:46:08.336Z</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Tricked</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6097,25 +5306,25 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" t="s">
-        <v>32</v>
-      </c>
-      <c r="K120" t="s">
-        <v>16</v>
+      <c r="I120" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J120" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K120" t="str">
+        <v>none</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>179</v>
+      <c r="M120" t="str">
+        <v>2026-02-19T00:45:42.234Z</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>3DMAX</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6138,25 +5347,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>32</v>
-      </c>
-      <c r="K121" t="s">
-        <v>16</v>
+      <c r="I121" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J121" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K121" t="str">
+        <v>none</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>180</v>
+      <c r="M121" t="str">
+        <v>2026-02-19T00:39:02.710Z</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Falcons</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6179,25 +5388,25 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>32</v>
-      </c>
-      <c r="K122" t="s">
-        <v>16</v>
+      <c r="I122" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J122" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K122" t="str">
+        <v>none</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>181</v>
+      <c r="M122" t="str">
+        <v>2026-02-19T00:38:54.146Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Dignitas</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6220,25 +5429,25 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" t="s">
-        <v>32</v>
-      </c>
-      <c r="K123" t="s">
-        <v>16</v>
+      <c r="I123" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J123" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K123" t="str">
+        <v>none</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>182</v>
+      <c r="M123" t="str">
+        <v>2026-02-19T00:38:46.436Z</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Venom</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6261,25 +5470,25 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>32</v>
-      </c>
-      <c r="K124" t="s">
-        <v>16</v>
+      <c r="I124" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J124" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K124" t="str">
+        <v>none</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>183</v>
+      <c r="M124" t="str">
+        <v>2026-02-19T00:38:39.010Z</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>MOUZ</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6302,25 +5511,25 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
-        <v>32</v>
-      </c>
-      <c r="K125" t="s">
-        <v>16</v>
+      <c r="I125" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J125" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K125" t="str">
+        <v>none</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>184</v>
+      <c r="M125" t="str">
+        <v>2026-02-19T00:38:27.845Z</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Aurora</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6343,25 +5552,25 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>19</v>
-      </c>
-      <c r="K126" t="s">
-        <v>16</v>
+      <c r="I126" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J126" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K126" t="str">
+        <v>none</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>185</v>
+      <c r="M126" t="str">
+        <v>2026-02-19T00:38:18.936Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>ARCRED</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6384,25 +5593,25 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>19</v>
-      </c>
-      <c r="K127" t="s">
-        <v>16</v>
+      <c r="I127" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J127" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K127" t="str">
+        <v>none</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>187</v>
+      <c r="M127" t="str">
+        <v>2026-02-19T00:38:03.598Z</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>LDLC</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6425,25 +5634,25 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>32</v>
-      </c>
-      <c r="K128" t="s">
-        <v>16</v>
+      <c r="I128" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J128" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K128" t="str">
+        <v>none</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>189</v>
+      <c r="M128" t="str">
+        <v>2026-02-19T00:37:55.156Z</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>GamerLegion</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6466,25 +5675,25 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>19</v>
-      </c>
-      <c r="K129" t="s">
-        <v>16</v>
+      <c r="I129" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J129" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K129" t="str">
+        <v>none</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>191</v>
+      <c r="M129" t="str">
+        <v>2026-02-19T00:37:47.172Z</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Passion UA</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6507,25 +5716,25 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>15</v>
-      </c>
-      <c r="K130" t="s">
-        <v>16</v>
+      <c r="I130" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J130" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K130" t="str">
+        <v>none</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>193</v>
+      <c r="M130" t="str">
+        <v>2026-02-19T00:37:27.234Z</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>FlyQuest</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6548,25 +5757,25 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>19</v>
-      </c>
-      <c r="K131" t="s">
-        <v>16</v>
+      <c r="I131" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J131" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K131" t="str">
+        <v>none</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>195</v>
+      <c r="M131" t="str">
+        <v>2026-02-19T00:37:20.280Z</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Envy</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6589,25 +5798,25 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>32</v>
-      </c>
-      <c r="K132" t="s">
-        <v>16</v>
+      <c r="I132" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J132" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K132" t="str">
+        <v>none</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>197</v>
+      <c r="M132" t="str">
+        <v>2026-02-19T00:37:05.560Z</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>BIG</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6630,25 +5839,25 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>32</v>
-      </c>
-      <c r="K133" t="s">
-        <v>16</v>
+      <c r="I133" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J133" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K133" t="str">
+        <v>none</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>199</v>
+      <c r="M133" t="str">
+        <v>2026-02-19T00:36:43.463Z</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6671,25 +5880,25 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>32</v>
-      </c>
-      <c r="K134" t="s">
-        <v>16</v>
+      <c r="I134" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J134" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K134" t="str">
+        <v>none</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>201</v>
+      <c r="M134" t="str">
+        <v>2026-02-19T00:36:35.184Z</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Limitless</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6712,25 +5921,25 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" t="s">
-        <v>16</v>
+      <c r="I135" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J135" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K135" t="str">
+        <v>none</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>203</v>
+      <c r="M135" t="str">
+        <v>2026-02-19T00:36:26.343Z</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Galorys</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6753,25 +5962,25 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>32</v>
-      </c>
-      <c r="K136" t="s">
-        <v>16</v>
+      <c r="I136" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J136" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K136" t="str">
+        <v>none</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>205</v>
+      <c r="M136" t="str">
+        <v>2026-02-19T00:36:18.696Z</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>devils.one</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6794,25 +6003,25 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>32</v>
-      </c>
-      <c r="K137" t="s">
-        <v>16</v>
+      <c r="I137" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J137" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K137" t="str">
+        <v>none</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>207</v>
+      <c r="M137" t="str">
+        <v>2026-02-18T21:23:30.347Z</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Luminosity</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6835,25 +6044,25 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>19</v>
-      </c>
-      <c r="K138" t="s">
-        <v>16</v>
+      <c r="I138" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J138" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K138" t="str">
+        <v>none</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>209</v>
+      <c r="M138" t="str">
+        <v>2026-02-18T21:23:18.851Z</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Sharks</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6876,25 +6085,25 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" t="s">
-        <v>19</v>
-      </c>
-      <c r="K139" t="s">
-        <v>16</v>
+      <c r="I139" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J139" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K139" t="str">
+        <v>none</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>211</v>
+      <c r="M139" t="str">
+        <v>2026-02-18T21:23:12.952Z</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>IHC</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6917,25 +6126,25 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" t="s">
-        <v>19</v>
-      </c>
-      <c r="K140" t="s">
-        <v>16</v>
+      <c r="I140" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J140" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K140" t="str">
+        <v>none</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>213</v>
+      <c r="M140" t="str">
+        <v>2026-02-18T21:23:06.529Z</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Kappa Bar</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6958,25 +6167,25 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>19</v>
-      </c>
-      <c r="K141" t="s">
-        <v>16</v>
+      <c r="I141" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J141" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K141" t="str">
+        <v>none</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>215</v>
+      <c r="M141" t="str">
+        <v>2026-02-18T21:22:57.244Z</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Complexity</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6999,25 +6208,25 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>15</v>
-      </c>
-      <c r="K142" t="s">
-        <v>16</v>
+      <c r="I142" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J142" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K142" t="str">
+        <v>none</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>217</v>
+      <c r="M142" t="str">
+        <v>2026-02-18T21:22:48.652Z</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Case</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7040,25 +6249,25 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>32</v>
-      </c>
-      <c r="K143" t="s">
-        <v>16</v>
+      <c r="I143" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J143" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K143" t="str">
+        <v>none</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>219</v>
+      <c r="M143" t="str">
+        <v>2026-02-18T21:22:39.402Z</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Mythic</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7081,25 +6290,25 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" t="s">
-        <v>19</v>
-      </c>
-      <c r="K144" t="s">
-        <v>16</v>
+      <c r="I144" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J144" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K144" t="str">
+        <v>none</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>221</v>
+      <c r="M144" t="str">
+        <v>2026-02-18T21:22:32.047Z</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Enemy</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7122,25 +6331,25 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>15</v>
-      </c>
-      <c r="K145" t="s">
-        <v>16</v>
+      <c r="I145" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J145" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K145" t="str">
+        <v>none</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>223</v>
+      <c r="M145" t="str">
+        <v>2026-02-18T21:22:20.745Z</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>FURIA</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7163,25 +6372,25 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>32</v>
-      </c>
-      <c r="K146" t="s">
-        <v>16</v>
+      <c r="I146" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J146" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K146" t="str">
+        <v>none</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>225</v>
+      <c r="M146" t="str">
+        <v>2026-02-18T21:22:13.604Z</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>KRU</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7204,25 +6413,25 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>19</v>
-      </c>
-      <c r="K147" t="s">
-        <v>16</v>
+      <c r="I147" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J147" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K147" t="str">
+        <v>none</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>227</v>
+      <c r="M147" t="str">
+        <v>2026-02-18T21:22:06.663Z</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Imperial</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7245,25 +6454,25 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>15</v>
-      </c>
-      <c r="K148" t="s">
-        <v>16</v>
+      <c r="I148" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J148" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K148" t="str">
+        <v>none</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>229</v>
+      <c r="M148" t="str">
+        <v>2026-02-18T21:21:57.658Z</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>9z</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7286,25 +6495,25 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" t="s">
-        <v>19</v>
-      </c>
-      <c r="K149" t="s">
-        <v>16</v>
+      <c r="I149" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J149" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K149" t="str">
+        <v>none</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>231</v>
+      <c r="M149" t="str">
+        <v>2026-02-18T21:21:44.273Z</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>paiN</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7327,25 +6536,25 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="s">
-        <v>14</v>
-      </c>
-      <c r="J150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K150" t="s">
-        <v>16</v>
+      <c r="I150" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J150" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K150" t="str">
+        <v>none</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>233</v>
+      <c r="M150" t="str">
+        <v>2026-02-18T21:21:14.058Z</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Vexed</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7368,37 +6577,37 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>19</v>
-      </c>
-      <c r="K151" t="s">
-        <v>16</v>
+      <c r="I151" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J151" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K151" t="str">
+        <v>none</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>235</v>
+      <c r="M151" t="str">
+        <v>2026-02-18T21:19:58.722Z</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Aravt</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -7409,37 +6618,37 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>15</v>
-      </c>
-      <c r="K152" t="s">
-        <v>16</v>
+      <c r="I152" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J152" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K152" t="str">
+        <v>none</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>237</v>
+      <c r="M152" t="str">
+        <v>2026-02-19T02:51:09.872Z</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>VP.Prodigy</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7450,37 +6659,37 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K153" t="s">
-        <v>16</v>
+      <c r="I153" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J153" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K153" t="str">
+        <v>none</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>239</v>
+      <c r="M153" t="str">
+        <v>2026-02-19T02:51:03.784Z</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Entropiq</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7491,37 +6700,37 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="s">
-        <v>14</v>
-      </c>
-      <c r="J154" t="s">
-        <v>15</v>
-      </c>
-      <c r="K154" t="s">
-        <v>16</v>
+      <c r="I154" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J154" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K154" t="str">
+        <v>none</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>241</v>
+      <c r="M154" t="str">
+        <v>2026-02-19T02:49:25.044Z</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Take Flyte</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7532,37 +6741,37 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" t="s">
-        <v>15</v>
-      </c>
-      <c r="K155" t="s">
-        <v>16</v>
+      <c r="I155" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J155" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K155" t="str">
+        <v>none</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>243</v>
+      <c r="M155" t="str">
+        <v>2026-02-19T02:49:14.876Z</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Underground</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7573,37 +6782,37 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
-        <v>15</v>
-      </c>
-      <c r="K156" t="s">
-        <v>16</v>
+      <c r="I156" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J156" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K156" t="str">
+        <v>none</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>245</v>
+      <c r="M156" t="str">
+        <v>2026-02-19T02:47:27.422Z</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Virtus.pro</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7614,25 +6823,25 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" t="s">
-        <v>32</v>
-      </c>
-      <c r="K157" t="s">
-        <v>16</v>
+      <c r="I157" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J157" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K157" t="str">
+        <v>none</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>247</v>
+      <c r="M157" t="str">
+        <v>2026-02-19T02:47:19.575Z</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>ShindeN</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7644,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7655,25 +6864,25 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" t="s">
-        <v>32</v>
-      </c>
-      <c r="K158" t="s">
-        <v>16</v>
+      <c r="I158" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J158" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K158" t="str">
+        <v>none</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>249</v>
+      <c r="M158" t="str">
+        <v>2026-02-19T02:36:26.535Z</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Permitta</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7685,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -7696,25 +6905,25 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="s">
-        <v>14</v>
-      </c>
-      <c r="J159" t="s">
-        <v>19</v>
-      </c>
-      <c r="K159" t="s">
-        <v>16</v>
+      <c r="I159" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J159" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K159" t="str">
+        <v>none</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>251</v>
+      <c r="M159" t="str">
+        <v>2026-02-19T02:36:17.329Z</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Wildcard</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7726,7 +6935,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7737,25 +6946,25 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" t="s">
-        <v>15</v>
-      </c>
-      <c r="K160" t="s">
-        <v>16</v>
+      <c r="I160" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J160" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K160" t="str">
+        <v>none</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>253</v>
+      <c r="M160" t="str">
+        <v>2026-02-19T02:34:08.116Z</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Astralis</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7767,7 +6976,7 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7778,25 +6987,25 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" t="s">
-        <v>19</v>
-      </c>
-      <c r="K161" t="s">
-        <v>16</v>
+      <c r="I161" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J161" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K161" t="str">
+        <v>none</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>255</v>
+      <c r="M161" t="str">
+        <v>2026-02-19T02:34:01.822Z</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Bad News Eagles</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7808,7 +7017,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7819,25 +7028,25 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>19</v>
-      </c>
-      <c r="K162" t="s">
-        <v>16</v>
+      <c r="I162" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J162" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K162" t="str">
+        <v>none</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>257</v>
+      <c r="M162" t="str">
+        <v>2026-02-19T01:45:27.335Z</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>SK</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7849,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7860,25 +7069,25 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" t="s">
-        <v>32</v>
-      </c>
-      <c r="K163" t="s">
-        <v>16</v>
+      <c r="I163" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J163" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K163" t="str">
+        <v>none</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>259</v>
+      <c r="M163" t="str">
+        <v>2026-02-19T01:39:18.535Z</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>ECSTATIC</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7890,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7901,25 +7110,25 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="s">
-        <v>14</v>
-      </c>
-      <c r="J164" t="s">
-        <v>19</v>
-      </c>
-      <c r="K164" t="s">
-        <v>16</v>
+      <c r="I164" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J164" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K164" t="str">
+        <v>none</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>261</v>
+      <c r="M164" t="str">
+        <v>2026-02-19T01:39:12.540Z</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Legacy</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7931,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>957.51590988244209</v>
+        <v>957.5159098824421</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7942,26 +7151,25 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="s">
-        <v>14</v>
-      </c>
-      <c r="J165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K165" t="s">
-        <v>16</v>
+      <c r="I165" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J165" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K165" t="str">
+        <v>none</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
-        <v>262</v>
+      <c r="M165" t="str">
+        <v>2026-02-19T01:45:20.251Z</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M165" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M165"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1019,19 +1019,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>BESTIA</v>
+        <v>Falcons</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1030.0604120732232</v>
+        <v>1030.8659864237202</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J16" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K16" t="str">
         <v>none</v>
@@ -1055,12 +1055,12 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-19T02:50:50.205Z</v>
+        <v>2026-02-19T21:54:33.737Z</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>hoorai</v>
+        <v>BESTIA</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J17" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K17" t="str">
         <v>none</v>
@@ -1096,12 +1096,12 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-19T02:49:05.741Z</v>
+        <v>2026-02-19T02:50:50.205Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Onyx Ravens</v>
+        <v>hoorai</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1128,7 +1128,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J18" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K18" t="str">
         <v>none</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-19T02:47:09.337Z</v>
+        <v>2026-02-19T02:49:05.741Z</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Cloud9</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1169,7 +1169,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J19" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K19" t="str">
         <v>none</v>
@@ -1178,12 +1178,12 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v>2026-02-19T02:36:09.005Z</v>
+        <v>2026-02-19T02:47:09.337Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>G2</v>
+        <v>Cloud9</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1219,12 +1219,12 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>2026-02-19T02:33:35.840Z</v>
+        <v>2026-02-19T02:36:09.005Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Bounty Hunters</v>
+        <v>G2</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1251,7 +1251,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J21" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K21" t="str">
         <v>none</v>
@@ -1260,12 +1260,12 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
+        <v>2026-02-19T02:33:35.840Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Titan</v>
+        <v>Bounty Hunters</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1028.8592077342862</v>
+        <v>1030.0604120732232</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1301,24 +1301,24 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
+        <v>2026-02-19T01:38:43.524Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>The Huns</v>
+        <v>Titan</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1015</v>
+        <v>1028.8592077342862</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1342,24 +1342,24 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T01:45:03.003Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Chinggis Warrios</v>
+        <v>The Huns</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1014.441260103101</v>
+        <v>1015</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J24" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K24" t="str">
         <v>none</v>
@@ -1383,12 +1383,12 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>2026-02-19T02:49:51.844Z</v>
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Copenhagen Flames</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>1014.4310540359442</v>
+        <v>1014.441260103101</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J25" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K25" t="str">
         <v>none</v>
@@ -1424,12 +1424,12 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>2026-02-19T02:36:46.770Z</v>
+        <v>2026-02-19T02:49:51.844Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>TYLOO</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>1014.4291179968932</v>
+        <v>1014.4310540359442</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J26" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K26" t="str">
         <v>none</v>
@@ -1465,12 +1465,12 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>2026-02-19T02:51:31.581Z</v>
+        <v>2026-02-19T02:36:46.770Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>OG</v>
+        <v>TYLOO</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1497,7 +1497,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J27" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K27" t="str">
         <v>none</v>
@@ -1506,12 +1506,12 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v>2026-02-19T02:34:29.463Z</v>
+        <v>2026-02-19T02:51:31.581Z</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>NAVI Junior</v>
+        <v>OG</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>1014.4186945376644</v>
+        <v>1014.4291179968932</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J28" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K28" t="str">
         <v>none</v>
@@ -1547,12 +1547,12 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v>2026-02-19T02:47:58.813Z</v>
+        <v>2026-02-19T02:34:29.463Z</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Orbit</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1579,7 +1579,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J29" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K29" t="str">
         <v>none</v>
@@ -1588,12 +1588,12 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <v>2026-02-19T01:40:12.263Z</v>
+        <v>2026-02-19T02:47:58.813Z</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>RED Canids</v>
+        <v>Orbit</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>1014.3357432269672</v>
+        <v>1014.4186945376644</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J30" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K30" t="str">
         <v>none</v>
@@ -1629,24 +1629,24 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v>2026-02-19T01:45:54.196Z</v>
+        <v>2026-02-19T01:40:12.263Z</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>00 Nation</v>
+        <v>RED Canids</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>1014.3357432269672</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J31" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K31" t="str">
         <v>none</v>
@@ -1670,12 +1670,12 @@
         <v>0</v>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>2026-02-19T01:45:54.196Z</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>100 Thieves</v>
+        <v>00 Nation</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Aether</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>AMKAL</v>
+        <v>Aether</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Astana Dragons</v>
+        <v>AMKAL</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J35" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K35" t="str">
         <v>none</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Astralis Talent</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Avangar</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J37" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K37" t="str">
         <v>none</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>B8</v>
+        <v>Avangar</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>BIG Academy</v>
+        <v>B8</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J39" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K39" t="str">
         <v>none</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Bravado</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>Bravado</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J41" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K41" t="str">
         <v>none</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Counter Logic Games</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J42" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K42" t="str">
         <v>none</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>ENCE Academy</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J43" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K43" t="str">
         <v>none</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ESC</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Flash</v>
+        <v>ESC</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>Flash</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>FlyQuest RED</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Fnatic</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>FORZE</v>
+        <v>Fnatic</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J49" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K49" t="str">
         <v>none</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Gambit</v>
+        <v>FORZE</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>GATERON</v>
+        <v>Gambit</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>GhoulsW</v>
+        <v>GATERON</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J52" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K52" t="str">
         <v>none</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>HAVU</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Heroic Academy</v>
+        <v>HAVU</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Hesta</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J55" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K55" t="str">
         <v>none</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Immortals</v>
+        <v>Hesta</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J56" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K56" t="str">
         <v>none</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Into the Beach</v>
+        <v>Immortals</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Kinguin</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J58" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K58" t="str">
         <v>none</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>kONO</v>
+        <v>Kinguin</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J59" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K59" t="str">
         <v>none</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>LGB eSports</v>
+        <v>kONO</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>MAD Lions</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>MANA</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J62" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K62" t="str">
         <v>none</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>MIBR Academy</v>
+        <v>MANA</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Misfits</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J64" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K64" t="str">
         <v>none</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>mousesports</v>
+        <v>Misfits</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>MOUZ NXT</v>
+        <v>mousesports</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Movistar KOI</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>NIP Impact</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J68" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K68" t="str">
         <v>none</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Nordix</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J69" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K69" t="str">
         <v>none</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>NOVAQ</v>
+        <v>Nordix</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>paiN Academy</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J71" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K71" t="str">
         <v>none</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>QMISTRY</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J72" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K72" t="str">
         <v>none</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Rogue</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shika</v>
+        <v>Rogue</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>SKYFURY</v>
+        <v>Shika</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Space Soldiers</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Sprout</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Tsunami</v>
+        <v>Sprout</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J79" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K79" t="str">
         <v>none</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>VeryGames</v>
+        <v>Tsunami</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Vox Eminor</v>
+        <v>VeryGames</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J81" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K81" t="str">
         <v>none</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Wildcard Academy</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -3766,19 +3766,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Spirit Academy</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>999.7251809772306</v>
+        <v>1000</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J83" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K83" t="str">
         <v>none</v>
@@ -3802,12 +3802,12 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <v>2026-02-19T02:49:35.870Z</v>
+        <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>True Rippers</v>
+        <v>FURIA</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>999.7251809772306</v>
+        <v>999.7261395369545</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -3843,12 +3843,12 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <v>2026-02-19T02:47:38.886Z</v>
+        <v>2026-02-19T21:54:33.737Z</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>FaZe</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -3875,7 +3875,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J85" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K85" t="str">
         <v>none</v>
@@ -3884,12 +3884,12 @@
         <v>0</v>
       </c>
       <c r="M85" t="str">
-        <v>2026-02-19T02:36:39.932Z</v>
+        <v>2026-02-19T02:49:35.870Z</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>iBUYPOWER</v>
+        <v>True Rippers</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -3916,7 +3916,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J86" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K86" t="str">
         <v>none</v>
@@ -3925,12 +3925,12 @@
         <v>0</v>
       </c>
       <c r="M86" t="str">
-        <v>2026-02-19T02:36:34.302Z</v>
+        <v>2026-02-19T02:47:38.886Z</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>GODSENT</v>
+        <v>FaZe</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -3966,12 +3966,12 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <v>2026-02-19T01:39:32.364Z</v>
+        <v>2026-02-19T02:36:39.932Z</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>M80</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -3983,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>999.672340544519</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J88" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K88" t="str">
         <v>none</v>
@@ -4007,12 +4007,12 @@
         <v>0</v>
       </c>
       <c r="M88" t="str">
-        <v>2026-02-19T01:45:45.455Z</v>
+        <v>2026-02-19T02:36:34.302Z</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Alliance</v>
+        <v>GODSENT</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4024,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>999.4088515186523</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4048,12 +4048,12 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
-        <v>2026-02-19T02:51:22.336Z</v>
+        <v>2026-02-19T01:39:32.364Z</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Homyno</v>
+        <v>M80</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>999.4088515186523</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4089,12 +4089,12 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
-        <v>2026-02-19T02:51:16.607Z</v>
+        <v>2026-02-19T01:45:45.455Z</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>MenaceGG</v>
+        <v>Alliance</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4121,7 +4121,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J91" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K91" t="str">
         <v>none</v>
@@ -4130,12 +4130,12 @@
         <v>0</v>
       </c>
       <c r="M91" t="str">
-        <v>2026-02-19T02:49:44.165Z</v>
+        <v>2026-02-19T02:51:22.336Z</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Solid</v>
+        <v>Homyno</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4171,12 +4171,12 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
-        <v>2026-02-19T02:47:50.233Z</v>
+        <v>2026-02-19T02:51:16.607Z</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>ENCE</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4203,7 +4203,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J93" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K93" t="str">
         <v>none</v>
@@ -4212,12 +4212,12 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
-        <v>2026-02-19T02:34:19.604Z</v>
+        <v>2026-02-19T02:49:44.165Z</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Nexus</v>
+        <v>Solid</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4244,7 +4244,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J94" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K94" t="str">
         <v>none</v>
@@ -4253,12 +4253,12 @@
         <v>0</v>
       </c>
       <c r="M94" t="str">
-        <v>2026-02-19T02:34:13.227Z</v>
+        <v>2026-02-19T02:47:50.233Z</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>MIBR</v>
+        <v>ENCE</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -4285,7 +4285,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J95" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K95" t="str">
         <v>none</v>
@@ -4294,12 +4294,12 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
-        <v>2026-02-19T01:39:50.018Z</v>
+        <v>2026-02-19T02:34:19.604Z</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Wizards</v>
+        <v>Nexus</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <v>999.4062521695108</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4335,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="M96" t="str">
-        <v>2026-02-19T01:45:38.841Z</v>
+        <v>2026-02-19T02:34:13.227Z</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>ad hoc</v>
+        <v>MIBR</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>985</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J97" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K97" t="str">
         <v>none</v>
@@ -4376,24 +4376,24 @@
         <v>0</v>
       </c>
       <c r="M97" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+        <v>2026-02-19T01:39:50.018Z</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Reason</v>
+        <v>Wizards</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>985</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J98" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K98" t="str">
         <v>none</v>
@@ -4417,12 +4417,12 @@
         <v>0</v>
       </c>
       <c r="M98" t="str">
-        <v>2026-02-19T00:49:54.043Z</v>
+        <v>2026-02-19T01:45:38.841Z</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>SAW</v>
+        <v>ad hoc</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J99" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K99" t="str">
         <v>none</v>
@@ -4458,12 +4458,12 @@
         <v>0</v>
       </c>
       <c r="M99" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>NomadS</v>
+        <v>SAW</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4499,12 +4499,12 @@
         <v>0</v>
       </c>
       <c r="M100" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Outsiders</v>
+        <v>NomadS</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4540,12 +4540,12 @@
         <v>0</v>
       </c>
       <c r="M101" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Red Viperz</v>
+        <v>Outsiders</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J102" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K102" t="str">
         <v>none</v>
@@ -4581,12 +4581,12 @@
         <v>0</v>
       </c>
       <c r="M102" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>The Dice</v>
+        <v>Red Viperz</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J103" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K103" t="str">
         <v>none</v>
@@ -4622,12 +4622,12 @@
         <v>0</v>
       </c>
       <c r="M103" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Victores Sumus</v>
+        <v>The Dice</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4663,12 +4663,12 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>ODDIK</v>
+        <v>Victores Sumus</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J105" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K105" t="str">
         <v>none</v>
@@ -4704,12 +4704,12 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Qiang</v>
+        <v>ODDIK</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J106" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K106" t="str">
         <v>none</v>
@@ -4745,12 +4745,12 @@
         <v>0</v>
       </c>
       <c r="M106" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>inSanitY</v>
+        <v>Qiang</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4786,12 +4786,12 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Sangal</v>
+        <v>inSanitY</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J108" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K108" t="str">
         <v>none</v>
@@ -4827,12 +4827,12 @@
         <v>0</v>
       </c>
       <c r="M108" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>9Pandas</v>
+        <v>Sangal</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4868,12 +4868,12 @@
         <v>0</v>
       </c>
       <c r="M109" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Gods Reign</v>
+        <v>9Pandas</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J110" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K110" t="str">
         <v>none</v>
@@ -4909,12 +4909,12 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>CatEvil</v>
+        <v>Gods Reign</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4950,12 +4950,12 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Carnival</v>
+        <v>CatEvil</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J112" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K112" t="str">
         <v>none</v>
@@ -4991,12 +4991,12 @@
         <v>0</v>
       </c>
       <c r="M112" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Evil Geniuses</v>
+        <v>Carnival</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5032,12 +5032,12 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Vantage</v>
+        <v>Evil Geniuses</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5073,12 +5073,12 @@
         <v>0</v>
       </c>
       <c r="M114" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>ATOX</v>
+        <v>Vantage</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5114,12 +5114,12 @@
         <v>0</v>
       </c>
       <c r="M115" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Skinvault</v>
+        <v>ATOX</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5155,12 +5155,12 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>BC.Game</v>
+        <v>Skinvault</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5196,12 +5196,12 @@
         <v>0</v>
       </c>
       <c r="M117" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Wings Up</v>
+        <v>BC.Game</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5237,12 +5237,12 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Lynn Vision</v>
+        <v>Wings Up</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5278,12 +5278,12 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Tricked</v>
+        <v>Lynn Vision</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J120" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K120" t="str">
         <v>none</v>
@@ -5319,12 +5319,12 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>3DMAX</v>
+        <v>Tricked</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5360,12 +5360,12 @@
         <v>0</v>
       </c>
       <c r="M121" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Falcons</v>
+        <v>3DMAX</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J122" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K122" t="str">
         <v>none</v>
@@ -5401,12 +5401,12 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
-        <v>2026-02-19T00:38:54.146Z</v>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Dignitas</v>
+        <v>Venom</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J123" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K123" t="str">
         <v>none</v>
@@ -5442,12 +5442,12 @@
         <v>0</v>
       </c>
       <c r="M123" t="str">
-        <v>2026-02-19T00:38:46.436Z</v>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Venom</v>
+        <v>ARCRED</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J124" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K124" t="str">
         <v>none</v>
@@ -5483,12 +5483,12 @@
         <v>0</v>
       </c>
       <c r="M124" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>MOUZ</v>
+        <v>GamerLegion</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J125" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K125" t="str">
         <v>none</v>
@@ -5524,12 +5524,12 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
-        <v>2026-02-19T00:38:27.845Z</v>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Aurora</v>
+        <v>Passion UA</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5565,12 +5565,12 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
-        <v>2026-02-19T00:38:18.936Z</v>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>ARCRED</v>
+        <v>FlyQuest</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5606,12 +5606,12 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>LDLC</v>
+        <v>Envy</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J128" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K128" t="str">
         <v>none</v>
@@ -5647,12 +5647,12 @@
         <v>0</v>
       </c>
       <c r="M128" t="str">
-        <v>2026-02-19T00:37:55.156Z</v>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>GamerLegion</v>
+        <v>BIG</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J129" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K129" t="str">
         <v>none</v>
@@ -5688,12 +5688,12 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Passion UA</v>
+        <v>Limitless</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J130" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K130" t="str">
         <v>none</v>
@@ -5729,12 +5729,12 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>FlyQuest</v>
+        <v>Galorys</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J131" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K131" t="str">
         <v>none</v>
@@ -5770,12 +5770,12 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Envy</v>
+        <v>devils.one</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J132" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K132" t="str">
         <v>none</v>
@@ -5811,12 +5811,12 @@
         <v>0</v>
       </c>
       <c r="M132" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+        <v>2026-02-18T21:23:30.347Z</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>BIG</v>
+        <v>Luminosity</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5852,12 +5852,12 @@
         <v>0</v>
       </c>
       <c r="M133" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+        <v>2026-02-18T21:23:18.851Z</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Ninjas in Pyjamas</v>
+        <v>Sharks</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J134" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K134" t="str">
         <v>none</v>
@@ -5893,12 +5893,12 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
-        <v>2026-02-19T00:36:35.184Z</v>
+        <v>2026-02-18T21:23:12.952Z</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Limitless</v>
+        <v>IHC</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J135" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K135" t="str">
         <v>none</v>
@@ -5934,12 +5934,12 @@
         <v>0</v>
       </c>
       <c r="M135" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+        <v>2026-02-18T21:23:06.529Z</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Galorys</v>
+        <v>Kappa Bar</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J136" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K136" t="str">
         <v>none</v>
@@ -5975,12 +5975,12 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+        <v>2026-02-18T21:22:57.244Z</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>devils.one</v>
+        <v>Complexity</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J137" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K137" t="str">
         <v>none</v>
@@ -6016,12 +6016,12 @@
         <v>0</v>
       </c>
       <c r="M137" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+        <v>2026-02-18T21:22:48.652Z</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Luminosity</v>
+        <v>Case</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6057,12 +6057,12 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+        <v>2026-02-18T21:22:39.402Z</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Sharks</v>
+        <v>Mythic</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6098,12 +6098,12 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+        <v>2026-02-18T21:22:32.047Z</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>IHC</v>
+        <v>Enemy</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J140" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K140" t="str">
         <v>none</v>
@@ -6139,12 +6139,12 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+        <v>2026-02-18T21:22:20.745Z</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Kappa Bar</v>
+        <v>KRU</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J141" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K141" t="str">
         <v>none</v>
@@ -6180,12 +6180,12 @@
         <v>0</v>
       </c>
       <c r="M141" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+        <v>2026-02-18T21:22:06.663Z</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Complexity</v>
+        <v>Imperial</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6221,12 +6221,12 @@
         <v>0</v>
       </c>
       <c r="M142" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+        <v>2026-02-18T21:21:57.658Z</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Case</v>
+        <v>9z</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J143" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K143" t="str">
         <v>none</v>
@@ -6262,12 +6262,12 @@
         <v>0</v>
       </c>
       <c r="M143" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+        <v>2026-02-18T21:21:44.273Z</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Mythic</v>
+        <v>paiN</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6303,12 +6303,12 @@
         <v>0</v>
       </c>
       <c r="M144" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+        <v>2026-02-18T21:21:14.058Z</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Enemy</v>
+        <v>Vexed</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J145" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K145" t="str">
         <v>none</v>
@@ -6344,24 +6344,24 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+        <v>2026-02-18T21:19:58.722Z</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>FURIA</v>
+        <v>Dignitas</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6376,7 +6376,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J146" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K146" t="str">
         <v>none</v>
@@ -6385,24 +6385,24 @@
         <v>0</v>
       </c>
       <c r="M146" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
+        <v>2026-02-19T21:54:17.535Z</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>KRU</v>
+        <v>LDLC</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J147" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K147" t="str">
         <v>none</v>
@@ -6426,24 +6426,24 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+        <v>2026-02-19T21:53:53.691Z</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Imperial</v>
+        <v>Aravt</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J148" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K148" t="str">
         <v>none</v>
@@ -6467,24 +6467,24 @@
         <v>0</v>
       </c>
       <c r="M148" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+        <v>2026-02-19T02:51:09.872Z</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>9z</v>
+        <v>VP.Prodigy</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J149" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K149" t="str">
         <v>none</v>
@@ -6508,24 +6508,24 @@
         <v>0</v>
       </c>
       <c r="M149" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+        <v>2026-02-19T02:51:03.784Z</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>paiN</v>
+        <v>Entropiq</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -6549,24 +6549,24 @@
         <v>0</v>
       </c>
       <c r="M150" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+        <v>2026-02-19T02:49:25.044Z</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Vexed</v>
+        <v>Take Flyte</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J151" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K151" t="str">
         <v>none</v>
@@ -6590,12 +6590,12 @@
         <v>0</v>
       </c>
       <c r="M151" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
+        <v>2026-02-19T02:49:14.876Z</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Aravt</v>
+        <v>Underground</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6622,7 +6622,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J152" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K152" t="str">
         <v>none</v>
@@ -6631,12 +6631,12 @@
         <v>0</v>
       </c>
       <c r="M152" t="str">
-        <v>2026-02-19T02:51:09.872Z</v>
+        <v>2026-02-19T02:47:27.422Z</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>VP.Prodigy</v>
+        <v>Virtus.pro</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6672,12 +6672,12 @@
         <v>0</v>
       </c>
       <c r="M153" t="str">
-        <v>2026-02-19T02:51:03.784Z</v>
+        <v>2026-02-19T02:47:19.575Z</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Entropiq</v>
+        <v>ShindeN</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J154" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K154" t="str">
         <v>none</v>
@@ -6713,12 +6713,12 @@
         <v>0</v>
       </c>
       <c r="M154" t="str">
-        <v>2026-02-19T02:49:25.044Z</v>
+        <v>2026-02-19T02:36:26.535Z</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Take Flyte</v>
+        <v>Permitta</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6745,7 +6745,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J155" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K155" t="str">
         <v>none</v>
@@ -6754,12 +6754,12 @@
         <v>0</v>
       </c>
       <c r="M155" t="str">
-        <v>2026-02-19T02:49:14.876Z</v>
+        <v>2026-02-19T02:36:17.329Z</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Underground</v>
+        <v>Wildcard</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J156" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K156" t="str">
         <v>none</v>
@@ -6795,12 +6795,12 @@
         <v>0</v>
       </c>
       <c r="M156" t="str">
-        <v>2026-02-19T02:47:27.422Z</v>
+        <v>2026-02-19T02:34:08.116Z</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Virtus.pro</v>
+        <v>Astralis</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -6827,7 +6827,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J157" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K157" t="str">
         <v>none</v>
@@ -6836,12 +6836,12 @@
         <v>0</v>
       </c>
       <c r="M157" t="str">
-        <v>2026-02-19T02:47:19.575Z</v>
+        <v>2026-02-19T02:34:01.822Z</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>ShindeN</v>
+        <v>Bad News Eagles</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6868,7 +6868,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J158" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K158" t="str">
         <v>none</v>
@@ -6877,12 +6877,12 @@
         <v>0</v>
       </c>
       <c r="M158" t="str">
-        <v>2026-02-19T02:36:26.535Z</v>
+        <v>2026-02-19T01:45:27.335Z</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Permitta</v>
+        <v>SK</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -6909,7 +6909,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J159" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K159" t="str">
         <v>none</v>
@@ -6918,12 +6918,12 @@
         <v>0</v>
       </c>
       <c r="M159" t="str">
-        <v>2026-02-19T02:36:17.329Z</v>
+        <v>2026-02-19T01:39:18.535Z</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Wildcard</v>
+        <v>ECSTATIC</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6950,7 +6950,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J160" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K160" t="str">
         <v>none</v>
@@ -6959,15 +6959,15 @@
         <v>0</v>
       </c>
       <c r="M160" t="str">
-        <v>2026-02-19T02:34:08.116Z</v>
+        <v>2026-02-19T01:39:12.540Z</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Astralis</v>
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>984.7039370196626</v>
+        <v>970</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7000,15 +7000,15 @@
         <v>0</v>
       </c>
       <c r="M161" t="str">
-        <v>2026-02-19T02:34:01.822Z</v>
+        <v>2026-02-19T21:53:46.615Z</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Bad News Eagles</v>
+        <v>MOUZ</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>984.7039370196626</v>
+        <v>970</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7041,15 +7041,15 @@
         <v>0</v>
       </c>
       <c r="M162" t="str">
-        <v>2026-02-19T01:45:27.335Z</v>
+        <v>2026-02-19T21:53:40.004Z</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>SK</v>
+        <v>Aurora</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>984.7039370196626</v>
+        <v>970</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7082,15 +7082,15 @@
         <v>0</v>
       </c>
       <c r="M163" t="str">
-        <v>2026-02-19T01:39:18.535Z</v>
+        <v>2026-02-19T21:53:30.387Z</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>ECSTATIC</v>
+        <v>Reason</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -7099,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>984.7039370196626</v>
+        <v>970</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="M164" t="str">
-        <v>2026-02-19T01:39:12.540Z</v>
+        <v>2026-02-19T21:53:23.315Z</v>
       </c>
     </row>
     <row r="165">

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -978,19 +978,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Verdant</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1044.4384115620314</v>
+        <v>1044.7150389361373</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1014,24 +1014,24 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>2026-02-19T01:45:54.196Z</v>
+        <v>2026-02-19T22:09:16.526Z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Falcons</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1030.8659864237202</v>
+        <v>1044.6995232012255</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J16" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K16" t="str">
         <v>none</v>
@@ -1055,24 +1055,24 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-19T21:54:33.737Z</v>
+        <v>2026-02-19T22:09:03.691Z</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>BESTIA</v>
+        <v>Verdant</v>
       </c>
       <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1030.0604120732232</v>
+        <v>1044.4384115620314</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J17" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K17" t="str">
         <v>none</v>
@@ -1096,24 +1096,24 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-19T02:50:50.205Z</v>
+        <v>2026-02-19T01:45:54.196Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>hoorai</v>
+        <v>Falcons</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1030.0604120732232</v>
+        <v>1030.8659864237202</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J18" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K18" t="str">
         <v>none</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-19T02:49:05.741Z</v>
+        <v>2026-02-19T21:54:33.737Z</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Onyx Ravens</v>
+        <v>BESTIA</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1169,7 +1169,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J19" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K19" t="str">
         <v>none</v>
@@ -1178,12 +1178,12 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v>2026-02-19T02:47:09.337Z</v>
+        <v>2026-02-19T02:50:50.205Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cloud9</v>
+        <v>hoorai</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1219,12 +1219,12 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>2026-02-19T02:36:09.005Z</v>
+        <v>2026-02-19T02:49:05.741Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>G2</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1251,7 +1251,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J21" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K21" t="str">
         <v>none</v>
@@ -1260,12 +1260,12 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>2026-02-19T02:33:35.840Z</v>
+        <v>2026-02-19T02:47:09.337Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Bounty Hunters</v>
+        <v>Cloud9</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1292,7 +1292,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J22" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K22" t="str">
         <v>none</v>
@@ -1301,12 +1301,12 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
+        <v>2026-02-19T02:36:09.005Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Titan</v>
+        <v>G2</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1028.8592077342862</v>
+        <v>1030.0604120732232</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J23" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K23" t="str">
         <v>none</v>
@@ -1342,24 +1342,24 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
+        <v>2026-02-19T02:33:35.840Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>The Huns</v>
+        <v>Bounty Hunters</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1015</v>
+        <v>1030.0604120732232</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1383,12 +1383,12 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T01:38:43.524Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Chinggis Warrios</v>
+        <v>Titan</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1014.441260103101</v>
+        <v>1028.8592077342862</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J25" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K25" t="str">
         <v>none</v>
@@ -1424,24 +1424,24 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>2026-02-19T02:49:51.844Z</v>
+        <v>2026-02-19T01:45:03.003Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Copenhagen Flames</v>
+        <v>The Huns</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1014.4310540359442</v>
+        <v>1015</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J26" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K26" t="str">
         <v>none</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>2026-02-19T02:36:46.770Z</v>
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
     </row>
     <row r="27">
@@ -1473,16 +1473,16 @@
         <v>TYLOO</v>
       </c>
       <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
       <c r="E27">
-        <v>1014.4291179968932</v>
+        <v>1014.128742285643</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v>2026-02-19T02:51:31.581Z</v>
+        <v>2026-02-19T22:09:16.526Z</v>
       </c>
     </row>
     <row r="28">
@@ -1514,16 +1514,16 @@
         <v>OG</v>
       </c>
       <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
       <c r="E28">
-        <v>1014.4291179968932</v>
+        <v>1013.5266895185538</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1547,24 +1547,24 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v>2026-02-19T02:34:29.463Z</v>
+        <v>2026-02-19T22:09:03.691Z</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>NAVI Junior</v>
+        <v>00 Nation</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1014.4186945376644</v>
+        <v>1000</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J29" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K29" t="str">
         <v>none</v>
@@ -1588,24 +1588,24 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <v>2026-02-19T02:47:58.813Z</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Orbit</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1014.4186945376644</v>
+        <v>1000</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J30" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K30" t="str">
         <v>none</v>
@@ -1629,24 +1629,24 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v>2026-02-19T01:40:12.263Z</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>RED Canids</v>
+        <v>Aether</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1014.3357432269672</v>
+        <v>1000</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1670,12 +1670,12 @@
         <v>0</v>
       </c>
       <c r="M31" t="str">
-        <v>2026-02-19T01:45:54.196Z</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>00 Nation</v>
+        <v>AMKAL</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>100 Thieves</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Aether</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J34" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K34" t="str">
         <v>none</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>AMKAL</v>
+        <v>Avangar</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J35" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K35" t="str">
         <v>none</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Astana Dragons</v>
+        <v>B8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J36" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K36" t="str">
         <v>none</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Astralis Talent</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J37" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K37" t="str">
         <v>none</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Avangar</v>
+        <v>Bravado</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>B8</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J39" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K39" t="str">
         <v>none</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>BIG Academy</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J40" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K40" t="str">
         <v>none</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Bravado</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J41" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K41" t="str">
         <v>none</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>ESC</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Counter Logic Games</v>
+        <v>Flash</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J43" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K43" t="str">
         <v>none</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ENCE Academy</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ESC</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Flash</v>
+        <v>Fnatic</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>FORZE</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J47" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K47" t="str">
         <v>none</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>FlyQuest RED</v>
+        <v>Gambit</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J48" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K48" t="str">
         <v>none</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Fnatic</v>
+        <v>GATERON</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J49" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K49" t="str">
         <v>none</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>FORZE</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J50" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K50" t="str">
         <v>none</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Gambit</v>
+        <v>HAVU</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J51" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K51" t="str">
         <v>none</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>GATERON</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J52" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K52" t="str">
         <v>none</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>GhoulsW</v>
+        <v>Hesta</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J53" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K53" t="str">
         <v>none</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>HAVU</v>
+        <v>Immortals</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Heroic Academy</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J55" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K55" t="str">
         <v>none</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Hesta</v>
+        <v>Kinguin</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J56" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K56" t="str">
         <v>none</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Immortals</v>
+        <v>kONO</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J57" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K57" t="str">
         <v>none</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Into the Beach</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J58" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K58" t="str">
         <v>none</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Kinguin</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J59" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K59" t="str">
         <v>none</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>kONO</v>
+        <v>MANA</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J60" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K60" t="str">
         <v>none</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>LGB eSports</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J61" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K61" t="str">
         <v>none</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>MAD Lions</v>
+        <v>Misfits</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>MANA</v>
+        <v>mousesports</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J63" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K63" t="str">
         <v>none</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>MIBR Academy</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J64" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K64" t="str">
         <v>none</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Misfits</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>mousesports</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>MOUZ NXT</v>
+        <v>Nordix</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Movistar KOI</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>NIP Impact</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J69" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K69" t="str">
         <v>none</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Nordix</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>NOVAQ</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>paiN Academy</v>
+        <v>Rogue</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J72" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K72" t="str">
         <v>none</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>QMISTRY</v>
+        <v>Shika</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J74" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K74" t="str">
         <v>none</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rogue</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J75" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K75" t="str">
         <v>none</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shika</v>
+        <v>Sprout</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>SKYFURY</v>
+        <v>Tsunami</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Space Soldiers</v>
+        <v>VeryGames</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J78" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K78" t="str">
         <v>none</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Sprout</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J79" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K79" t="str">
         <v>none</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Tsunami</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3684,19 +3684,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>VeryGames</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J81" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K81" t="str">
         <v>none</v>
@@ -3720,24 +3720,24 @@
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <v/>
+        <v>2026-02-19T02:49:35.870Z</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Vox Eminor</v>
+        <v>True Rippers</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3761,24 +3761,24 @@
         <v>0</v>
       </c>
       <c r="M82" t="str">
-        <v/>
+        <v>2026-02-19T02:47:38.886Z</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Wildcard Academy</v>
+        <v>FaZe</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3802,12 +3802,12 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <v/>
+        <v>2026-02-19T02:36:39.932Z</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>FURIA</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>999.7261395369545</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -3843,12 +3843,12 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <v>2026-02-19T21:54:33.737Z</v>
+        <v>2026-02-19T02:36:34.302Z</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Spirit Academy</v>
+        <v>GODSENT</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -3875,7 +3875,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J85" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K85" t="str">
         <v>none</v>
@@ -3884,12 +3884,12 @@
         <v>0</v>
       </c>
       <c r="M85" t="str">
-        <v>2026-02-19T02:49:35.870Z</v>
+        <v>2026-02-19T01:39:32.364Z</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>True Rippers</v>
+        <v>M80</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -3901,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <v>999.7251809772306</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J86" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K86" t="str">
         <v>none</v>
@@ -3925,24 +3925,24 @@
         <v>0</v>
       </c>
       <c r="M86" t="str">
-        <v>2026-02-19T02:47:38.886Z</v>
+        <v>2026-02-19T01:45:45.455Z</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>FaZe</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>999.7251809772306</v>
+        <v>999.4408194717619</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -3966,24 +3966,24 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <v>2026-02-19T02:36:39.932Z</v>
+        <v>2026-02-19T22:08:18.806Z</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>iBUYPOWER</v>
+        <v>Orbit</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>999.7251809772306</v>
+        <v>999.4186945376644</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4007,12 +4007,12 @@
         <v>0</v>
       </c>
       <c r="M88" t="str">
-        <v>2026-02-19T02:36:34.302Z</v>
+        <v>2026-02-19T22:08:33.993Z</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>GODSENT</v>
+        <v>Alliance</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4024,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>999.7251809772306</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4048,12 +4048,12 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
-        <v>2026-02-19T01:39:32.364Z</v>
+        <v>2026-02-19T02:51:22.336Z</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>M80</v>
+        <v>Homyno</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>999.672340544519</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4089,12 +4089,12 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
-        <v>2026-02-19T01:45:45.455Z</v>
+        <v>2026-02-19T02:51:16.607Z</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Alliance</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4121,7 +4121,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J91" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K91" t="str">
         <v>none</v>
@@ -4130,12 +4130,12 @@
         <v>0</v>
       </c>
       <c r="M91" t="str">
-        <v>2026-02-19T02:51:22.336Z</v>
+        <v>2026-02-19T02:49:44.165Z</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Homyno</v>
+        <v>Solid</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4171,12 +4171,12 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
-        <v>2026-02-19T02:51:16.607Z</v>
+        <v>2026-02-19T02:47:50.233Z</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MenaceGG</v>
+        <v>ENCE</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4203,7 +4203,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J93" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K93" t="str">
         <v>none</v>
@@ -4212,12 +4212,12 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
-        <v>2026-02-19T02:49:44.165Z</v>
+        <v>2026-02-19T02:34:19.604Z</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Solid</v>
+        <v>Nexus</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4244,7 +4244,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J94" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K94" t="str">
         <v>none</v>
@@ -4253,12 +4253,12 @@
         <v>0</v>
       </c>
       <c r="M94" t="str">
-        <v>2026-02-19T02:47:50.233Z</v>
+        <v>2026-02-19T02:34:13.227Z</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>ENCE</v>
+        <v>MIBR</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -4285,7 +4285,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J95" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K95" t="str">
         <v>none</v>
@@ -4294,12 +4294,12 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
-        <v>2026-02-19T02:34:19.604Z</v>
+        <v>2026-02-19T01:39:50.018Z</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Nexus</v>
+        <v>Wizards</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <v>999.4088515186523</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4335,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="M96" t="str">
-        <v>2026-02-19T02:34:13.227Z</v>
+        <v>2026-02-19T01:45:38.841Z</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>MIBR</v>
+        <v>RED Canids</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>999.4088515186523</v>
+        <v>999.3397745397444</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4376,12 +4376,12 @@
         <v>0</v>
       </c>
       <c r="M97" t="str">
-        <v>2026-02-19T01:39:50.018Z</v>
+        <v>2026-02-19T22:08:44.661Z</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Wizards</v>
+        <v>FURIA</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>999.4062521695108</v>
+        <v>985.3605394813516</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="str">
-        <v>2026-02-19T01:45:38.841Z</v>
+        <v>2026-02-19T22:08:26.017Z</v>
       </c>
     </row>
     <row r="99">

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -445,19 +445,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Liquid</v>
+        <v>Nemiga</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1061.6715607742171</v>
+        <v>1092.0717059953472</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J2" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K2" t="str">
         <v>none</v>
@@ -481,24 +481,24 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
+        <v>2026-02-19T22:25:34.846Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Vitality</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1061.6715607742171</v>
+        <v>1091.4397283596654</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -522,24 +522,24 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>2026-02-19T02:33:35.840Z</v>
+        <v>2026-02-19T22:25:24.539Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Heroic</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1061.6715607742171</v>
+        <v>1073.8768625369544</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J4" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K4" t="str">
         <v>none</v>
@@ -563,24 +563,24 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>2026-02-19T02:36:09.005Z</v>
+        <v>2026-02-19T22:26:53.723Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Natus Vincere</v>
+        <v>Eternal Fire</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1061.6715607742171</v>
+        <v>1073.793728674182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -604,24 +604,24 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>2026-02-19T02:47:09.337Z</v>
+        <v>2026-02-19T22:27:11.333Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PARIVISION</v>
+        <v>Elevate</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1061.6715607742171</v>
+        <v>1073.5050508538366</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J6" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K6" t="str">
         <v>none</v>
@@ -645,12 +645,12 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <v>2026-02-19T02:49:05.741Z</v>
+        <v>2026-02-19T22:27:04.015Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Spirit</v>
+        <v>Liquid</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -677,7 +677,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J7" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K7" t="str">
         <v>none</v>
@@ -686,12 +686,12 @@
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>2026-02-19T02:50:50.205Z</v>
+        <v>2026-02-19T01:38:43.524Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Iluminar</v>
+        <v>Vitality</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1061.6143113189103</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J8" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K8" t="str">
         <v>none</v>
@@ -727,24 +727,24 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
+        <v>2026-02-19T02:33:35.840Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Eternal Fire</v>
+        <v>Heroic</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1045.5709009227098</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -768,24 +768,24 @@
         <v>0</v>
       </c>
       <c r="M9" t="str">
-        <v>2026-02-19T02:36:46.770Z</v>
+        <v>2026-02-19T02:36:09.005Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Nemiga</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1045.55854142443</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J10" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K10" t="str">
         <v>none</v>
@@ -809,24 +809,24 @@
         <v>0</v>
       </c>
       <c r="M10" t="str">
-        <v>2026-02-19T02:49:51.844Z</v>
+        <v>2026-02-19T02:47:09.337Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Elevate</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1045.0333860637757</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J11" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K11" t="str">
         <v>none</v>
@@ -850,24 +850,24 @@
         <v>0</v>
       </c>
       <c r="M11" t="str">
-        <v>2026-02-19T01:40:12.263Z</v>
+        <v>2026-02-19T02:49:05.741Z</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>The MongolZ</v>
+        <v>Spirit</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1045.0333860637757</v>
+        <v>1061.6715607742171</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -891,24 +891,24 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <v>2026-02-19T02:47:58.813Z</v>
+        <v>2026-02-19T02:50:50.205Z</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rebels</v>
+        <v>Iluminar</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1045.021243957568</v>
+        <v>1061.6143113189103</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J13" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K13" t="str">
         <v>none</v>
@@ -932,24 +932,24 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <v>2026-02-19T02:34:29.463Z</v>
+        <v>2026-02-19T01:45:03.003Z</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>TALON</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>1045.021243957568</v>
+        <v>1047.3328324967438</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -973,24 +973,24 @@
         <v>0</v>
       </c>
       <c r="M14" t="str">
-        <v>2026-02-19T02:51:31.581Z</v>
+        <v>2026-02-19T22:29:12.362Z</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>NAVI Junior</v>
+        <v>Cloud9</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1044.7150389361373</v>
+        <v>1047.0637898805292</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J15" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K15" t="str">
         <v>none</v>
@@ -1014,24 +1014,24 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>2026-02-19T22:09:16.526Z</v>
+        <v>2026-02-19T22:29:23.298Z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Copenhagen Flames</v>
+        <v>Titan</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1044.6995232012255</v>
+        <v>1046.0288449811903</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J16" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K16" t="str">
         <v>none</v>
@@ -1055,15 +1055,15 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-19T22:09:03.691Z</v>
+        <v>2026-02-19T22:29:28.854Z</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Verdant</v>
+        <v>Falcons</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1044.4384115620314</v>
+        <v>1030.8659864237202</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1096,24 +1096,24 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-19T01:45:54.196Z</v>
+        <v>2026-02-19T21:54:33.737Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Falcons</v>
+        <v>Verdant</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>1030.8659864237202</v>
+        <v>1026.0064397232286</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1137,24 +1137,24 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-19T21:54:33.737Z</v>
+        <v>2026-02-19T22:29:28.854Z</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>BESTIA</v>
+        <v>Bounty Hunters</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>1030.0604120732232</v>
+        <v>1016.7066953804866</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1178,24 +1178,24 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v>2026-02-19T02:50:50.205Z</v>
+        <v>2026-02-19T22:29:12.362Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>hoorai</v>
+        <v>BESTIA</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1030.0604120732232</v>
+        <v>1016.4834726488446</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J20" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K20" t="str">
         <v>none</v>
@@ -1219,24 +1219,24 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>2026-02-19T02:49:05.741Z</v>
+        <v>2026-02-19T22:29:23.298Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Onyx Ravens</v>
+        <v>The Huns</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1030.0604120732232</v>
+        <v>1015</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J21" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K21" t="str">
         <v>none</v>
@@ -1260,24 +1260,24 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>2026-02-19T02:47:09.337Z</v>
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cloud9</v>
+        <v>TYLOO</v>
       </c>
       <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>1030.0604120732232</v>
+        <v>1014.128742285643</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J22" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K22" t="str">
         <v>none</v>
@@ -1301,24 +1301,24 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>2026-02-19T02:36:09.005Z</v>
+        <v>2026-02-19T22:09:16.526Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>G2</v>
+        <v>OG</v>
       </c>
       <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
-        <v>1030.0604120732232</v>
+        <v>1013.5266895185538</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1342,24 +1342,24 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v>2026-02-19T02:33:35.840Z</v>
+        <v>2026-02-19T22:09:03.691Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Bounty Hunters</v>
+        <v>Rebels</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>1030.0604120732232</v>
+        <v>1012.3622483710056</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J24" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K24" t="str">
         <v>none</v>
@@ -1383,24 +1383,24 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
+        <v>2026-02-19T22:28:46.129Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Titan</v>
+        <v>G2</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>1028.8592077342862</v>
+        <v>1001.4719243188601</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J25" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K25" t="str">
         <v>none</v>
@@ -1424,24 +1424,24 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
+        <v>2026-02-19T22:27:33.007Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>The Huns</v>
+        <v>hoorai</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>1015</v>
+        <v>1001.0605747019569</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J26" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K26" t="str">
         <v>none</v>
@@ -1465,24 +1465,24 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T22:28:39.809Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>TYLOO</v>
+        <v>00 Nation</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1014.128742285643</v>
+        <v>1000</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J27" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K27" t="str">
         <v>none</v>
@@ -1506,24 +1506,24 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v>2026-02-19T22:09:16.526Z</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>OG</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1013.5266895185538</v>
+        <v>1000</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J28" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K28" t="str">
         <v>none</v>
@@ -1547,12 +1547,12 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v>2026-02-19T22:09:03.691Z</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>00 Nation</v>
+        <v>Aether</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J29" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K29" t="str">
         <v>none</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>100 Thieves</v>
+        <v>AMKAL</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J30" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K30" t="str">
         <v>none</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Aether</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J31" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K31" t="str">
         <v>none</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>AMKAL</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Astana Dragons</v>
+        <v>Avangar</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Astralis Talent</v>
+        <v>B8</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J34" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K34" t="str">
         <v>none</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Avangar</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>B8</v>
+        <v>Bravado</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J36" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K36" t="str">
         <v>none</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>BIG Academy</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J37" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K37" t="str">
         <v>none</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Bravado</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Counter Logic Games</v>
+        <v>ESC</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J40" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K40" t="str">
         <v>none</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>ENCE Academy</v>
+        <v>Flash</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>ESC</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Flash</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>Fnatic</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>FlyQuest RED</v>
+        <v>FORZE</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J45" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K45" t="str">
         <v>none</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Fnatic</v>
+        <v>Gambit</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J46" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K46" t="str">
         <v>none</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>FORZE</v>
+        <v>GATERON</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Gambit</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J48" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K48" t="str">
         <v>none</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>GATERON</v>
+        <v>HAVU</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J49" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K49" t="str">
         <v>none</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>GhoulsW</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>HAVU</v>
+        <v>Hesta</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J51" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K51" t="str">
         <v>none</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Heroic Academy</v>
+        <v>Immortals</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J52" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K52" t="str">
         <v>none</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Hesta</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J53" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K53" t="str">
         <v>none</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Immortals</v>
+        <v>Kinguin</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Into the Beach</v>
+        <v>kONO</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J55" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K55" t="str">
         <v>none</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kinguin</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J56" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K56" t="str">
         <v>none</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>kONO</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>LGB eSports</v>
+        <v>MANA</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J58" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K58" t="str">
         <v>none</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>MAD Lions</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J59" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K59" t="str">
         <v>none</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>MANA</v>
+        <v>Misfits</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J60" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K60" t="str">
         <v>none</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>MIBR Academy</v>
+        <v>mousesports</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J61" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K61" t="str">
         <v>none</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Misfits</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J62" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K62" t="str">
         <v>none</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>mousesports</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>MOUZ NXT</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Movistar KOI</v>
+        <v>Nordix</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>NIP Impact</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Nordix</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>NOVAQ</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>paiN Academy</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J69" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K69" t="str">
         <v>none</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>QMISTRY</v>
+        <v>Rogue</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>Shika</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rogue</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J72" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K72" t="str">
         <v>none</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Shika</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J73" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K73" t="str">
         <v>none</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SKYFURY</v>
+        <v>Sprout</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J74" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K74" t="str">
         <v>none</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Space Soldiers</v>
+        <v>Tsunami</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J75" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K75" t="str">
         <v>none</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Sprout</v>
+        <v>VeryGames</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Tsunami</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>VeryGames</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3602,19 +3602,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Vox Eminor</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3638,24 +3638,24 @@
         <v>0</v>
       </c>
       <c r="M79" t="str">
-        <v/>
+        <v>2026-02-19T02:49:35.870Z</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Wildcard Academy</v>
+        <v>True Rippers</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3679,12 +3679,12 @@
         <v>0</v>
       </c>
       <c r="M80" t="str">
-        <v/>
+        <v>2026-02-19T02:47:38.886Z</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Spirit Academy</v>
+        <v>FaZe</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3711,7 +3711,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J81" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K81" t="str">
         <v>none</v>
@@ -3720,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <v>2026-02-19T02:49:35.870Z</v>
+        <v>2026-02-19T02:36:39.932Z</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>True Rippers</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -3761,12 +3761,12 @@
         <v>0</v>
       </c>
       <c r="M82" t="str">
-        <v>2026-02-19T02:47:38.886Z</v>
+        <v>2026-02-19T02:36:34.302Z</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>FaZe</v>
+        <v>GODSENT</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J83" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K83" t="str">
         <v>none</v>
@@ -3802,12 +3802,12 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <v>2026-02-19T02:36:39.932Z</v>
+        <v>2026-02-19T01:39:32.364Z</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>iBUYPOWER</v>
+        <v>M80</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>999.7251809772306</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -3843,24 +3843,24 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <v>2026-02-19T02:36:34.302Z</v>
+        <v>2026-02-19T01:45:45.455Z</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>GODSENT</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>999.7251809772306</v>
+        <v>999.4408194717619</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J85" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K85" t="str">
         <v>none</v>
@@ -3884,24 +3884,24 @@
         <v>0</v>
       </c>
       <c r="M85" t="str">
-        <v>2026-02-19T01:39:32.364Z</v>
+        <v>2026-02-19T22:08:18.806Z</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>M80</v>
+        <v>Orbit</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>999.672340544519</v>
+        <v>999.4186945376644</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J86" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K86" t="str">
         <v>none</v>
@@ -3925,24 +3925,24 @@
         <v>0</v>
       </c>
       <c r="M86" t="str">
-        <v>2026-02-19T01:45:45.455Z</v>
+        <v>2026-02-19T22:08:33.993Z</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Chinggis Warrios</v>
+        <v>Alliance</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>999.4408194717619</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -3966,24 +3966,24 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <v>2026-02-19T22:08:18.806Z</v>
+        <v>2026-02-19T02:51:22.336Z</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Orbit</v>
+        <v>Homyno</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>999.4186945376644</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J88" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K88" t="str">
         <v>none</v>
@@ -4007,12 +4007,12 @@
         <v>0</v>
       </c>
       <c r="M88" t="str">
-        <v>2026-02-19T22:08:33.993Z</v>
+        <v>2026-02-19T02:51:16.607Z</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Alliance</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4039,7 +4039,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4048,12 +4048,12 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
-        <v>2026-02-19T02:51:22.336Z</v>
+        <v>2026-02-19T02:49:44.165Z</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Homyno</v>
+        <v>Solid</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4089,12 +4089,12 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
-        <v>2026-02-19T02:51:16.607Z</v>
+        <v>2026-02-19T02:47:50.233Z</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>MenaceGG</v>
+        <v>ENCE</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4121,7 +4121,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J91" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K91" t="str">
         <v>none</v>
@@ -4130,12 +4130,12 @@
         <v>0</v>
       </c>
       <c r="M91" t="str">
-        <v>2026-02-19T02:49:44.165Z</v>
+        <v>2026-02-19T02:34:19.604Z</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Solid</v>
+        <v>Nexus</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4162,7 +4162,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J92" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K92" t="str">
         <v>none</v>
@@ -4171,12 +4171,12 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
-        <v>2026-02-19T02:47:50.233Z</v>
+        <v>2026-02-19T02:34:13.227Z</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>ENCE</v>
+        <v>MIBR</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4203,7 +4203,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J93" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K93" t="str">
         <v>none</v>
@@ -4212,12 +4212,12 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
-        <v>2026-02-19T02:34:19.604Z</v>
+        <v>2026-02-19T01:39:50.018Z</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Nexus</v>
+        <v>Wizards</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4229,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>999.4088515186523</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J94" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K94" t="str">
         <v>none</v>
@@ -4253,24 +4253,24 @@
         <v>0</v>
       </c>
       <c r="M94" t="str">
-        <v>2026-02-19T02:34:13.227Z</v>
+        <v>2026-02-19T01:45:38.841Z</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>MIBR</v>
+        <v>RED Canids</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>999.4088515186523</v>
+        <v>999.3397745397444</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4294,24 +4294,24 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
-        <v>2026-02-19T01:39:50.018Z</v>
+        <v>2026-02-19T22:08:44.661Z</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Wizards</v>
+        <v>TALON</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>999.4062521695108</v>
+        <v>998.2143298479792</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4335,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="M96" t="str">
-        <v>2026-02-19T01:45:38.841Z</v>
+        <v>2026-02-19T22:26:40.586Z</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>RED Canids</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>999.3397745397444</v>
+        <v>997.4353356546483</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J97" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K97" t="str">
         <v>none</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="str">
-        <v>2026-02-19T22:08:44.661Z</v>
+        <v>2026-02-19T22:26:32.431Z</v>
       </c>
     </row>
     <row r="98">

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -445,19 +445,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Nemiga</v>
+        <v>Eternal Fire</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1092.0717059953472</v>
+        <v>1088.8206315293635</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J2" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K2" t="str">
         <v>none</v>
@@ -481,24 +481,24 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>2026-02-19T22:25:34.846Z</v>
+        <v>2026-02-20T00:10:52.943Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Copenhagen Flames</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1091.4397283596654</v>
+        <v>1087.529089779176</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J3" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K3" t="str">
         <v>none</v>
@@ -522,24 +522,24 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>2026-02-19T22:25:24.539Z</v>
+        <v>2026-02-20T00:11:18.272Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>The MongolZ</v>
+        <v>Vitality</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1073.8768625369544</v>
+        <v>1079.0636882193733</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J4" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K4" t="str">
         <v>none</v>
@@ -563,24 +563,24 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>2026-02-19T22:26:53.723Z</v>
+        <v>2026-02-20T00:11:00.894Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Eternal Fire</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1073.793728674182</v>
+        <v>1079.034808827365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J5" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K5" t="str">
         <v>none</v>
@@ -604,24 +604,24 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>2026-02-19T22:27:11.333Z</v>
+        <v>2026-02-20T00:10:36.959Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Elevate</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1073.5050508538366</v>
+        <v>1078.2122233526832</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J6" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K6" t="str">
         <v>none</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <v>2026-02-19T22:27:04.015Z</v>
+        <v>2026-02-20T00:11:07.006Z</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         <v>Liquid</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1061.6715607742171</v>
+        <v>1076.9954650955813</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -686,24 +686,24 @@
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>2026-02-19T01:38:43.524Z</v>
+        <v>2026-02-20T00:10:29.470Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Vitality</v>
+        <v>Iluminar</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1061.6715607742171</v>
+        <v>1076.9532123032502</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J8" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K8" t="str">
         <v>none</v>
@@ -727,24 +727,24 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>2026-02-19T02:33:35.840Z</v>
+        <v>2026-02-20T00:11:26.413Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Heroic</v>
+        <v>Nemiga</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1061.6715607742171</v>
+        <v>1074.4029464363696</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J9" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K9" t="str">
         <v>none</v>
@@ -768,24 +768,24 @@
         <v>0</v>
       </c>
       <c r="M9" t="str">
-        <v>2026-02-19T02:36:09.005Z</v>
+        <v>2026-02-20T00:11:00.894Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Natus Vincere</v>
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1061.6715607742171</v>
+        <v>1073.9176367912892</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -809,24 +809,24 @@
         <v>0</v>
       </c>
       <c r="M10" t="str">
-        <v>2026-02-19T02:47:09.337Z</v>
+        <v>2026-02-20T00:10:36.959Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PARIVISION</v>
+        <v>Titan</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>1061.6715607742171</v>
+        <v>1062.0131230743004</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J11" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K11" t="str">
         <v>none</v>
@@ -850,24 +850,24 @@
         <v>0</v>
       </c>
       <c r="M11" t="str">
-        <v>2026-02-19T02:49:05.741Z</v>
+        <v>2026-02-20T00:10:45.971Z</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Spirit</v>
+        <v>Elevate</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1061.6715607742171</v>
+        <v>1057.6882126347407</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J12" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K12" t="str">
         <v>none</v>
@@ -891,24 +891,24 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <v>2026-02-19T02:50:50.205Z</v>
+        <v>2026-02-20T00:11:07.006Z</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Iluminar</v>
+        <v>Spirit</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1061.6143113189103</v>
+        <v>1046.233388084389</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J13" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K13" t="str">
         <v>none</v>
@@ -932,24 +932,24 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <v>2026-02-19T01:45:03.003Z</v>
+        <v>2026-02-20T00:10:52.943Z</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Onyx Ravens</v>
+        <v>Heroic</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1047.3328324967438</v>
+        <v>1044.9557957878055</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J14" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K14" t="str">
         <v>none</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="str">
-        <v>2026-02-19T22:29:12.362Z</v>
+        <v>2026-02-20T00:10:45.971Z</v>
       </c>
     </row>
     <row r="15">
@@ -984,13 +984,13 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>1047.0637898805292</v>
+        <v>1032.4104642119755</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1014,24 +1014,24 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>2026-02-19T22:29:23.298Z</v>
+        <v>2026-02-20T00:10:29.470Z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Titan</v>
+        <v>Onyx Ravens</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>1046.0288449811903</v>
+        <v>1032.402556768659</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J16" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K16" t="str">
         <v>none</v>
@@ -1055,24 +1055,24 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-19T22:29:28.854Z</v>
+        <v>2026-02-20T00:11:26.413Z</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Falcons</v>
+        <v>Verdant</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1030.8659864237202</v>
+        <v>1026.0064397232286</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1096,24 +1096,24 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-19T21:54:33.737Z</v>
+        <v>2026-02-19T22:29:28.854Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Verdant</v>
+        <v>Falcons</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1026.0064397232286</v>
+        <v>1017.0071326206514</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-19T22:29:28.854Z</v>
+        <v>2026-02-20T00:11:18.272Z</v>
       </c>
     </row>
     <row r="19">

--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1,41 +1,893 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AE689-ABB1-43DF-A80D-1BBE65E4602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="287">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Victories</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Loses</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Majors</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>Tournaments Trophies</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>BonusType</t>
+  </si>
+  <si>
+    <t>BonusRemaining</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:10:52.943Z</t>
+  </si>
+  <si>
+    <t>The MongolZ</t>
+  </si>
+  <si>
+    <t>AS/SIS/ESEA</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:11:18.272Z</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:11:00.894Z</t>
+  </si>
+  <si>
+    <t>PARIVISION</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:10:36.959Z</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:11:07.006Z</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:10:29.470Z</t>
+  </si>
+  <si>
+    <t>Iluminar</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:11:26.413Z</t>
+  </si>
+  <si>
+    <t>Nemiga</t>
+  </si>
+  <si>
+    <t>Copenhagen Flames</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>2026-02-20T00:10:45.971Z</t>
+  </si>
+  <si>
+    <t>Elevate</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>Onyx Ravens</t>
+  </si>
+  <si>
+    <t>Verdant</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:29:28.854Z</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Bounty Hunters</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:29:12.362Z</t>
+  </si>
+  <si>
+    <t>BESTIA</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:29:23.298Z</t>
+  </si>
+  <si>
+    <t>The Huns</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:06.168Z</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:09:16.526Z</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:09:03.691Z</t>
+  </si>
+  <si>
+    <t>Rebels</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:28:46.129Z</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:27:33.007Z</t>
+  </si>
+  <si>
+    <t>hoorai</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:28:39.809Z</t>
+  </si>
+  <si>
+    <t>00 Nation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100 Thieves</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>AMKAL</t>
+  </si>
+  <si>
+    <t>Astana Dragons</t>
+  </si>
+  <si>
+    <t>Astralis Talent</t>
+  </si>
+  <si>
+    <t>Avangar</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>BIG Academy</t>
+  </si>
+  <si>
+    <t>Bravado</t>
+  </si>
+  <si>
+    <t>Copenhagen Wolves</t>
+  </si>
+  <si>
+    <t>Counter Logic Games</t>
+  </si>
+  <si>
+    <t>ENCE Academy</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>FLuffy Gangsters</t>
+  </si>
+  <si>
+    <t>FlyQuest RED</t>
+  </si>
+  <si>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>Gambit</t>
+  </si>
+  <si>
+    <t>GATERON</t>
+  </si>
+  <si>
+    <t>GhoulsW</t>
+  </si>
+  <si>
+    <t>HAVU</t>
+  </si>
+  <si>
+    <t>Heroic Academy</t>
+  </si>
+  <si>
+    <t>Hesta</t>
+  </si>
+  <si>
+    <t>Immortals</t>
+  </si>
+  <si>
+    <t>Into the Beach</t>
+  </si>
+  <si>
+    <t>Kinguin</t>
+  </si>
+  <si>
+    <t>kONO</t>
+  </si>
+  <si>
+    <t>MAD Lions</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>MIBR Academy</t>
+  </si>
+  <si>
+    <t>Misfits</t>
+  </si>
+  <si>
+    <t>mousesports</t>
+  </si>
+  <si>
+    <t>MOUZ NXT</t>
+  </si>
+  <si>
+    <t>Movistar KOI</t>
+  </si>
+  <si>
+    <t>NIP Impact</t>
+  </si>
+  <si>
+    <t>Nordix</t>
+  </si>
+  <si>
+    <t>NOVAQ</t>
+  </si>
+  <si>
+    <t>paiN Academy</t>
+  </si>
+  <si>
+    <t>QMISTRY</t>
+  </si>
+  <si>
+    <t>Quantum Bellator Fire</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Shika</t>
+  </si>
+  <si>
+    <t>SKYFURY</t>
+  </si>
+  <si>
+    <t>Space Soldiers</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>VeryGames</t>
+  </si>
+  <si>
+    <t>Vox Eminor</t>
+  </si>
+  <si>
+    <t>Wildcard Academy</t>
+  </si>
+  <si>
+    <t>Spirit Academy</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:49:35.870Z</t>
+  </si>
+  <si>
+    <t>True Rippers</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:47:38.886Z</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:39.932Z</t>
+  </si>
+  <si>
+    <t>iBUYPOWER</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:34.302Z</t>
+  </si>
+  <si>
+    <t>GODSENT</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:32.364Z</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:45.455Z</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:08:18.806Z</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:08:33.993Z</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:51:22.336Z</t>
+  </si>
+  <si>
+    <t>Homyno</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:51:16.607Z</t>
+  </si>
+  <si>
+    <t>MenaceGG</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:49:44.165Z</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:47:50.233Z</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:19.604Z</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:13.227Z</t>
+  </si>
+  <si>
+    <t>MIBR</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:50.018Z</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:38.841Z</t>
+  </si>
+  <si>
+    <t>RED Canids</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:08:44.661Z</t>
+  </si>
+  <si>
+    <t>TALON</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:26:40.586Z</t>
+  </si>
+  <si>
+    <t>NAVI Junior</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:26:32.431Z</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>2026-02-19T22:08:26.017Z</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:50:09.060Z</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:47.596Z</t>
+  </si>
+  <si>
+    <t>NomadS</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:35.489Z</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:27.811Z</t>
+  </si>
+  <si>
+    <t>Red Viperz</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:20.687Z</t>
+  </si>
+  <si>
+    <t>The Dice</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:12.765Z</t>
+  </si>
+  <si>
+    <t>Victores Sumus</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:49:00.243Z</t>
+  </si>
+  <si>
+    <t>ODDIK</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:52.026Z</t>
+  </si>
+  <si>
+    <t>Qiang</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:45.055Z</t>
+  </si>
+  <si>
+    <t>inSanitY</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:38.129Z</t>
+  </si>
+  <si>
+    <t>Sangal</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:28.102Z</t>
+  </si>
+  <si>
+    <t>9Pandas</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:17.012Z</t>
+  </si>
+  <si>
+    <t>Gods Reign</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:09.473Z</t>
+  </si>
+  <si>
+    <t>CatEvil</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:48:02.110Z</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:49.161Z</t>
+  </si>
+  <si>
+    <t>Evil Geniuses</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:36.482Z</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:28.286Z</t>
+  </si>
+  <si>
+    <t>ATOX</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:18.470Z</t>
+  </si>
+  <si>
+    <t>Skinvault</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:47:11.265Z</t>
+  </si>
+  <si>
+    <t>BC.Game</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:52.846Z</t>
+  </si>
+  <si>
+    <t>Wings Up</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:32.115Z</t>
+  </si>
+  <si>
+    <t>Lynn Vision</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:46:08.336Z</t>
+  </si>
+  <si>
+    <t>Tricked</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:45:42.234Z</t>
+  </si>
+  <si>
+    <t>3DMAX</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:39:02.710Z</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:39.010Z</t>
+  </si>
+  <si>
+    <t>ARCRED</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:38:03.598Z</t>
+  </si>
+  <si>
+    <t>GamerLegion</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:47.172Z</t>
+  </si>
+  <si>
+    <t>Passion UA</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:27.234Z</t>
+  </si>
+  <si>
+    <t>FlyQuest</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:20.280Z</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:37:05.560Z</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:43.463Z</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:26.343Z</t>
+  </si>
+  <si>
+    <t>Galorys</t>
+  </si>
+  <si>
+    <t>2026-02-19T00:36:18.696Z</t>
+  </si>
+  <si>
+    <t>devils.one</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:30.347Z</t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:18.851Z</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:12.952Z</t>
+  </si>
+  <si>
+    <t>IHC</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:06.529Z</t>
+  </si>
+  <si>
+    <t>Kappa Bar</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:57.244Z</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:48.652Z</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:39.402Z</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:32.047Z</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:20.745Z</t>
+  </si>
+  <si>
+    <t>KRU</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:06.663Z</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:57.658Z</t>
+  </si>
+  <si>
+    <t>9z</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:44.273Z</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:14.058Z</t>
+  </si>
+  <si>
+    <t>Vexed</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:19:58.722Z</t>
+  </si>
+  <si>
+    <t>Dignitas</t>
+  </si>
+  <si>
+    <t>2026-02-19T21:54:17.535Z</t>
+  </si>
+  <si>
+    <t>LDLC</t>
+  </si>
+  <si>
+    <t>2026-02-19T21:53:53.691Z</t>
+  </si>
+  <si>
+    <t>Aravt</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:51:09.872Z</t>
+  </si>
+  <si>
+    <t>VP.Prodigy</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:51:03.784Z</t>
+  </si>
+  <si>
+    <t>Entropiq</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:49:25.044Z</t>
+  </si>
+  <si>
+    <t>Take Flyte</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:49:14.876Z</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:47:27.422Z</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:47:19.575Z</t>
+  </si>
+  <si>
+    <t>ShindeN</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:26.535Z</t>
+  </si>
+  <si>
+    <t>Permitta</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:36:17.329Z</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:08.116Z</t>
+  </si>
+  <si>
+    <t>Astralis</t>
+  </si>
+  <si>
+    <t>2026-02-19T02:34:01.822Z</t>
+  </si>
+  <si>
+    <t>Bad News Eagles</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:27.335Z</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:18.535Z</t>
+  </si>
+  <si>
+    <t>ECSTATIC</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:39:12.540Z</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>2026-02-19T21:53:46.615Z</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>2026-02-19T21:53:40.004Z</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>2026-02-19T21:53:30.387Z</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>2026-02-19T21:53:23.315Z</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>2026-02-19T01:45:20.251Z</t>
+  </si>
+  <si>
+    <t>LGB</t>
+  </si>
+  <si>
+    <t>Chinggis Warriors</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +917,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,56 +1256,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Team</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Victories</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Streak</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Loses</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Points</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Majors</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Prestige</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Tournaments Trophies</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Tier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Region</v>
-      </c>
-      <c r="K1" t="str">
-        <v>BonusType</v>
-      </c>
-      <c r="L1" t="str">
-        <v>BonusRemaining</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdated</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Eternal Fire</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -468,25 +1334,25 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J2" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K2" t="str">
-        <v>none</v>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="str">
-        <v>2026-02-20T00:10:52.943Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>The MongolZ</v>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -509,25 +1375,25 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J3" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K3" t="str">
-        <v>none</v>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="str">
-        <v>2026-02-20T00:11:18.272Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Vitality</v>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -550,25 +1416,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J4" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K4" t="str">
-        <v>none</v>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <v>2026-02-20T00:11:00.894Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PARIVISION</v>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -580,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1079.034808827365</v>
+        <v>1079.0348088273649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -591,25 +1457,25 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J5" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K5" t="str">
-        <v>none</v>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="str">
-        <v>2026-02-20T00:10:36.959Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Natus Vincere</v>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -632,25 +1498,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J6" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K6" t="str">
-        <v>none</v>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="str">
-        <v>2026-02-20T00:11:07.006Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Liquid</v>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -673,25 +1539,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J7" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K7" t="str">
-        <v>none</v>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="str">
-        <v>2026-02-20T00:10:29.470Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Iluminar</v>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -714,25 +1580,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J8" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K8" t="str">
-        <v>none</v>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="str">
-        <v>2026-02-20T00:11:26.413Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Nemiga</v>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -755,25 +1621,25 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J9" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K9" t="str">
-        <v>none</v>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="str">
-        <v>2026-02-20T00:11:00.894Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Copenhagen Flames</v>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -796,25 +1662,25 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J10" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K10" t="str">
-        <v>none</v>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
-        <v>2026-02-20T00:10:36.959Z</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Titan</v>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -837,25 +1703,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J11" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K11" t="str">
-        <v>none</v>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="str">
-        <v>2026-02-20T00:10:45.971Z</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Elevate</v>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -878,25 +1744,25 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J12" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K12" t="str">
-        <v>none</v>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="str">
-        <v>2026-02-20T00:11:07.006Z</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Spirit</v>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -908,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1046.233388084389</v>
+        <v>1046.2333880843889</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -919,25 +1785,25 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J13" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K13" t="str">
-        <v>none</v>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="str">
-        <v>2026-02-20T00:10:52.943Z</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Heroic</v>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -960,25 +1826,25 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J14" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K14" t="str">
-        <v>none</v>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="str">
-        <v>2026-02-20T00:10:45.971Z</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Cloud9</v>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1001,25 +1867,25 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J15" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K15" t="str">
-        <v>none</v>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="str">
-        <v>2026-02-20T00:10:29.470Z</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Onyx Ravens</v>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1042,25 +1908,25 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J16" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K16" t="str">
-        <v>none</v>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="str">
-        <v>2026-02-20T00:11:26.413Z</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Verdant</v>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1083,25 +1949,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J17" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K17" t="str">
-        <v>none</v>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="str">
-        <v>2026-02-19T22:29:28.854Z</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Falcons</v>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1124,25 +1990,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J18" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K18" t="str">
-        <v>none</v>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="str">
-        <v>2026-02-20T00:11:18.272Z</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Bounty Hunters</v>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1165,25 +2031,25 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J19" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K19" t="str">
-        <v>none</v>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="str">
-        <v>2026-02-19T22:29:12.362Z</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>BESTIA</v>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1206,25 +2072,25 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J20" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K20" t="str">
-        <v>none</v>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="str">
-        <v>2026-02-19T22:29:23.298Z</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>The Huns</v>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1247,25 +2113,25 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J21" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K21" t="str">
-        <v>none</v>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>TYLOO</v>
+      <c r="M21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1277,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1014.128742285643</v>
+        <v>1014.1287422856431</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1288,25 +2154,25 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J22" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K22" t="str">
-        <v>none</v>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="str">
-        <v>2026-02-19T22:09:16.526Z</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>OG</v>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1329,25 +2195,25 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J23" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K23" t="str">
-        <v>none</v>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="str">
-        <v>2026-02-19T22:09:03.691Z</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Rebels</v>
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1370,25 +2236,25 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J24" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K24" t="str">
-        <v>none</v>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="str">
-        <v>2026-02-19T22:28:46.129Z</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>G2</v>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1411,25 +2277,25 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J25" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K25" t="str">
-        <v>none</v>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="str">
-        <v>2026-02-19T22:27:33.007Z</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>hoorai</v>
+      <c r="M25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1452,25 +2318,25 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J26" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K26" t="str">
-        <v>none</v>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="str">
-        <v>2026-02-19T22:28:39.809Z</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>00 Nation</v>
+      <c r="M26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1493,25 +2359,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J27" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K27" t="str">
-        <v>none</v>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>100 Thieves</v>
+      <c r="M27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1534,25 +2400,25 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J28" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K28" t="str">
-        <v>none</v>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Aether</v>
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1575,25 +2441,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J29" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K29" t="str">
-        <v>none</v>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>AMKAL</v>
+      <c r="M29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1616,25 +2482,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J30" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K30" t="str">
-        <v>none</v>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Astana Dragons</v>
+      <c r="M30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1657,25 +2523,25 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J31" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K31" t="str">
-        <v>none</v>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Astralis Talent</v>
+      <c r="M31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1698,25 +2564,25 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J32" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K32" t="str">
-        <v>none</v>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Avangar</v>
+      <c r="M32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1739,25 +2605,25 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J33" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K33" t="str">
-        <v>none</v>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>B8</v>
+      <c r="M33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1780,25 +2646,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J34" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K34" t="str">
-        <v>none</v>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>BIG Academy</v>
+      <c r="M34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1821,25 +2687,25 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J35" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K35" t="str">
-        <v>none</v>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Bravado</v>
+      <c r="M35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1862,25 +2728,25 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J36" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K36" t="str">
-        <v>none</v>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Copenhagen Wolves</v>
+      <c r="M36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1903,25 +2769,25 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J37" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K37" t="str">
-        <v>none</v>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Counter Logic Games</v>
+      <c r="M37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1944,25 +2810,25 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J38" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K38" t="str">
-        <v>none</v>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>ENCE Academy</v>
+      <c r="M38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1985,25 +2851,25 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J39" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K39" t="str">
-        <v>none</v>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>ESC</v>
+      <c r="M39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2026,25 +2892,25 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J40" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K40" t="str">
-        <v>none</v>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Flash</v>
+      <c r="M40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2067,25 +2933,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J41" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K41" t="str">
-        <v>none</v>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>FLuffy Gangsters</v>
+      <c r="M41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2108,25 +2974,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J42" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K42" t="str">
-        <v>none</v>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>FlyQuest RED</v>
+      <c r="M42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2149,25 +3015,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J43" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K43" t="str">
-        <v>none</v>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Fnatic</v>
+      <c r="M43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2190,25 +3056,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J44" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K44" t="str">
-        <v>none</v>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>FORZE</v>
+      <c r="M44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2231,25 +3097,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J45" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K45" t="str">
-        <v>none</v>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Gambit</v>
+      <c r="M45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2272,25 +3138,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J46" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K46" t="str">
-        <v>none</v>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>GATERON</v>
+      <c r="M46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2313,25 +3179,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J47" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K47" t="str">
-        <v>none</v>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>GhoulsW</v>
+      <c r="M47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2354,25 +3220,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J48" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K48" t="str">
-        <v>none</v>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>HAVU</v>
+      <c r="M48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2395,25 +3261,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J49" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K49" t="str">
-        <v>none</v>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Heroic Academy</v>
+      <c r="M49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2436,25 +3302,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J50" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K50" t="str">
-        <v>none</v>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Hesta</v>
+      <c r="M50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2477,25 +3343,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J51" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K51" t="str">
-        <v>none</v>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Immortals</v>
+      <c r="M51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2518,25 +3384,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J52" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K52" t="str">
-        <v>none</v>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Into the Beach</v>
+      <c r="M52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2559,25 +3425,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J53" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K53" t="str">
-        <v>none</v>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Kinguin</v>
+      <c r="M53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>88</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2600,25 +3466,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J54" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K54" t="str">
-        <v>none</v>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>kONO</v>
+      <c r="M54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>89</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2641,25 +3507,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J55" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K55" t="str">
-        <v>none</v>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>LGB eSports</v>
+      <c r="M55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>285</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2682,25 +3548,25 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J56" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K56" t="str">
-        <v>none</v>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>MAD Lions</v>
+      <c r="M56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2723,25 +3589,25 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J57" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K57" t="str">
-        <v>none</v>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>MANA</v>
+      <c r="M57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2764,25 +3630,25 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J58" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K58" t="str">
-        <v>none</v>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>MIBR Academy</v>
+      <c r="M58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>92</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2805,25 +3671,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J59" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K59" t="str">
-        <v>none</v>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Misfits</v>
+      <c r="M59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>93</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2846,25 +3712,25 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J60" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K60" t="str">
-        <v>none</v>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>mousesports</v>
+      <c r="M60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>94</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2887,25 +3753,25 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J61" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K61" t="str">
-        <v>none</v>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>MOUZ NXT</v>
+      <c r="M61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>95</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2928,25 +3794,25 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J62" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K62" t="str">
-        <v>none</v>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Movistar KOI</v>
+      <c r="M62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>96</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2969,25 +3835,25 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J63" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K63" t="str">
-        <v>none</v>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>NIP Impact</v>
+      <c r="M63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3010,25 +3876,25 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J64" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K64" t="str">
-        <v>none</v>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Nordix</v>
+      <c r="M64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3051,25 +3917,25 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J65" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K65" t="str">
-        <v>none</v>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>NOVAQ</v>
+      <c r="M65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>99</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3092,25 +3958,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J66" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K66" t="str">
-        <v>none</v>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>paiN Academy</v>
+      <c r="M66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>100</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3133,25 +3999,25 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J67" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K67" t="str">
-        <v>none</v>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>QMISTRY</v>
+      <c r="M67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3174,25 +4040,25 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J68" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K68" t="str">
-        <v>none</v>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>16</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Quantum Bellator Fire</v>
+      <c r="M68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3215,25 +4081,25 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J69" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K69" t="str">
-        <v>none</v>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Rogue</v>
+      <c r="M69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>103</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3256,25 +4122,25 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J70" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K70" t="str">
-        <v>none</v>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Shika</v>
+      <c r="M70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>104</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3297,25 +4163,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J71" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K71" t="str">
-        <v>none</v>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>SKYFURY</v>
+      <c r="M71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>105</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3338,25 +4204,25 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J72" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K72" t="str">
-        <v>none</v>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Space Soldiers</v>
+      <c r="M72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>106</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3379,25 +4245,25 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J73" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K73" t="str">
-        <v>none</v>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" t="s">
+        <v>16</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Sprout</v>
+      <c r="M73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>107</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3420,25 +4286,25 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J74" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K74" t="str">
-        <v>none</v>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>Tsunami</v>
+      <c r="M74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3461,25 +4327,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J75" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K75" t="str">
-        <v>none</v>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>VeryGames</v>
+      <c r="M75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3502,25 +4368,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J76" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K76" t="str">
-        <v>none</v>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Vox Eminor</v>
+      <c r="M76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3543,25 +4409,25 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J77" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K77" t="str">
-        <v>none</v>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>16</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Wildcard Academy</v>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3584,25 +4450,25 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J78" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K78" t="str">
-        <v>none</v>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" t="s">
+        <v>16</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Spirit Academy</v>
+      <c r="M78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>112</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -3614,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>999.7251809772306</v>
+        <v>999.72518097723059</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3625,25 +4491,25 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J79" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K79" t="str">
-        <v>none</v>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>16</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="str">
-        <v>2026-02-19T02:49:35.870Z</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>True Rippers</v>
+      <c r="M79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>114</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -3655,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>999.7251809772306</v>
+        <v>999.72518097723059</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3666,25 +4532,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J80" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K80" t="str">
-        <v>none</v>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>16</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="str">
-        <v>2026-02-19T02:47:38.886Z</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>FaZe</v>
+      <c r="M80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>116</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3696,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>999.7251809772306</v>
+        <v>999.72518097723059</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3707,25 +4573,25 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J81" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K81" t="str">
-        <v>none</v>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" t="s">
+        <v>16</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="str">
-        <v>2026-02-19T02:36:39.932Z</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>iBUYPOWER</v>
+      <c r="M81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>118</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -3737,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <v>999.7251809772306</v>
+        <v>999.72518097723059</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3748,25 +4614,25 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J82" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K82" t="str">
-        <v>none</v>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>16</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="str">
-        <v>2026-02-19T02:36:34.302Z</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>GODSENT</v>
+      <c r="M82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>120</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3778,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>999.7251809772306</v>
+        <v>999.72518097723059</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3789,25 +4655,25 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J83" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K83" t="str">
-        <v>none</v>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="str">
-        <v>2026-02-19T01:39:32.364Z</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>M80</v>
+      <c r="M83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>122</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3819,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>999.672340544519</v>
+        <v>999.67234054451899</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3830,25 +4696,25 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J84" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K84" t="str">
-        <v>none</v>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="str">
-        <v>2026-02-19T01:45:45.455Z</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Chinggis Warrios</v>
+      <c r="M84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>286</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -3860,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="E85">
-        <v>999.4408194717619</v>
+        <v>999.44081947176187</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3871,25 +4737,25 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J85" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K85" t="str">
-        <v>none</v>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s">
+        <v>16</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="str">
-        <v>2026-02-19T22:08:18.806Z</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Orbit</v>
+      <c r="M85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>125</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -3901,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="E86">
-        <v>999.4186945376644</v>
+        <v>999.41869453766435</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3912,25 +4778,25 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J86" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K86" t="str">
-        <v>none</v>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" t="s">
+        <v>16</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="str">
-        <v>2026-02-19T22:08:33.993Z</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>Alliance</v>
+      <c r="M86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>127</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -3942,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="E87">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3953,25 +4819,25 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J87" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K87" t="str">
-        <v>none</v>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" t="s">
+        <v>16</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="str">
-        <v>2026-02-19T02:51:22.336Z</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Homyno</v>
+      <c r="M87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>129</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -3983,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3994,25 +4860,25 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J88" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K88" t="str">
-        <v>none</v>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" t="s">
+        <v>16</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="str">
-        <v>2026-02-19T02:51:16.607Z</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>MenaceGG</v>
+      <c r="M88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>131</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4024,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4035,25 +4901,25 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J89" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K89" t="str">
-        <v>none</v>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>16</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="str">
-        <v>2026-02-19T02:49:44.165Z</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Solid</v>
+      <c r="M89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>133</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4065,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4076,25 +4942,25 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J90" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K90" t="str">
-        <v>none</v>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" t="s">
+        <v>16</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="str">
-        <v>2026-02-19T02:47:50.233Z</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>ENCE</v>
+      <c r="M90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>135</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4106,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4117,25 +4983,25 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J91" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K91" t="str">
-        <v>none</v>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" t="s">
+        <v>16</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="str">
-        <v>2026-02-19T02:34:19.604Z</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Nexus</v>
+      <c r="M91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>137</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4147,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4158,25 +5024,25 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J92" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K92" t="str">
-        <v>none</v>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" t="s">
+        <v>16</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="str">
-        <v>2026-02-19T02:34:13.227Z</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>MIBR</v>
+      <c r="M92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>139</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4188,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>999.4088515186523</v>
+        <v>999.40885151865234</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4199,25 +5065,25 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J93" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K93" t="str">
-        <v>none</v>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" t="s">
+        <v>16</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="str">
-        <v>2026-02-19T01:39:50.018Z</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Wizards</v>
+      <c r="M93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>141</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4229,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>999.4062521695108</v>
+        <v>999.40625216951082</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4240,25 +5106,25 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J94" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K94" t="str">
-        <v>none</v>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" t="s">
+        <v>16</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="str">
-        <v>2026-02-19T01:45:38.841Z</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>RED Canids</v>
+      <c r="M94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>143</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -4270,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="E95">
-        <v>999.3397745397444</v>
+        <v>999.33977453974444</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4281,25 +5147,25 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J95" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K95" t="str">
-        <v>none</v>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" t="s">
+        <v>16</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="str">
-        <v>2026-02-19T22:08:44.661Z</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>TALON</v>
+      <c r="M95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>145</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -4311,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="E96">
-        <v>998.2143298479792</v>
+        <v>998.21432984797923</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4322,25 +5188,25 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J96" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K96" t="str">
-        <v>none</v>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>16</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="str">
-        <v>2026-02-19T22:26:40.586Z</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>NAVI Junior</v>
+      <c r="M96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>147</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4352,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="E97">
-        <v>997.4353356546483</v>
+        <v>997.43533565464827</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4363,25 +5229,25 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J97" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K97" t="str">
-        <v>none</v>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" t="s">
+        <v>16</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="str">
-        <v>2026-02-19T22:26:32.431Z</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>FURIA</v>
+      <c r="M97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>149</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4393,7 +5259,7 @@
         <v>3</v>
       </c>
       <c r="E98">
-        <v>985.3605394813516</v>
+        <v>985.36053948135157</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4404,25 +5270,25 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J98" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K98" t="str">
-        <v>none</v>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" t="s">
+        <v>16</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="str">
-        <v>2026-02-19T22:08:26.017Z</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>ad hoc</v>
+      <c r="M98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>151</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4445,25 +5311,25 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J99" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K99" t="str">
-        <v>none</v>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>16</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>SAW</v>
+      <c r="M99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>153</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4486,25 +5352,25 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J100" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K100" t="str">
-        <v>none</v>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" t="s">
+        <v>16</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>NomadS</v>
+      <c r="M100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>155</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4527,25 +5393,25 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J101" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K101" t="str">
-        <v>none</v>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" t="s">
+        <v>16</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Outsiders</v>
+      <c r="M101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>157</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4568,25 +5434,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J102" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K102" t="str">
-        <v>none</v>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>Red Viperz</v>
+      <c r="M102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>159</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4609,25 +5475,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J103" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K103" t="str">
-        <v>none</v>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" t="s">
+        <v>16</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>The Dice</v>
+      <c r="M103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>161</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4650,25 +5516,25 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J104" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K104" t="str">
-        <v>none</v>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>16</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>Victores Sumus</v>
+      <c r="M104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>163</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4691,25 +5557,25 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J105" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K105" t="str">
-        <v>none</v>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>16</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>ODDIK</v>
+      <c r="M105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>165</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4732,25 +5598,25 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J106" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K106" t="str">
-        <v>none</v>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" t="s">
+        <v>16</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>Qiang</v>
+      <c r="M106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>167</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4773,25 +5639,25 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J107" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K107" t="str">
-        <v>none</v>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" t="s">
+        <v>16</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>inSanitY</v>
+      <c r="M107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>169</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4814,25 +5680,25 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J108" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K108" t="str">
-        <v>none</v>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>16</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>Sangal</v>
+      <c r="M108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>171</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4855,25 +5721,25 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J109" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K109" t="str">
-        <v>none</v>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" t="s">
+        <v>16</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>9Pandas</v>
+      <c r="M109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>173</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4896,25 +5762,25 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J110" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K110" t="str">
-        <v>none</v>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>16</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Gods Reign</v>
+      <c r="M110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>175</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4937,25 +5803,25 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J111" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K111" t="str">
-        <v>none</v>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>16</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>CatEvil</v>
+      <c r="M111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>177</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4978,25 +5844,25 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J112" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K112" t="str">
-        <v>none</v>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" t="s">
+        <v>16</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>Carnival</v>
+      <c r="M112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>179</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5019,25 +5885,25 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J113" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K113" t="str">
-        <v>none</v>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s">
+        <v>16</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Evil Geniuses</v>
+      <c r="M113" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>181</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5060,25 +5926,25 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J114" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K114" t="str">
-        <v>none</v>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>16</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>Vantage</v>
+      <c r="M114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>183</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5101,25 +5967,25 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J115" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K115" t="str">
-        <v>none</v>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s">
+        <v>16</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>ATOX</v>
+      <c r="M115" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>185</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5142,25 +6008,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J116" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K116" t="str">
-        <v>none</v>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" t="s">
+        <v>16</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>Skinvault</v>
+      <c r="M116" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>187</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5183,25 +6049,25 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J117" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K117" t="str">
-        <v>none</v>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" t="s">
+        <v>16</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>BC.Game</v>
+      <c r="M117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>189</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5224,25 +6090,25 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J118" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K118" t="str">
-        <v>none</v>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" t="s">
+        <v>16</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Wings Up</v>
+      <c r="M118" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>191</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5265,25 +6131,25 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J119" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K119" t="str">
-        <v>none</v>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>19</v>
+      </c>
+      <c r="K119" t="s">
+        <v>16</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Lynn Vision</v>
+      <c r="M119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>193</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5306,25 +6172,25 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J120" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K120" t="str">
-        <v>none</v>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" t="s">
+        <v>16</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Tricked</v>
+      <c r="M120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>195</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5347,25 +6213,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J121" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K121" t="str">
-        <v>none</v>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" t="s">
+        <v>16</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>3DMAX</v>
+      <c r="M121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>197</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5388,25 +6254,25 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J122" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K122" t="str">
-        <v>none</v>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" t="s">
+        <v>16</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Venom</v>
+      <c r="M122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>199</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5429,25 +6295,25 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J123" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K123" t="str">
-        <v>none</v>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>16</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>ARCRED</v>
+      <c r="M123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>201</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5470,25 +6336,25 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J124" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K124" t="str">
-        <v>none</v>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" t="s">
+        <v>16</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>GamerLegion</v>
+      <c r="M124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>203</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5511,25 +6377,25 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J125" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K125" t="str">
-        <v>none</v>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" t="s">
+        <v>16</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>Passion UA</v>
+      <c r="M125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>205</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5552,25 +6418,25 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J126" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K126" t="str">
-        <v>none</v>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" t="s">
+        <v>16</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>FlyQuest</v>
+      <c r="M126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>207</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5593,25 +6459,25 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J127" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K127" t="str">
-        <v>none</v>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" t="s">
+        <v>16</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Envy</v>
+      <c r="M127" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>209</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5634,25 +6500,25 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J128" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K128" t="str">
-        <v>none</v>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" t="s">
+        <v>16</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>BIG</v>
+      <c r="M128" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>211</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5675,25 +6541,25 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J129" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K129" t="str">
-        <v>none</v>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" t="s">
+        <v>16</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Limitless</v>
+      <c r="M129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>213</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5716,25 +6582,25 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J130" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K130" t="str">
-        <v>none</v>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" t="s">
+        <v>16</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>Galorys</v>
+      <c r="M130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>215</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5757,25 +6623,25 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J131" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K131" t="str">
-        <v>none</v>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" t="s">
+        <v>16</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>devils.one</v>
+      <c r="M131" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>217</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5798,25 +6664,25 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J132" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K132" t="str">
-        <v>none</v>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" t="s">
+        <v>16</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>Luminosity</v>
+      <c r="M132" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>219</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5839,25 +6705,25 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J133" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K133" t="str">
-        <v>none</v>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" t="s">
+        <v>16</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Sharks</v>
+      <c r="M133" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>221</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5880,25 +6746,25 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J134" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K134" t="str">
-        <v>none</v>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>28</v>
+      </c>
+      <c r="K134" t="s">
+        <v>16</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>IHC</v>
+      <c r="M134" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>223</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5921,25 +6787,25 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J135" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K135" t="str">
-        <v>none</v>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" t="s">
+        <v>16</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Kappa Bar</v>
+      <c r="M135" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>225</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5962,25 +6828,25 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J136" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K136" t="str">
-        <v>none</v>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" t="s">
+        <v>16</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>Complexity</v>
+      <c r="M136" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>227</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6003,25 +6869,25 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J137" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K137" t="str">
-        <v>none</v>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>28</v>
+      </c>
+      <c r="K137" t="s">
+        <v>16</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>Case</v>
+      <c r="M137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>229</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6044,25 +6910,25 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J138" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K138" t="str">
-        <v>none</v>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" t="s">
+        <v>16</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>Mythic</v>
+      <c r="M138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>231</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6085,25 +6951,25 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J139" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K139" t="str">
-        <v>none</v>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>28</v>
+      </c>
+      <c r="K139" t="s">
+        <v>16</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Enemy</v>
+      <c r="M139" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>233</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6126,25 +6992,25 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J140" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K140" t="str">
-        <v>none</v>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" t="s">
+        <v>16</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>KRU</v>
+      <c r="M140" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>235</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6167,25 +7033,25 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J141" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K141" t="str">
-        <v>none</v>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>28</v>
+      </c>
+      <c r="K141" t="s">
+        <v>16</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>Imperial</v>
+      <c r="M141" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>237</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6208,25 +7074,25 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J142" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K142" t="str">
-        <v>none</v>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>28</v>
+      </c>
+      <c r="K142" t="s">
+        <v>16</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>9z</v>
+      <c r="M142" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>239</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6249,25 +7115,25 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J143" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K143" t="str">
-        <v>none</v>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>28</v>
+      </c>
+      <c r="K143" t="s">
+        <v>16</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>paiN</v>
+      <c r="M143" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>241</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6290,25 +7156,25 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J144" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K144" t="str">
-        <v>none</v>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>28</v>
+      </c>
+      <c r="K144" t="s">
+        <v>16</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>Vexed</v>
+      <c r="M144" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>243</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6331,25 +7197,25 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J145" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K145" t="str">
-        <v>none</v>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" t="s">
+        <v>16</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>Dignitas</v>
+      <c r="M145" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>245</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6361,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6372,25 +7238,25 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J146" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K146" t="str">
-        <v>none</v>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" t="s">
+        <v>16</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="str">
-        <v>2026-02-19T21:54:17.535Z</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>LDLC</v>
+      <c r="M146" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>247</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6402,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6413,25 +7279,25 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J147" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K147" t="str">
-        <v>none</v>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" t="s">
+        <v>16</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="str">
-        <v>2026-02-19T21:53:53.691Z</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>Aravt</v>
+      <c r="M147" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>249</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6443,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6454,25 +7320,25 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J148" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K148" t="str">
-        <v>none</v>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" t="s">
+        <v>16</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="str">
-        <v>2026-02-19T02:51:09.872Z</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>VP.Prodigy</v>
+      <c r="M148" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>251</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6484,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6495,25 +7361,25 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J149" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K149" t="str">
-        <v>none</v>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" t="s">
+        <v>16</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="str">
-        <v>2026-02-19T02:51:03.784Z</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>Entropiq</v>
+      <c r="M149" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>253</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6525,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -6536,25 +7402,25 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J150" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K150" t="str">
-        <v>none</v>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>28</v>
+      </c>
+      <c r="K150" t="s">
+        <v>16</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="str">
-        <v>2026-02-19T02:49:25.044Z</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Take Flyte</v>
+      <c r="M150" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>255</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6566,7 +7432,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -6577,25 +7443,25 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J151" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K151" t="str">
-        <v>none</v>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>28</v>
+      </c>
+      <c r="K151" t="s">
+        <v>16</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="str">
-        <v>2026-02-19T02:49:14.876Z</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Underground</v>
+      <c r="M151" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>257</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6607,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -6618,25 +7484,25 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J152" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K152" t="str">
-        <v>none</v>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" t="s">
+        <v>16</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="str">
-        <v>2026-02-19T02:47:27.422Z</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>Virtus.pro</v>
+      <c r="M152" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>259</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6648,7 +7514,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -6659,25 +7525,25 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J153" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K153" t="str">
-        <v>none</v>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" t="s">
+        <v>16</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="str">
-        <v>2026-02-19T02:47:19.575Z</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>ShindeN</v>
+      <c r="M153" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>261</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -6689,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6700,25 +7566,25 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J154" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K154" t="str">
-        <v>none</v>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" t="s">
+        <v>16</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="str">
-        <v>2026-02-19T02:36:26.535Z</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>Permitta</v>
+      <c r="M154" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>263</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6730,7 +7596,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -6741,25 +7607,25 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J155" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K155" t="str">
-        <v>none</v>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>15</v>
+      </c>
+      <c r="K155" t="s">
+        <v>16</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="str">
-        <v>2026-02-19T02:36:17.329Z</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>Wildcard</v>
+      <c r="M155" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>265</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6771,7 +7637,7 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6782,25 +7648,25 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J156" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K156" t="str">
-        <v>none</v>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>28</v>
+      </c>
+      <c r="K156" t="s">
+        <v>16</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="str">
-        <v>2026-02-19T02:34:08.116Z</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>Astralis</v>
+      <c r="M156" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>267</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -6812,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -6823,25 +7689,25 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J157" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K157" t="str">
-        <v>none</v>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" t="s">
+        <v>16</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="str">
-        <v>2026-02-19T02:34:01.822Z</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Bad News Eagles</v>
+      <c r="M157" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>269</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6853,7 +7719,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -6864,25 +7730,25 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J158" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K158" t="str">
-        <v>none</v>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" t="s">
+        <v>16</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="str">
-        <v>2026-02-19T01:45:27.335Z</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>SK</v>
+      <c r="M158" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>271</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -6894,7 +7760,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6905,25 +7771,25 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J159" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K159" t="str">
-        <v>none</v>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" t="s">
+        <v>16</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="str">
-        <v>2026-02-19T01:39:18.535Z</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>ECSTATIC</v>
+      <c r="M159" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>273</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6935,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>984.7039370196626</v>
+        <v>984.70393701966259</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -6946,25 +7812,25 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J160" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K160" t="str">
-        <v>none</v>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" t="s">
+        <v>16</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="str">
-        <v>2026-02-19T01:39:12.540Z</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Ninjas in Pyjamas</v>
+      <c r="M160" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>275</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -6987,25 +7853,25 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J161" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K161" t="str">
-        <v>none</v>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>15</v>
+      </c>
+      <c r="K161" t="s">
+        <v>16</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="str">
-        <v>2026-02-19T21:53:46.615Z</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>MOUZ</v>
+      <c r="M161" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>277</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7028,25 +7894,25 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J162" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K162" t="str">
-        <v>none</v>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>15</v>
+      </c>
+      <c r="K162" t="s">
+        <v>16</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="str">
-        <v>2026-02-19T21:53:40.004Z</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>Aurora</v>
+      <c r="M162" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>279</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7069,25 +7935,25 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J163" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K163" t="str">
-        <v>none</v>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" t="s">
+        <v>16</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="str">
-        <v>2026-02-19T21:53:30.387Z</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Reason</v>
+      <c r="M163" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>281</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -7110,25 +7976,25 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J164" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K164" t="str">
-        <v>none</v>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>15</v>
+      </c>
+      <c r="K164" t="s">
+        <v>16</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="str">
-        <v>2026-02-19T21:53:23.315Z</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Legacy</v>
+      <c r="M164" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>283</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7140,7 +8006,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>957.5159098824421</v>
+        <v>957.51590988244209</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7151,25 +8017,26 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J165" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K165" t="str">
-        <v>none</v>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>28</v>
+      </c>
+      <c r="K165" t="s">
+        <v>16</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="str">
-        <v>2026-02-19T01:45:20.251Z</v>
+      <c r="M165" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M165"/>
+    <ignoredError sqref="A1:M55 A57:M84 B56:M56 A86:M165 B85:M85" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -1,893 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AE689-ABB1-43DF-A80D-1BBE65E4602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="287">
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Victories</t>
-  </si>
-  <si>
-    <t>Streak</t>
-  </si>
-  <si>
-    <t>Loses</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Majors</t>
-  </si>
-  <si>
-    <t>Prestige</t>
-  </si>
-  <si>
-    <t>Tournaments Trophies</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>BonusType</t>
-  </si>
-  <si>
-    <t>BonusRemaining</t>
-  </si>
-  <si>
-    <t>LastUpdated</t>
-  </si>
-  <si>
-    <t>Eternal Fire</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:10:52.943Z</t>
-  </si>
-  <si>
-    <t>The MongolZ</t>
-  </si>
-  <si>
-    <t>AS/SIS/ESEA</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:11:18.272Z</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:11:00.894Z</t>
-  </si>
-  <si>
-    <t>PARIVISION</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:10:36.959Z</t>
-  </si>
-  <si>
-    <t>Natus Vincere</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:11:07.006Z</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:10:29.470Z</t>
-  </si>
-  <si>
-    <t>Iluminar</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:11:26.413Z</t>
-  </si>
-  <si>
-    <t>Nemiga</t>
-  </si>
-  <si>
-    <t>Copenhagen Flames</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>2026-02-20T00:10:45.971Z</t>
-  </si>
-  <si>
-    <t>Elevate</t>
-  </si>
-  <si>
-    <t>Spirit</t>
-  </si>
-  <si>
-    <t>Heroic</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
-  </si>
-  <si>
-    <t>Onyx Ravens</t>
-  </si>
-  <si>
-    <t>Verdant</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:29:28.854Z</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Bounty Hunters</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:29:12.362Z</t>
-  </si>
-  <si>
-    <t>BESTIA</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:29:23.298Z</t>
-  </si>
-  <si>
-    <t>The Huns</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:06.168Z</t>
-  </si>
-  <si>
-    <t>TYLOO</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:09:16.526Z</t>
-  </si>
-  <si>
-    <t>OG</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:09:03.691Z</t>
-  </si>
-  <si>
-    <t>Rebels</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:28:46.129Z</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:27:33.007Z</t>
-  </si>
-  <si>
-    <t>hoorai</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:28:39.809Z</t>
-  </si>
-  <si>
-    <t>00 Nation</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100 Thieves</t>
-  </si>
-  <si>
-    <t>Aether</t>
-  </si>
-  <si>
-    <t>AMKAL</t>
-  </si>
-  <si>
-    <t>Astana Dragons</t>
-  </si>
-  <si>
-    <t>Astralis Talent</t>
-  </si>
-  <si>
-    <t>Avangar</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>BIG Academy</t>
-  </si>
-  <si>
-    <t>Bravado</t>
-  </si>
-  <si>
-    <t>Copenhagen Wolves</t>
-  </si>
-  <si>
-    <t>Counter Logic Games</t>
-  </si>
-  <si>
-    <t>ENCE Academy</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>FLuffy Gangsters</t>
-  </si>
-  <si>
-    <t>FlyQuest RED</t>
-  </si>
-  <si>
-    <t>Fnatic</t>
-  </si>
-  <si>
-    <t>FORZE</t>
-  </si>
-  <si>
-    <t>Gambit</t>
-  </si>
-  <si>
-    <t>GATERON</t>
-  </si>
-  <si>
-    <t>GhoulsW</t>
-  </si>
-  <si>
-    <t>HAVU</t>
-  </si>
-  <si>
-    <t>Heroic Academy</t>
-  </si>
-  <si>
-    <t>Hesta</t>
-  </si>
-  <si>
-    <t>Immortals</t>
-  </si>
-  <si>
-    <t>Into the Beach</t>
-  </si>
-  <si>
-    <t>Kinguin</t>
-  </si>
-  <si>
-    <t>kONO</t>
-  </si>
-  <si>
-    <t>MAD Lions</t>
-  </si>
-  <si>
-    <t>MANA</t>
-  </si>
-  <si>
-    <t>MIBR Academy</t>
-  </si>
-  <si>
-    <t>Misfits</t>
-  </si>
-  <si>
-    <t>mousesports</t>
-  </si>
-  <si>
-    <t>MOUZ NXT</t>
-  </si>
-  <si>
-    <t>Movistar KOI</t>
-  </si>
-  <si>
-    <t>NIP Impact</t>
-  </si>
-  <si>
-    <t>Nordix</t>
-  </si>
-  <si>
-    <t>NOVAQ</t>
-  </si>
-  <si>
-    <t>paiN Academy</t>
-  </si>
-  <si>
-    <t>QMISTRY</t>
-  </si>
-  <si>
-    <t>Quantum Bellator Fire</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>Shika</t>
-  </si>
-  <si>
-    <t>SKYFURY</t>
-  </si>
-  <si>
-    <t>Space Soldiers</t>
-  </si>
-  <si>
-    <t>Sprout</t>
-  </si>
-  <si>
-    <t>Tsunami</t>
-  </si>
-  <si>
-    <t>VeryGames</t>
-  </si>
-  <si>
-    <t>Vox Eminor</t>
-  </si>
-  <si>
-    <t>Wildcard Academy</t>
-  </si>
-  <si>
-    <t>Spirit Academy</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:35.870Z</t>
-  </si>
-  <si>
-    <t>True Rippers</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:38.886Z</t>
-  </si>
-  <si>
-    <t>FaZe</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:39.932Z</t>
-  </si>
-  <si>
-    <t>iBUYPOWER</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:34.302Z</t>
-  </si>
-  <si>
-    <t>GODSENT</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:32.364Z</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:45.455Z</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:18.806Z</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:33.993Z</t>
-  </si>
-  <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:22.336Z</t>
-  </si>
-  <si>
-    <t>Homyno</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:16.607Z</t>
-  </si>
-  <si>
-    <t>MenaceGG</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:44.165Z</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:50.233Z</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:19.604Z</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:13.227Z</t>
-  </si>
-  <si>
-    <t>MIBR</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:50.018Z</t>
-  </si>
-  <si>
-    <t>Wizards</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:38.841Z</t>
-  </si>
-  <si>
-    <t>RED Canids</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:44.661Z</t>
-  </si>
-  <si>
-    <t>TALON</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:26:40.586Z</t>
-  </si>
-  <si>
-    <t>NAVI Junior</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:26:32.431Z</t>
-  </si>
-  <si>
-    <t>FURIA</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:26.017Z</t>
-  </si>
-  <si>
-    <t>ad hoc</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:50:09.060Z</t>
-  </si>
-  <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:47.596Z</t>
-  </si>
-  <si>
-    <t>NomadS</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:35.489Z</t>
-  </si>
-  <si>
-    <t>Outsiders</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:27.811Z</t>
-  </si>
-  <si>
-    <t>Red Viperz</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:20.687Z</t>
-  </si>
-  <si>
-    <t>The Dice</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:12.765Z</t>
-  </si>
-  <si>
-    <t>Victores Sumus</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:00.243Z</t>
-  </si>
-  <si>
-    <t>ODDIK</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:52.026Z</t>
-  </si>
-  <si>
-    <t>Qiang</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:45.055Z</t>
-  </si>
-  <si>
-    <t>inSanitY</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:38.129Z</t>
-  </si>
-  <si>
-    <t>Sangal</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:28.102Z</t>
-  </si>
-  <si>
-    <t>9Pandas</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:17.012Z</t>
-  </si>
-  <si>
-    <t>Gods Reign</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:09.473Z</t>
-  </si>
-  <si>
-    <t>CatEvil</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:02.110Z</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:49.161Z</t>
-  </si>
-  <si>
-    <t>Evil Geniuses</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:36.482Z</t>
-  </si>
-  <si>
-    <t>Vantage</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:28.286Z</t>
-  </si>
-  <si>
-    <t>ATOX</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:18.470Z</t>
-  </si>
-  <si>
-    <t>Skinvault</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:11.265Z</t>
-  </si>
-  <si>
-    <t>BC.Game</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:52.846Z</t>
-  </si>
-  <si>
-    <t>Wings Up</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:32.115Z</t>
-  </si>
-  <si>
-    <t>Lynn Vision</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:08.336Z</t>
-  </si>
-  <si>
-    <t>Tricked</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:45:42.234Z</t>
-  </si>
-  <si>
-    <t>3DMAX</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:39:02.710Z</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:39.010Z</t>
-  </si>
-  <si>
-    <t>ARCRED</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:03.598Z</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:47.172Z</t>
-  </si>
-  <si>
-    <t>Passion UA</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:27.234Z</t>
-  </si>
-  <si>
-    <t>FlyQuest</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:20.280Z</t>
-  </si>
-  <si>
-    <t>Envy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:05.560Z</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:43.463Z</t>
-  </si>
-  <si>
-    <t>Limitless</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:26.343Z</t>
-  </si>
-  <si>
-    <t>Galorys</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:18.696Z</t>
-  </si>
-  <si>
-    <t>devils.one</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:30.347Z</t>
-  </si>
-  <si>
-    <t>Luminosity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:18.851Z</t>
-  </si>
-  <si>
-    <t>Sharks</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:12.952Z</t>
-  </si>
-  <si>
-    <t>IHC</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:06.529Z</t>
-  </si>
-  <si>
-    <t>Kappa Bar</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:57.244Z</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:48.652Z</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:39.402Z</t>
-  </si>
-  <si>
-    <t>Mythic</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:32.047Z</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:20.745Z</t>
-  </si>
-  <si>
-    <t>KRU</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:06.663Z</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:57.658Z</t>
-  </si>
-  <si>
-    <t>9z</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:44.273Z</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:14.058Z</t>
-  </si>
-  <si>
-    <t>Vexed</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:19:58.722Z</t>
-  </si>
-  <si>
-    <t>Dignitas</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:54:17.535Z</t>
-  </si>
-  <si>
-    <t>LDLC</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:53.691Z</t>
-  </si>
-  <si>
-    <t>Aravt</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:09.872Z</t>
-  </si>
-  <si>
-    <t>VP.Prodigy</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:03.784Z</t>
-  </si>
-  <si>
-    <t>Entropiq</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:25.044Z</t>
-  </si>
-  <si>
-    <t>Take Flyte</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:14.876Z</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:27.422Z</t>
-  </si>
-  <si>
-    <t>Virtus.pro</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:19.575Z</t>
-  </si>
-  <si>
-    <t>ShindeN</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:26.535Z</t>
-  </si>
-  <si>
-    <t>Permitta</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:17.329Z</t>
-  </si>
-  <si>
-    <t>Wildcard</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:08.116Z</t>
-  </si>
-  <si>
-    <t>Astralis</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:01.822Z</t>
-  </si>
-  <si>
-    <t>Bad News Eagles</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:27.335Z</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:18.535Z</t>
-  </si>
-  <si>
-    <t>ECSTATIC</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:12.540Z</t>
-  </si>
-  <si>
-    <t>Ninjas in Pyjamas</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:46.615Z</t>
-  </si>
-  <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:40.004Z</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:30.387Z</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:23.315Z</t>
-  </si>
-  <si>
-    <t>Legacy</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:20.251Z</t>
-  </si>
-  <si>
-    <t>LGB</t>
-  </si>
-  <si>
-    <t>Chinggis Warriors</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -917,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1256,62 +396,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Team</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Victories</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Streak</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Loses</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Points</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Majors</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prestige</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Tournaments Trophies</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Tier</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Region</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BonusType</v>
+      </c>
+      <c r="L1" t="str">
+        <v>BonusRemaining</v>
+      </c>
+      <c r="M1" t="str">
+        <v>LastUpdated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Eternal Fire</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1334,79 +468,79 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="I2" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J2" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K2" t="str">
+        <v>none</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="M2" t="str">
+        <v>2026-02-20T00:10:52.943Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Nemiga</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
+        <v>1087.5987619515017</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J3" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K3" t="str">
+        <v>none</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2026-02-28T05:04:46.710Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>The MongolZ</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>1087.529089779176</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1079.0636882193733</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -1416,25 +550,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+      <c r="I4" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K4" t="str">
+        <v>none</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="M4" t="str">
+        <v>2026-02-20T00:11:18.272Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Vitality</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1446,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1079.0348088273649</v>
+        <v>1079.0636882193733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1457,25 +591,25 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+      <c r="I5" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J5" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K5" t="str">
+        <v>none</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="M5" t="str">
+        <v>2026-02-20T00:11:00.894Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PARIVISION</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1487,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1078.2122233526832</v>
+        <v>1079.034808827365</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1498,25 +632,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
+      <c r="I6" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K6" t="str">
+        <v>none</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
+      <c r="M6" t="str">
+        <v>2026-02-20T00:10:36.959Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Natus Vincere</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1528,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1076.9954650955813</v>
+        <v>1078.2122233526832</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1539,25 +673,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+      <c r="I7" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K7" t="str">
+        <v>none</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="M7" t="str">
+        <v>2026-02-20T00:11:07.006Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Liquid</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1569,49 +703,49 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>1076.9954650955813</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J8" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K8" t="str">
+        <v>none</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2026-02-20T00:10:29.470Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Iluminar</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1076.9532123032502</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1074.4029464363696</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -1621,37 +755,37 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
+      <c r="I9" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J9" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K9" t="str">
+        <v>none</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
+      <c r="M9" t="str">
+        <v>2026-02-20T00:11:26.413Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Elevate</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1073.9176367912892</v>
+        <v>1072.1938472165784</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1662,25 +796,25 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
+      <c r="I10" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J10" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K10" t="str">
+        <v>none</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
+      <c r="M10" t="str">
+        <v>2026-02-28T05:06:41.425Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Titan</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1703,37 +837,37 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
+      <c r="I11" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J11" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K11" t="str">
+        <v>none</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
+      <c r="M11" t="str">
+        <v>2026-02-20T00:10:45.971Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Heroic</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1057.6882126347407</v>
+        <v>1059.4140646087183</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1744,37 +878,37 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
+      <c r="I12" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J12" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K12" t="str">
+        <v>none</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
+      <c r="M12" t="str">
+        <v>2026-02-28T05:07:16.664Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
-        <v>1046.2333880843889</v>
+        <v>1056.4823542842507</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1785,37 +919,37 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
+      <c r="I13" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J13" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K13" t="str">
+        <v>none</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
+      <c r="M13" t="str">
+        <v>2026-02-28T05:04:56.164Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Falcons</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1044.9557957878055</v>
+        <v>1034.4424151276899</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1826,37 +960,37 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
+      <c r="I14" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J14" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K14" t="str">
+        <v>none</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
+      <c r="M14" t="str">
+        <v>2026-02-28T05:04:56.164Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Spirit</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1032.4104642119755</v>
+        <v>1031.7277535025512</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1867,25 +1001,25 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
+      <c r="I15" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J15" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K15" t="str">
+        <v>none</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
+      <c r="M15" t="str">
+        <v>2026-02-28T05:06:41.425Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Verdant</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1897,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>1032.402556768659</v>
+        <v>1026.0064397232286</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1908,25 +1042,25 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
+      <c r="I16" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J16" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K16" t="str">
+        <v>none</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
+      <c r="M16" t="str">
+        <v>2026-02-19T22:29:28.854Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Cloud9</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1935,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>1026.0064397232286</v>
+        <v>1019.2146486968434</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1949,37 +1083,37 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
+      <c r="I17" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J17" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K17" t="str">
+        <v>none</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
+      <c r="M17" t="str">
+        <v>2026-02-28T05:04:46.710Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Onyx Ravens</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>1017.0071326206514</v>
+        <v>1017.9442879477463</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1990,25 +1124,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
+      <c r="I18" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J18" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K18" t="str">
+        <v>none</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="M18" t="str">
+        <v>2026-02-28T05:07:16.664Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Bounty Hunters</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2031,25 +1165,25 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
+      <c r="I19" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J19" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K19" t="str">
+        <v>none</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
+      <c r="M19" t="str">
+        <v>2026-02-19T22:29:12.362Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>BESTIA</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2072,25 +1206,25 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
+      <c r="I20" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J20" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K20" t="str">
+        <v>none</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
+      <c r="M20" t="str">
+        <v>2026-02-19T22:29:23.298Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>The Huns</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2113,25 +1247,25 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
+      <c r="I21" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J21" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K21" t="str">
+        <v>none</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="M21" t="str">
+        <v>2026-02-18T21:21:06.168Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TYLOO</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2143,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1014.1287422856431</v>
+        <v>1014.128742285643</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2154,25 +1288,25 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" t="s">
-        <v>16</v>
+      <c r="I22" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K22" t="str">
+        <v>none</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
+      <c r="M22" t="str">
+        <v>2026-02-19T22:09:16.526Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>OG</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -2195,25 +1329,25 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>16</v>
+      <c r="I23" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J23" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K23" t="str">
+        <v>none</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
+      <c r="M23" t="str">
+        <v>2026-02-19T22:09:03.691Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Rebels</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2236,25 +1370,25 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
+      <c r="I24" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J24" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K24" t="str">
+        <v>none</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
+      <c r="M24" t="str">
+        <v>2026-02-19T22:28:46.129Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>G2</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -2277,25 +1411,25 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
+      <c r="I25" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J25" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K25" t="str">
+        <v>none</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
+      <c r="M25" t="str">
+        <v>2026-02-19T22:27:33.007Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>hoorai</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -2318,25 +1452,25 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
+      <c r="I26" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J26" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K26" t="str">
+        <v>none</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
+      <c r="M26" t="str">
+        <v>2026-02-19T22:28:39.809Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>00 Nation</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2359,25 +1493,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" t="s">
-        <v>16</v>
+      <c r="I27" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J27" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K27" t="str">
+        <v>none</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>100 Thieves</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2400,25 +1534,25 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
+      <c r="I28" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J28" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K28" t="str">
+        <v>none</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>63</v>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Aether</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2441,25 +1575,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
+      <c r="I29" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J29" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K29" t="str">
+        <v>none</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>64</v>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>AMKAL</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2482,25 +1616,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
+      <c r="I30" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J30" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K30" t="str">
+        <v>none</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
+      <c r="M30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Astana Dragons</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2523,25 +1657,25 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s">
-        <v>16</v>
+      <c r="I31" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K31" t="str">
+        <v>none</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>66</v>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Astralis Talent</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2564,25 +1698,25 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
+      <c r="I32" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J32" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K32" t="str">
+        <v>none</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>67</v>
+      <c r="M32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Avangar</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2605,25 +1739,25 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" t="s">
-        <v>16</v>
+      <c r="I33" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J33" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K33" t="str">
+        <v>none</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>68</v>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B8</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2646,25 +1780,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" t="s">
-        <v>16</v>
+      <c r="I34" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J34" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K34" t="str">
+        <v>none</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>BIG Academy</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2687,25 +1821,25 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
+      <c r="I35" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J35" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K35" t="str">
+        <v>none</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>70</v>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Bravado</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2728,25 +1862,25 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
+      <c r="I36" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J36" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K36" t="str">
+        <v>none</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2769,25 +1903,25 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s">
-        <v>16</v>
+      <c r="I37" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J37" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K37" t="str">
+        <v>none</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>72</v>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Counter Logic Games</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2810,25 +1944,25 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
+      <c r="I38" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J38" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K38" t="str">
+        <v>none</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>73</v>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>ENCE Academy</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2851,25 +1985,25 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s">
-        <v>16</v>
+      <c r="I39" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J39" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K39" t="str">
+        <v>none</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>74</v>
+      <c r="M39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>ESC</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2892,25 +2026,25 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s">
-        <v>16</v>
+      <c r="I40" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J40" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K40" t="str">
+        <v>none</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>75</v>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Flash</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2933,25 +2067,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
+      <c r="I41" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J41" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K41" t="str">
+        <v>none</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>76</v>
+      <c r="M41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2974,25 +2108,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" t="s">
-        <v>16</v>
+      <c r="I42" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J42" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K42" t="str">
+        <v>none</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>77</v>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>FlyQuest RED</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3015,25 +2149,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" t="s">
-        <v>16</v>
+      <c r="I43" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J43" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K43" t="str">
+        <v>none</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>78</v>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fnatic</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3056,25 +2190,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s">
-        <v>16</v>
+      <c r="I44" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J44" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K44" t="str">
+        <v>none</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>79</v>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>FORZE</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3097,25 +2231,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
+      <c r="I45" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J45" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K45" t="str">
+        <v>none</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>80</v>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Gambit</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3138,25 +2272,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" t="s">
-        <v>16</v>
+      <c r="I46" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J46" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K46" t="str">
+        <v>none</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>81</v>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>GATERON</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3179,25 +2313,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" t="s">
-        <v>16</v>
+      <c r="I47" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J47" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K47" t="str">
+        <v>none</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>82</v>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>GhoulsW</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3220,25 +2354,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
+      <c r="I48" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J48" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K48" t="str">
+        <v>none</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>83</v>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>HAVU</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3261,25 +2395,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s">
-        <v>16</v>
+      <c r="I49" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J49" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K49" t="str">
+        <v>none</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>84</v>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Heroic Academy</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3302,25 +2436,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
+      <c r="I50" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J50" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K50" t="str">
+        <v>none</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>85</v>
+      <c r="M50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Hesta</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3343,25 +2477,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" t="s">
-        <v>16</v>
+      <c r="I51" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J51" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K51" t="str">
+        <v>none</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>86</v>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Immortals</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3384,25 +2518,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" t="s">
-        <v>16</v>
+      <c r="I52" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J52" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K52" t="str">
+        <v>none</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>87</v>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Into the Beach</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3425,25 +2559,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" t="s">
-        <v>16</v>
+      <c r="I53" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J53" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K53" t="str">
+        <v>none</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>88</v>
+      <c r="M53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Kinguin</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3466,25 +2600,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s">
-        <v>16</v>
+      <c r="I54" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J54" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K54" t="str">
+        <v>none</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>89</v>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>kONO</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3507,25 +2641,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" t="s">
-        <v>16</v>
+      <c r="I55" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J55" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K55" t="str">
+        <v>none</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>285</v>
+      <c r="M55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>LGB</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3548,25 +2682,25 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" t="s">
-        <v>16</v>
+      <c r="I56" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J56" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K56" t="str">
+        <v>none</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>90</v>
+      <c r="M56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MAD Lions</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3589,25 +2723,25 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" t="s">
-        <v>16</v>
+      <c r="I57" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J57" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K57" t="str">
+        <v>none</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>91</v>
+      <c r="M57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>MANA</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3630,25 +2764,25 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" t="s">
-        <v>16</v>
+      <c r="I58" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J58" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K58" t="str">
+        <v>none</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>92</v>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>MIBR Academy</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3671,25 +2805,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" t="s">
-        <v>16</v>
+      <c r="I59" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J59" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K59" t="str">
+        <v>none</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>93</v>
+      <c r="M59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Misfits</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3712,25 +2846,25 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" t="s">
-        <v>16</v>
+      <c r="I60" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J60" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K60" t="str">
+        <v>none</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>94</v>
+      <c r="M60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>mousesports</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3753,25 +2887,25 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" t="s">
-        <v>16</v>
+      <c r="I61" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J61" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K61" t="str">
+        <v>none</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>95</v>
+      <c r="M61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>MOUZ NXT</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3794,25 +2928,25 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" t="s">
-        <v>16</v>
+      <c r="I62" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J62" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K62" t="str">
+        <v>none</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Movistar KOI</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3835,25 +2969,25 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
-        <v>19</v>
-      </c>
-      <c r="K63" t="s">
-        <v>16</v>
+      <c r="I63" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J63" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K63" t="str">
+        <v>none</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>97</v>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>NIP Impact</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3876,25 +3010,25 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" t="s">
-        <v>16</v>
+      <c r="I64" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J64" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K64" t="str">
+        <v>none</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>98</v>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Nordix</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3917,25 +3051,25 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" t="s">
-        <v>16</v>
+      <c r="I65" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J65" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K65" t="str">
+        <v>none</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>99</v>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>NOVAQ</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3958,25 +3092,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" t="s">
-        <v>16</v>
+      <c r="I66" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J66" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K66" t="str">
+        <v>none</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>100</v>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>paiN Academy</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3999,25 +3133,25 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" t="s">
-        <v>28</v>
-      </c>
-      <c r="K67" t="s">
-        <v>16</v>
+      <c r="I67" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J67" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K67" t="str">
+        <v>none</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>101</v>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>QMISTRY</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4040,25 +3174,25 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" t="s">
-        <v>16</v>
+      <c r="I68" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J68" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K68" t="str">
+        <v>none</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>102</v>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4081,25 +3215,25 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69" t="s">
-        <v>16</v>
+      <c r="I69" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J69" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K69" t="str">
+        <v>none</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>103</v>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Rogue</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4122,25 +3256,25 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" t="s">
-        <v>16</v>
+      <c r="I70" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J70" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K70" t="str">
+        <v>none</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>104</v>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Shika</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4163,25 +3297,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" t="s">
-        <v>16</v>
+      <c r="I71" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J71" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K71" t="str">
+        <v>none</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>105</v>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>SKYFURY</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4204,25 +3338,25 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" t="s">
-        <v>15</v>
-      </c>
-      <c r="K72" t="s">
-        <v>16</v>
+      <c r="I72" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J72" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K72" t="str">
+        <v>none</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>106</v>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Space Soldiers</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4245,25 +3379,25 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" t="s">
-        <v>16</v>
+      <c r="I73" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J73" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K73" t="str">
+        <v>none</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>107</v>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Sprout</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4286,25 +3420,25 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" t="s">
-        <v>28</v>
-      </c>
-      <c r="K74" t="s">
-        <v>16</v>
+      <c r="I74" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J74" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K74" t="str">
+        <v>none</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>108</v>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Tsunami</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4327,25 +3461,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" t="s">
-        <v>16</v>
+      <c r="I75" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J75" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K75" t="str">
+        <v>none</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>109</v>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>VeryGames</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4368,25 +3502,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" t="s">
-        <v>16</v>
+      <c r="I76" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J76" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K76" t="str">
+        <v>none</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>110</v>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Vox Eminor</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4409,25 +3543,25 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" t="s">
-        <v>16</v>
+      <c r="I77" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J77" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K77" t="str">
+        <v>none</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>111</v>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Wildcard Academy</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4450,25 +3584,25 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" t="s">
-        <v>16</v>
+      <c r="I78" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J78" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K78" t="str">
+        <v>none</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>112</v>
+      <c r="M78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Spirit Academy</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4480,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4491,25 +3625,25 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" t="s">
-        <v>16</v>
+      <c r="I79" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J79" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K79" t="str">
+        <v>none</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>114</v>
+      <c r="M79" t="str">
+        <v>2026-02-19T02:49:35.870Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>True Rippers</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4521,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4532,25 +3666,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" t="s">
-        <v>19</v>
-      </c>
-      <c r="K80" t="s">
-        <v>16</v>
+      <c r="I80" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J80" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K80" t="str">
+        <v>none</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>116</v>
+      <c r="M80" t="str">
+        <v>2026-02-19T02:47:38.886Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>FaZe</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4562,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4573,25 +3707,25 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" t="s">
-        <v>16</v>
+      <c r="I81" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J81" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K81" t="str">
+        <v>none</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>118</v>
+      <c r="M81" t="str">
+        <v>2026-02-19T02:36:39.932Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>iBUYPOWER</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4603,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4614,25 +3748,25 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" t="s">
-        <v>16</v>
+      <c r="I82" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J82" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K82" t="str">
+        <v>none</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>120</v>
+      <c r="M82" t="str">
+        <v>2026-02-19T02:36:34.302Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>GODSENT</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4644,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4655,25 +3789,25 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" t="s">
-        <v>28</v>
-      </c>
-      <c r="K83" t="s">
-        <v>16</v>
+      <c r="I83" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J83" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K83" t="str">
+        <v>none</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>122</v>
+      <c r="M83" t="str">
+        <v>2026-02-19T01:39:32.364Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>M80</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4685,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>999.67234054451899</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4696,25 +3830,25 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" t="s">
-        <v>16</v>
+      <c r="I84" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J84" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K84" t="str">
+        <v>none</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>286</v>
+      <c r="M84" t="str">
+        <v>2026-02-19T01:45:45.455Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Chinggis Warriors</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -4726,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E85">
-        <v>999.44081947176187</v>
+        <v>999.4408194717619</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4737,25 +3871,25 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" t="s">
-        <v>19</v>
-      </c>
-      <c r="K85" t="s">
-        <v>16</v>
+      <c r="I85" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J85" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K85" t="str">
+        <v>none</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>125</v>
+      <c r="M85" t="str">
+        <v>2026-02-19T22:08:18.806Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Orbit</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4767,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="E86">
-        <v>999.41869453766435</v>
+        <v>999.4186945376644</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4778,25 +3912,25 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" t="s">
-        <v>16</v>
+      <c r="I86" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J86" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K86" t="str">
+        <v>none</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>127</v>
+      <c r="M86" t="str">
+        <v>2026-02-19T22:08:33.993Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Alliance</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4808,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="E87">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4819,25 +3953,25 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" t="s">
-        <v>16</v>
+      <c r="I87" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J87" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K87" t="str">
+        <v>none</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>129</v>
+      <c r="M87" t="str">
+        <v>2026-02-19T02:51:22.336Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Homyno</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -4849,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4860,25 +3994,25 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>28</v>
-      </c>
-      <c r="K88" t="s">
-        <v>16</v>
+      <c r="I88" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J88" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K88" t="str">
+        <v>none</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>131</v>
+      <c r="M88" t="str">
+        <v>2026-02-19T02:51:16.607Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>MenaceGG</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4890,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4901,25 +4035,25 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89" t="s">
-        <v>16</v>
+      <c r="I89" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J89" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K89" t="str">
+        <v>none</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>133</v>
+      <c r="M89" t="str">
+        <v>2026-02-19T02:49:44.165Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Solid</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4931,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4942,25 +4076,25 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" t="s">
-        <v>28</v>
-      </c>
-      <c r="K90" t="s">
-        <v>16</v>
+      <c r="I90" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J90" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K90" t="str">
+        <v>none</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>135</v>
+      <c r="M90" t="str">
+        <v>2026-02-19T02:47:50.233Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>ENCE</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4972,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4983,25 +4117,25 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" t="s">
-        <v>15</v>
-      </c>
-      <c r="K91" t="s">
-        <v>16</v>
+      <c r="I91" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J91" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K91" t="str">
+        <v>none</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>137</v>
+      <c r="M91" t="str">
+        <v>2026-02-19T02:34:19.604Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Nexus</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5013,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5024,25 +4158,25 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" t="s">
-        <v>16</v>
+      <c r="I92" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J92" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K92" t="str">
+        <v>none</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>139</v>
+      <c r="M92" t="str">
+        <v>2026-02-19T02:34:13.227Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>MIBR</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5054,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5065,25 +4199,25 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" t="s">
-        <v>28</v>
-      </c>
-      <c r="K93" t="s">
-        <v>16</v>
+      <c r="I93" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J93" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K93" t="str">
+        <v>none</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>141</v>
+      <c r="M93" t="str">
+        <v>2026-02-19T01:39:50.018Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Wizards</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -5095,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>999.40625216951082</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5106,25 +4240,25 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" t="s">
-        <v>28</v>
-      </c>
-      <c r="K94" t="s">
-        <v>16</v>
+      <c r="I94" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J94" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K94" t="str">
+        <v>none</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>143</v>
+      <c r="M94" t="str">
+        <v>2026-02-19T01:45:38.841Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>RED Canids</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -5136,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="E95">
-        <v>999.33977453974444</v>
+        <v>999.3397745397444</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5147,25 +4281,25 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" t="s">
-        <v>16</v>
+      <c r="I95" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J95" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K95" t="str">
+        <v>none</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>145</v>
+      <c r="M95" t="str">
+        <v>2026-02-19T22:08:44.661Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>TALON</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -5177,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="E96">
-        <v>998.21432984797923</v>
+        <v>998.2143298479792</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5188,25 +4322,25 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" t="s">
-        <v>19</v>
-      </c>
-      <c r="K96" t="s">
-        <v>16</v>
+      <c r="I96" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J96" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K96" t="str">
+        <v>none</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>147</v>
+      <c r="M96" t="str">
+        <v>2026-02-19T22:26:40.586Z</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>NAVI Junior</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5218,7 +4352,7 @@
         <v>5</v>
       </c>
       <c r="E97">
-        <v>997.43533565464827</v>
+        <v>997.4353356546483</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5229,25 +4363,25 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" t="s">
-        <v>19</v>
-      </c>
-      <c r="K97" t="s">
-        <v>16</v>
+      <c r="I97" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J97" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K97" t="str">
+        <v>none</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>149</v>
+      <c r="M97" t="str">
+        <v>2026-02-19T22:26:32.431Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>FURIA</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -5259,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="E98">
-        <v>985.36053948135157</v>
+        <v>985.3605394813516</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5270,25 +4404,25 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" t="s">
-        <v>28</v>
-      </c>
-      <c r="K98" t="s">
-        <v>16</v>
+      <c r="I98" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J98" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>151</v>
+      <c r="M98" t="str">
+        <v>2026-02-19T22:08:26.017Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>ad hoc</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5311,25 +4445,25 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K99" t="s">
-        <v>16</v>
+      <c r="I99" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J99" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K99" t="str">
+        <v>none</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>153</v>
+      <c r="M99" t="str">
+        <v>2026-02-19T00:50:09.060Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>SAW</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5352,25 +4486,25 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100" t="s">
-        <v>16</v>
+      <c r="I100" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J100" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>155</v>
+      <c r="M100" t="str">
+        <v>2026-02-19T00:49:47.596Z</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>NomadS</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5393,25 +4527,25 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" t="s">
-        <v>16</v>
+      <c r="I101" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J101" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K101" t="str">
+        <v>none</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>157</v>
+      <c r="M101" t="str">
+        <v>2026-02-19T00:49:35.489Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Outsiders</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5434,25 +4568,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" t="s">
-        <v>16</v>
+      <c r="I102" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J102" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K102" t="str">
+        <v>none</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>159</v>
+      <c r="M102" t="str">
+        <v>2026-02-19T00:49:27.811Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Red Viperz</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -5475,25 +4609,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" t="s">
-        <v>28</v>
-      </c>
-      <c r="K103" t="s">
-        <v>16</v>
+      <c r="I103" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J103" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K103" t="str">
+        <v>none</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>161</v>
+      <c r="M103" t="str">
+        <v>2026-02-19T00:49:20.687Z</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>The Dice</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5516,25 +4650,25 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" t="s">
-        <v>19</v>
-      </c>
-      <c r="K104" t="s">
-        <v>16</v>
+      <c r="I104" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J104" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K104" t="str">
+        <v>none</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>163</v>
+      <c r="M104" t="str">
+        <v>2026-02-19T00:49:12.765Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Victores Sumus</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5557,25 +4691,25 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" t="s">
-        <v>16</v>
+      <c r="I105" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J105" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K105" t="str">
+        <v>none</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>165</v>
+      <c r="M105" t="str">
+        <v>2026-02-19T00:49:00.243Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>ODDIK</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5598,25 +4732,25 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>28</v>
-      </c>
-      <c r="K106" t="s">
-        <v>16</v>
+      <c r="I106" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J106" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K106" t="str">
+        <v>none</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>167</v>
+      <c r="M106" t="str">
+        <v>2026-02-19T00:48:52.026Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Qiang</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5639,25 +4773,25 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" t="s">
-        <v>16</v>
+      <c r="I107" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J107" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K107" t="str">
+        <v>none</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>169</v>
+      <c r="M107" t="str">
+        <v>2026-02-19T00:48:45.055Z</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>inSanitY</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5680,25 +4814,25 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108" t="s">
-        <v>16</v>
+      <c r="I108" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J108" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K108" t="str">
+        <v>none</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>171</v>
+      <c r="M108" t="str">
+        <v>2026-02-19T00:48:38.129Z</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Sangal</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5721,25 +4855,25 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" t="s">
-        <v>19</v>
-      </c>
-      <c r="K109" t="s">
-        <v>16</v>
+      <c r="I109" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J109" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K109" t="str">
+        <v>none</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>173</v>
+      <c r="M109" t="str">
+        <v>2026-02-19T00:48:28.102Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>9Pandas</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5762,25 +4896,25 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>19</v>
-      </c>
-      <c r="K110" t="s">
-        <v>16</v>
+      <c r="I110" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J110" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K110" t="str">
+        <v>none</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>175</v>
+      <c r="M110" t="str">
+        <v>2026-02-19T00:48:17.012Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Gods Reign</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5803,25 +4937,25 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>15</v>
-      </c>
-      <c r="K111" t="s">
-        <v>16</v>
+      <c r="I111" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J111" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K111" t="str">
+        <v>none</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>177</v>
+      <c r="M111" t="str">
+        <v>2026-02-19T00:48:09.473Z</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>CatEvil</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5844,25 +4978,25 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" t="s">
-        <v>15</v>
-      </c>
-      <c r="K112" t="s">
-        <v>16</v>
+      <c r="I112" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J112" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K112" t="str">
+        <v>none</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>179</v>
+      <c r="M112" t="str">
+        <v>2026-02-19T00:48:02.110Z</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Carnival</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5885,25 +5019,25 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" t="s">
-        <v>19</v>
-      </c>
-      <c r="K113" t="s">
-        <v>16</v>
+      <c r="I113" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J113" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K113" t="str">
+        <v>none</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>181</v>
+      <c r="M113" t="str">
+        <v>2026-02-19T00:47:49.161Z</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Evil Geniuses</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5926,25 +5060,25 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" t="s">
-        <v>19</v>
-      </c>
-      <c r="K114" t="s">
-        <v>16</v>
+      <c r="I114" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J114" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K114" t="str">
+        <v>none</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>183</v>
+      <c r="M114" t="str">
+        <v>2026-02-19T00:47:36.482Z</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Vantage</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5967,25 +5101,25 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" t="s">
-        <v>19</v>
-      </c>
-      <c r="K115" t="s">
-        <v>16</v>
+      <c r="I115" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J115" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K115" t="str">
+        <v>none</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>185</v>
+      <c r="M115" t="str">
+        <v>2026-02-19T00:47:28.286Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>ATOX</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -6008,25 +5142,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" t="s">
-        <v>19</v>
-      </c>
-      <c r="K116" t="s">
-        <v>16</v>
+      <c r="I116" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J116" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K116" t="str">
+        <v>none</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>187</v>
+      <c r="M116" t="str">
+        <v>2026-02-19T00:47:18.470Z</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Skinvault</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6049,25 +5183,25 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" t="s">
-        <v>19</v>
-      </c>
-      <c r="K117" t="s">
-        <v>16</v>
+      <c r="I117" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J117" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K117" t="str">
+        <v>none</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>189</v>
+      <c r="M117" t="str">
+        <v>2026-02-19T00:47:11.265Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>BC.Game</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6090,25 +5224,25 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>19</v>
-      </c>
-      <c r="K118" t="s">
-        <v>16</v>
+      <c r="I118" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J118" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K118" t="str">
+        <v>none</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>191</v>
+      <c r="M118" t="str">
+        <v>2026-02-19T00:46:52.846Z</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Wings Up</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6131,25 +5265,25 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
-        <v>19</v>
-      </c>
-      <c r="K119" t="s">
-        <v>16</v>
+      <c r="I119" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J119" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K119" t="str">
+        <v>none</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>193</v>
+      <c r="M119" t="str">
+        <v>2026-02-19T00:46:32.115Z</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Lynn Vision</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6172,25 +5306,25 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" t="s">
-        <v>19</v>
-      </c>
-      <c r="K120" t="s">
-        <v>16</v>
+      <c r="I120" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J120" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K120" t="str">
+        <v>none</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>195</v>
+      <c r="M120" t="str">
+        <v>2026-02-19T00:46:08.336Z</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Tricked</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6213,25 +5347,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121" t="s">
-        <v>16</v>
+      <c r="I121" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J121" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K121" t="str">
+        <v>none</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>197</v>
+      <c r="M121" t="str">
+        <v>2026-02-19T00:45:42.234Z</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>3DMAX</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6254,25 +5388,25 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>15</v>
-      </c>
-      <c r="K122" t="s">
-        <v>16</v>
+      <c r="I122" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J122" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K122" t="str">
+        <v>none</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>199</v>
+      <c r="M122" t="str">
+        <v>2026-02-19T00:39:02.710Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Venom</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6295,25 +5429,25 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" t="s">
-        <v>28</v>
-      </c>
-      <c r="K123" t="s">
-        <v>16</v>
+      <c r="I123" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J123" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K123" t="str">
+        <v>none</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>201</v>
+      <c r="M123" t="str">
+        <v>2026-02-19T00:38:39.010Z</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>ARCRED</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6336,25 +5470,25 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>19</v>
-      </c>
-      <c r="K124" t="s">
-        <v>16</v>
+      <c r="I124" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J124" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K124" t="str">
+        <v>none</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>203</v>
+      <c r="M124" t="str">
+        <v>2026-02-19T00:38:03.598Z</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>GamerLegion</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6377,25 +5511,25 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
-        <v>28</v>
-      </c>
-      <c r="K125" t="s">
-        <v>16</v>
+      <c r="I125" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J125" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K125" t="str">
+        <v>none</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>205</v>
+      <c r="M125" t="str">
+        <v>2026-02-19T00:37:47.172Z</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Passion UA</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6418,25 +5552,25 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>19</v>
-      </c>
-      <c r="K126" t="s">
-        <v>16</v>
+      <c r="I126" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J126" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K126" t="str">
+        <v>none</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>207</v>
+      <c r="M126" t="str">
+        <v>2026-02-19T00:37:27.234Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>FlyQuest</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6459,25 +5593,25 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>19</v>
-      </c>
-      <c r="K127" t="s">
-        <v>16</v>
+      <c r="I127" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J127" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K127" t="str">
+        <v>none</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>209</v>
+      <c r="M127" t="str">
+        <v>2026-02-19T00:37:20.280Z</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Envy</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6500,25 +5634,25 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" t="s">
-        <v>16</v>
+      <c r="I128" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J128" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K128" t="str">
+        <v>none</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>211</v>
+      <c r="M128" t="str">
+        <v>2026-02-19T00:37:05.560Z</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>BIG</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6541,25 +5675,25 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129" t="s">
-        <v>16</v>
+      <c r="I129" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J129" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K129" t="str">
+        <v>none</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>213</v>
+      <c r="M129" t="str">
+        <v>2026-02-19T00:36:43.463Z</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Limitless</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6582,25 +5716,25 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>15</v>
-      </c>
-      <c r="K130" t="s">
-        <v>16</v>
+      <c r="I130" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J130" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K130" t="str">
+        <v>none</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>215</v>
+      <c r="M130" t="str">
+        <v>2026-02-19T00:36:26.343Z</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Galorys</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6623,25 +5757,25 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>28</v>
-      </c>
-      <c r="K131" t="s">
-        <v>16</v>
+      <c r="I131" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J131" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K131" t="str">
+        <v>none</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>217</v>
+      <c r="M131" t="str">
+        <v>2026-02-19T00:36:18.696Z</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>devils.one</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6664,25 +5798,25 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>19</v>
-      </c>
-      <c r="K132" t="s">
-        <v>16</v>
+      <c r="I132" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J132" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K132" t="str">
+        <v>none</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>219</v>
+      <c r="M132" t="str">
+        <v>2026-02-18T21:23:30.347Z</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Luminosity</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6705,25 +5839,25 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" t="s">
-        <v>16</v>
+      <c r="I133" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J133" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K133" t="str">
+        <v>none</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>221</v>
+      <c r="M133" t="str">
+        <v>2026-02-18T21:23:18.851Z</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Sharks</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6746,25 +5880,25 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>28</v>
-      </c>
-      <c r="K134" t="s">
-        <v>16</v>
+      <c r="I134" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J134" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K134" t="str">
+        <v>none</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>223</v>
+      <c r="M134" t="str">
+        <v>2026-02-18T21:23:12.952Z</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>IHC</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6787,25 +5921,25 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>19</v>
-      </c>
-      <c r="K135" t="s">
-        <v>16</v>
+      <c r="I135" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J135" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K135" t="str">
+        <v>none</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>225</v>
+      <c r="M135" t="str">
+        <v>2026-02-18T21:23:06.529Z</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Kappa Bar</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6828,25 +5962,25 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136" t="s">
-        <v>16</v>
+      <c r="I136" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J136" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K136" t="str">
+        <v>none</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>227</v>
+      <c r="M136" t="str">
+        <v>2026-02-18T21:22:57.244Z</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Complexity</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6869,25 +6003,25 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>28</v>
-      </c>
-      <c r="K137" t="s">
-        <v>16</v>
+      <c r="I137" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J137" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K137" t="str">
+        <v>none</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>229</v>
+      <c r="M137" t="str">
+        <v>2026-02-18T21:22:48.652Z</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Case</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6910,25 +6044,25 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>15</v>
-      </c>
-      <c r="K138" t="s">
-        <v>16</v>
+      <c r="I138" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J138" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K138" t="str">
+        <v>none</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>231</v>
+      <c r="M138" t="str">
+        <v>2026-02-18T21:22:39.402Z</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Mythic</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6951,25 +6085,25 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" t="s">
-        <v>28</v>
-      </c>
-      <c r="K139" t="s">
-        <v>16</v>
+      <c r="I139" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J139" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K139" t="str">
+        <v>none</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>233</v>
+      <c r="M139" t="str">
+        <v>2026-02-18T21:22:32.047Z</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Enemy</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6992,25 +6126,25 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" t="s">
-        <v>15</v>
-      </c>
-      <c r="K140" t="s">
-        <v>16</v>
+      <c r="I140" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J140" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K140" t="str">
+        <v>none</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>235</v>
+      <c r="M140" t="str">
+        <v>2026-02-18T21:22:20.745Z</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>KRU</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7033,25 +6167,25 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>28</v>
-      </c>
-      <c r="K141" t="s">
-        <v>16</v>
+      <c r="I141" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J141" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K141" t="str">
+        <v>none</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>237</v>
+      <c r="M141" t="str">
+        <v>2026-02-18T21:22:06.663Z</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Imperial</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7074,25 +6208,25 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>28</v>
-      </c>
-      <c r="K142" t="s">
-        <v>16</v>
+      <c r="I142" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J142" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K142" t="str">
+        <v>none</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>239</v>
+      <c r="M142" t="str">
+        <v>2026-02-18T21:21:57.658Z</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>9z</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7115,25 +6249,25 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>28</v>
-      </c>
-      <c r="K143" t="s">
-        <v>16</v>
+      <c r="I143" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J143" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K143" t="str">
+        <v>none</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>241</v>
+      <c r="M143" t="str">
+        <v>2026-02-18T21:21:44.273Z</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>paiN</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7156,25 +6290,25 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" t="s">
-        <v>28</v>
-      </c>
-      <c r="K144" t="s">
-        <v>16</v>
+      <c r="I144" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J144" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K144" t="str">
+        <v>none</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>243</v>
+      <c r="M144" t="str">
+        <v>2026-02-18T21:21:14.058Z</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Vexed</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7197,25 +6331,25 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>19</v>
-      </c>
-      <c r="K145" t="s">
-        <v>16</v>
+      <c r="I145" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J145" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K145" t="str">
+        <v>none</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>245</v>
+      <c r="M145" t="str">
+        <v>2026-02-18T21:19:58.722Z</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Dignitas</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -7227,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -7238,25 +6372,25 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>15</v>
-      </c>
-      <c r="K146" t="s">
-        <v>16</v>
+      <c r="I146" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J146" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K146" t="str">
+        <v>none</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>247</v>
+      <c r="M146" t="str">
+        <v>2026-02-19T21:54:17.535Z</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>LDLC</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -7268,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -7279,25 +6413,25 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>19</v>
-      </c>
-      <c r="K147" t="s">
-        <v>16</v>
+      <c r="I147" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J147" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K147" t="str">
+        <v>none</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>249</v>
+      <c r="M147" t="str">
+        <v>2026-02-19T21:53:53.691Z</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Aravt</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -7309,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -7320,25 +6454,25 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>19</v>
-      </c>
-      <c r="K148" t="s">
-        <v>16</v>
+      <c r="I148" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J148" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K148" t="str">
+        <v>none</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>251</v>
+      <c r="M148" t="str">
+        <v>2026-02-19T02:51:09.872Z</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>VP.Prodigy</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7350,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -7361,25 +6495,25 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" t="s">
-        <v>19</v>
-      </c>
-      <c r="K149" t="s">
-        <v>16</v>
+      <c r="I149" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J149" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K149" t="str">
+        <v>none</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>253</v>
+      <c r="M149" t="str">
+        <v>2026-02-19T02:51:03.784Z</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Entropiq</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -7391,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -7402,25 +6536,25 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="s">
-        <v>14</v>
-      </c>
-      <c r="J150" t="s">
-        <v>28</v>
-      </c>
-      <c r="K150" t="s">
-        <v>16</v>
+      <c r="I150" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J150" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K150" t="str">
+        <v>none</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>255</v>
+      <c r="M150" t="str">
+        <v>2026-02-19T02:49:25.044Z</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Take Flyte</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -7432,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -7443,25 +6577,25 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>28</v>
-      </c>
-      <c r="K151" t="s">
-        <v>16</v>
+      <c r="I151" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J151" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K151" t="str">
+        <v>none</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>257</v>
+      <c r="M151" t="str">
+        <v>2026-02-19T02:49:14.876Z</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Underground</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7473,7 +6607,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -7484,25 +6618,25 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>15</v>
-      </c>
-      <c r="K152" t="s">
-        <v>16</v>
+      <c r="I152" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J152" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K152" t="str">
+        <v>none</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>259</v>
+      <c r="M152" t="str">
+        <v>2026-02-19T02:47:27.422Z</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Virtus.pro</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7514,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7525,25 +6659,25 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>19</v>
-      </c>
-      <c r="K153" t="s">
-        <v>16</v>
+      <c r="I153" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J153" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K153" t="str">
+        <v>none</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>261</v>
+      <c r="M153" t="str">
+        <v>2026-02-19T02:47:19.575Z</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>ShindeN</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7555,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7566,25 +6700,25 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="s">
-        <v>14</v>
-      </c>
-      <c r="J154" t="s">
-        <v>19</v>
-      </c>
-      <c r="K154" t="s">
-        <v>16</v>
+      <c r="I154" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J154" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K154" t="str">
+        <v>none</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>263</v>
+      <c r="M154" t="str">
+        <v>2026-02-19T02:36:26.535Z</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Permitta</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7596,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7607,25 +6741,25 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" t="s">
-        <v>15</v>
-      </c>
-      <c r="K155" t="s">
-        <v>16</v>
+      <c r="I155" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J155" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K155" t="str">
+        <v>none</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>265</v>
+      <c r="M155" t="str">
+        <v>2026-02-19T02:36:17.329Z</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Wildcard</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7637,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7648,25 +6782,25 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
-        <v>28</v>
-      </c>
-      <c r="K156" t="s">
-        <v>16</v>
+      <c r="I156" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J156" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K156" t="str">
+        <v>none</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>267</v>
+      <c r="M156" t="str">
+        <v>2026-02-19T02:34:08.116Z</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Astralis</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7678,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7689,25 +6823,25 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" t="s">
-        <v>15</v>
-      </c>
-      <c r="K157" t="s">
-        <v>16</v>
+      <c r="I157" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J157" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K157" t="str">
+        <v>none</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>269</v>
+      <c r="M157" t="str">
+        <v>2026-02-19T02:34:01.822Z</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Bad News Eagles</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7719,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7730,25 +6864,25 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" t="s">
-        <v>15</v>
-      </c>
-      <c r="K158" t="s">
-        <v>16</v>
+      <c r="I158" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J158" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K158" t="str">
+        <v>none</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>271</v>
+      <c r="M158" t="str">
+        <v>2026-02-19T01:45:27.335Z</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>SK</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7760,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -7771,25 +6905,25 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="s">
-        <v>14</v>
-      </c>
-      <c r="J159" t="s">
-        <v>19</v>
-      </c>
-      <c r="K159" t="s">
-        <v>16</v>
+      <c r="I159" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J159" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K159" t="str">
+        <v>none</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>273</v>
+      <c r="M159" t="str">
+        <v>2026-02-19T01:39:18.535Z</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>ECSTATIC</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7801,7 +6935,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7812,25 +6946,25 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" t="s">
-        <v>15</v>
-      </c>
-      <c r="K160" t="s">
-        <v>16</v>
+      <c r="I160" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J160" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K160" t="str">
+        <v>none</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>275</v>
+      <c r="M160" t="str">
+        <v>2026-02-19T01:39:12.540Z</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7853,25 +6987,25 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" t="s">
-        <v>15</v>
-      </c>
-      <c r="K161" t="s">
-        <v>16</v>
+      <c r="I161" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J161" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K161" t="str">
+        <v>none</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>277</v>
+      <c r="M161" t="str">
+        <v>2026-02-19T21:53:46.615Z</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>MOUZ</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7894,25 +7028,25 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>15</v>
-      </c>
-      <c r="K162" t="s">
-        <v>16</v>
+      <c r="I162" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J162" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K162" t="str">
+        <v>none</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>279</v>
+      <c r="M162" t="str">
+        <v>2026-02-19T21:53:40.004Z</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Aurora</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7935,25 +7069,25 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" t="s">
-        <v>19</v>
-      </c>
-      <c r="K163" t="s">
-        <v>16</v>
+      <c r="I163" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J163" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K163" t="str">
+        <v>none</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>281</v>
+      <c r="M163" t="str">
+        <v>2026-02-19T21:53:30.387Z</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Reason</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -7976,25 +7110,25 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="s">
-        <v>14</v>
-      </c>
-      <c r="J164" t="s">
-        <v>15</v>
-      </c>
-      <c r="K164" t="s">
-        <v>16</v>
+      <c r="I164" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J164" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K164" t="str">
+        <v>none</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>283</v>
+      <c r="M164" t="str">
+        <v>2026-02-19T21:53:23.315Z</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Legacy</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -8006,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>957.51590988244209</v>
+        <v>957.5159098824421</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -8017,26 +7151,25 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="s">
-        <v>14</v>
-      </c>
-      <c r="J165" t="s">
-        <v>28</v>
-      </c>
-      <c r="K165" t="s">
-        <v>16</v>
+      <c r="I165" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J165" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K165" t="str">
+        <v>none</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
-        <v>284</v>
+      <c r="M165" t="str">
+        <v>2026-02-19T01:45:20.251Z</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M55 A57:M84 B56:M56 A86:M165 B85:M85" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M165"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/ranking.xlsx
+++ b/file/ranking.xlsx
@@ -445,19 +445,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Eternal Fire</v>
+        <v>The MongolZ</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1088.8206315293635</v>
+        <v>1103.5396883405394</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <v>Tier 3</v>
+        <v>Tier 2</v>
       </c>
       <c r="J2" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K2" t="str">
         <v>none</v>
@@ -481,24 +481,24 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>2026-02-20T00:10:52.943Z</v>
+        <v>2026-02-28T06:37:50.179Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Nemiga</v>
+        <v>Iluminar</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1087.5987619515017</v>
+        <v>1094.220516621266</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J3" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K3" t="str">
         <v>none</v>
@@ -522,24 +522,24 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>2026-02-28T05:04:46.710Z</v>
+        <v>2026-02-28T06:37:58.230Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>The MongolZ</v>
+        <v>Liquid</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1087.529089779176</v>
+        <v>1093.7510210031935</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J4" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K4" t="str">
         <v>none</v>
@@ -563,24 +563,24 @@
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>2026-02-20T00:11:18.272Z</v>
+        <v>2026-02-28T06:37:26.757Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Vitality</v>
+        <v>Titan</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>1079.0636882193733</v>
+        <v>1090.4930427442032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J5" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K5" t="str">
         <v>none</v>
@@ -604,24 +604,24 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>2026-02-20T00:11:00.894Z</v>
+        <v>2026-02-28T06:37:39.250Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PARIVISION</v>
+        <v>Nemiga</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1079.034808827365</v>
+        <v>1088.116826268293</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -645,24 +645,24 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <v>2026-02-20T00:10:36.959Z</v>
+        <v>2026-02-28T06:38:23.828Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Natus Vincere</v>
+        <v>Eternal Fire</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1078.2122233526832</v>
+        <v>1073.614299461236</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -686,24 +686,24 @@
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>2026-02-20T00:11:07.006Z</v>
+        <v>2026-02-28T06:37:58.230Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Liquid</v>
+        <v>Elevate</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1076.9954650955813</v>
+        <v>1072.1962700599079</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -727,24 +727,24 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>2026-02-20T00:10:29.470Z</v>
+        <v>2026-02-28T06:38:40.257Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Iluminar</v>
+        <v>PARIVISION</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1076.9532123032502</v>
+        <v>1063.3157624288613</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J9" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K9" t="str">
         <v>none</v>
@@ -768,24 +768,24 @@
         <v>0</v>
       </c>
       <c r="M9" t="str">
-        <v>2026-02-20T00:11:26.413Z</v>
+        <v>2026-02-28T06:37:50.179Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Elevate</v>
+        <v>Vitality</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10">
-        <v>1072.1938472165784</v>
+        <v>1062.7199050958704</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J10" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K10" t="str">
         <v>none</v>
@@ -809,24 +809,24 @@
         <v>0</v>
       </c>
       <c r="M10" t="str">
-        <v>2026-02-28T05:06:41.425Z</v>
+        <v>2026-02-28T06:37:39.250Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Titan</v>
+        <v>Natus Vincere</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1062.0131230743004</v>
+        <v>1062.0404218180502</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J11" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K11" t="str">
         <v>none</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="str">
-        <v>2026-02-20T00:10:45.971Z</v>
+        <v>2026-02-28T06:37:26.757Z</v>
       </c>
     </row>
     <row r="12">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1059.4140646087183</v>
+        <v>1060.4876942715719</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <v>2026-02-28T05:07:16.664Z</v>
+        <v>2026-02-28T06:38:48.174Z</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>1056.4823542842507</v>
+        <v>1056.483574632495</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -932,24 +932,24 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <v>2026-02-28T05:04:56.164Z</v>
+        <v>2026-02-28T06:38:31.762Z</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Falcons</v>
+        <v>Verdant</v>
       </c>
       <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
       <c r="E14">
-        <v>1034.4424151276899</v>
+        <v>1038.7190184710753</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -973,24 +973,24 @@
         <v>0</v>
       </c>
       <c r="M14" t="str">
-        <v>2026-02-28T05:04:56.164Z</v>
+        <v>2026-02-28T06:29:24.671Z</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Spirit</v>
+        <v>Falcons</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1031.7277535025512</v>
+        <v>1034.4702257617066</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1014,24 +1014,24 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>2026-02-28T05:06:41.425Z</v>
+        <v>2026-02-28T06:38:31.762Z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Verdant</v>
+        <v>Spirit</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1026.0064397232286</v>
+        <v>1031.781510182772</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>2026-02-19T22:29:28.854Z</v>
+        <v>2026-02-28T06:38:40.257Z</v>
       </c>
     </row>
     <row r="17">
@@ -1063,7 +1063,7 @@
         <v>Cloud9</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>1019.2146486968434</v>
+        <v>1030.826148483903</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="str">
-        <v>2026-02-28T05:04:46.710Z</v>
+        <v>2026-02-28T06:38:23.828Z</v>
       </c>
     </row>
     <row r="18">
@@ -1104,7 +1104,7 @@
         <v>Onyx Ravens</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1017.9442879477463</v>
+        <v>1028.7948309045817</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>2026-02-28T05:07:16.664Z</v>
+        <v>2026-02-28T06:38:48.174Z</v>
       </c>
     </row>
     <row r="19">
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>1016.7066953804866</v>
+        <v>1017.2412711985547</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1178,24 +1178,24 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <v>2026-02-19T22:29:12.362Z</v>
+        <v>2026-02-28T06:28:59.888Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>BESTIA</v>
+        <v>The Huns</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1016.4834726488446</v>
+        <v>1015</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1219,24 +1219,24 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>2026-02-19T22:29:23.298Z</v>
+        <v>2026-02-18T21:21:06.168Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>The Huns</v>
+        <v>TYLOO</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>1015</v>
+        <v>1014.128742285643</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J21" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K21" t="str">
         <v>none</v>
@@ -1260,12 +1260,12 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
+        <v>2026-02-19T22:09:16.526Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>TYLOO</v>
+        <v>OG</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1014.128742285643</v>
+        <v>1013.5266895185538</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J22" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K22" t="str">
         <v>none</v>
@@ -1301,24 +1301,24 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>2026-02-19T22:09:16.526Z</v>
+        <v>2026-02-19T22:09:03.691Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>OG</v>
+        <v>BESTIA</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>1013.5266895185538</v>
+        <v>1005.0046329623956</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J23" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K23" t="str">
         <v>none</v>
@@ -1342,15 +1342,15 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <v>2026-02-19T22:09:03.691Z</v>
+        <v>2026-02-28T06:29:16.752Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rebels</v>
+        <v>G2</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1012.3622483710056</v>
+        <v>1002.6421965170028</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1383,12 +1383,12 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>2026-02-19T22:28:46.129Z</v>
+        <v>2026-02-28T06:28:17.433Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>G2</v>
+        <v>hoorai</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>1001.4719243188601</v>
+        <v>1000.4888979238718</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1424,24 +1424,24 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>2026-02-19T22:27:33.007Z</v>
+        <v>2026-02-28T06:28:25.661Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>hoorai</v>
+        <v>00 Nation</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1001.0605747019569</v>
+        <v>1000</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1465,12 +1465,12 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>2026-02-19T22:28:39.809Z</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>00 Nation</v>
+        <v>100 Thieves</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J27" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K27" t="str">
         <v>none</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>100 Thieves</v>
+        <v>Aether</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J28" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K28" t="str">
         <v>none</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Aether</v>
+        <v>AMKAL</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>AMKAL</v>
+        <v>Astana Dragons</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J30" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K30" t="str">
         <v>none</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Astana Dragons</v>
+        <v>Astralis Talent</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Astralis Talent</v>
+        <v>Avangar</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J32" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K32" t="str">
         <v>none</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Avangar</v>
+        <v>B8</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J33" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K33" t="str">
         <v>none</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>B8</v>
+        <v>BIG Academy</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J34" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K34" t="str">
         <v>none</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>BIG Academy</v>
+        <v>Bravado</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Bravado</v>
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J36" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K36" t="str">
         <v>none</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Copenhagen Wolves</v>
+        <v>Counter Logic Games</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J37" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K37" t="str">
         <v>none</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Counter Logic Games</v>
+        <v>ENCE Academy</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J38" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K38" t="str">
         <v>none</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>ENCE Academy</v>
+        <v>ESC</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>ESC</v>
+        <v>Flash</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Flash</v>
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>FLuffy Gangsters</v>
+        <v>FlyQuest RED</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>FlyQuest RED</v>
+        <v>Fnatic</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Fnatic</v>
+        <v>FORZE</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J44" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K44" t="str">
         <v>none</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>FORZE</v>
+        <v>Gambit</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Gambit</v>
+        <v>GATERON</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>GATERON</v>
+        <v>GhoulsW</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J47" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K47" t="str">
         <v>none</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>GhoulsW</v>
+        <v>HAVU</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>HAVU</v>
+        <v>Heroic Academy</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Heroic Academy</v>
+        <v>Hesta</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J50" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K50" t="str">
         <v>none</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Hesta</v>
+        <v>Immortals</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J51" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K51" t="str">
         <v>none</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Immortals</v>
+        <v>Into the Beach</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Into the Beach</v>
+        <v>Kinguin</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J53" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K53" t="str">
         <v>none</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Kinguin</v>
+        <v>kONO</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J54" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K54" t="str">
         <v>none</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>kONO</v>
+        <v>LGB eSports</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>LGB</v>
+        <v>MAD Lions</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>MAD Lions</v>
+        <v>MANA</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J57" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K57" t="str">
         <v>none</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>MANA</v>
+        <v>MIBR Academy</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>MIBR Academy</v>
+        <v>Misfits</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J59" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K59" t="str">
         <v>none</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Misfits</v>
+        <v>mousesports</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>mousesports</v>
+        <v>MOUZ NXT</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J61" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K61" t="str">
         <v>none</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>MOUZ NXT</v>
+        <v>Movistar KOI</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J62" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K62" t="str">
         <v>none</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Movistar KOI</v>
+        <v>NIP Impact</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J63" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K63" t="str">
         <v>none</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>NIP Impact</v>
+        <v>Nordix</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J64" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K64" t="str">
         <v>none</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Nordix</v>
+        <v>NOVAQ</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>NOVAQ</v>
+        <v>paiN Academy</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J66" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K66" t="str">
         <v>none</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>paiN Academy</v>
+        <v>QMISTRY</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J67" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K67" t="str">
         <v>none</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>QMISTRY</v>
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Quantum Bellator Fire</v>
+        <v>Rogue</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Rogue</v>
+        <v>Shika</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Shika</v>
+        <v>SKYFURY</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J71" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K71" t="str">
         <v>none</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>SKYFURY</v>
+        <v>Space Soldiers</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J72" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K72" t="str">
         <v>none</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Space Soldiers</v>
+        <v>Sprout</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Sprout</v>
+        <v>Tsunami</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J74" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K74" t="str">
         <v>none</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Tsunami</v>
+        <v>VeryGames</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J75" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K75" t="str">
         <v>none</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>VeryGames</v>
+        <v>Vox Eminor</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J76" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K76" t="str">
         <v>none</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Vox Eminor</v>
+        <v>Wildcard Academy</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J77" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K77" t="str">
         <v>none</v>
@@ -3561,19 +3561,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Wildcard Academy</v>
+        <v>Spirit Academy</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J78" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K78" t="str">
         <v>none</v>
@@ -3597,12 +3597,12 @@
         <v>0</v>
       </c>
       <c r="M78" t="str">
-        <v/>
+        <v>2026-02-19T02:49:35.870Z</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Spirit Academy</v>
+        <v>True Rippers</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -3638,12 +3638,12 @@
         <v>0</v>
       </c>
       <c r="M79" t="str">
-        <v>2026-02-19T02:49:35.870Z</v>
+        <v>2026-02-19T02:47:38.886Z</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>True Rippers</v>
+        <v>FaZe</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -3670,7 +3670,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J80" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K80" t="str">
         <v>none</v>
@@ -3679,12 +3679,12 @@
         <v>0</v>
       </c>
       <c r="M80" t="str">
-        <v>2026-02-19T02:47:38.886Z</v>
+        <v>2026-02-19T02:36:39.932Z</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>FaZe</v>
+        <v>iBUYPOWER</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3720,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <v>2026-02-19T02:36:39.932Z</v>
+        <v>2026-02-19T02:36:34.302Z</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>iBUYPOWER</v>
+        <v>GODSENT</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J82" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K82" t="str">
         <v>none</v>
@@ -3761,12 +3761,12 @@
         <v>0</v>
       </c>
       <c r="M82" t="str">
-        <v>2026-02-19T02:36:34.302Z</v>
+        <v>2026-02-19T01:39:32.364Z</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>GODSENT</v>
+        <v>M80</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3778,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>999.7251809772306</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3802,24 +3802,24 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <v>2026-02-19T01:39:32.364Z</v>
+        <v>2026-02-19T01:45:45.455Z</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>M80</v>
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>999.672340544519</v>
+        <v>999.4408194717619</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J84" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K84" t="str">
         <v>none</v>
@@ -3843,12 +3843,12 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <v>2026-02-19T01:45:45.455Z</v>
+        <v>2026-02-19T22:08:18.806Z</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Chinggis Warriors</v>
+        <v>Orbit</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E85">
-        <v>999.4408194717619</v>
+        <v>999.4186945376644</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J85" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K85" t="str">
         <v>none</v>
@@ -3884,24 +3884,24 @@
         <v>0</v>
       </c>
       <c r="M85" t="str">
-        <v>2026-02-19T22:08:18.806Z</v>
+        <v>2026-02-19T22:08:33.993Z</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Orbit</v>
+        <v>Alliance</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>999.4186945376644</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3925,12 +3925,12 @@
         <v>0</v>
       </c>
       <c r="M86" t="str">
-        <v>2026-02-19T22:08:33.993Z</v>
+        <v>2026-02-19T02:51:22.336Z</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Alliance</v>
+        <v>Homyno</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J87" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K87" t="str">
         <v>none</v>
@@ -3966,12 +3966,12 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <v>2026-02-19T02:51:22.336Z</v>
+        <v>2026-02-19T02:51:16.607Z</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Homyno</v>
+        <v>MenaceGG</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J88" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K88" t="str">
         <v>none</v>
@@ -4007,12 +4007,12 @@
         <v>0</v>
       </c>
       <c r="M88" t="str">
-        <v>2026-02-19T02:51:16.607Z</v>
+        <v>2026-02-19T02:49:44.165Z</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>MenaceGG</v>
+        <v>Solid</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4039,7 +4039,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J89" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K89" t="str">
         <v>none</v>
@@ -4048,12 +4048,12 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
-        <v>2026-02-19T02:49:44.165Z</v>
+        <v>2026-02-19T02:47:50.233Z</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Solid</v>
+        <v>ENCE</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J90" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K90" t="str">
         <v>none</v>
@@ -4089,12 +4089,12 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
-        <v>2026-02-19T02:47:50.233Z</v>
+        <v>2026-02-19T02:34:19.604Z</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>ENCE</v>
+        <v>Nexus</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4130,12 +4130,12 @@
         <v>0</v>
       </c>
       <c r="M91" t="str">
-        <v>2026-02-19T02:34:19.604Z</v>
+        <v>2026-02-19T02:34:13.227Z</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Nexus</v>
+        <v>MIBR</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4162,7 +4162,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J92" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K92" t="str">
         <v>none</v>
@@ -4171,12 +4171,12 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
-        <v>2026-02-19T02:34:13.227Z</v>
+        <v>2026-02-19T01:39:50.018Z</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MIBR</v>
+        <v>Wizards</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>999.4088515186523</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4212,24 +4212,24 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
-        <v>2026-02-19T01:39:50.018Z</v>
+        <v>2026-02-19T01:45:38.841Z</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Wizards</v>
+        <v>RED Canids</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>999.4062521695108</v>
+        <v>999.3397745397444</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4253,24 +4253,24 @@
         <v>0</v>
       </c>
       <c r="M94" t="str">
-        <v>2026-02-19T01:45:38.841Z</v>
+        <v>2026-02-19T22:08:44.661Z</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>RED Canids</v>
+        <v>Rebels</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>999.3397745397444</v>
+        <v>999.3232682842747</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J95" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K95" t="str">
         <v>none</v>
@@ -4294,24 +4294,24 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
-        <v>2026-02-19T22:08:44.661Z</v>
+        <v>2026-02-28T06:28:39.554Z</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>TALON</v>
+        <v>FURIA</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>998.2143298479792</v>
+        <v>985.3605394813516</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J96" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K96" t="str">
         <v>none</v>
@@ -4335,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="M96" t="str">
-        <v>2026-02-19T22:26:40.586Z</v>
+        <v>2026-02-19T22:08:26.017Z</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>NAVI Junior</v>
+        <v>ad hoc</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>997.4353356546483</v>
+        <v>985</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4376,24 +4376,24 @@
         <v>0</v>
       </c>
       <c r="M97" t="str">
-        <v>2026-02-19T22:26:32.431Z</v>
+        <v>2026-02-19T00:50:09.060Z</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>FURIA</v>
+        <v>SAW</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>985.3605394813516</v>
+        <v>985</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J98" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K98" t="str">
         <v>none</v>
@@ -4417,12 +4417,12 @@
         <v>0</v>
       </c>
       <c r="M98" t="str">
-        <v>2026-02-19T22:08:26.017Z</v>
+        <v>2026-02-19T00:49:47.596Z</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ad hoc</v>
+        <v>NomadS</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J99" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K99" t="str">
         <v>none</v>
@@ -4458,12 +4458,12 @@
         <v>0</v>
       </c>
       <c r="M99" t="str">
-        <v>2026-02-19T00:50:09.060Z</v>
+        <v>2026-02-19T00:49:35.489Z</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>SAW</v>
+        <v>Outsiders</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4499,12 +4499,12 @@
         <v>0</v>
       </c>
       <c r="M100" t="str">
-        <v>2026-02-19T00:49:47.596Z</v>
+        <v>2026-02-19T00:49:27.811Z</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>NomadS</v>
+        <v>Red Viperz</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J101" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K101" t="str">
         <v>none</v>
@@ -4540,12 +4540,12 @@
         <v>0</v>
       </c>
       <c r="M101" t="str">
-        <v>2026-02-19T00:49:35.489Z</v>
+        <v>2026-02-19T00:49:20.687Z</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Outsiders</v>
+        <v>The Dice</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J102" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K102" t="str">
         <v>none</v>
@@ -4581,12 +4581,12 @@
         <v>0</v>
       </c>
       <c r="M102" t="str">
-        <v>2026-02-19T00:49:27.811Z</v>
+        <v>2026-02-19T00:49:12.765Z</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Red Viperz</v>
+        <v>Victores Sumus</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J103" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K103" t="str">
         <v>none</v>
@@ -4622,12 +4622,12 @@
         <v>0</v>
       </c>
       <c r="M103" t="str">
-        <v>2026-02-19T00:49:20.687Z</v>
+        <v>2026-02-19T00:49:00.243Z</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>The Dice</v>
+        <v>ODDIK</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J104" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K104" t="str">
         <v>none</v>
@@ -4663,12 +4663,12 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
-        <v>2026-02-19T00:49:12.765Z</v>
+        <v>2026-02-19T00:48:52.026Z</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Victores Sumus</v>
+        <v>Qiang</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J105" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K105" t="str">
         <v>none</v>
@@ -4704,12 +4704,12 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
-        <v>2026-02-19T00:49:00.243Z</v>
+        <v>2026-02-19T00:48:45.055Z</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>ODDIK</v>
+        <v>inSanitY</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J106" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K106" t="str">
         <v>none</v>
@@ -4745,12 +4745,12 @@
         <v>0</v>
       </c>
       <c r="M106" t="str">
-        <v>2026-02-19T00:48:52.026Z</v>
+        <v>2026-02-19T00:48:38.129Z</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Qiang</v>
+        <v>Sangal</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J107" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K107" t="str">
         <v>none</v>
@@ -4786,12 +4786,12 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
-        <v>2026-02-19T00:48:45.055Z</v>
+        <v>2026-02-19T00:48:28.102Z</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>inSanitY</v>
+        <v>9Pandas</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J108" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K108" t="str">
         <v>none</v>
@@ -4827,12 +4827,12 @@
         <v>0</v>
       </c>
       <c r="M108" t="str">
-        <v>2026-02-19T00:48:38.129Z</v>
+        <v>2026-02-19T00:48:17.012Z</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Sangal</v>
+        <v>Gods Reign</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J109" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K109" t="str">
         <v>none</v>
@@ -4868,12 +4868,12 @@
         <v>0</v>
       </c>
       <c r="M109" t="str">
-        <v>2026-02-19T00:48:28.102Z</v>
+        <v>2026-02-19T00:48:09.473Z</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>9Pandas</v>
+        <v>CatEvil</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J110" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K110" t="str">
         <v>none</v>
@@ -4909,12 +4909,12 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <v>2026-02-19T00:48:17.012Z</v>
+        <v>2026-02-19T00:48:02.110Z</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Gods Reign</v>
+        <v>Carnival</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J111" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K111" t="str">
         <v>none</v>
@@ -4950,12 +4950,12 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <v>2026-02-19T00:48:09.473Z</v>
+        <v>2026-02-19T00:47:49.161Z</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>CatEvil</v>
+        <v>Evil Geniuses</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J112" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K112" t="str">
         <v>none</v>
@@ -4991,12 +4991,12 @@
         <v>0</v>
       </c>
       <c r="M112" t="str">
-        <v>2026-02-19T00:48:02.110Z</v>
+        <v>2026-02-19T00:47:36.482Z</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Carnival</v>
+        <v>Vantage</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5032,12 +5032,12 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
-        <v>2026-02-19T00:47:49.161Z</v>
+        <v>2026-02-19T00:47:28.286Z</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Evil Geniuses</v>
+        <v>ATOX</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5073,12 +5073,12 @@
         <v>0</v>
       </c>
       <c r="M114" t="str">
-        <v>2026-02-19T00:47:36.482Z</v>
+        <v>2026-02-19T00:47:18.470Z</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Vantage</v>
+        <v>Skinvault</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5114,12 +5114,12 @@
         <v>0</v>
       </c>
       <c r="M115" t="str">
-        <v>2026-02-19T00:47:28.286Z</v>
+        <v>2026-02-19T00:47:11.265Z</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>ATOX</v>
+        <v>BC.Game</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5155,12 +5155,12 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
-        <v>2026-02-19T00:47:18.470Z</v>
+        <v>2026-02-19T00:46:52.846Z</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Skinvault</v>
+        <v>Wings Up</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5196,12 +5196,12 @@
         <v>0</v>
       </c>
       <c r="M117" t="str">
-        <v>2026-02-19T00:47:11.265Z</v>
+        <v>2026-02-19T00:46:32.115Z</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>BC.Game</v>
+        <v>Lynn Vision</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5237,12 +5237,12 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
-        <v>2026-02-19T00:46:52.846Z</v>
+        <v>2026-02-19T00:46:08.336Z</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Wings Up</v>
+        <v>Tricked</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J119" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K119" t="str">
         <v>none</v>
@@ -5278,12 +5278,12 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
-        <v>2026-02-19T00:46:32.115Z</v>
+        <v>2026-02-19T00:45:42.234Z</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Lynn Vision</v>
+        <v>3DMAX</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J120" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K120" t="str">
         <v>none</v>
@@ -5319,12 +5319,12 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
-        <v>2026-02-19T00:46:08.336Z</v>
+        <v>2026-02-19T00:39:02.710Z</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Tricked</v>
+        <v>Venom</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J121" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K121" t="str">
         <v>none</v>
@@ -5360,12 +5360,12 @@
         <v>0</v>
       </c>
       <c r="M121" t="str">
-        <v>2026-02-19T00:45:42.234Z</v>
+        <v>2026-02-19T00:38:39.010Z</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>3DMAX</v>
+        <v>ARCRED</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J122" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K122" t="str">
         <v>none</v>
@@ -5401,12 +5401,12 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
-        <v>2026-02-19T00:39:02.710Z</v>
+        <v>2026-02-19T00:38:03.598Z</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Venom</v>
+        <v>GamerLegion</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5442,12 +5442,12 @@
         <v>0</v>
       </c>
       <c r="M123" t="str">
-        <v>2026-02-19T00:38:39.010Z</v>
+        <v>2026-02-19T00:37:47.172Z</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>ARCRED</v>
+        <v>Passion UA</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5483,12 +5483,12 @@
         <v>0</v>
       </c>
       <c r="M124" t="str">
-        <v>2026-02-19T00:38:03.598Z</v>
+        <v>2026-02-19T00:37:27.234Z</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>GamerLegion</v>
+        <v>FlyQuest</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J125" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K125" t="str">
         <v>none</v>
@@ -5524,12 +5524,12 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
-        <v>2026-02-19T00:37:47.172Z</v>
+        <v>2026-02-19T00:37:20.280Z</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Passion UA</v>
+        <v>Envy</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J126" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K126" t="str">
         <v>none</v>
@@ -5565,12 +5565,12 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
-        <v>2026-02-19T00:37:27.234Z</v>
+        <v>2026-02-19T00:37:05.560Z</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>FlyQuest</v>
+        <v>BIG</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J127" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K127" t="str">
         <v>none</v>
@@ -5606,12 +5606,12 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
-        <v>2026-02-19T00:37:20.280Z</v>
+        <v>2026-02-19T00:36:43.463Z</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Envy</v>
+        <v>Limitless</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5647,12 +5647,12 @@
         <v>0</v>
       </c>
       <c r="M128" t="str">
-        <v>2026-02-19T00:37:05.560Z</v>
+        <v>2026-02-19T00:36:26.343Z</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>BIG</v>
+        <v>Galorys</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J129" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K129" t="str">
         <v>none</v>
@@ -5688,12 +5688,12 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
-        <v>2026-02-19T00:36:43.463Z</v>
+        <v>2026-02-19T00:36:18.696Z</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Limitless</v>
+        <v>devils.one</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J130" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K130" t="str">
         <v>none</v>
@@ -5729,12 +5729,12 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
-        <v>2026-02-19T00:36:26.343Z</v>
+        <v>2026-02-18T21:23:30.347Z</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Galorys</v>
+        <v>Luminosity</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J131" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K131" t="str">
         <v>none</v>
@@ -5770,12 +5770,12 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <v>2026-02-19T00:36:18.696Z</v>
+        <v>2026-02-18T21:23:18.851Z</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>devils.one</v>
+        <v>Sharks</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J132" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K132" t="str">
         <v>none</v>
@@ -5811,12 +5811,12 @@
         <v>0</v>
       </c>
       <c r="M132" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
+        <v>2026-02-18T21:23:12.952Z</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Luminosity</v>
+        <v>IHC</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J133" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K133" t="str">
         <v>none</v>
@@ -5852,12 +5852,12 @@
         <v>0</v>
       </c>
       <c r="M133" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
+        <v>2026-02-18T21:23:06.529Z</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Sharks</v>
+        <v>Kappa Bar</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J134" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K134" t="str">
         <v>none</v>
@@ -5893,12 +5893,12 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
+        <v>2026-02-18T21:22:57.244Z</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>IHC</v>
+        <v>Complexity</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J135" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K135" t="str">
         <v>none</v>
@@ -5934,12 +5934,12 @@
         <v>0</v>
       </c>
       <c r="M135" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
+        <v>2026-02-18T21:22:48.652Z</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Kappa Bar</v>
+        <v>Case</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5975,12 +5975,12 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
+        <v>2026-02-18T21:22:39.402Z</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Complexity</v>
+        <v>Mythic</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6016,12 +6016,12 @@
         <v>0</v>
       </c>
       <c r="M137" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
+        <v>2026-02-18T21:22:32.047Z</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Case</v>
+        <v>Enemy</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6057,12 +6057,12 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
+        <v>2026-02-18T21:22:20.745Z</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Mythic</v>
+        <v>KRU</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6098,12 +6098,12 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
+        <v>2026-02-18T21:22:06.663Z</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Enemy</v>
+        <v>Imperial</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J140" t="str">
-        <v>EU</v>
+        <v>AM</v>
       </c>
       <c r="K140" t="str">
         <v>none</v>
@@ -6139,12 +6139,12 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
+        <v>2026-02-18T21:21:57.658Z</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>KRU</v>
+        <v>9z</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6180,12 +6180,12 @@
         <v>0</v>
       </c>
       <c r="M141" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
+        <v>2026-02-18T21:21:44.273Z</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Imperial</v>
+        <v>paiN</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6221,12 +6221,12 @@
         <v>0</v>
       </c>
       <c r="M142" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
+        <v>2026-02-18T21:21:14.058Z</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>9z</v>
+        <v>Vexed</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J143" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K143" t="str">
         <v>none</v>
@@ -6262,24 +6262,24 @@
         <v>0</v>
       </c>
       <c r="M143" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
+        <v>2026-02-18T21:19:58.722Z</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>paiN</v>
+        <v>Dignitas</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J144" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K144" t="str">
         <v>none</v>
@@ -6303,24 +6303,24 @@
         <v>0</v>
       </c>
       <c r="M144" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
+        <v>2026-02-19T21:54:17.535Z</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Vexed</v>
+        <v>LDLC</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6344,12 +6344,12 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
+        <v>2026-02-19T21:53:53.691Z</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dignitas</v>
+        <v>Aravt</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J146" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K146" t="str">
         <v>none</v>
@@ -6385,12 +6385,12 @@
         <v>0</v>
       </c>
       <c r="M146" t="str">
-        <v>2026-02-19T21:54:17.535Z</v>
+        <v>2026-02-19T02:51:09.872Z</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>LDLC</v>
+        <v>VP.Prodigy</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6426,12 +6426,12 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
-        <v>2026-02-19T21:53:53.691Z</v>
+        <v>2026-02-19T02:51:03.784Z</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Aravt</v>
+        <v>Entropiq</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6458,7 +6458,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J148" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K148" t="str">
         <v>none</v>
@@ -6467,12 +6467,12 @@
         <v>0</v>
       </c>
       <c r="M148" t="str">
-        <v>2026-02-19T02:51:09.872Z</v>
+        <v>2026-02-19T02:49:25.044Z</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>VP.Prodigy</v>
+        <v>Take Flyte</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6499,7 +6499,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J149" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K149" t="str">
         <v>none</v>
@@ -6508,12 +6508,12 @@
         <v>0</v>
       </c>
       <c r="M149" t="str">
-        <v>2026-02-19T02:51:03.784Z</v>
+        <v>2026-02-19T02:49:14.876Z</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Entropiq</v>
+        <v>Underground</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6540,7 +6540,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J150" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K150" t="str">
         <v>none</v>
@@ -6549,12 +6549,12 @@
         <v>0</v>
       </c>
       <c r="M150" t="str">
-        <v>2026-02-19T02:49:25.044Z</v>
+        <v>2026-02-19T02:47:27.422Z</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Take Flyte</v>
+        <v>Virtus.pro</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6581,7 +6581,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J151" t="str">
-        <v>AM</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K151" t="str">
         <v>none</v>
@@ -6590,12 +6590,12 @@
         <v>0</v>
       </c>
       <c r="M151" t="str">
-        <v>2026-02-19T02:49:14.876Z</v>
+        <v>2026-02-19T02:47:19.575Z</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Underground</v>
+        <v>ShindeN</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6622,7 +6622,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J152" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K152" t="str">
         <v>none</v>
@@ -6631,12 +6631,12 @@
         <v>0</v>
       </c>
       <c r="M152" t="str">
-        <v>2026-02-19T02:47:27.422Z</v>
+        <v>2026-02-19T02:36:26.535Z</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Virtus.pro</v>
+        <v>Permitta</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6663,7 +6663,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J153" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>EU</v>
       </c>
       <c r="K153" t="str">
         <v>none</v>
@@ -6672,12 +6672,12 @@
         <v>0</v>
       </c>
       <c r="M153" t="str">
-        <v>2026-02-19T02:47:19.575Z</v>
+        <v>2026-02-19T02:36:17.329Z</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>ShindeN</v>
+        <v>Wildcard</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J154" t="str">
-        <v>AS/SIS/ESEA</v>
+        <v>AM</v>
       </c>
       <c r="K154" t="str">
         <v>none</v>
@@ -6713,12 +6713,12 @@
         <v>0</v>
       </c>
       <c r="M154" t="str">
-        <v>2026-02-19T02:36:26.535Z</v>
+        <v>2026-02-19T02:34:08.116Z</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Permitta</v>
+        <v>Astralis</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6754,12 +6754,12 @@
         <v>0</v>
       </c>
       <c r="M155" t="str">
-        <v>2026-02-19T02:36:17.329Z</v>
+        <v>2026-02-19T02:34:01.822Z</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Wildcard</v>
+        <v>Bad News Eagles</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J156" t="str">
-        <v>AM</v>
+        <v>EU</v>
       </c>
       <c r="K156" t="str">
         <v>none</v>
@@ -6795,12 +6795,12 @@
         <v>0</v>
       </c>
       <c r="M156" t="str">
-        <v>2026-02-19T02:34:08.116Z</v>
+        <v>2026-02-19T01:45:27.335Z</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Astralis</v>
+        <v>SK</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -6827,7 +6827,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J157" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K157" t="str">
         <v>none</v>
@@ -6836,12 +6836,12 @@
         <v>0</v>
       </c>
       <c r="M157" t="str">
-        <v>2026-02-19T02:34:01.822Z</v>
+        <v>2026-02-19T01:39:18.535Z</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Bad News Eagles</v>
+        <v>ECSTATIC</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6877,24 +6877,24 @@
         <v>0</v>
       </c>
       <c r="M158" t="str">
-        <v>2026-02-19T01:45:27.335Z</v>
+        <v>2026-02-19T01:39:12.540Z</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>SK</v>
+        <v>TALON</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>984.7039370196626</v>
+        <v>983.9905713816794</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6918,24 +6918,24 @@
         <v>0</v>
       </c>
       <c r="M159" t="str">
-        <v>2026-02-19T01:39:18.535Z</v>
+        <v>2026-02-28T06:27:14.538Z</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>ECSTATIC</v>
+        <v>NAVI Junior</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>984.7039370196626</v>
+        <v>983.2698348870488</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>Tier 3</v>
       </c>
       <c r="J160" t="str">
-        <v>EU</v>
+        <v>AS/SIS/ESEA</v>
       </c>
       <c r="K160" t="str">
         <v>none</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="str">
-        <v>2026-02-19T01:39:12.540Z</v>
+        <v>2026-02-28T06:27:03.939Z</v>
       </c>
     </row>
     <row r="161">
